--- a/requirements/Requirements - conceptual mapping.xlsx
+++ b/requirements/Requirements - conceptual mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aiglesias/Documents/Conceptual-Mapping/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7485EC-6ED6-1A45-9954-34F5D248E40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D200404D-A70C-2047-853A-52EEC19FEB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33180" yWindow="-900" windowWidth="34020" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={2790E7C5-CD31-4D42-AEB7-7D65D508F38A}</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{2790E7C5-CD31-4D42-AEB7-7D65D508F38A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    put here which parts of the ontology allow expressing it?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t>Identifier</t>
   </si>
@@ -35,13 +53,166 @@
   </si>
   <si>
     <t>Extracted from</t>
+  </si>
+  <si>
+    <t>cm-r1</t>
+  </si>
+  <si>
+    <t>cm-r2</t>
+  </si>
+  <si>
+    <t>cm-r3</t>
+  </si>
+  <si>
+    <t>cm-r4</t>
+  </si>
+  <si>
+    <t>cm-r5</t>
+  </si>
+  <si>
+    <t>cm-r6</t>
+  </si>
+  <si>
+    <t>cm-r7</t>
+  </si>
+  <si>
+    <t>cm-r8</t>
+  </si>
+  <si>
+    <t>Comparison framework analysis</t>
+  </si>
+  <si>
+    <t>cm-r9</t>
+  </si>
+  <si>
+    <t>cm-r10</t>
+  </si>
+  <si>
+    <t>cm-r11</t>
+  </si>
+  <si>
+    <t>cm-r12</t>
+  </si>
+  <si>
+    <t>cm-r13</t>
+  </si>
+  <si>
+    <t>cm-r14</t>
+  </si>
+  <si>
+    <t>cm-r15</t>
+  </si>
+  <si>
+    <t>cm-r16</t>
+  </si>
+  <si>
+    <t>cm-r17</t>
+  </si>
+  <si>
+    <t>cm-r18</t>
+  </si>
+  <si>
+    <t>cm-r19</t>
+  </si>
+  <si>
+    <t>cm-r20</t>
+  </si>
+  <si>
+    <t>cm-r21</t>
+  </si>
+  <si>
+    <t>cm-r22</t>
+  </si>
+  <si>
+    <t>A data access service can specify security terms</t>
+  </si>
+  <si>
+    <t>A mapping can describe data sources retrieved synchronously, asynchronously and as streams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A data source can describe media types </t>
+  </si>
+  <si>
+    <t>A data access service can specify up to one retrieval protocol</t>
+  </si>
+  <si>
+    <t>A data source can specify the encoding</t>
+  </si>
+  <si>
+    <t>A mapping can describe metadata of the dataset/data source</t>
+  </si>
+  <si>
+    <t>A frame can describe multiple data sources with combined frames and nested frames</t>
+  </si>
+  <si>
+    <t>A source frame describes exacly one data source</t>
+  </si>
+  <si>
+    <t>A mapping specifies statement maps to declare the transformation of frames into RDF triples</t>
+  </si>
+  <si>
+    <t>A resource map can reference one or more data fields from one or more data sources</t>
+  </si>
+  <si>
+    <t>A data source can describe data source with different formats</t>
+  </si>
+  <si>
+    <t>A resource map may contain data with different levels of iteration of a source</t>
+  </si>
+  <si>
+    <t>A resource map may contain functions</t>
+  </si>
+  <si>
+    <t>A subject can only be expressed as a blank node or an IRI</t>
+  </si>
+  <si>
+    <t>A predicate can only be expressed as an IRI</t>
+  </si>
+  <si>
+    <t>An object can only be expressed as a blank node, an IRI, a literal, a container or a list</t>
+  </si>
+  <si>
+    <t>A named graph can only be expressed as an IRI or blank node</t>
+  </si>
+  <si>
+    <t>A datatype tag can only be expressed as an IRI</t>
+  </si>
+  <si>
+    <t>A language tag can only be expressed as a Literal</t>
+  </si>
+  <si>
+    <t>A statement map can describe constant and dynamic subjects, predicates, objects</t>
+  </si>
+  <si>
+    <t>A statement map can describe constant and dynamically up to 1 named graph, datatype and language tag</t>
+  </si>
+  <si>
+    <t>A statement map can be subject to a condition</t>
+  </si>
+  <si>
+    <t>cm-r23</t>
+  </si>
+  <si>
+    <t>cm-r24</t>
+  </si>
+  <si>
+    <t>cm-r25</t>
+  </si>
+  <si>
+    <t>A statement map can be linked to another statement map with none, one or several conditions</t>
+  </si>
+  <si>
+    <t>The condition to link statements may be any boolean condition</t>
+  </si>
+  <si>
+    <t>A function may have nested functions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -71,6 +242,27 @@
       <color rgb="FF000000"/>
       <name val="'Arial'"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -98,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -117,9 +309,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -140,6 +329,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -155,6 +350,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Ana Iglesias (EXT ana.iglesiasm@upm.es)" id="{89EBD43C-7C4C-3C4E-A62D-22383E47AFFE}" userId="S::ana.iglesias@external-basf.com::575ec888-e803-446e-b13c-7e7eed72cf23" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -418,16 +619,24 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C1" dT="2022-03-10T09:33:16.64" personId="{89EBD43C-7C4C-3C4E-A62D-22383E47AFFE}" id="{2790E7C5-CD31-4D42-AEB7-7D65D508F38A}">
+    <text>put here which parts of the ontology allow expressing it?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E1041"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -456,207 +665,357 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13">
-      <c r="A2" s="14"/>
-      <c r="B2" s="4"/>
+    <row r="2" spans="1:5" ht="28">
+      <c r="A2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="C2" s="5"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="13">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
+      <c r="E2" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14">
+      <c r="A3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
       <c r="C3" s="5"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="13">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
+      <c r="E3" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14">
+      <c r="A4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="C4" s="5"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="13">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
+      <c r="E4" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28">
+      <c r="A5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="C5" s="5"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" ht="13">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
+      <c r="E5" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14">
+      <c r="A6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="C6" s="5"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="13">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28">
+      <c r="A7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="C7" s="5"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="13">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
+      <c r="E7" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="29" customHeight="1">
+      <c r="A8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="C8" s="5"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="13">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
+      <c r="E8" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28">
+      <c r="A9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="C9" s="5"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="13">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
+      <c r="E9" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28">
+      <c r="A10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="13">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="13">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14">
+      <c r="A11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28">
+      <c r="A12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="C12" s="5"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="13">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="42">
+      <c r="A13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="C13" s="5"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="13">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
+      <c r="E13" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28">
+      <c r="A14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="C14" s="5"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="13">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
+      <c r="E14" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28">
+      <c r="A15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="C15" s="5"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="21" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="13"/>
+      <c r="E15" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14">
+      <c r="A16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="C16" s="5"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="13">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
+      <c r="E16" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28">
+      <c r="A17" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="C17" s="5"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="13">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
+      <c r="E17" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14">
+      <c r="A18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="C18" s="5"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" ht="13">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
+      <c r="E18" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28">
+      <c r="A19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="C19" s="5"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" ht="13">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
+      <c r="E19" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28">
+      <c r="A20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="C20" s="5"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" ht="13">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
+      <c r="E20" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14">
+      <c r="A21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="C21" s="5"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" ht="13">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
+      <c r="E21" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1">
+      <c r="A22" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="C22" s="5"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" ht="13">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
+      <c r="E22" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14">
+      <c r="A23" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="C23" s="5"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" ht="13">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
+      <c r="E23" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="29" customHeight="1">
+      <c r="A24" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="C24" s="5"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5" ht="13">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
+      <c r="E24" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28">
+      <c r="A25" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="C25" s="5"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" ht="13">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
+      <c r="E25" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14">
+      <c r="A26" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="C26" s="5"/>
-      <c r="E26" s="9"/>
+      <c r="E26" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="13">
-      <c r="A27" s="3"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="10"/>
-      <c r="E27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5" ht="13">
-      <c r="A28" s="3"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
-      <c r="E28" s="9"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5" ht="13">
-      <c r="A29" s="3"/>
-      <c r="B29" s="13"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="5"/>
-      <c r="E29" s="9"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5" ht="13">
-      <c r="A30" s="3"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
-      <c r="E30" s="9"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5" ht="13">
-      <c r="A31" s="3"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
-      <c r="E31" s="9"/>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:5" ht="13">
-      <c r="A32" s="3"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
-      <c r="E32" s="9"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" ht="13">
-      <c r="A33" s="3"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
-      <c r="E33" s="9"/>
+      <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5" ht="13">
-      <c r="A34" s="3"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5" ht="13">
       <c r="A35" s="3"/>
       <c r="B35" s="5"/>
-      <c r="E35" s="9"/>
+      <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5" ht="13">
       <c r="A36" s="3"/>
@@ -667,19 +1026,19 @@
     <row r="37" spans="1:5" ht="13">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
-      <c r="E37" s="9"/>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" ht="13">
       <c r="A38" s="3"/>
-      <c r="B38" s="11"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="5"/>
-      <c r="E38" s="9"/>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" ht="13">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
-      <c r="E39" s="9"/>
+      <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" ht="13">
       <c r="A40" s="3"/>
@@ -763,7 +1122,7 @@
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
-      <c r="D53" s="8"/>
+      <c r="D53" s="7"/>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" ht="13">
@@ -773,3957 +1132,3959 @@
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" ht="13">
-      <c r="A55" s="8"/>
+      <c r="A55" s="7"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="8"/>
+      <c r="C55" s="7"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" ht="13">
-      <c r="B56" s="12"/>
-      <c r="E56" s="12"/>
+      <c r="B56" s="11"/>
+      <c r="E56" s="11"/>
     </row>
     <row r="57" spans="1:5" ht="13">
-      <c r="B57" s="12"/>
-      <c r="E57" s="12"/>
+      <c r="B57" s="11"/>
+      <c r="E57" s="11"/>
     </row>
     <row r="58" spans="1:5" ht="13">
-      <c r="B58" s="12"/>
-      <c r="E58" s="12"/>
+      <c r="B58" s="11"/>
+      <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:5" ht="13">
-      <c r="B59" s="12"/>
-      <c r="E59" s="12"/>
+      <c r="B59" s="11"/>
+      <c r="E59" s="11"/>
     </row>
     <row r="60" spans="1:5" ht="13">
-      <c r="B60" s="12"/>
-      <c r="E60" s="12"/>
+      <c r="B60" s="11"/>
+      <c r="E60" s="11"/>
     </row>
     <row r="61" spans="1:5" ht="13">
-      <c r="B61" s="12"/>
-      <c r="E61" s="12"/>
+      <c r="B61" s="11"/>
+      <c r="E61" s="11"/>
     </row>
     <row r="62" spans="1:5" ht="13">
-      <c r="B62" s="12"/>
-      <c r="E62" s="12"/>
+      <c r="B62" s="11"/>
+      <c r="E62" s="11"/>
     </row>
     <row r="63" spans="1:5" ht="13">
-      <c r="B63" s="12"/>
-      <c r="E63" s="12"/>
+      <c r="B63" s="11"/>
+      <c r="E63" s="11"/>
     </row>
     <row r="64" spans="1:5" ht="13">
-      <c r="B64" s="12"/>
-      <c r="E64" s="12"/>
+      <c r="B64" s="11"/>
+      <c r="E64" s="11"/>
     </row>
     <row r="65" spans="2:5" ht="13">
-      <c r="B65" s="12"/>
-      <c r="E65" s="12"/>
+      <c r="B65" s="11"/>
+      <c r="E65" s="11"/>
     </row>
     <row r="66" spans="2:5" ht="13">
-      <c r="B66" s="12"/>
-      <c r="E66" s="12"/>
+      <c r="B66" s="11"/>
+      <c r="E66" s="11"/>
     </row>
     <row r="67" spans="2:5" ht="13">
-      <c r="B67" s="12"/>
-      <c r="E67" s="12"/>
+      <c r="B67" s="11"/>
+      <c r="E67" s="11"/>
     </row>
     <row r="68" spans="2:5" ht="13">
-      <c r="B68" s="12"/>
-      <c r="E68" s="12"/>
+      <c r="B68" s="11"/>
+      <c r="E68" s="11"/>
     </row>
     <row r="69" spans="2:5" ht="13">
-      <c r="B69" s="12"/>
-      <c r="E69" s="12"/>
+      <c r="B69" s="11"/>
+      <c r="E69" s="11"/>
     </row>
     <row r="70" spans="2:5" ht="13">
-      <c r="B70" s="12"/>
-      <c r="E70" s="12"/>
+      <c r="B70" s="11"/>
+      <c r="E70" s="11"/>
     </row>
     <row r="71" spans="2:5" ht="13">
-      <c r="B71" s="12"/>
-      <c r="E71" s="12"/>
+      <c r="B71" s="11"/>
+      <c r="E71" s="11"/>
     </row>
     <row r="72" spans="2:5" ht="13">
-      <c r="B72" s="12"/>
-      <c r="E72" s="12"/>
+      <c r="B72" s="11"/>
+      <c r="E72" s="11"/>
     </row>
     <row r="73" spans="2:5" ht="13">
-      <c r="B73" s="12"/>
-      <c r="E73" s="12"/>
+      <c r="B73" s="11"/>
+      <c r="E73" s="11"/>
     </row>
     <row r="74" spans="2:5" ht="13">
-      <c r="B74" s="12"/>
-      <c r="E74" s="12"/>
+      <c r="B74" s="11"/>
+      <c r="E74" s="11"/>
     </row>
     <row r="75" spans="2:5" ht="13">
-      <c r="B75" s="12"/>
-      <c r="E75" s="12"/>
+      <c r="B75" s="11"/>
+      <c r="E75" s="11"/>
     </row>
     <row r="76" spans="2:5" ht="13">
-      <c r="B76" s="12"/>
-      <c r="E76" s="12"/>
+      <c r="B76" s="11"/>
+      <c r="E76" s="11"/>
     </row>
     <row r="77" spans="2:5" ht="13">
-      <c r="B77" s="12"/>
-      <c r="E77" s="12"/>
+      <c r="B77" s="11"/>
+      <c r="E77" s="11"/>
     </row>
     <row r="78" spans="2:5" ht="13">
-      <c r="B78" s="12"/>
-      <c r="E78" s="12"/>
+      <c r="B78" s="11"/>
+      <c r="E78" s="11"/>
     </row>
     <row r="79" spans="2:5" ht="13">
-      <c r="B79" s="12"/>
-      <c r="E79" s="12"/>
+      <c r="B79" s="11"/>
+      <c r="E79" s="11"/>
     </row>
     <row r="80" spans="2:5" ht="13">
-      <c r="B80" s="12"/>
-      <c r="E80" s="12"/>
+      <c r="B80" s="11"/>
+      <c r="E80" s="11"/>
     </row>
     <row r="81" spans="2:5" ht="13">
-      <c r="B81" s="12"/>
-      <c r="E81" s="12"/>
+      <c r="B81" s="11"/>
+      <c r="E81" s="11"/>
     </row>
     <row r="82" spans="2:5" ht="13">
-      <c r="B82" s="12"/>
-      <c r="E82" s="12"/>
+      <c r="B82" s="11"/>
+      <c r="E82" s="11"/>
     </row>
     <row r="83" spans="2:5" ht="13">
-      <c r="B83" s="12"/>
-      <c r="E83" s="12"/>
+      <c r="B83" s="11"/>
+      <c r="E83" s="11"/>
     </row>
     <row r="84" spans="2:5" ht="13">
-      <c r="B84" s="12"/>
-      <c r="E84" s="12"/>
+      <c r="B84" s="11"/>
+      <c r="E84" s="11"/>
     </row>
     <row r="85" spans="2:5" ht="13">
-      <c r="B85" s="12"/>
-      <c r="E85" s="12"/>
+      <c r="B85" s="11"/>
+      <c r="E85" s="11"/>
     </row>
     <row r="86" spans="2:5" ht="13">
-      <c r="B86" s="12"/>
-      <c r="E86" s="12"/>
+      <c r="B86" s="11"/>
+      <c r="E86" s="11"/>
     </row>
     <row r="87" spans="2:5" ht="13">
-      <c r="B87" s="12"/>
-      <c r="E87" s="12"/>
+      <c r="B87" s="11"/>
+      <c r="E87" s="11"/>
     </row>
     <row r="88" spans="2:5" ht="13">
-      <c r="B88" s="12"/>
-      <c r="E88" s="12"/>
+      <c r="B88" s="11"/>
+      <c r="E88" s="11"/>
     </row>
     <row r="89" spans="2:5" ht="13">
-      <c r="B89" s="12"/>
-      <c r="E89" s="12"/>
+      <c r="B89" s="11"/>
+      <c r="E89" s="11"/>
     </row>
     <row r="90" spans="2:5" ht="13">
-      <c r="B90" s="12"/>
-      <c r="E90" s="12"/>
+      <c r="B90" s="11"/>
+      <c r="E90" s="11"/>
     </row>
     <row r="91" spans="2:5" ht="13">
-      <c r="B91" s="12"/>
-      <c r="E91" s="12"/>
+      <c r="B91" s="11"/>
+      <c r="E91" s="11"/>
     </row>
     <row r="92" spans="2:5" ht="13">
-      <c r="B92" s="12"/>
-      <c r="E92" s="12"/>
+      <c r="B92" s="11"/>
+      <c r="E92" s="11"/>
     </row>
     <row r="93" spans="2:5" ht="13">
-      <c r="B93" s="12"/>
-      <c r="E93" s="12"/>
+      <c r="B93" s="11"/>
+      <c r="E93" s="11"/>
     </row>
     <row r="94" spans="2:5" ht="13">
-      <c r="B94" s="12"/>
-      <c r="E94" s="12"/>
+      <c r="B94" s="11"/>
+      <c r="E94" s="11"/>
     </row>
     <row r="95" spans="2:5" ht="13">
-      <c r="B95" s="12"/>
-      <c r="E95" s="12"/>
+      <c r="B95" s="11"/>
+      <c r="E95" s="11"/>
     </row>
     <row r="96" spans="2:5" ht="13">
-      <c r="B96" s="12"/>
-      <c r="E96" s="12"/>
+      <c r="B96" s="11"/>
+      <c r="E96" s="11"/>
     </row>
     <row r="97" spans="2:5" ht="13">
-      <c r="B97" s="12"/>
-      <c r="E97" s="12"/>
+      <c r="B97" s="11"/>
+      <c r="E97" s="11"/>
     </row>
     <row r="98" spans="2:5" ht="13">
-      <c r="B98" s="12"/>
-      <c r="E98" s="12"/>
+      <c r="B98" s="11"/>
+      <c r="E98" s="11"/>
     </row>
     <row r="99" spans="2:5" ht="13">
-      <c r="B99" s="12"/>
-      <c r="E99" s="12"/>
+      <c r="B99" s="11"/>
+      <c r="E99" s="11"/>
     </row>
     <row r="100" spans="2:5" ht="13">
-      <c r="B100" s="12"/>
-      <c r="E100" s="12"/>
+      <c r="B100" s="11"/>
+      <c r="E100" s="11"/>
     </row>
     <row r="101" spans="2:5" ht="13">
-      <c r="B101" s="12"/>
-      <c r="E101" s="12"/>
+      <c r="B101" s="11"/>
+      <c r="E101" s="11"/>
     </row>
     <row r="102" spans="2:5" ht="13">
-      <c r="B102" s="12"/>
-      <c r="E102" s="12"/>
+      <c r="B102" s="11"/>
+      <c r="E102" s="11"/>
     </row>
     <row r="103" spans="2:5" ht="13">
-      <c r="B103" s="12"/>
-      <c r="E103" s="12"/>
+      <c r="B103" s="11"/>
+      <c r="E103" s="11"/>
     </row>
     <row r="104" spans="2:5" ht="13">
-      <c r="B104" s="12"/>
-      <c r="E104" s="12"/>
+      <c r="B104" s="11"/>
+      <c r="E104" s="11"/>
     </row>
     <row r="105" spans="2:5" ht="13">
-      <c r="B105" s="12"/>
-      <c r="E105" s="12"/>
+      <c r="B105" s="11"/>
+      <c r="E105" s="11"/>
     </row>
     <row r="106" spans="2:5" ht="13">
-      <c r="B106" s="12"/>
-      <c r="E106" s="12"/>
+      <c r="B106" s="11"/>
+      <c r="E106" s="11"/>
     </row>
     <row r="107" spans="2:5" ht="13">
-      <c r="B107" s="12"/>
-      <c r="E107" s="12"/>
+      <c r="B107" s="11"/>
+      <c r="E107" s="11"/>
     </row>
     <row r="108" spans="2:5" ht="13">
-      <c r="B108" s="12"/>
-      <c r="E108" s="12"/>
+      <c r="B108" s="11"/>
+      <c r="E108" s="11"/>
     </row>
     <row r="109" spans="2:5" ht="13">
-      <c r="B109" s="12"/>
-      <c r="E109" s="12"/>
+      <c r="B109" s="11"/>
+      <c r="E109" s="11"/>
     </row>
     <row r="110" spans="2:5" ht="13">
-      <c r="B110" s="12"/>
-      <c r="E110" s="12"/>
+      <c r="B110" s="11"/>
+      <c r="E110" s="11"/>
     </row>
     <row r="111" spans="2:5" ht="13">
-      <c r="B111" s="12"/>
-      <c r="E111" s="12"/>
+      <c r="B111" s="11"/>
+      <c r="E111" s="11"/>
     </row>
     <row r="112" spans="2:5" ht="13">
-      <c r="B112" s="12"/>
-      <c r="E112" s="12"/>
+      <c r="B112" s="11"/>
+      <c r="E112" s="11"/>
     </row>
     <row r="113" spans="2:5" ht="13">
-      <c r="B113" s="12"/>
-      <c r="E113" s="12"/>
+      <c r="B113" s="11"/>
+      <c r="E113" s="11"/>
     </row>
     <row r="114" spans="2:5" ht="13">
-      <c r="B114" s="12"/>
-      <c r="E114" s="12"/>
+      <c r="B114" s="11"/>
+      <c r="E114" s="11"/>
     </row>
     <row r="115" spans="2:5" ht="13">
-      <c r="B115" s="12"/>
-      <c r="E115" s="12"/>
+      <c r="B115" s="11"/>
+      <c r="E115" s="11"/>
     </row>
     <row r="116" spans="2:5" ht="13">
-      <c r="B116" s="12"/>
-      <c r="E116" s="12"/>
+      <c r="B116" s="11"/>
+      <c r="E116" s="11"/>
     </row>
     <row r="117" spans="2:5" ht="13">
-      <c r="B117" s="12"/>
-      <c r="E117" s="12"/>
+      <c r="B117" s="11"/>
+      <c r="E117" s="11"/>
     </row>
     <row r="118" spans="2:5" ht="13">
-      <c r="B118" s="12"/>
-      <c r="E118" s="12"/>
+      <c r="B118" s="11"/>
+      <c r="E118" s="11"/>
     </row>
     <row r="119" spans="2:5" ht="13">
-      <c r="B119" s="12"/>
-      <c r="E119" s="12"/>
+      <c r="B119" s="11"/>
+      <c r="E119" s="11"/>
     </row>
     <row r="120" spans="2:5" ht="13">
-      <c r="B120" s="12"/>
-      <c r="E120" s="12"/>
+      <c r="B120" s="11"/>
+      <c r="E120" s="11"/>
     </row>
     <row r="121" spans="2:5" ht="13">
-      <c r="B121" s="12"/>
-      <c r="E121" s="12"/>
+      <c r="B121" s="11"/>
+      <c r="E121" s="11"/>
     </row>
     <row r="122" spans="2:5" ht="13">
-      <c r="B122" s="12"/>
-      <c r="E122" s="12"/>
+      <c r="B122" s="11"/>
+      <c r="E122" s="11"/>
     </row>
     <row r="123" spans="2:5" ht="13">
-      <c r="B123" s="12"/>
-      <c r="E123" s="12"/>
+      <c r="B123" s="11"/>
+      <c r="E123" s="11"/>
     </row>
     <row r="124" spans="2:5" ht="13">
-      <c r="B124" s="12"/>
-      <c r="E124" s="12"/>
+      <c r="B124" s="11"/>
+      <c r="E124" s="11"/>
     </row>
     <row r="125" spans="2:5" ht="13">
-      <c r="B125" s="12"/>
-      <c r="E125" s="12"/>
+      <c r="B125" s="11"/>
+      <c r="E125" s="11"/>
     </row>
     <row r="126" spans="2:5" ht="13">
-      <c r="B126" s="12"/>
-      <c r="E126" s="12"/>
+      <c r="B126" s="11"/>
+      <c r="E126" s="11"/>
     </row>
     <row r="127" spans="2:5" ht="13">
-      <c r="B127" s="12"/>
-      <c r="E127" s="12"/>
+      <c r="B127" s="11"/>
+      <c r="E127" s="11"/>
     </row>
     <row r="128" spans="2:5" ht="13">
-      <c r="B128" s="12"/>
-      <c r="E128" s="12"/>
+      <c r="B128" s="11"/>
+      <c r="E128" s="11"/>
     </row>
     <row r="129" spans="2:5" ht="13">
-      <c r="B129" s="12"/>
-      <c r="E129" s="12"/>
+      <c r="B129" s="11"/>
+      <c r="E129" s="11"/>
     </row>
     <row r="130" spans="2:5" ht="13">
-      <c r="B130" s="12"/>
-      <c r="E130" s="12"/>
+      <c r="B130" s="11"/>
+      <c r="E130" s="11"/>
     </row>
     <row r="131" spans="2:5" ht="13">
-      <c r="B131" s="12"/>
-      <c r="E131" s="12"/>
+      <c r="B131" s="11"/>
+      <c r="E131" s="11"/>
     </row>
     <row r="132" spans="2:5" ht="13">
-      <c r="B132" s="12"/>
-      <c r="E132" s="12"/>
+      <c r="B132" s="11"/>
+      <c r="E132" s="11"/>
     </row>
     <row r="133" spans="2:5" ht="13">
-      <c r="B133" s="12"/>
-      <c r="E133" s="12"/>
+      <c r="B133" s="11"/>
+      <c r="E133" s="11"/>
     </row>
     <row r="134" spans="2:5" ht="13">
-      <c r="B134" s="12"/>
-      <c r="E134" s="12"/>
+      <c r="B134" s="11"/>
+      <c r="E134" s="11"/>
     </row>
     <row r="135" spans="2:5" ht="13">
-      <c r="B135" s="12"/>
-      <c r="E135" s="12"/>
+      <c r="B135" s="11"/>
+      <c r="E135" s="11"/>
     </row>
     <row r="136" spans="2:5" ht="13">
-      <c r="B136" s="12"/>
-      <c r="E136" s="12"/>
+      <c r="B136" s="11"/>
+      <c r="E136" s="11"/>
     </row>
     <row r="137" spans="2:5" ht="13">
-      <c r="B137" s="12"/>
-      <c r="E137" s="12"/>
+      <c r="B137" s="11"/>
+      <c r="E137" s="11"/>
     </row>
     <row r="138" spans="2:5" ht="13">
-      <c r="B138" s="12"/>
-      <c r="E138" s="12"/>
+      <c r="B138" s="11"/>
+      <c r="E138" s="11"/>
     </row>
     <row r="139" spans="2:5" ht="13">
-      <c r="B139" s="12"/>
-      <c r="E139" s="12"/>
+      <c r="B139" s="11"/>
+      <c r="E139" s="11"/>
     </row>
     <row r="140" spans="2:5" ht="13">
-      <c r="B140" s="12"/>
-      <c r="E140" s="12"/>
+      <c r="B140" s="11"/>
+      <c r="E140" s="11"/>
     </row>
     <row r="141" spans="2:5" ht="13">
-      <c r="B141" s="12"/>
-      <c r="E141" s="12"/>
+      <c r="B141" s="11"/>
+      <c r="E141" s="11"/>
     </row>
     <row r="142" spans="2:5" ht="13">
-      <c r="B142" s="12"/>
-      <c r="E142" s="12"/>
+      <c r="B142" s="11"/>
+      <c r="E142" s="11"/>
     </row>
     <row r="143" spans="2:5" ht="13">
-      <c r="B143" s="12"/>
-      <c r="E143" s="12"/>
+      <c r="B143" s="11"/>
+      <c r="E143" s="11"/>
     </row>
     <row r="144" spans="2:5" ht="13">
-      <c r="B144" s="12"/>
-      <c r="E144" s="12"/>
+      <c r="B144" s="11"/>
+      <c r="E144" s="11"/>
     </row>
     <row r="145" spans="2:5" ht="13">
-      <c r="B145" s="12"/>
-      <c r="E145" s="12"/>
+      <c r="B145" s="11"/>
+      <c r="E145" s="11"/>
     </row>
     <row r="146" spans="2:5" ht="13">
-      <c r="B146" s="12"/>
-      <c r="E146" s="12"/>
+      <c r="B146" s="11"/>
+      <c r="E146" s="11"/>
     </row>
     <row r="147" spans="2:5" ht="13">
-      <c r="B147" s="12"/>
-      <c r="E147" s="12"/>
+      <c r="B147" s="11"/>
+      <c r="E147" s="11"/>
     </row>
     <row r="148" spans="2:5" ht="13">
-      <c r="B148" s="12"/>
-      <c r="E148" s="12"/>
+      <c r="B148" s="11"/>
+      <c r="E148" s="11"/>
     </row>
     <row r="149" spans="2:5" ht="13">
-      <c r="B149" s="12"/>
-      <c r="E149" s="12"/>
+      <c r="B149" s="11"/>
+      <c r="E149" s="11"/>
     </row>
     <row r="150" spans="2:5" ht="13">
-      <c r="B150" s="12"/>
-      <c r="E150" s="12"/>
+      <c r="B150" s="11"/>
+      <c r="E150" s="11"/>
     </row>
     <row r="151" spans="2:5" ht="13">
-      <c r="B151" s="12"/>
-      <c r="E151" s="12"/>
+      <c r="B151" s="11"/>
+      <c r="E151" s="11"/>
     </row>
     <row r="152" spans="2:5" ht="13">
-      <c r="B152" s="12"/>
-      <c r="E152" s="12"/>
+      <c r="B152" s="11"/>
+      <c r="E152" s="11"/>
     </row>
     <row r="153" spans="2:5" ht="13">
-      <c r="B153" s="12"/>
-      <c r="E153" s="12"/>
+      <c r="B153" s="11"/>
+      <c r="E153" s="11"/>
     </row>
     <row r="154" spans="2:5" ht="13">
-      <c r="B154" s="12"/>
-      <c r="E154" s="12"/>
+      <c r="B154" s="11"/>
+      <c r="E154" s="11"/>
     </row>
     <row r="155" spans="2:5" ht="13">
-      <c r="B155" s="12"/>
-      <c r="E155" s="12"/>
+      <c r="B155" s="11"/>
+      <c r="E155" s="11"/>
     </row>
     <row r="156" spans="2:5" ht="13">
-      <c r="B156" s="12"/>
-      <c r="E156" s="12"/>
+      <c r="B156" s="11"/>
+      <c r="E156" s="11"/>
     </row>
     <row r="157" spans="2:5" ht="13">
-      <c r="B157" s="12"/>
-      <c r="E157" s="12"/>
+      <c r="B157" s="11"/>
+      <c r="E157" s="11"/>
     </row>
     <row r="158" spans="2:5" ht="13">
-      <c r="B158" s="12"/>
-      <c r="E158" s="12"/>
+      <c r="B158" s="11"/>
+      <c r="E158" s="11"/>
     </row>
     <row r="159" spans="2:5" ht="13">
-      <c r="B159" s="12"/>
-      <c r="E159" s="12"/>
+      <c r="B159" s="11"/>
+      <c r="E159" s="11"/>
     </row>
     <row r="160" spans="2:5" ht="13">
-      <c r="B160" s="12"/>
-      <c r="E160" s="12"/>
+      <c r="B160" s="11"/>
+      <c r="E160" s="11"/>
     </row>
     <row r="161" spans="2:5" ht="13">
-      <c r="B161" s="12"/>
-      <c r="E161" s="12"/>
+      <c r="B161" s="11"/>
+      <c r="E161" s="11"/>
     </row>
     <row r="162" spans="2:5" ht="13">
-      <c r="B162" s="12"/>
-      <c r="E162" s="12"/>
+      <c r="B162" s="11"/>
+      <c r="E162" s="11"/>
     </row>
     <row r="163" spans="2:5" ht="13">
-      <c r="B163" s="12"/>
-      <c r="E163" s="12"/>
+      <c r="B163" s="11"/>
+      <c r="E163" s="11"/>
     </row>
     <row r="164" spans="2:5" ht="13">
-      <c r="B164" s="12"/>
-      <c r="E164" s="12"/>
+      <c r="B164" s="11"/>
+      <c r="E164" s="11"/>
     </row>
     <row r="165" spans="2:5" ht="13">
-      <c r="B165" s="12"/>
-      <c r="E165" s="12"/>
+      <c r="B165" s="11"/>
+      <c r="E165" s="11"/>
     </row>
     <row r="166" spans="2:5" ht="13">
-      <c r="B166" s="12"/>
-      <c r="E166" s="12"/>
+      <c r="B166" s="11"/>
+      <c r="E166" s="11"/>
     </row>
     <row r="167" spans="2:5" ht="13">
-      <c r="B167" s="12"/>
-      <c r="E167" s="12"/>
+      <c r="B167" s="11"/>
+      <c r="E167" s="11"/>
     </row>
     <row r="168" spans="2:5" ht="13">
-      <c r="B168" s="12"/>
-      <c r="E168" s="12"/>
+      <c r="B168" s="11"/>
+      <c r="E168" s="11"/>
     </row>
     <row r="169" spans="2:5" ht="13">
-      <c r="B169" s="12"/>
-      <c r="E169" s="12"/>
+      <c r="B169" s="11"/>
+      <c r="E169" s="11"/>
     </row>
     <row r="170" spans="2:5" ht="13">
-      <c r="B170" s="12"/>
-      <c r="E170" s="12"/>
+      <c r="B170" s="11"/>
+      <c r="E170" s="11"/>
     </row>
     <row r="171" spans="2:5" ht="13">
-      <c r="B171" s="12"/>
-      <c r="E171" s="12"/>
+      <c r="B171" s="11"/>
+      <c r="E171" s="11"/>
     </row>
     <row r="172" spans="2:5" ht="13">
-      <c r="B172" s="12"/>
-      <c r="E172" s="12"/>
+      <c r="B172" s="11"/>
+      <c r="E172" s="11"/>
     </row>
     <row r="173" spans="2:5" ht="13">
-      <c r="B173" s="12"/>
-      <c r="E173" s="12"/>
+      <c r="B173" s="11"/>
+      <c r="E173" s="11"/>
     </row>
     <row r="174" spans="2:5" ht="13">
-      <c r="B174" s="12"/>
-      <c r="E174" s="12"/>
+      <c r="B174" s="11"/>
+      <c r="E174" s="11"/>
     </row>
     <row r="175" spans="2:5" ht="13">
-      <c r="B175" s="12"/>
-      <c r="E175" s="12"/>
+      <c r="B175" s="11"/>
+      <c r="E175" s="11"/>
     </row>
     <row r="176" spans="2:5" ht="13">
-      <c r="B176" s="12"/>
-      <c r="E176" s="12"/>
+      <c r="B176" s="11"/>
+      <c r="E176" s="11"/>
     </row>
     <row r="177" spans="2:5" ht="13">
-      <c r="B177" s="12"/>
-      <c r="E177" s="12"/>
+      <c r="B177" s="11"/>
+      <c r="E177" s="11"/>
     </row>
     <row r="178" spans="2:5" ht="13">
-      <c r="B178" s="12"/>
-      <c r="E178" s="12"/>
+      <c r="B178" s="11"/>
+      <c r="E178" s="11"/>
     </row>
     <row r="179" spans="2:5" ht="13">
-      <c r="B179" s="12"/>
-      <c r="E179" s="12"/>
+      <c r="B179" s="11"/>
+      <c r="E179" s="11"/>
     </row>
     <row r="180" spans="2:5" ht="13">
-      <c r="B180" s="12"/>
-      <c r="E180" s="12"/>
+      <c r="B180" s="11"/>
+      <c r="E180" s="11"/>
     </row>
     <row r="181" spans="2:5" ht="13">
-      <c r="B181" s="12"/>
-      <c r="E181" s="12"/>
+      <c r="B181" s="11"/>
+      <c r="E181" s="11"/>
     </row>
     <row r="182" spans="2:5" ht="13">
-      <c r="B182" s="12"/>
-      <c r="E182" s="12"/>
+      <c r="B182" s="11"/>
+      <c r="E182" s="11"/>
     </row>
     <row r="183" spans="2:5" ht="13">
-      <c r="B183" s="12"/>
-      <c r="E183" s="12"/>
+      <c r="B183" s="11"/>
+      <c r="E183" s="11"/>
     </row>
     <row r="184" spans="2:5" ht="13">
-      <c r="B184" s="12"/>
-      <c r="E184" s="12"/>
+      <c r="B184" s="11"/>
+      <c r="E184" s="11"/>
     </row>
     <row r="185" spans="2:5" ht="13">
-      <c r="B185" s="12"/>
-      <c r="E185" s="12"/>
+      <c r="B185" s="11"/>
+      <c r="E185" s="11"/>
     </row>
     <row r="186" spans="2:5" ht="13">
-      <c r="B186" s="12"/>
-      <c r="E186" s="12"/>
+      <c r="B186" s="11"/>
+      <c r="E186" s="11"/>
     </row>
     <row r="187" spans="2:5" ht="13">
-      <c r="B187" s="12"/>
-      <c r="E187" s="12"/>
+      <c r="B187" s="11"/>
+      <c r="E187" s="11"/>
     </row>
     <row r="188" spans="2:5" ht="13">
-      <c r="B188" s="12"/>
-      <c r="E188" s="12"/>
+      <c r="B188" s="11"/>
+      <c r="E188" s="11"/>
     </row>
     <row r="189" spans="2:5" ht="13">
-      <c r="B189" s="12"/>
-      <c r="E189" s="12"/>
+      <c r="B189" s="11"/>
+      <c r="E189" s="11"/>
     </row>
     <row r="190" spans="2:5" ht="13">
-      <c r="B190" s="12"/>
-      <c r="E190" s="12"/>
+      <c r="B190" s="11"/>
+      <c r="E190" s="11"/>
     </row>
     <row r="191" spans="2:5" ht="13">
-      <c r="B191" s="12"/>
-      <c r="E191" s="12"/>
+      <c r="B191" s="11"/>
+      <c r="E191" s="11"/>
     </row>
     <row r="192" spans="2:5" ht="13">
-      <c r="B192" s="12"/>
-      <c r="E192" s="12"/>
+      <c r="B192" s="11"/>
+      <c r="E192" s="11"/>
     </row>
     <row r="193" spans="2:5" ht="13">
-      <c r="B193" s="12"/>
-      <c r="E193" s="12"/>
+      <c r="B193" s="11"/>
+      <c r="E193" s="11"/>
     </row>
     <row r="194" spans="2:5" ht="13">
-      <c r="B194" s="12"/>
-      <c r="E194" s="12"/>
+      <c r="B194" s="11"/>
+      <c r="E194" s="11"/>
     </row>
     <row r="195" spans="2:5" ht="13">
-      <c r="B195" s="12"/>
-      <c r="E195" s="12"/>
+      <c r="B195" s="11"/>
+      <c r="E195" s="11"/>
     </row>
     <row r="196" spans="2:5" ht="13">
-      <c r="B196" s="12"/>
-      <c r="E196" s="12"/>
+      <c r="B196" s="11"/>
+      <c r="E196" s="11"/>
     </row>
     <row r="197" spans="2:5" ht="13">
-      <c r="B197" s="12"/>
-      <c r="E197" s="12"/>
+      <c r="B197" s="11"/>
+      <c r="E197" s="11"/>
     </row>
     <row r="198" spans="2:5" ht="13">
-      <c r="B198" s="12"/>
-      <c r="E198" s="12"/>
+      <c r="B198" s="11"/>
+      <c r="E198" s="11"/>
     </row>
     <row r="199" spans="2:5" ht="13">
-      <c r="B199" s="12"/>
-      <c r="E199" s="12"/>
+      <c r="B199" s="11"/>
+      <c r="E199" s="11"/>
     </row>
     <row r="200" spans="2:5" ht="13">
-      <c r="B200" s="12"/>
-      <c r="E200" s="12"/>
+      <c r="B200" s="11"/>
+      <c r="E200" s="11"/>
     </row>
     <row r="201" spans="2:5" ht="13">
-      <c r="B201" s="12"/>
-      <c r="E201" s="12"/>
+      <c r="B201" s="11"/>
+      <c r="E201" s="11"/>
     </row>
     <row r="202" spans="2:5" ht="13">
-      <c r="B202" s="12"/>
-      <c r="E202" s="12"/>
+      <c r="B202" s="11"/>
+      <c r="E202" s="11"/>
     </row>
     <row r="203" spans="2:5" ht="13">
-      <c r="B203" s="12"/>
-      <c r="E203" s="12"/>
+      <c r="B203" s="11"/>
+      <c r="E203" s="11"/>
     </row>
     <row r="204" spans="2:5" ht="13">
-      <c r="B204" s="12"/>
-      <c r="E204" s="12"/>
+      <c r="B204" s="11"/>
+      <c r="E204" s="11"/>
     </row>
     <row r="205" spans="2:5" ht="13">
-      <c r="B205" s="12"/>
-      <c r="E205" s="12"/>
+      <c r="B205" s="11"/>
+      <c r="E205" s="11"/>
     </row>
     <row r="206" spans="2:5" ht="13">
-      <c r="B206" s="12"/>
-      <c r="E206" s="12"/>
+      <c r="B206" s="11"/>
+      <c r="E206" s="11"/>
     </row>
     <row r="207" spans="2:5" ht="13">
-      <c r="B207" s="12"/>
-      <c r="E207" s="12"/>
+      <c r="B207" s="11"/>
+      <c r="E207" s="11"/>
     </row>
     <row r="208" spans="2:5" ht="13">
-      <c r="B208" s="12"/>
-      <c r="E208" s="12"/>
+      <c r="B208" s="11"/>
+      <c r="E208" s="11"/>
     </row>
     <row r="209" spans="2:5" ht="13">
-      <c r="B209" s="12"/>
-      <c r="E209" s="12"/>
+      <c r="B209" s="11"/>
+      <c r="E209" s="11"/>
     </row>
     <row r="210" spans="2:5" ht="13">
-      <c r="B210" s="12"/>
-      <c r="E210" s="12"/>
+      <c r="B210" s="11"/>
+      <c r="E210" s="11"/>
     </row>
     <row r="211" spans="2:5" ht="13">
-      <c r="B211" s="12"/>
-      <c r="E211" s="12"/>
+      <c r="B211" s="11"/>
+      <c r="E211" s="11"/>
     </row>
     <row r="212" spans="2:5" ht="13">
-      <c r="B212" s="12"/>
-      <c r="E212" s="12"/>
+      <c r="B212" s="11"/>
+      <c r="E212" s="11"/>
     </row>
     <row r="213" spans="2:5" ht="13">
-      <c r="B213" s="12"/>
-      <c r="E213" s="12"/>
+      <c r="B213" s="11"/>
+      <c r="E213" s="11"/>
     </row>
     <row r="214" spans="2:5" ht="13">
-      <c r="B214" s="12"/>
-      <c r="E214" s="12"/>
+      <c r="B214" s="11"/>
+      <c r="E214" s="11"/>
     </row>
     <row r="215" spans="2:5" ht="13">
-      <c r="B215" s="12"/>
-      <c r="E215" s="12"/>
+      <c r="B215" s="11"/>
+      <c r="E215" s="11"/>
     </row>
     <row r="216" spans="2:5" ht="13">
-      <c r="B216" s="12"/>
-      <c r="E216" s="12"/>
+      <c r="B216" s="11"/>
+      <c r="E216" s="11"/>
     </row>
     <row r="217" spans="2:5" ht="13">
-      <c r="B217" s="12"/>
-      <c r="E217" s="12"/>
+      <c r="B217" s="11"/>
+      <c r="E217" s="11"/>
     </row>
     <row r="218" spans="2:5" ht="13">
-      <c r="B218" s="12"/>
-      <c r="E218" s="12"/>
+      <c r="B218" s="11"/>
+      <c r="E218" s="11"/>
     </row>
     <row r="219" spans="2:5" ht="13">
-      <c r="B219" s="12"/>
-      <c r="E219" s="12"/>
+      <c r="B219" s="11"/>
+      <c r="E219" s="11"/>
     </row>
     <row r="220" spans="2:5" ht="13">
-      <c r="B220" s="12"/>
-      <c r="E220" s="12"/>
+      <c r="B220" s="11"/>
+      <c r="E220" s="11"/>
     </row>
     <row r="221" spans="2:5" ht="13">
-      <c r="B221" s="12"/>
-      <c r="E221" s="12"/>
+      <c r="B221" s="11"/>
+      <c r="E221" s="11"/>
     </row>
     <row r="222" spans="2:5" ht="13">
-      <c r="B222" s="12"/>
-      <c r="E222" s="12"/>
+      <c r="B222" s="11"/>
+      <c r="E222" s="11"/>
     </row>
     <row r="223" spans="2:5" ht="13">
-      <c r="B223" s="12"/>
-      <c r="E223" s="12"/>
+      <c r="B223" s="11"/>
+      <c r="E223" s="11"/>
     </row>
     <row r="224" spans="2:5" ht="13">
-      <c r="B224" s="12"/>
-      <c r="E224" s="12"/>
+      <c r="B224" s="11"/>
+      <c r="E224" s="11"/>
     </row>
     <row r="225" spans="2:5" ht="13">
-      <c r="B225" s="12"/>
-      <c r="E225" s="12"/>
+      <c r="B225" s="11"/>
+      <c r="E225" s="11"/>
     </row>
     <row r="226" spans="2:5" ht="13">
-      <c r="B226" s="12"/>
-      <c r="E226" s="12"/>
+      <c r="B226" s="11"/>
+      <c r="E226" s="11"/>
     </row>
     <row r="227" spans="2:5" ht="13">
-      <c r="B227" s="12"/>
-      <c r="E227" s="12"/>
+      <c r="B227" s="11"/>
+      <c r="E227" s="11"/>
     </row>
     <row r="228" spans="2:5" ht="13">
-      <c r="B228" s="12"/>
-      <c r="E228" s="12"/>
+      <c r="B228" s="11"/>
+      <c r="E228" s="11"/>
     </row>
     <row r="229" spans="2:5" ht="13">
-      <c r="B229" s="12"/>
-      <c r="E229" s="12"/>
+      <c r="B229" s="11"/>
+      <c r="E229" s="11"/>
     </row>
     <row r="230" spans="2:5" ht="13">
-      <c r="B230" s="12"/>
-      <c r="E230" s="12"/>
+      <c r="B230" s="11"/>
+      <c r="E230" s="11"/>
     </row>
     <row r="231" spans="2:5" ht="13">
-      <c r="B231" s="12"/>
-      <c r="E231" s="12"/>
+      <c r="B231" s="11"/>
+      <c r="E231" s="11"/>
     </row>
     <row r="232" spans="2:5" ht="13">
-      <c r="B232" s="12"/>
-      <c r="E232" s="12"/>
+      <c r="B232" s="11"/>
+      <c r="E232" s="11"/>
     </row>
     <row r="233" spans="2:5" ht="13">
-      <c r="B233" s="12"/>
-      <c r="E233" s="12"/>
+      <c r="B233" s="11"/>
+      <c r="E233" s="11"/>
     </row>
     <row r="234" spans="2:5" ht="13">
-      <c r="B234" s="12"/>
-      <c r="E234" s="12"/>
+      <c r="B234" s="11"/>
+      <c r="E234" s="11"/>
     </row>
     <row r="235" spans="2:5" ht="13">
-      <c r="B235" s="12"/>
-      <c r="E235" s="12"/>
+      <c r="B235" s="11"/>
+      <c r="E235" s="11"/>
     </row>
     <row r="236" spans="2:5" ht="13">
-      <c r="B236" s="12"/>
-      <c r="E236" s="12"/>
+      <c r="B236" s="11"/>
+      <c r="E236" s="11"/>
     </row>
     <row r="237" spans="2:5" ht="13">
-      <c r="B237" s="12"/>
-      <c r="E237" s="12"/>
+      <c r="B237" s="11"/>
+      <c r="E237" s="11"/>
     </row>
     <row r="238" spans="2:5" ht="13">
-      <c r="B238" s="12"/>
-      <c r="E238" s="12"/>
+      <c r="B238" s="11"/>
+      <c r="E238" s="11"/>
     </row>
     <row r="239" spans="2:5" ht="13">
-      <c r="B239" s="12"/>
-      <c r="E239" s="12"/>
+      <c r="B239" s="11"/>
+      <c r="E239" s="11"/>
     </row>
     <row r="240" spans="2:5" ht="13">
-      <c r="B240" s="12"/>
-      <c r="E240" s="12"/>
+      <c r="B240" s="11"/>
+      <c r="E240" s="11"/>
     </row>
     <row r="241" spans="2:5" ht="13">
-      <c r="B241" s="12"/>
-      <c r="E241" s="12"/>
+      <c r="B241" s="11"/>
+      <c r="E241" s="11"/>
     </row>
     <row r="242" spans="2:5" ht="13">
-      <c r="B242" s="12"/>
-      <c r="E242" s="12"/>
+      <c r="B242" s="11"/>
+      <c r="E242" s="11"/>
     </row>
     <row r="243" spans="2:5" ht="13">
-      <c r="B243" s="12"/>
-      <c r="E243" s="12"/>
+      <c r="B243" s="11"/>
+      <c r="E243" s="11"/>
     </row>
     <row r="244" spans="2:5" ht="13">
-      <c r="B244" s="12"/>
-      <c r="E244" s="12"/>
+      <c r="B244" s="11"/>
+      <c r="E244" s="11"/>
     </row>
     <row r="245" spans="2:5" ht="13">
-      <c r="B245" s="12"/>
-      <c r="E245" s="12"/>
+      <c r="B245" s="11"/>
+      <c r="E245" s="11"/>
     </row>
     <row r="246" spans="2:5" ht="13">
-      <c r="B246" s="12"/>
-      <c r="E246" s="12"/>
+      <c r="B246" s="11"/>
+      <c r="E246" s="11"/>
     </row>
     <row r="247" spans="2:5" ht="13">
-      <c r="B247" s="12"/>
-      <c r="E247" s="12"/>
+      <c r="B247" s="11"/>
+      <c r="E247" s="11"/>
     </row>
     <row r="248" spans="2:5" ht="13">
-      <c r="B248" s="12"/>
-      <c r="E248" s="12"/>
+      <c r="B248" s="11"/>
+      <c r="E248" s="11"/>
     </row>
     <row r="249" spans="2:5" ht="13">
-      <c r="B249" s="12"/>
-      <c r="E249" s="12"/>
+      <c r="B249" s="11"/>
+      <c r="E249" s="11"/>
     </row>
     <row r="250" spans="2:5" ht="13">
-      <c r="B250" s="12"/>
-      <c r="E250" s="12"/>
+      <c r="B250" s="11"/>
+      <c r="E250" s="11"/>
     </row>
     <row r="251" spans="2:5" ht="13">
-      <c r="B251" s="12"/>
-      <c r="E251" s="12"/>
+      <c r="B251" s="11"/>
+      <c r="E251" s="11"/>
     </row>
     <row r="252" spans="2:5" ht="13">
-      <c r="B252" s="12"/>
-      <c r="E252" s="12"/>
+      <c r="B252" s="11"/>
+      <c r="E252" s="11"/>
     </row>
     <row r="253" spans="2:5" ht="13">
-      <c r="B253" s="12"/>
-      <c r="E253" s="12"/>
+      <c r="B253" s="11"/>
+      <c r="E253" s="11"/>
     </row>
     <row r="254" spans="2:5" ht="13">
-      <c r="B254" s="12"/>
-      <c r="E254" s="12"/>
+      <c r="B254" s="11"/>
+      <c r="E254" s="11"/>
     </row>
     <row r="255" spans="2:5" ht="13">
-      <c r="B255" s="12"/>
-      <c r="E255" s="12"/>
+      <c r="B255" s="11"/>
+      <c r="E255" s="11"/>
     </row>
     <row r="256" spans="2:5" ht="13">
-      <c r="B256" s="12"/>
-      <c r="E256" s="12"/>
+      <c r="B256" s="11"/>
+      <c r="E256" s="11"/>
     </row>
     <row r="257" spans="2:5" ht="13">
-      <c r="B257" s="12"/>
-      <c r="E257" s="12"/>
+      <c r="B257" s="11"/>
+      <c r="E257" s="11"/>
     </row>
     <row r="258" spans="2:5" ht="13">
-      <c r="B258" s="12"/>
-      <c r="E258" s="12"/>
+      <c r="B258" s="11"/>
+      <c r="E258" s="11"/>
     </row>
     <row r="259" spans="2:5" ht="13">
-      <c r="B259" s="12"/>
-      <c r="E259" s="12"/>
+      <c r="B259" s="11"/>
+      <c r="E259" s="11"/>
     </row>
     <row r="260" spans="2:5" ht="13">
-      <c r="B260" s="12"/>
-      <c r="E260" s="12"/>
+      <c r="B260" s="11"/>
+      <c r="E260" s="11"/>
     </row>
     <row r="261" spans="2:5" ht="13">
-      <c r="B261" s="12"/>
-      <c r="E261" s="12"/>
+      <c r="B261" s="11"/>
+      <c r="E261" s="11"/>
     </row>
     <row r="262" spans="2:5" ht="13">
-      <c r="B262" s="12"/>
-      <c r="E262" s="12"/>
+      <c r="B262" s="11"/>
+      <c r="E262" s="11"/>
     </row>
     <row r="263" spans="2:5" ht="13">
-      <c r="B263" s="12"/>
-      <c r="E263" s="12"/>
+      <c r="B263" s="11"/>
+      <c r="E263" s="11"/>
     </row>
     <row r="264" spans="2:5" ht="13">
-      <c r="B264" s="12"/>
-      <c r="E264" s="12"/>
+      <c r="B264" s="11"/>
+      <c r="E264" s="11"/>
     </row>
     <row r="265" spans="2:5" ht="13">
-      <c r="B265" s="12"/>
-      <c r="E265" s="12"/>
+      <c r="B265" s="11"/>
+      <c r="E265" s="11"/>
     </row>
     <row r="266" spans="2:5" ht="13">
-      <c r="B266" s="12"/>
-      <c r="E266" s="12"/>
+      <c r="B266" s="11"/>
+      <c r="E266" s="11"/>
     </row>
     <row r="267" spans="2:5" ht="13">
-      <c r="B267" s="12"/>
-      <c r="E267" s="12"/>
+      <c r="B267" s="11"/>
+      <c r="E267" s="11"/>
     </row>
     <row r="268" spans="2:5" ht="13">
-      <c r="B268" s="12"/>
-      <c r="E268" s="12"/>
+      <c r="B268" s="11"/>
+      <c r="E268" s="11"/>
     </row>
     <row r="269" spans="2:5" ht="13">
-      <c r="B269" s="12"/>
-      <c r="E269" s="12"/>
+      <c r="B269" s="11"/>
+      <c r="E269" s="11"/>
     </row>
     <row r="270" spans="2:5" ht="13">
-      <c r="B270" s="12"/>
-      <c r="E270" s="12"/>
+      <c r="B270" s="11"/>
+      <c r="E270" s="11"/>
     </row>
     <row r="271" spans="2:5" ht="13">
-      <c r="B271" s="12"/>
-      <c r="E271" s="12"/>
+      <c r="B271" s="11"/>
+      <c r="E271" s="11"/>
     </row>
     <row r="272" spans="2:5" ht="13">
-      <c r="B272" s="12"/>
-      <c r="E272" s="12"/>
+      <c r="B272" s="11"/>
+      <c r="E272" s="11"/>
     </row>
     <row r="273" spans="2:5" ht="13">
-      <c r="B273" s="12"/>
-      <c r="E273" s="12"/>
+      <c r="B273" s="11"/>
+      <c r="E273" s="11"/>
     </row>
     <row r="274" spans="2:5" ht="13">
-      <c r="B274" s="12"/>
-      <c r="E274" s="12"/>
+      <c r="B274" s="11"/>
+      <c r="E274" s="11"/>
     </row>
     <row r="275" spans="2:5" ht="13">
-      <c r="B275" s="12"/>
-      <c r="E275" s="12"/>
+      <c r="B275" s="11"/>
+      <c r="E275" s="11"/>
     </row>
     <row r="276" spans="2:5" ht="13">
-      <c r="B276" s="12"/>
-      <c r="E276" s="12"/>
+      <c r="B276" s="11"/>
+      <c r="E276" s="11"/>
     </row>
     <row r="277" spans="2:5" ht="13">
-      <c r="B277" s="12"/>
-      <c r="E277" s="12"/>
+      <c r="B277" s="11"/>
+      <c r="E277" s="11"/>
     </row>
     <row r="278" spans="2:5" ht="13">
-      <c r="B278" s="12"/>
-      <c r="E278" s="12"/>
+      <c r="B278" s="11"/>
+      <c r="E278" s="11"/>
     </row>
     <row r="279" spans="2:5" ht="13">
-      <c r="B279" s="12"/>
-      <c r="E279" s="12"/>
+      <c r="B279" s="11"/>
+      <c r="E279" s="11"/>
     </row>
     <row r="280" spans="2:5" ht="13">
-      <c r="B280" s="12"/>
-      <c r="E280" s="12"/>
+      <c r="B280" s="11"/>
+      <c r="E280" s="11"/>
     </row>
     <row r="281" spans="2:5" ht="13">
-      <c r="B281" s="12"/>
-      <c r="E281" s="12"/>
+      <c r="B281" s="11"/>
+      <c r="E281" s="11"/>
     </row>
     <row r="282" spans="2:5" ht="13">
-      <c r="B282" s="12"/>
-      <c r="E282" s="12"/>
+      <c r="B282" s="11"/>
+      <c r="E282" s="11"/>
     </row>
     <row r="283" spans="2:5" ht="13">
-      <c r="B283" s="12"/>
-      <c r="E283" s="12"/>
+      <c r="B283" s="11"/>
+      <c r="E283" s="11"/>
     </row>
     <row r="284" spans="2:5" ht="13">
-      <c r="B284" s="12"/>
-      <c r="E284" s="12"/>
+      <c r="B284" s="11"/>
+      <c r="E284" s="11"/>
     </row>
     <row r="285" spans="2:5" ht="13">
-      <c r="B285" s="12"/>
-      <c r="E285" s="12"/>
+      <c r="B285" s="11"/>
+      <c r="E285" s="11"/>
     </row>
     <row r="286" spans="2:5" ht="13">
-      <c r="B286" s="12"/>
-      <c r="E286" s="12"/>
+      <c r="B286" s="11"/>
+      <c r="E286" s="11"/>
     </row>
     <row r="287" spans="2:5" ht="13">
-      <c r="B287" s="12"/>
-      <c r="E287" s="12"/>
+      <c r="B287" s="11"/>
+      <c r="E287" s="11"/>
     </row>
     <row r="288" spans="2:5" ht="13">
-      <c r="B288" s="12"/>
-      <c r="E288" s="12"/>
+      <c r="B288" s="11"/>
+      <c r="E288" s="11"/>
     </row>
     <row r="289" spans="2:5" ht="13">
-      <c r="B289" s="12"/>
-      <c r="E289" s="12"/>
+      <c r="B289" s="11"/>
+      <c r="E289" s="11"/>
     </row>
     <row r="290" spans="2:5" ht="13">
-      <c r="B290" s="12"/>
-      <c r="E290" s="12"/>
+      <c r="B290" s="11"/>
+      <c r="E290" s="11"/>
     </row>
     <row r="291" spans="2:5" ht="13">
-      <c r="B291" s="12"/>
-      <c r="E291" s="12"/>
+      <c r="B291" s="11"/>
+      <c r="E291" s="11"/>
     </row>
     <row r="292" spans="2:5" ht="13">
-      <c r="B292" s="12"/>
-      <c r="E292" s="12"/>
+      <c r="B292" s="11"/>
+      <c r="E292" s="11"/>
     </row>
     <row r="293" spans="2:5" ht="13">
-      <c r="B293" s="12"/>
-      <c r="E293" s="12"/>
+      <c r="B293" s="11"/>
+      <c r="E293" s="11"/>
     </row>
     <row r="294" spans="2:5" ht="13">
-      <c r="B294" s="12"/>
-      <c r="E294" s="12"/>
+      <c r="B294" s="11"/>
+      <c r="E294" s="11"/>
     </row>
     <row r="295" spans="2:5" ht="13">
-      <c r="B295" s="12"/>
-      <c r="E295" s="12"/>
+      <c r="B295" s="11"/>
+      <c r="E295" s="11"/>
     </row>
     <row r="296" spans="2:5" ht="13">
-      <c r="B296" s="12"/>
-      <c r="E296" s="12"/>
+      <c r="B296" s="11"/>
+      <c r="E296" s="11"/>
     </row>
     <row r="297" spans="2:5" ht="13">
-      <c r="B297" s="12"/>
-      <c r="E297" s="12"/>
+      <c r="B297" s="11"/>
+      <c r="E297" s="11"/>
     </row>
     <row r="298" spans="2:5" ht="13">
-      <c r="B298" s="12"/>
-      <c r="E298" s="12"/>
+      <c r="B298" s="11"/>
+      <c r="E298" s="11"/>
     </row>
     <row r="299" spans="2:5" ht="13">
-      <c r="B299" s="12"/>
-      <c r="E299" s="12"/>
+      <c r="B299" s="11"/>
+      <c r="E299" s="11"/>
     </row>
     <row r="300" spans="2:5" ht="13">
-      <c r="B300" s="12"/>
-      <c r="E300" s="12"/>
+      <c r="B300" s="11"/>
+      <c r="E300" s="11"/>
     </row>
     <row r="301" spans="2:5" ht="13">
-      <c r="B301" s="12"/>
-      <c r="E301" s="12"/>
+      <c r="B301" s="11"/>
+      <c r="E301" s="11"/>
     </row>
     <row r="302" spans="2:5" ht="13">
-      <c r="B302" s="12"/>
-      <c r="E302" s="12"/>
+      <c r="B302" s="11"/>
+      <c r="E302" s="11"/>
     </row>
     <row r="303" spans="2:5" ht="13">
-      <c r="B303" s="12"/>
-      <c r="E303" s="12"/>
+      <c r="B303" s="11"/>
+      <c r="E303" s="11"/>
     </row>
     <row r="304" spans="2:5" ht="13">
-      <c r="B304" s="12"/>
-      <c r="E304" s="12"/>
+      <c r="B304" s="11"/>
+      <c r="E304" s="11"/>
     </row>
     <row r="305" spans="2:5" ht="13">
-      <c r="B305" s="12"/>
-      <c r="E305" s="12"/>
+      <c r="B305" s="11"/>
+      <c r="E305" s="11"/>
     </row>
     <row r="306" spans="2:5" ht="13">
-      <c r="B306" s="12"/>
-      <c r="E306" s="12"/>
+      <c r="B306" s="11"/>
+      <c r="E306" s="11"/>
     </row>
     <row r="307" spans="2:5" ht="13">
-      <c r="B307" s="12"/>
-      <c r="E307" s="12"/>
+      <c r="B307" s="11"/>
+      <c r="E307" s="11"/>
     </row>
     <row r="308" spans="2:5" ht="13">
-      <c r="B308" s="12"/>
-      <c r="E308" s="12"/>
+      <c r="B308" s="11"/>
+      <c r="E308" s="11"/>
     </row>
     <row r="309" spans="2:5" ht="13">
-      <c r="B309" s="12"/>
-      <c r="E309" s="12"/>
+      <c r="B309" s="11"/>
+      <c r="E309" s="11"/>
     </row>
     <row r="310" spans="2:5" ht="13">
-      <c r="B310" s="12"/>
-      <c r="E310" s="12"/>
+      <c r="B310" s="11"/>
+      <c r="E310" s="11"/>
     </row>
     <row r="311" spans="2:5" ht="13">
-      <c r="B311" s="12"/>
-      <c r="E311" s="12"/>
+      <c r="B311" s="11"/>
+      <c r="E311" s="11"/>
     </row>
     <row r="312" spans="2:5" ht="13">
-      <c r="B312" s="12"/>
-      <c r="E312" s="12"/>
+      <c r="B312" s="11"/>
+      <c r="E312" s="11"/>
     </row>
     <row r="313" spans="2:5" ht="13">
-      <c r="B313" s="12"/>
-      <c r="E313" s="12"/>
+      <c r="B313" s="11"/>
+      <c r="E313" s="11"/>
     </row>
     <row r="314" spans="2:5" ht="13">
-      <c r="B314" s="12"/>
-      <c r="E314" s="12"/>
+      <c r="B314" s="11"/>
+      <c r="E314" s="11"/>
     </row>
     <row r="315" spans="2:5" ht="13">
-      <c r="B315" s="12"/>
-      <c r="E315" s="12"/>
+      <c r="B315" s="11"/>
+      <c r="E315" s="11"/>
     </row>
     <row r="316" spans="2:5" ht="13">
-      <c r="B316" s="12"/>
-      <c r="E316" s="12"/>
+      <c r="B316" s="11"/>
+      <c r="E316" s="11"/>
     </row>
     <row r="317" spans="2:5" ht="13">
-      <c r="B317" s="12"/>
-      <c r="E317" s="12"/>
+      <c r="B317" s="11"/>
+      <c r="E317" s="11"/>
     </row>
     <row r="318" spans="2:5" ht="13">
-      <c r="B318" s="12"/>
-      <c r="E318" s="12"/>
+      <c r="B318" s="11"/>
+      <c r="E318" s="11"/>
     </row>
     <row r="319" spans="2:5" ht="13">
-      <c r="B319" s="12"/>
-      <c r="E319" s="12"/>
+      <c r="B319" s="11"/>
+      <c r="E319" s="11"/>
     </row>
     <row r="320" spans="2:5" ht="13">
-      <c r="B320" s="12"/>
-      <c r="E320" s="12"/>
+      <c r="B320" s="11"/>
+      <c r="E320" s="11"/>
     </row>
     <row r="321" spans="2:5" ht="13">
-      <c r="B321" s="12"/>
-      <c r="E321" s="12"/>
+      <c r="B321" s="11"/>
+      <c r="E321" s="11"/>
     </row>
     <row r="322" spans="2:5" ht="13">
-      <c r="B322" s="12"/>
-      <c r="E322" s="12"/>
+      <c r="B322" s="11"/>
+      <c r="E322" s="11"/>
     </row>
     <row r="323" spans="2:5" ht="13">
-      <c r="B323" s="12"/>
-      <c r="E323" s="12"/>
+      <c r="B323" s="11"/>
+      <c r="E323" s="11"/>
     </row>
     <row r="324" spans="2:5" ht="13">
-      <c r="B324" s="12"/>
-      <c r="E324" s="12"/>
+      <c r="B324" s="11"/>
+      <c r="E324" s="11"/>
     </row>
     <row r="325" spans="2:5" ht="13">
-      <c r="B325" s="12"/>
-      <c r="E325" s="12"/>
+      <c r="B325" s="11"/>
+      <c r="E325" s="11"/>
     </row>
     <row r="326" spans="2:5" ht="13">
-      <c r="B326" s="12"/>
-      <c r="E326" s="12"/>
+      <c r="B326" s="11"/>
+      <c r="E326" s="11"/>
     </row>
     <row r="327" spans="2:5" ht="13">
-      <c r="B327" s="12"/>
-      <c r="E327" s="12"/>
+      <c r="B327" s="11"/>
+      <c r="E327" s="11"/>
     </row>
     <row r="328" spans="2:5" ht="13">
-      <c r="B328" s="12"/>
-      <c r="E328" s="12"/>
+      <c r="B328" s="11"/>
+      <c r="E328" s="11"/>
     </row>
     <row r="329" spans="2:5" ht="13">
-      <c r="B329" s="12"/>
-      <c r="E329" s="12"/>
+      <c r="B329" s="11"/>
+      <c r="E329" s="11"/>
     </row>
     <row r="330" spans="2:5" ht="13">
-      <c r="B330" s="12"/>
-      <c r="E330" s="12"/>
+      <c r="B330" s="11"/>
+      <c r="E330" s="11"/>
     </row>
     <row r="331" spans="2:5" ht="13">
-      <c r="B331" s="12"/>
-      <c r="E331" s="12"/>
+      <c r="B331" s="11"/>
+      <c r="E331" s="11"/>
     </row>
     <row r="332" spans="2:5" ht="13">
-      <c r="B332" s="12"/>
-      <c r="E332" s="12"/>
+      <c r="B332" s="11"/>
+      <c r="E332" s="11"/>
     </row>
     <row r="333" spans="2:5" ht="13">
-      <c r="B333" s="12"/>
-      <c r="E333" s="12"/>
+      <c r="B333" s="11"/>
+      <c r="E333" s="11"/>
     </row>
     <row r="334" spans="2:5" ht="13">
-      <c r="B334" s="12"/>
-      <c r="E334" s="12"/>
+      <c r="B334" s="11"/>
+      <c r="E334" s="11"/>
     </row>
     <row r="335" spans="2:5" ht="13">
-      <c r="B335" s="12"/>
-      <c r="E335" s="12"/>
+      <c r="B335" s="11"/>
+      <c r="E335" s="11"/>
     </row>
     <row r="336" spans="2:5" ht="13">
-      <c r="B336" s="12"/>
-      <c r="E336" s="12"/>
+      <c r="B336" s="11"/>
+      <c r="E336" s="11"/>
     </row>
     <row r="337" spans="2:5" ht="13">
-      <c r="B337" s="12"/>
-      <c r="E337" s="12"/>
+      <c r="B337" s="11"/>
+      <c r="E337" s="11"/>
     </row>
     <row r="338" spans="2:5" ht="13">
-      <c r="B338" s="12"/>
-      <c r="E338" s="12"/>
+      <c r="B338" s="11"/>
+      <c r="E338" s="11"/>
     </row>
     <row r="339" spans="2:5" ht="13">
-      <c r="B339" s="12"/>
-      <c r="E339" s="12"/>
+      <c r="B339" s="11"/>
+      <c r="E339" s="11"/>
     </row>
     <row r="340" spans="2:5" ht="13">
-      <c r="B340" s="12"/>
-      <c r="E340" s="12"/>
+      <c r="B340" s="11"/>
+      <c r="E340" s="11"/>
     </row>
     <row r="341" spans="2:5" ht="13">
-      <c r="B341" s="12"/>
-      <c r="E341" s="12"/>
+      <c r="B341" s="11"/>
+      <c r="E341" s="11"/>
     </row>
     <row r="342" spans="2:5" ht="13">
-      <c r="B342" s="12"/>
-      <c r="E342" s="12"/>
+      <c r="B342" s="11"/>
+      <c r="E342" s="11"/>
     </row>
     <row r="343" spans="2:5" ht="13">
-      <c r="B343" s="12"/>
-      <c r="E343" s="12"/>
+      <c r="B343" s="11"/>
+      <c r="E343" s="11"/>
     </row>
     <row r="344" spans="2:5" ht="13">
-      <c r="B344" s="12"/>
-      <c r="E344" s="12"/>
+      <c r="B344" s="11"/>
+      <c r="E344" s="11"/>
     </row>
     <row r="345" spans="2:5" ht="13">
-      <c r="B345" s="12"/>
-      <c r="E345" s="12"/>
+      <c r="B345" s="11"/>
+      <c r="E345" s="11"/>
     </row>
     <row r="346" spans="2:5" ht="13">
-      <c r="B346" s="12"/>
-      <c r="E346" s="12"/>
+      <c r="B346" s="11"/>
+      <c r="E346" s="11"/>
     </row>
     <row r="347" spans="2:5" ht="13">
-      <c r="B347" s="12"/>
-      <c r="E347" s="12"/>
+      <c r="B347" s="11"/>
+      <c r="E347" s="11"/>
     </row>
     <row r="348" spans="2:5" ht="13">
-      <c r="B348" s="12"/>
-      <c r="E348" s="12"/>
+      <c r="B348" s="11"/>
+      <c r="E348" s="11"/>
     </row>
     <row r="349" spans="2:5" ht="13">
-      <c r="B349" s="12"/>
-      <c r="E349" s="12"/>
+      <c r="B349" s="11"/>
+      <c r="E349" s="11"/>
     </row>
     <row r="350" spans="2:5" ht="13">
-      <c r="B350" s="12"/>
-      <c r="E350" s="12"/>
+      <c r="B350" s="11"/>
+      <c r="E350" s="11"/>
     </row>
     <row r="351" spans="2:5" ht="13">
-      <c r="B351" s="12"/>
-      <c r="E351" s="12"/>
+      <c r="B351" s="11"/>
+      <c r="E351" s="11"/>
     </row>
     <row r="352" spans="2:5" ht="13">
-      <c r="B352" s="12"/>
-      <c r="E352" s="12"/>
+      <c r="B352" s="11"/>
+      <c r="E352" s="11"/>
     </row>
     <row r="353" spans="2:5" ht="13">
-      <c r="B353" s="12"/>
-      <c r="E353" s="12"/>
+      <c r="B353" s="11"/>
+      <c r="E353" s="11"/>
     </row>
     <row r="354" spans="2:5" ht="13">
-      <c r="B354" s="12"/>
-      <c r="E354" s="12"/>
+      <c r="B354" s="11"/>
+      <c r="E354" s="11"/>
     </row>
     <row r="355" spans="2:5" ht="13">
-      <c r="B355" s="12"/>
-      <c r="E355" s="12"/>
+      <c r="B355" s="11"/>
+      <c r="E355" s="11"/>
     </row>
     <row r="356" spans="2:5" ht="13">
-      <c r="B356" s="12"/>
-      <c r="E356" s="12"/>
+      <c r="B356" s="11"/>
+      <c r="E356" s="11"/>
     </row>
     <row r="357" spans="2:5" ht="13">
-      <c r="B357" s="12"/>
-      <c r="E357" s="12"/>
+      <c r="B357" s="11"/>
+      <c r="E357" s="11"/>
     </row>
     <row r="358" spans="2:5" ht="13">
-      <c r="B358" s="12"/>
-      <c r="E358" s="12"/>
+      <c r="B358" s="11"/>
+      <c r="E358" s="11"/>
     </row>
     <row r="359" spans="2:5" ht="13">
-      <c r="B359" s="12"/>
-      <c r="E359" s="12"/>
+      <c r="B359" s="11"/>
+      <c r="E359" s="11"/>
     </row>
     <row r="360" spans="2:5" ht="13">
-      <c r="B360" s="12"/>
-      <c r="E360" s="12"/>
+      <c r="B360" s="11"/>
+      <c r="E360" s="11"/>
     </row>
     <row r="361" spans="2:5" ht="13">
-      <c r="B361" s="12"/>
-      <c r="E361" s="12"/>
+      <c r="B361" s="11"/>
+      <c r="E361" s="11"/>
     </row>
     <row r="362" spans="2:5" ht="13">
-      <c r="B362" s="12"/>
-      <c r="E362" s="12"/>
+      <c r="B362" s="11"/>
+      <c r="E362" s="11"/>
     </row>
     <row r="363" spans="2:5" ht="13">
-      <c r="B363" s="12"/>
-      <c r="E363" s="12"/>
+      <c r="B363" s="11"/>
+      <c r="E363" s="11"/>
     </row>
     <row r="364" spans="2:5" ht="13">
-      <c r="B364" s="12"/>
-      <c r="E364" s="12"/>
+      <c r="B364" s="11"/>
+      <c r="E364" s="11"/>
     </row>
     <row r="365" spans="2:5" ht="13">
-      <c r="B365" s="12"/>
-      <c r="E365" s="12"/>
+      <c r="B365" s="11"/>
+      <c r="E365" s="11"/>
     </row>
     <row r="366" spans="2:5" ht="13">
-      <c r="B366" s="12"/>
-      <c r="E366" s="12"/>
+      <c r="B366" s="11"/>
+      <c r="E366" s="11"/>
     </row>
     <row r="367" spans="2:5" ht="13">
-      <c r="B367" s="12"/>
-      <c r="E367" s="12"/>
+      <c r="B367" s="11"/>
+      <c r="E367" s="11"/>
     </row>
     <row r="368" spans="2:5" ht="13">
-      <c r="B368" s="12"/>
-      <c r="E368" s="12"/>
+      <c r="B368" s="11"/>
+      <c r="E368" s="11"/>
     </row>
     <row r="369" spans="2:5" ht="13">
-      <c r="B369" s="12"/>
-      <c r="E369" s="12"/>
+      <c r="B369" s="11"/>
+      <c r="E369" s="11"/>
     </row>
     <row r="370" spans="2:5" ht="13">
-      <c r="B370" s="12"/>
-      <c r="E370" s="12"/>
+      <c r="B370" s="11"/>
+      <c r="E370" s="11"/>
     </row>
     <row r="371" spans="2:5" ht="13">
-      <c r="B371" s="12"/>
-      <c r="E371" s="12"/>
+      <c r="B371" s="11"/>
+      <c r="E371" s="11"/>
     </row>
     <row r="372" spans="2:5" ht="13">
-      <c r="B372" s="12"/>
-      <c r="E372" s="12"/>
+      <c r="B372" s="11"/>
+      <c r="E372" s="11"/>
     </row>
     <row r="373" spans="2:5" ht="13">
-      <c r="B373" s="12"/>
-      <c r="E373" s="12"/>
+      <c r="B373" s="11"/>
+      <c r="E373" s="11"/>
     </row>
     <row r="374" spans="2:5" ht="13">
-      <c r="B374" s="12"/>
-      <c r="E374" s="12"/>
+      <c r="B374" s="11"/>
+      <c r="E374" s="11"/>
     </row>
     <row r="375" spans="2:5" ht="13">
-      <c r="B375" s="12"/>
-      <c r="E375" s="12"/>
+      <c r="B375" s="11"/>
+      <c r="E375" s="11"/>
     </row>
     <row r="376" spans="2:5" ht="13">
-      <c r="B376" s="12"/>
-      <c r="E376" s="12"/>
+      <c r="B376" s="11"/>
+      <c r="E376" s="11"/>
     </row>
     <row r="377" spans="2:5" ht="13">
-      <c r="B377" s="12"/>
-      <c r="E377" s="12"/>
+      <c r="B377" s="11"/>
+      <c r="E377" s="11"/>
     </row>
     <row r="378" spans="2:5" ht="13">
-      <c r="B378" s="12"/>
-      <c r="E378" s="12"/>
+      <c r="B378" s="11"/>
+      <c r="E378" s="11"/>
     </row>
     <row r="379" spans="2:5" ht="13">
-      <c r="B379" s="12"/>
-      <c r="E379" s="12"/>
+      <c r="B379" s="11"/>
+      <c r="E379" s="11"/>
     </row>
     <row r="380" spans="2:5" ht="13">
-      <c r="B380" s="12"/>
-      <c r="E380" s="12"/>
+      <c r="B380" s="11"/>
+      <c r="E380" s="11"/>
     </row>
     <row r="381" spans="2:5" ht="13">
-      <c r="B381" s="12"/>
-      <c r="E381" s="12"/>
+      <c r="B381" s="11"/>
+      <c r="E381" s="11"/>
     </row>
     <row r="382" spans="2:5" ht="13">
-      <c r="B382" s="12"/>
-      <c r="E382" s="12"/>
+      <c r="B382" s="11"/>
+      <c r="E382" s="11"/>
     </row>
     <row r="383" spans="2:5" ht="13">
-      <c r="B383" s="12"/>
-      <c r="E383" s="12"/>
+      <c r="B383" s="11"/>
+      <c r="E383" s="11"/>
     </row>
     <row r="384" spans="2:5" ht="13">
-      <c r="B384" s="12"/>
-      <c r="E384" s="12"/>
+      <c r="B384" s="11"/>
+      <c r="E384" s="11"/>
     </row>
     <row r="385" spans="2:5" ht="13">
-      <c r="B385" s="12"/>
-      <c r="E385" s="12"/>
+      <c r="B385" s="11"/>
+      <c r="E385" s="11"/>
     </row>
     <row r="386" spans="2:5" ht="13">
-      <c r="B386" s="12"/>
-      <c r="E386" s="12"/>
+      <c r="B386" s="11"/>
+      <c r="E386" s="11"/>
     </row>
     <row r="387" spans="2:5" ht="13">
-      <c r="B387" s="12"/>
-      <c r="E387" s="12"/>
+      <c r="B387" s="11"/>
+      <c r="E387" s="11"/>
     </row>
     <row r="388" spans="2:5" ht="13">
-      <c r="B388" s="12"/>
-      <c r="E388" s="12"/>
+      <c r="B388" s="11"/>
+      <c r="E388" s="11"/>
     </row>
     <row r="389" spans="2:5" ht="13">
-      <c r="B389" s="12"/>
-      <c r="E389" s="12"/>
+      <c r="B389" s="11"/>
+      <c r="E389" s="11"/>
     </row>
     <row r="390" spans="2:5" ht="13">
-      <c r="B390" s="12"/>
-      <c r="E390" s="12"/>
+      <c r="B390" s="11"/>
+      <c r="E390" s="11"/>
     </row>
     <row r="391" spans="2:5" ht="13">
-      <c r="B391" s="12"/>
-      <c r="E391" s="12"/>
+      <c r="B391" s="11"/>
+      <c r="E391" s="11"/>
     </row>
     <row r="392" spans="2:5" ht="13">
-      <c r="B392" s="12"/>
-      <c r="E392" s="12"/>
+      <c r="B392" s="11"/>
+      <c r="E392" s="11"/>
     </row>
     <row r="393" spans="2:5" ht="13">
-      <c r="B393" s="12"/>
-      <c r="E393" s="12"/>
+      <c r="B393" s="11"/>
+      <c r="E393" s="11"/>
     </row>
     <row r="394" spans="2:5" ht="13">
-      <c r="B394" s="12"/>
-      <c r="E394" s="12"/>
+      <c r="B394" s="11"/>
+      <c r="E394" s="11"/>
     </row>
     <row r="395" spans="2:5" ht="13">
-      <c r="B395" s="12"/>
-      <c r="E395" s="12"/>
+      <c r="B395" s="11"/>
+      <c r="E395" s="11"/>
     </row>
     <row r="396" spans="2:5" ht="13">
-      <c r="B396" s="12"/>
-      <c r="E396" s="12"/>
+      <c r="B396" s="11"/>
+      <c r="E396" s="11"/>
     </row>
     <row r="397" spans="2:5" ht="13">
-      <c r="B397" s="12"/>
-      <c r="E397" s="12"/>
+      <c r="B397" s="11"/>
+      <c r="E397" s="11"/>
     </row>
     <row r="398" spans="2:5" ht="13">
-      <c r="B398" s="12"/>
-      <c r="E398" s="12"/>
+      <c r="B398" s="11"/>
+      <c r="E398" s="11"/>
     </row>
     <row r="399" spans="2:5" ht="13">
-      <c r="B399" s="12"/>
-      <c r="E399" s="12"/>
+      <c r="B399" s="11"/>
+      <c r="E399" s="11"/>
     </row>
     <row r="400" spans="2:5" ht="13">
-      <c r="B400" s="12"/>
-      <c r="E400" s="12"/>
+      <c r="B400" s="11"/>
+      <c r="E400" s="11"/>
     </row>
     <row r="401" spans="2:5" ht="13">
-      <c r="B401" s="12"/>
-      <c r="E401" s="12"/>
+      <c r="B401" s="11"/>
+      <c r="E401" s="11"/>
     </row>
     <row r="402" spans="2:5" ht="13">
-      <c r="B402" s="12"/>
-      <c r="E402" s="12"/>
+      <c r="B402" s="11"/>
+      <c r="E402" s="11"/>
     </row>
     <row r="403" spans="2:5" ht="13">
-      <c r="B403" s="12"/>
-      <c r="E403" s="12"/>
+      <c r="B403" s="11"/>
+      <c r="E403" s="11"/>
     </row>
     <row r="404" spans="2:5" ht="13">
-      <c r="B404" s="12"/>
-      <c r="E404" s="12"/>
+      <c r="B404" s="11"/>
+      <c r="E404" s="11"/>
     </row>
     <row r="405" spans="2:5" ht="13">
-      <c r="B405" s="12"/>
-      <c r="E405" s="12"/>
+      <c r="B405" s="11"/>
+      <c r="E405" s="11"/>
     </row>
     <row r="406" spans="2:5" ht="13">
-      <c r="B406" s="12"/>
-      <c r="E406" s="12"/>
+      <c r="B406" s="11"/>
+      <c r="E406" s="11"/>
     </row>
     <row r="407" spans="2:5" ht="13">
-      <c r="B407" s="12"/>
-      <c r="E407" s="12"/>
+      <c r="B407" s="11"/>
+      <c r="E407" s="11"/>
     </row>
     <row r="408" spans="2:5" ht="13">
-      <c r="B408" s="12"/>
-      <c r="E408" s="12"/>
+      <c r="B408" s="11"/>
+      <c r="E408" s="11"/>
     </row>
     <row r="409" spans="2:5" ht="13">
-      <c r="B409" s="12"/>
-      <c r="E409" s="12"/>
+      <c r="B409" s="11"/>
+      <c r="E409" s="11"/>
     </row>
     <row r="410" spans="2:5" ht="13">
-      <c r="B410" s="12"/>
-      <c r="E410" s="12"/>
+      <c r="B410" s="11"/>
+      <c r="E410" s="11"/>
     </row>
     <row r="411" spans="2:5" ht="13">
-      <c r="B411" s="12"/>
-      <c r="E411" s="12"/>
+      <c r="B411" s="11"/>
+      <c r="E411" s="11"/>
     </row>
     <row r="412" spans="2:5" ht="13">
-      <c r="B412" s="12"/>
-      <c r="E412" s="12"/>
+      <c r="B412" s="11"/>
+      <c r="E412" s="11"/>
     </row>
     <row r="413" spans="2:5" ht="13">
-      <c r="B413" s="12"/>
-      <c r="E413" s="12"/>
+      <c r="B413" s="11"/>
+      <c r="E413" s="11"/>
     </row>
     <row r="414" spans="2:5" ht="13">
-      <c r="B414" s="12"/>
-      <c r="E414" s="12"/>
+      <c r="B414" s="11"/>
+      <c r="E414" s="11"/>
     </row>
     <row r="415" spans="2:5" ht="13">
-      <c r="B415" s="12"/>
-      <c r="E415" s="12"/>
+      <c r="B415" s="11"/>
+      <c r="E415" s="11"/>
     </row>
     <row r="416" spans="2:5" ht="13">
-      <c r="B416" s="12"/>
-      <c r="E416" s="12"/>
+      <c r="B416" s="11"/>
+      <c r="E416" s="11"/>
     </row>
     <row r="417" spans="2:5" ht="13">
-      <c r="B417" s="12"/>
-      <c r="E417" s="12"/>
+      <c r="B417" s="11"/>
+      <c r="E417" s="11"/>
     </row>
     <row r="418" spans="2:5" ht="13">
-      <c r="B418" s="12"/>
-      <c r="E418" s="12"/>
+      <c r="B418" s="11"/>
+      <c r="E418" s="11"/>
     </row>
     <row r="419" spans="2:5" ht="13">
-      <c r="B419" s="12"/>
-      <c r="E419" s="12"/>
+      <c r="B419" s="11"/>
+      <c r="E419" s="11"/>
     </row>
     <row r="420" spans="2:5" ht="13">
-      <c r="B420" s="12"/>
-      <c r="E420" s="12"/>
+      <c r="B420" s="11"/>
+      <c r="E420" s="11"/>
     </row>
     <row r="421" spans="2:5" ht="13">
-      <c r="B421" s="12"/>
-      <c r="E421" s="12"/>
+      <c r="B421" s="11"/>
+      <c r="E421" s="11"/>
     </row>
     <row r="422" spans="2:5" ht="13">
-      <c r="B422" s="12"/>
-      <c r="E422" s="12"/>
+      <c r="B422" s="11"/>
+      <c r="E422" s="11"/>
     </row>
     <row r="423" spans="2:5" ht="13">
-      <c r="B423" s="12"/>
-      <c r="E423" s="12"/>
+      <c r="B423" s="11"/>
+      <c r="E423" s="11"/>
     </row>
     <row r="424" spans="2:5" ht="13">
-      <c r="B424" s="12"/>
-      <c r="E424" s="12"/>
+      <c r="B424" s="11"/>
+      <c r="E424" s="11"/>
     </row>
     <row r="425" spans="2:5" ht="13">
-      <c r="B425" s="12"/>
-      <c r="E425" s="12"/>
+      <c r="B425" s="11"/>
+      <c r="E425" s="11"/>
     </row>
     <row r="426" spans="2:5" ht="13">
-      <c r="B426" s="12"/>
-      <c r="E426" s="12"/>
+      <c r="B426" s="11"/>
+      <c r="E426" s="11"/>
     </row>
     <row r="427" spans="2:5" ht="13">
-      <c r="B427" s="12"/>
-      <c r="E427" s="12"/>
+      <c r="B427" s="11"/>
+      <c r="E427" s="11"/>
     </row>
     <row r="428" spans="2:5" ht="13">
-      <c r="B428" s="12"/>
-      <c r="E428" s="12"/>
+      <c r="B428" s="11"/>
+      <c r="E428" s="11"/>
     </row>
     <row r="429" spans="2:5" ht="13">
-      <c r="B429" s="12"/>
-      <c r="E429" s="12"/>
+      <c r="B429" s="11"/>
+      <c r="E429" s="11"/>
     </row>
     <row r="430" spans="2:5" ht="13">
-      <c r="B430" s="12"/>
-      <c r="E430" s="12"/>
+      <c r="B430" s="11"/>
+      <c r="E430" s="11"/>
     </row>
     <row r="431" spans="2:5" ht="13">
-      <c r="B431" s="12"/>
-      <c r="E431" s="12"/>
+      <c r="B431" s="11"/>
+      <c r="E431" s="11"/>
     </row>
     <row r="432" spans="2:5" ht="13">
-      <c r="B432" s="12"/>
-      <c r="E432" s="12"/>
+      <c r="B432" s="11"/>
+      <c r="E432" s="11"/>
     </row>
     <row r="433" spans="2:5" ht="13">
-      <c r="B433" s="12"/>
-      <c r="E433" s="12"/>
+      <c r="B433" s="11"/>
+      <c r="E433" s="11"/>
     </row>
     <row r="434" spans="2:5" ht="13">
-      <c r="B434" s="12"/>
-      <c r="E434" s="12"/>
+      <c r="B434" s="11"/>
+      <c r="E434" s="11"/>
     </row>
     <row r="435" spans="2:5" ht="13">
-      <c r="B435" s="12"/>
-      <c r="E435" s="12"/>
+      <c r="B435" s="11"/>
+      <c r="E435" s="11"/>
     </row>
     <row r="436" spans="2:5" ht="13">
-      <c r="B436" s="12"/>
-      <c r="E436" s="12"/>
+      <c r="B436" s="11"/>
+      <c r="E436" s="11"/>
     </row>
     <row r="437" spans="2:5" ht="13">
-      <c r="B437" s="12"/>
-      <c r="E437" s="12"/>
+      <c r="B437" s="11"/>
+      <c r="E437" s="11"/>
     </row>
     <row r="438" spans="2:5" ht="13">
-      <c r="B438" s="12"/>
-      <c r="E438" s="12"/>
+      <c r="B438" s="11"/>
+      <c r="E438" s="11"/>
     </row>
     <row r="439" spans="2:5" ht="13">
-      <c r="B439" s="12"/>
-      <c r="E439" s="12"/>
+      <c r="B439" s="11"/>
+      <c r="E439" s="11"/>
     </row>
     <row r="440" spans="2:5" ht="13">
-      <c r="B440" s="12"/>
-      <c r="E440" s="12"/>
+      <c r="B440" s="11"/>
+      <c r="E440" s="11"/>
     </row>
     <row r="441" spans="2:5" ht="13">
-      <c r="B441" s="12"/>
-      <c r="E441" s="12"/>
+      <c r="B441" s="11"/>
+      <c r="E441" s="11"/>
     </row>
     <row r="442" spans="2:5" ht="13">
-      <c r="B442" s="12"/>
-      <c r="E442" s="12"/>
+      <c r="B442" s="11"/>
+      <c r="E442" s="11"/>
     </row>
     <row r="443" spans="2:5" ht="13">
-      <c r="B443" s="12"/>
-      <c r="E443" s="12"/>
+      <c r="B443" s="11"/>
+      <c r="E443" s="11"/>
     </row>
     <row r="444" spans="2:5" ht="13">
-      <c r="B444" s="12"/>
-      <c r="E444" s="12"/>
+      <c r="B444" s="11"/>
+      <c r="E444" s="11"/>
     </row>
     <row r="445" spans="2:5" ht="13">
-      <c r="B445" s="12"/>
-      <c r="E445" s="12"/>
+      <c r="B445" s="11"/>
+      <c r="E445" s="11"/>
     </row>
     <row r="446" spans="2:5" ht="13">
-      <c r="B446" s="12"/>
-      <c r="E446" s="12"/>
+      <c r="B446" s="11"/>
+      <c r="E446" s="11"/>
     </row>
     <row r="447" spans="2:5" ht="13">
-      <c r="B447" s="12"/>
-      <c r="E447" s="12"/>
+      <c r="B447" s="11"/>
+      <c r="E447" s="11"/>
     </row>
     <row r="448" spans="2:5" ht="13">
-      <c r="B448" s="12"/>
-      <c r="E448" s="12"/>
+      <c r="B448" s="11"/>
+      <c r="E448" s="11"/>
     </row>
     <row r="449" spans="2:5" ht="13">
-      <c r="B449" s="12"/>
-      <c r="E449" s="12"/>
+      <c r="B449" s="11"/>
+      <c r="E449" s="11"/>
     </row>
     <row r="450" spans="2:5" ht="13">
-      <c r="B450" s="12"/>
-      <c r="E450" s="12"/>
+      <c r="B450" s="11"/>
+      <c r="E450" s="11"/>
     </row>
     <row r="451" spans="2:5" ht="13">
-      <c r="B451" s="12"/>
-      <c r="E451" s="12"/>
+      <c r="B451" s="11"/>
+      <c r="E451" s="11"/>
     </row>
     <row r="452" spans="2:5" ht="13">
-      <c r="B452" s="12"/>
-      <c r="E452" s="12"/>
+      <c r="B452" s="11"/>
+      <c r="E452" s="11"/>
     </row>
     <row r="453" spans="2:5" ht="13">
-      <c r="B453" s="12"/>
-      <c r="E453" s="12"/>
+      <c r="B453" s="11"/>
+      <c r="E453" s="11"/>
     </row>
     <row r="454" spans="2:5" ht="13">
-      <c r="B454" s="12"/>
-      <c r="E454" s="12"/>
+      <c r="B454" s="11"/>
+      <c r="E454" s="11"/>
     </row>
     <row r="455" spans="2:5" ht="13">
-      <c r="B455" s="12"/>
-      <c r="E455" s="12"/>
+      <c r="B455" s="11"/>
+      <c r="E455" s="11"/>
     </row>
     <row r="456" spans="2:5" ht="13">
-      <c r="B456" s="12"/>
-      <c r="E456" s="12"/>
+      <c r="B456" s="11"/>
+      <c r="E456" s="11"/>
     </row>
     <row r="457" spans="2:5" ht="13">
-      <c r="B457" s="12"/>
-      <c r="E457" s="12"/>
+      <c r="B457" s="11"/>
+      <c r="E457" s="11"/>
     </row>
     <row r="458" spans="2:5" ht="13">
-      <c r="B458" s="12"/>
-      <c r="E458" s="12"/>
+      <c r="B458" s="11"/>
+      <c r="E458" s="11"/>
     </row>
     <row r="459" spans="2:5" ht="13">
-      <c r="B459" s="12"/>
-      <c r="E459" s="12"/>
+      <c r="B459" s="11"/>
+      <c r="E459" s="11"/>
     </row>
     <row r="460" spans="2:5" ht="13">
-      <c r="B460" s="12"/>
-      <c r="E460" s="12"/>
+      <c r="B460" s="11"/>
+      <c r="E460" s="11"/>
     </row>
     <row r="461" spans="2:5" ht="13">
-      <c r="B461" s="12"/>
-      <c r="E461" s="12"/>
+      <c r="B461" s="11"/>
+      <c r="E461" s="11"/>
     </row>
     <row r="462" spans="2:5" ht="13">
-      <c r="B462" s="12"/>
-      <c r="E462" s="12"/>
+      <c r="B462" s="11"/>
+      <c r="E462" s="11"/>
     </row>
     <row r="463" spans="2:5" ht="13">
-      <c r="B463" s="12"/>
-      <c r="E463" s="12"/>
+      <c r="B463" s="11"/>
+      <c r="E463" s="11"/>
     </row>
     <row r="464" spans="2:5" ht="13">
-      <c r="B464" s="12"/>
-      <c r="E464" s="12"/>
+      <c r="B464" s="11"/>
+      <c r="E464" s="11"/>
     </row>
     <row r="465" spans="2:5" ht="13">
-      <c r="B465" s="12"/>
-      <c r="E465" s="12"/>
+      <c r="B465" s="11"/>
+      <c r="E465" s="11"/>
     </row>
     <row r="466" spans="2:5" ht="13">
-      <c r="B466" s="12"/>
-      <c r="E466" s="12"/>
+      <c r="B466" s="11"/>
+      <c r="E466" s="11"/>
     </row>
     <row r="467" spans="2:5" ht="13">
-      <c r="B467" s="12"/>
-      <c r="E467" s="12"/>
+      <c r="B467" s="11"/>
+      <c r="E467" s="11"/>
     </row>
     <row r="468" spans="2:5" ht="13">
-      <c r="B468" s="12"/>
-      <c r="E468" s="12"/>
+      <c r="B468" s="11"/>
+      <c r="E468" s="11"/>
     </row>
     <row r="469" spans="2:5" ht="13">
-      <c r="B469" s="12"/>
-      <c r="E469" s="12"/>
+      <c r="B469" s="11"/>
+      <c r="E469" s="11"/>
     </row>
     <row r="470" spans="2:5" ht="13">
-      <c r="B470" s="12"/>
-      <c r="E470" s="12"/>
+      <c r="B470" s="11"/>
+      <c r="E470" s="11"/>
     </row>
     <row r="471" spans="2:5" ht="13">
-      <c r="B471" s="12"/>
-      <c r="E471" s="12"/>
+      <c r="B471" s="11"/>
+      <c r="E471" s="11"/>
     </row>
     <row r="472" spans="2:5" ht="13">
-      <c r="B472" s="12"/>
-      <c r="E472" s="12"/>
+      <c r="B472" s="11"/>
+      <c r="E472" s="11"/>
     </row>
     <row r="473" spans="2:5" ht="13">
-      <c r="B473" s="12"/>
-      <c r="E473" s="12"/>
+      <c r="B473" s="11"/>
+      <c r="E473" s="11"/>
     </row>
     <row r="474" spans="2:5" ht="13">
-      <c r="B474" s="12"/>
-      <c r="E474" s="12"/>
+      <c r="B474" s="11"/>
+      <c r="E474" s="11"/>
     </row>
     <row r="475" spans="2:5" ht="13">
-      <c r="B475" s="12"/>
-      <c r="E475" s="12"/>
+      <c r="B475" s="11"/>
+      <c r="E475" s="11"/>
     </row>
     <row r="476" spans="2:5" ht="13">
-      <c r="B476" s="12"/>
-      <c r="E476" s="12"/>
+      <c r="B476" s="11"/>
+      <c r="E476" s="11"/>
     </row>
     <row r="477" spans="2:5" ht="13">
-      <c r="B477" s="12"/>
-      <c r="E477" s="12"/>
+      <c r="B477" s="11"/>
+      <c r="E477" s="11"/>
     </row>
     <row r="478" spans="2:5" ht="13">
-      <c r="B478" s="12"/>
-      <c r="E478" s="12"/>
+      <c r="B478" s="11"/>
+      <c r="E478" s="11"/>
     </row>
     <row r="479" spans="2:5" ht="13">
-      <c r="B479" s="12"/>
-      <c r="E479" s="12"/>
+      <c r="B479" s="11"/>
+      <c r="E479" s="11"/>
     </row>
     <row r="480" spans="2:5" ht="13">
-      <c r="B480" s="12"/>
-      <c r="E480" s="12"/>
+      <c r="B480" s="11"/>
+      <c r="E480" s="11"/>
     </row>
     <row r="481" spans="2:5" ht="13">
-      <c r="B481" s="12"/>
-      <c r="E481" s="12"/>
+      <c r="B481" s="11"/>
+      <c r="E481" s="11"/>
     </row>
     <row r="482" spans="2:5" ht="13">
-      <c r="B482" s="12"/>
-      <c r="E482" s="12"/>
+      <c r="B482" s="11"/>
+      <c r="E482" s="11"/>
     </row>
     <row r="483" spans="2:5" ht="13">
-      <c r="B483" s="12"/>
-      <c r="E483" s="12"/>
+      <c r="B483" s="11"/>
+      <c r="E483" s="11"/>
     </row>
     <row r="484" spans="2:5" ht="13">
-      <c r="B484" s="12"/>
-      <c r="E484" s="12"/>
+      <c r="B484" s="11"/>
+      <c r="E484" s="11"/>
     </row>
     <row r="485" spans="2:5" ht="13">
-      <c r="B485" s="12"/>
-      <c r="E485" s="12"/>
+      <c r="B485" s="11"/>
+      <c r="E485" s="11"/>
     </row>
     <row r="486" spans="2:5" ht="13">
-      <c r="B486" s="12"/>
-      <c r="E486" s="12"/>
+      <c r="B486" s="11"/>
+      <c r="E486" s="11"/>
     </row>
     <row r="487" spans="2:5" ht="13">
-      <c r="B487" s="12"/>
-      <c r="E487" s="12"/>
+      <c r="B487" s="11"/>
+      <c r="E487" s="11"/>
     </row>
     <row r="488" spans="2:5" ht="13">
-      <c r="B488" s="12"/>
-      <c r="E488" s="12"/>
+      <c r="B488" s="11"/>
+      <c r="E488" s="11"/>
     </row>
     <row r="489" spans="2:5" ht="13">
-      <c r="B489" s="12"/>
-      <c r="E489" s="12"/>
+      <c r="B489" s="11"/>
+      <c r="E489" s="11"/>
     </row>
     <row r="490" spans="2:5" ht="13">
-      <c r="B490" s="12"/>
-      <c r="E490" s="12"/>
+      <c r="B490" s="11"/>
+      <c r="E490" s="11"/>
     </row>
     <row r="491" spans="2:5" ht="13">
-      <c r="B491" s="12"/>
-      <c r="E491" s="12"/>
+      <c r="B491" s="11"/>
+      <c r="E491" s="11"/>
     </row>
     <row r="492" spans="2:5" ht="13">
-      <c r="B492" s="12"/>
-      <c r="E492" s="12"/>
+      <c r="B492" s="11"/>
+      <c r="E492" s="11"/>
     </row>
     <row r="493" spans="2:5" ht="13">
-      <c r="B493" s="12"/>
-      <c r="E493" s="12"/>
+      <c r="B493" s="11"/>
+      <c r="E493" s="11"/>
     </row>
     <row r="494" spans="2:5" ht="13">
-      <c r="B494" s="12"/>
-      <c r="E494" s="12"/>
+      <c r="B494" s="11"/>
+      <c r="E494" s="11"/>
     </row>
     <row r="495" spans="2:5" ht="13">
-      <c r="B495" s="12"/>
-      <c r="E495" s="12"/>
+      <c r="B495" s="11"/>
+      <c r="E495" s="11"/>
     </row>
     <row r="496" spans="2:5" ht="13">
-      <c r="B496" s="12"/>
-      <c r="E496" s="12"/>
+      <c r="B496" s="11"/>
+      <c r="E496" s="11"/>
     </row>
     <row r="497" spans="2:5" ht="13">
-      <c r="B497" s="12"/>
-      <c r="E497" s="12"/>
+      <c r="B497" s="11"/>
+      <c r="E497" s="11"/>
     </row>
     <row r="498" spans="2:5" ht="13">
-      <c r="B498" s="12"/>
-      <c r="E498" s="12"/>
+      <c r="B498" s="11"/>
+      <c r="E498" s="11"/>
     </row>
     <row r="499" spans="2:5" ht="13">
-      <c r="B499" s="12"/>
-      <c r="E499" s="12"/>
+      <c r="B499" s="11"/>
+      <c r="E499" s="11"/>
     </row>
     <row r="500" spans="2:5" ht="13">
-      <c r="B500" s="12"/>
-      <c r="E500" s="12"/>
+      <c r="B500" s="11"/>
+      <c r="E500" s="11"/>
     </row>
     <row r="501" spans="2:5" ht="13">
-      <c r="B501" s="12"/>
-      <c r="E501" s="12"/>
+      <c r="B501" s="11"/>
+      <c r="E501" s="11"/>
     </row>
     <row r="502" spans="2:5" ht="13">
-      <c r="B502" s="12"/>
-      <c r="E502" s="12"/>
+      <c r="B502" s="11"/>
+      <c r="E502" s="11"/>
     </row>
     <row r="503" spans="2:5" ht="13">
-      <c r="B503" s="12"/>
-      <c r="E503" s="12"/>
+      <c r="B503" s="11"/>
+      <c r="E503" s="11"/>
     </row>
     <row r="504" spans="2:5" ht="13">
-      <c r="B504" s="12"/>
-      <c r="E504" s="12"/>
+      <c r="B504" s="11"/>
+      <c r="E504" s="11"/>
     </row>
     <row r="505" spans="2:5" ht="13">
-      <c r="B505" s="12"/>
-      <c r="E505" s="12"/>
+      <c r="B505" s="11"/>
+      <c r="E505" s="11"/>
     </row>
     <row r="506" spans="2:5" ht="13">
-      <c r="B506" s="12"/>
-      <c r="E506" s="12"/>
+      <c r="B506" s="11"/>
+      <c r="E506" s="11"/>
     </row>
     <row r="507" spans="2:5" ht="13">
-      <c r="B507" s="12"/>
-      <c r="E507" s="12"/>
+      <c r="B507" s="11"/>
+      <c r="E507" s="11"/>
     </row>
     <row r="508" spans="2:5" ht="13">
-      <c r="B508" s="12"/>
-      <c r="E508" s="12"/>
+      <c r="B508" s="11"/>
+      <c r="E508" s="11"/>
     </row>
     <row r="509" spans="2:5" ht="13">
-      <c r="B509" s="12"/>
-      <c r="E509" s="12"/>
+      <c r="B509" s="11"/>
+      <c r="E509" s="11"/>
     </row>
     <row r="510" spans="2:5" ht="13">
-      <c r="B510" s="12"/>
-      <c r="E510" s="12"/>
+      <c r="B510" s="11"/>
+      <c r="E510" s="11"/>
     </row>
     <row r="511" spans="2:5" ht="13">
-      <c r="B511" s="12"/>
-      <c r="E511" s="12"/>
+      <c r="B511" s="11"/>
+      <c r="E511" s="11"/>
     </row>
     <row r="512" spans="2:5" ht="13">
-      <c r="B512" s="12"/>
-      <c r="E512" s="12"/>
+      <c r="B512" s="11"/>
+      <c r="E512" s="11"/>
     </row>
     <row r="513" spans="2:5" ht="13">
-      <c r="B513" s="12"/>
-      <c r="E513" s="12"/>
+      <c r="B513" s="11"/>
+      <c r="E513" s="11"/>
     </row>
     <row r="514" spans="2:5" ht="13">
-      <c r="B514" s="12"/>
-      <c r="E514" s="12"/>
+      <c r="B514" s="11"/>
+      <c r="E514" s="11"/>
     </row>
     <row r="515" spans="2:5" ht="13">
-      <c r="B515" s="12"/>
-      <c r="E515" s="12"/>
+      <c r="B515" s="11"/>
+      <c r="E515" s="11"/>
     </row>
     <row r="516" spans="2:5" ht="13">
-      <c r="B516" s="12"/>
-      <c r="E516" s="12"/>
+      <c r="B516" s="11"/>
+      <c r="E516" s="11"/>
     </row>
     <row r="517" spans="2:5" ht="13">
-      <c r="B517" s="12"/>
-      <c r="E517" s="12"/>
+      <c r="B517" s="11"/>
+      <c r="E517" s="11"/>
     </row>
     <row r="518" spans="2:5" ht="13">
-      <c r="B518" s="12"/>
-      <c r="E518" s="12"/>
+      <c r="B518" s="11"/>
+      <c r="E518" s="11"/>
     </row>
     <row r="519" spans="2:5" ht="13">
-      <c r="B519" s="12"/>
-      <c r="E519" s="12"/>
+      <c r="B519" s="11"/>
+      <c r="E519" s="11"/>
     </row>
     <row r="520" spans="2:5" ht="13">
-      <c r="B520" s="12"/>
-      <c r="E520" s="12"/>
+      <c r="B520" s="11"/>
+      <c r="E520" s="11"/>
     </row>
     <row r="521" spans="2:5" ht="13">
-      <c r="B521" s="12"/>
-      <c r="E521" s="12"/>
+      <c r="B521" s="11"/>
+      <c r="E521" s="11"/>
     </row>
     <row r="522" spans="2:5" ht="13">
-      <c r="B522" s="12"/>
-      <c r="E522" s="12"/>
+      <c r="B522" s="11"/>
+      <c r="E522" s="11"/>
     </row>
     <row r="523" spans="2:5" ht="13">
-      <c r="B523" s="12"/>
-      <c r="E523" s="12"/>
+      <c r="B523" s="11"/>
+      <c r="E523" s="11"/>
     </row>
     <row r="524" spans="2:5" ht="13">
-      <c r="B524" s="12"/>
-      <c r="E524" s="12"/>
+      <c r="B524" s="11"/>
+      <c r="E524" s="11"/>
     </row>
     <row r="525" spans="2:5" ht="13">
-      <c r="B525" s="12"/>
-      <c r="E525" s="12"/>
+      <c r="B525" s="11"/>
+      <c r="E525" s="11"/>
     </row>
     <row r="526" spans="2:5" ht="13">
-      <c r="B526" s="12"/>
-      <c r="E526" s="12"/>
+      <c r="B526" s="11"/>
+      <c r="E526" s="11"/>
     </row>
     <row r="527" spans="2:5" ht="13">
-      <c r="B527" s="12"/>
-      <c r="E527" s="12"/>
+      <c r="B527" s="11"/>
+      <c r="E527" s="11"/>
     </row>
     <row r="528" spans="2:5" ht="13">
-      <c r="B528" s="12"/>
-      <c r="E528" s="12"/>
+      <c r="B528" s="11"/>
+      <c r="E528" s="11"/>
     </row>
     <row r="529" spans="2:5" ht="13">
-      <c r="B529" s="12"/>
-      <c r="E529" s="12"/>
+      <c r="B529" s="11"/>
+      <c r="E529" s="11"/>
     </row>
     <row r="530" spans="2:5" ht="13">
-      <c r="B530" s="12"/>
-      <c r="E530" s="12"/>
+      <c r="B530" s="11"/>
+      <c r="E530" s="11"/>
     </row>
     <row r="531" spans="2:5" ht="13">
-      <c r="B531" s="12"/>
-      <c r="E531" s="12"/>
+      <c r="B531" s="11"/>
+      <c r="E531" s="11"/>
     </row>
     <row r="532" spans="2:5" ht="13">
-      <c r="B532" s="12"/>
-      <c r="E532" s="12"/>
+      <c r="B532" s="11"/>
+      <c r="E532" s="11"/>
     </row>
     <row r="533" spans="2:5" ht="13">
-      <c r="B533" s="12"/>
-      <c r="E533" s="12"/>
+      <c r="B533" s="11"/>
+      <c r="E533" s="11"/>
     </row>
     <row r="534" spans="2:5" ht="13">
-      <c r="B534" s="12"/>
-      <c r="E534" s="12"/>
+      <c r="B534" s="11"/>
+      <c r="E534" s="11"/>
     </row>
     <row r="535" spans="2:5" ht="13">
-      <c r="B535" s="12"/>
-      <c r="E535" s="12"/>
+      <c r="B535" s="11"/>
+      <c r="E535" s="11"/>
     </row>
     <row r="536" spans="2:5" ht="13">
-      <c r="B536" s="12"/>
-      <c r="E536" s="12"/>
+      <c r="B536" s="11"/>
+      <c r="E536" s="11"/>
     </row>
     <row r="537" spans="2:5" ht="13">
-      <c r="B537" s="12"/>
-      <c r="E537" s="12"/>
+      <c r="B537" s="11"/>
+      <c r="E537" s="11"/>
     </row>
     <row r="538" spans="2:5" ht="13">
-      <c r="B538" s="12"/>
-      <c r="E538" s="12"/>
+      <c r="B538" s="11"/>
+      <c r="E538" s="11"/>
     </row>
     <row r="539" spans="2:5" ht="13">
-      <c r="B539" s="12"/>
-      <c r="E539" s="12"/>
+      <c r="B539" s="11"/>
+      <c r="E539" s="11"/>
     </row>
     <row r="540" spans="2:5" ht="13">
-      <c r="B540" s="12"/>
-      <c r="E540" s="12"/>
+      <c r="B540" s="11"/>
+      <c r="E540" s="11"/>
     </row>
     <row r="541" spans="2:5" ht="13">
-      <c r="B541" s="12"/>
-      <c r="E541" s="12"/>
+      <c r="B541" s="11"/>
+      <c r="E541" s="11"/>
     </row>
     <row r="542" spans="2:5" ht="13">
-      <c r="B542" s="12"/>
-      <c r="E542" s="12"/>
+      <c r="B542" s="11"/>
+      <c r="E542" s="11"/>
     </row>
     <row r="543" spans="2:5" ht="13">
-      <c r="B543" s="12"/>
-      <c r="E543" s="12"/>
+      <c r="B543" s="11"/>
+      <c r="E543" s="11"/>
     </row>
     <row r="544" spans="2:5" ht="13">
-      <c r="B544" s="12"/>
-      <c r="E544" s="12"/>
+      <c r="B544" s="11"/>
+      <c r="E544" s="11"/>
     </row>
     <row r="545" spans="2:5" ht="13">
-      <c r="B545" s="12"/>
-      <c r="E545" s="12"/>
+      <c r="B545" s="11"/>
+      <c r="E545" s="11"/>
     </row>
     <row r="546" spans="2:5" ht="13">
-      <c r="B546" s="12"/>
-      <c r="E546" s="12"/>
+      <c r="B546" s="11"/>
+      <c r="E546" s="11"/>
     </row>
     <row r="547" spans="2:5" ht="13">
-      <c r="B547" s="12"/>
-      <c r="E547" s="12"/>
+      <c r="B547" s="11"/>
+      <c r="E547" s="11"/>
     </row>
     <row r="548" spans="2:5" ht="13">
-      <c r="B548" s="12"/>
-      <c r="E548" s="12"/>
+      <c r="B548" s="11"/>
+      <c r="E548" s="11"/>
     </row>
     <row r="549" spans="2:5" ht="13">
-      <c r="B549" s="12"/>
-      <c r="E549" s="12"/>
+      <c r="B549" s="11"/>
+      <c r="E549" s="11"/>
     </row>
     <row r="550" spans="2:5" ht="13">
-      <c r="B550" s="12"/>
-      <c r="E550" s="12"/>
+      <c r="B550" s="11"/>
+      <c r="E550" s="11"/>
     </row>
     <row r="551" spans="2:5" ht="13">
-      <c r="B551" s="12"/>
-      <c r="E551" s="12"/>
+      <c r="B551" s="11"/>
+      <c r="E551" s="11"/>
     </row>
     <row r="552" spans="2:5" ht="13">
-      <c r="B552" s="12"/>
-      <c r="E552" s="12"/>
+      <c r="B552" s="11"/>
+      <c r="E552" s="11"/>
     </row>
     <row r="553" spans="2:5" ht="13">
-      <c r="B553" s="12"/>
-      <c r="E553" s="12"/>
+      <c r="B553" s="11"/>
+      <c r="E553" s="11"/>
     </row>
     <row r="554" spans="2:5" ht="13">
-      <c r="B554" s="12"/>
-      <c r="E554" s="12"/>
+      <c r="B554" s="11"/>
+      <c r="E554" s="11"/>
     </row>
     <row r="555" spans="2:5" ht="13">
-      <c r="B555" s="12"/>
-      <c r="E555" s="12"/>
+      <c r="B555" s="11"/>
+      <c r="E555" s="11"/>
     </row>
     <row r="556" spans="2:5" ht="13">
-      <c r="B556" s="12"/>
-      <c r="E556" s="12"/>
+      <c r="B556" s="11"/>
+      <c r="E556" s="11"/>
     </row>
     <row r="557" spans="2:5" ht="13">
-      <c r="B557" s="12"/>
-      <c r="E557" s="12"/>
+      <c r="B557" s="11"/>
+      <c r="E557" s="11"/>
     </row>
     <row r="558" spans="2:5" ht="13">
-      <c r="B558" s="12"/>
-      <c r="E558" s="12"/>
+      <c r="B558" s="11"/>
+      <c r="E558" s="11"/>
     </row>
     <row r="559" spans="2:5" ht="13">
-      <c r="B559" s="12"/>
-      <c r="E559" s="12"/>
+      <c r="B559" s="11"/>
+      <c r="E559" s="11"/>
     </row>
     <row r="560" spans="2:5" ht="13">
-      <c r="B560" s="12"/>
-      <c r="E560" s="12"/>
+      <c r="B560" s="11"/>
+      <c r="E560" s="11"/>
     </row>
     <row r="561" spans="2:5" ht="13">
-      <c r="B561" s="12"/>
-      <c r="E561" s="12"/>
+      <c r="B561" s="11"/>
+      <c r="E561" s="11"/>
     </row>
     <row r="562" spans="2:5" ht="13">
-      <c r="B562" s="12"/>
-      <c r="E562" s="12"/>
+      <c r="B562" s="11"/>
+      <c r="E562" s="11"/>
     </row>
     <row r="563" spans="2:5" ht="13">
-      <c r="B563" s="12"/>
-      <c r="E563" s="12"/>
+      <c r="B563" s="11"/>
+      <c r="E563" s="11"/>
     </row>
     <row r="564" spans="2:5" ht="13">
-      <c r="B564" s="12"/>
-      <c r="E564" s="12"/>
+      <c r="B564" s="11"/>
+      <c r="E564" s="11"/>
     </row>
     <row r="565" spans="2:5" ht="13">
-      <c r="B565" s="12"/>
-      <c r="E565" s="12"/>
+      <c r="B565" s="11"/>
+      <c r="E565" s="11"/>
     </row>
     <row r="566" spans="2:5" ht="13">
-      <c r="B566" s="12"/>
-      <c r="E566" s="12"/>
+      <c r="B566" s="11"/>
+      <c r="E566" s="11"/>
     </row>
     <row r="567" spans="2:5" ht="13">
-      <c r="B567" s="12"/>
-      <c r="E567" s="12"/>
+      <c r="B567" s="11"/>
+      <c r="E567" s="11"/>
     </row>
     <row r="568" spans="2:5" ht="13">
-      <c r="B568" s="12"/>
-      <c r="E568" s="12"/>
+      <c r="B568" s="11"/>
+      <c r="E568" s="11"/>
     </row>
     <row r="569" spans="2:5" ht="13">
-      <c r="B569" s="12"/>
-      <c r="E569" s="12"/>
+      <c r="B569" s="11"/>
+      <c r="E569" s="11"/>
     </row>
     <row r="570" spans="2:5" ht="13">
-      <c r="B570" s="12"/>
-      <c r="E570" s="12"/>
+      <c r="B570" s="11"/>
+      <c r="E570" s="11"/>
     </row>
     <row r="571" spans="2:5" ht="13">
-      <c r="B571" s="12"/>
-      <c r="E571" s="12"/>
+      <c r="B571" s="11"/>
+      <c r="E571" s="11"/>
     </row>
     <row r="572" spans="2:5" ht="13">
-      <c r="B572" s="12"/>
-      <c r="E572" s="12"/>
+      <c r="B572" s="11"/>
+      <c r="E572" s="11"/>
     </row>
     <row r="573" spans="2:5" ht="13">
-      <c r="B573" s="12"/>
-      <c r="E573" s="12"/>
+      <c r="B573" s="11"/>
+      <c r="E573" s="11"/>
     </row>
     <row r="574" spans="2:5" ht="13">
-      <c r="B574" s="12"/>
-      <c r="E574" s="12"/>
+      <c r="B574" s="11"/>
+      <c r="E574" s="11"/>
     </row>
     <row r="575" spans="2:5" ht="13">
-      <c r="B575" s="12"/>
-      <c r="E575" s="12"/>
+      <c r="B575" s="11"/>
+      <c r="E575" s="11"/>
     </row>
     <row r="576" spans="2:5" ht="13">
-      <c r="B576" s="12"/>
-      <c r="E576" s="12"/>
+      <c r="B576" s="11"/>
+      <c r="E576" s="11"/>
     </row>
     <row r="577" spans="2:5" ht="13">
-      <c r="B577" s="12"/>
-      <c r="E577" s="12"/>
+      <c r="B577" s="11"/>
+      <c r="E577" s="11"/>
     </row>
     <row r="578" spans="2:5" ht="13">
-      <c r="B578" s="12"/>
-      <c r="E578" s="12"/>
+      <c r="B578" s="11"/>
+      <c r="E578" s="11"/>
     </row>
     <row r="579" spans="2:5" ht="13">
-      <c r="B579" s="12"/>
-      <c r="E579" s="12"/>
+      <c r="B579" s="11"/>
+      <c r="E579" s="11"/>
     </row>
     <row r="580" spans="2:5" ht="13">
-      <c r="B580" s="12"/>
-      <c r="E580" s="12"/>
+      <c r="B580" s="11"/>
+      <c r="E580" s="11"/>
     </row>
     <row r="581" spans="2:5" ht="13">
-      <c r="B581" s="12"/>
-      <c r="E581" s="12"/>
+      <c r="B581" s="11"/>
+      <c r="E581" s="11"/>
     </row>
     <row r="582" spans="2:5" ht="13">
-      <c r="B582" s="12"/>
-      <c r="E582" s="12"/>
+      <c r="B582" s="11"/>
+      <c r="E582" s="11"/>
     </row>
     <row r="583" spans="2:5" ht="13">
-      <c r="B583" s="12"/>
-      <c r="E583" s="12"/>
+      <c r="B583" s="11"/>
+      <c r="E583" s="11"/>
     </row>
     <row r="584" spans="2:5" ht="13">
-      <c r="B584" s="12"/>
-      <c r="E584" s="12"/>
+      <c r="B584" s="11"/>
+      <c r="E584" s="11"/>
     </row>
     <row r="585" spans="2:5" ht="13">
-      <c r="B585" s="12"/>
-      <c r="E585" s="12"/>
+      <c r="B585" s="11"/>
+      <c r="E585" s="11"/>
     </row>
     <row r="586" spans="2:5" ht="13">
-      <c r="B586" s="12"/>
-      <c r="E586" s="12"/>
+      <c r="B586" s="11"/>
+      <c r="E586" s="11"/>
     </row>
     <row r="587" spans="2:5" ht="13">
-      <c r="B587" s="12"/>
-      <c r="E587" s="12"/>
+      <c r="B587" s="11"/>
+      <c r="E587" s="11"/>
     </row>
     <row r="588" spans="2:5" ht="13">
-      <c r="B588" s="12"/>
-      <c r="E588" s="12"/>
+      <c r="B588" s="11"/>
+      <c r="E588" s="11"/>
     </row>
     <row r="589" spans="2:5" ht="13">
-      <c r="B589" s="12"/>
-      <c r="E589" s="12"/>
+      <c r="B589" s="11"/>
+      <c r="E589" s="11"/>
     </row>
     <row r="590" spans="2:5" ht="13">
-      <c r="B590" s="12"/>
-      <c r="E590" s="12"/>
+      <c r="B590" s="11"/>
+      <c r="E590" s="11"/>
     </row>
     <row r="591" spans="2:5" ht="13">
-      <c r="B591" s="12"/>
-      <c r="E591" s="12"/>
+      <c r="B591" s="11"/>
+      <c r="E591" s="11"/>
     </row>
     <row r="592" spans="2:5" ht="13">
-      <c r="B592" s="12"/>
-      <c r="E592" s="12"/>
+      <c r="B592" s="11"/>
+      <c r="E592" s="11"/>
     </row>
     <row r="593" spans="2:5" ht="13">
-      <c r="B593" s="12"/>
-      <c r="E593" s="12"/>
+      <c r="B593" s="11"/>
+      <c r="E593" s="11"/>
     </row>
     <row r="594" spans="2:5" ht="13">
-      <c r="B594" s="12"/>
-      <c r="E594" s="12"/>
+      <c r="B594" s="11"/>
+      <c r="E594" s="11"/>
     </row>
     <row r="595" spans="2:5" ht="13">
-      <c r="B595" s="12"/>
-      <c r="E595" s="12"/>
+      <c r="B595" s="11"/>
+      <c r="E595" s="11"/>
     </row>
     <row r="596" spans="2:5" ht="13">
-      <c r="B596" s="12"/>
-      <c r="E596" s="12"/>
+      <c r="B596" s="11"/>
+      <c r="E596" s="11"/>
     </row>
     <row r="597" spans="2:5" ht="13">
-      <c r="B597" s="12"/>
-      <c r="E597" s="12"/>
+      <c r="B597" s="11"/>
+      <c r="E597" s="11"/>
     </row>
     <row r="598" spans="2:5" ht="13">
-      <c r="B598" s="12"/>
-      <c r="E598" s="12"/>
+      <c r="B598" s="11"/>
+      <c r="E598" s="11"/>
     </row>
     <row r="599" spans="2:5" ht="13">
-      <c r="B599" s="12"/>
-      <c r="E599" s="12"/>
+      <c r="B599" s="11"/>
+      <c r="E599" s="11"/>
     </row>
     <row r="600" spans="2:5" ht="13">
-      <c r="B600" s="12"/>
-      <c r="E600" s="12"/>
+      <c r="B600" s="11"/>
+      <c r="E600" s="11"/>
     </row>
     <row r="601" spans="2:5" ht="13">
-      <c r="B601" s="12"/>
-      <c r="E601" s="12"/>
+      <c r="B601" s="11"/>
+      <c r="E601" s="11"/>
     </row>
     <row r="602" spans="2:5" ht="13">
-      <c r="B602" s="12"/>
-      <c r="E602" s="12"/>
+      <c r="B602" s="11"/>
+      <c r="E602" s="11"/>
     </row>
     <row r="603" spans="2:5" ht="13">
-      <c r="B603" s="12"/>
-      <c r="E603" s="12"/>
+      <c r="B603" s="11"/>
+      <c r="E603" s="11"/>
     </row>
     <row r="604" spans="2:5" ht="13">
-      <c r="B604" s="12"/>
-      <c r="E604" s="12"/>
+      <c r="B604" s="11"/>
+      <c r="E604" s="11"/>
     </row>
     <row r="605" spans="2:5" ht="13">
-      <c r="B605" s="12"/>
-      <c r="E605" s="12"/>
+      <c r="B605" s="11"/>
+      <c r="E605" s="11"/>
     </row>
     <row r="606" spans="2:5" ht="13">
-      <c r="B606" s="12"/>
-      <c r="E606" s="12"/>
+      <c r="B606" s="11"/>
+      <c r="E606" s="11"/>
     </row>
     <row r="607" spans="2:5" ht="13">
-      <c r="B607" s="12"/>
-      <c r="E607" s="12"/>
+      <c r="B607" s="11"/>
+      <c r="E607" s="11"/>
     </row>
     <row r="608" spans="2:5" ht="13">
-      <c r="B608" s="12"/>
-      <c r="E608" s="12"/>
+      <c r="B608" s="11"/>
+      <c r="E608" s="11"/>
     </row>
     <row r="609" spans="2:5" ht="13">
-      <c r="B609" s="12"/>
-      <c r="E609" s="12"/>
+      <c r="B609" s="11"/>
+      <c r="E609" s="11"/>
     </row>
     <row r="610" spans="2:5" ht="13">
-      <c r="B610" s="12"/>
-      <c r="E610" s="12"/>
+      <c r="B610" s="11"/>
+      <c r="E610" s="11"/>
     </row>
     <row r="611" spans="2:5" ht="13">
-      <c r="B611" s="12"/>
-      <c r="E611" s="12"/>
+      <c r="B611" s="11"/>
+      <c r="E611" s="11"/>
     </row>
     <row r="612" spans="2:5" ht="13">
-      <c r="B612" s="12"/>
-      <c r="E612" s="12"/>
+      <c r="B612" s="11"/>
+      <c r="E612" s="11"/>
     </row>
     <row r="613" spans="2:5" ht="13">
-      <c r="B613" s="12"/>
-      <c r="E613" s="12"/>
+      <c r="B613" s="11"/>
+      <c r="E613" s="11"/>
     </row>
     <row r="614" spans="2:5" ht="13">
-      <c r="B614" s="12"/>
-      <c r="E614" s="12"/>
+      <c r="B614" s="11"/>
+      <c r="E614" s="11"/>
     </row>
     <row r="615" spans="2:5" ht="13">
-      <c r="B615" s="12"/>
-      <c r="E615" s="12"/>
+      <c r="B615" s="11"/>
+      <c r="E615" s="11"/>
     </row>
     <row r="616" spans="2:5" ht="13">
-      <c r="B616" s="12"/>
-      <c r="E616" s="12"/>
+      <c r="B616" s="11"/>
+      <c r="E616" s="11"/>
     </row>
     <row r="617" spans="2:5" ht="13">
-      <c r="B617" s="12"/>
-      <c r="E617" s="12"/>
+      <c r="B617" s="11"/>
+      <c r="E617" s="11"/>
     </row>
     <row r="618" spans="2:5" ht="13">
-      <c r="B618" s="12"/>
-      <c r="E618" s="12"/>
+      <c r="B618" s="11"/>
+      <c r="E618" s="11"/>
     </row>
     <row r="619" spans="2:5" ht="13">
-      <c r="B619" s="12"/>
-      <c r="E619" s="12"/>
+      <c r="B619" s="11"/>
+      <c r="E619" s="11"/>
     </row>
     <row r="620" spans="2:5" ht="13">
-      <c r="B620" s="12"/>
-      <c r="E620" s="12"/>
+      <c r="B620" s="11"/>
+      <c r="E620" s="11"/>
     </row>
     <row r="621" spans="2:5" ht="13">
-      <c r="B621" s="12"/>
-      <c r="E621" s="12"/>
+      <c r="B621" s="11"/>
+      <c r="E621" s="11"/>
     </row>
     <row r="622" spans="2:5" ht="13">
-      <c r="B622" s="12"/>
-      <c r="E622" s="12"/>
+      <c r="B622" s="11"/>
+      <c r="E622" s="11"/>
     </row>
     <row r="623" spans="2:5" ht="13">
-      <c r="B623" s="12"/>
-      <c r="E623" s="12"/>
+      <c r="B623" s="11"/>
+      <c r="E623" s="11"/>
     </row>
     <row r="624" spans="2:5" ht="13">
-      <c r="B624" s="12"/>
-      <c r="E624" s="12"/>
+      <c r="B624" s="11"/>
+      <c r="E624" s="11"/>
     </row>
     <row r="625" spans="2:5" ht="13">
-      <c r="B625" s="12"/>
-      <c r="E625" s="12"/>
+      <c r="B625" s="11"/>
+      <c r="E625" s="11"/>
     </row>
     <row r="626" spans="2:5" ht="13">
-      <c r="B626" s="12"/>
-      <c r="E626" s="12"/>
+      <c r="B626" s="11"/>
+      <c r="E626" s="11"/>
     </row>
     <row r="627" spans="2:5" ht="13">
-      <c r="B627" s="12"/>
-      <c r="E627" s="12"/>
+      <c r="B627" s="11"/>
+      <c r="E627" s="11"/>
     </row>
     <row r="628" spans="2:5" ht="13">
-      <c r="B628" s="12"/>
-      <c r="E628" s="12"/>
+      <c r="B628" s="11"/>
+      <c r="E628" s="11"/>
     </row>
     <row r="629" spans="2:5" ht="13">
-      <c r="B629" s="12"/>
-      <c r="E629" s="12"/>
+      <c r="B629" s="11"/>
+      <c r="E629" s="11"/>
     </row>
     <row r="630" spans="2:5" ht="13">
-      <c r="B630" s="12"/>
-      <c r="E630" s="12"/>
+      <c r="B630" s="11"/>
+      <c r="E630" s="11"/>
     </row>
     <row r="631" spans="2:5" ht="13">
-      <c r="B631" s="12"/>
-      <c r="E631" s="12"/>
+      <c r="B631" s="11"/>
+      <c r="E631" s="11"/>
     </row>
     <row r="632" spans="2:5" ht="13">
-      <c r="B632" s="12"/>
-      <c r="E632" s="12"/>
+      <c r="B632" s="11"/>
+      <c r="E632" s="11"/>
     </row>
     <row r="633" spans="2:5" ht="13">
-      <c r="B633" s="12"/>
-      <c r="E633" s="12"/>
+      <c r="B633" s="11"/>
+      <c r="E633" s="11"/>
     </row>
     <row r="634" spans="2:5" ht="13">
-      <c r="B634" s="12"/>
-      <c r="E634" s="12"/>
+      <c r="B634" s="11"/>
+      <c r="E634" s="11"/>
     </row>
     <row r="635" spans="2:5" ht="13">
-      <c r="B635" s="12"/>
-      <c r="E635" s="12"/>
+      <c r="B635" s="11"/>
+      <c r="E635" s="11"/>
     </row>
     <row r="636" spans="2:5" ht="13">
-      <c r="B636" s="12"/>
-      <c r="E636" s="12"/>
+      <c r="B636" s="11"/>
+      <c r="E636" s="11"/>
     </row>
     <row r="637" spans="2:5" ht="13">
-      <c r="B637" s="12"/>
-      <c r="E637" s="12"/>
+      <c r="B637" s="11"/>
+      <c r="E637" s="11"/>
     </row>
     <row r="638" spans="2:5" ht="13">
-      <c r="B638" s="12"/>
-      <c r="E638" s="12"/>
+      <c r="B638" s="11"/>
+      <c r="E638" s="11"/>
     </row>
     <row r="639" spans="2:5" ht="13">
-      <c r="B639" s="12"/>
-      <c r="E639" s="12"/>
+      <c r="B639" s="11"/>
+      <c r="E639" s="11"/>
     </row>
     <row r="640" spans="2:5" ht="13">
-      <c r="B640" s="12"/>
-      <c r="E640" s="12"/>
+      <c r="B640" s="11"/>
+      <c r="E640" s="11"/>
     </row>
     <row r="641" spans="2:5" ht="13">
-      <c r="B641" s="12"/>
-      <c r="E641" s="12"/>
+      <c r="B641" s="11"/>
+      <c r="E641" s="11"/>
     </row>
     <row r="642" spans="2:5" ht="13">
-      <c r="B642" s="12"/>
-      <c r="E642" s="12"/>
+      <c r="B642" s="11"/>
+      <c r="E642" s="11"/>
     </row>
     <row r="643" spans="2:5" ht="13">
-      <c r="B643" s="12"/>
-      <c r="E643" s="12"/>
+      <c r="B643" s="11"/>
+      <c r="E643" s="11"/>
     </row>
     <row r="644" spans="2:5" ht="13">
-      <c r="B644" s="12"/>
-      <c r="E644" s="12"/>
+      <c r="B644" s="11"/>
+      <c r="E644" s="11"/>
     </row>
     <row r="645" spans="2:5" ht="13">
-      <c r="B645" s="12"/>
-      <c r="E645" s="12"/>
+      <c r="B645" s="11"/>
+      <c r="E645" s="11"/>
     </row>
     <row r="646" spans="2:5" ht="13">
-      <c r="B646" s="12"/>
-      <c r="E646" s="12"/>
+      <c r="B646" s="11"/>
+      <c r="E646" s="11"/>
     </row>
     <row r="647" spans="2:5" ht="13">
-      <c r="B647" s="12"/>
-      <c r="E647" s="12"/>
+      <c r="B647" s="11"/>
+      <c r="E647" s="11"/>
     </row>
     <row r="648" spans="2:5" ht="13">
-      <c r="B648" s="12"/>
-      <c r="E648" s="12"/>
+      <c r="B648" s="11"/>
+      <c r="E648" s="11"/>
     </row>
     <row r="649" spans="2:5" ht="13">
-      <c r="B649" s="12"/>
-      <c r="E649" s="12"/>
+      <c r="B649" s="11"/>
+      <c r="E649" s="11"/>
     </row>
     <row r="650" spans="2:5" ht="13">
-      <c r="B650" s="12"/>
-      <c r="E650" s="12"/>
+      <c r="B650" s="11"/>
+      <c r="E650" s="11"/>
     </row>
     <row r="651" spans="2:5" ht="13">
-      <c r="B651" s="12"/>
-      <c r="E651" s="12"/>
+      <c r="B651" s="11"/>
+      <c r="E651" s="11"/>
     </row>
     <row r="652" spans="2:5" ht="13">
-      <c r="B652" s="12"/>
-      <c r="E652" s="12"/>
+      <c r="B652" s="11"/>
+      <c r="E652" s="11"/>
     </row>
     <row r="653" spans="2:5" ht="13">
-      <c r="B653" s="12"/>
-      <c r="E653" s="12"/>
+      <c r="B653" s="11"/>
+      <c r="E653" s="11"/>
     </row>
     <row r="654" spans="2:5" ht="13">
-      <c r="B654" s="12"/>
-      <c r="E654" s="12"/>
+      <c r="B654" s="11"/>
+      <c r="E654" s="11"/>
     </row>
     <row r="655" spans="2:5" ht="13">
-      <c r="B655" s="12"/>
-      <c r="E655" s="12"/>
+      <c r="B655" s="11"/>
+      <c r="E655" s="11"/>
     </row>
     <row r="656" spans="2:5" ht="13">
-      <c r="B656" s="12"/>
-      <c r="E656" s="12"/>
+      <c r="B656" s="11"/>
+      <c r="E656" s="11"/>
     </row>
     <row r="657" spans="2:5" ht="13">
-      <c r="B657" s="12"/>
-      <c r="E657" s="12"/>
+      <c r="B657" s="11"/>
+      <c r="E657" s="11"/>
     </row>
     <row r="658" spans="2:5" ht="13">
-      <c r="B658" s="12"/>
-      <c r="E658" s="12"/>
+      <c r="B658" s="11"/>
+      <c r="E658" s="11"/>
     </row>
     <row r="659" spans="2:5" ht="13">
-      <c r="B659" s="12"/>
-      <c r="E659" s="12"/>
+      <c r="B659" s="11"/>
+      <c r="E659" s="11"/>
     </row>
     <row r="660" spans="2:5" ht="13">
-      <c r="B660" s="12"/>
-      <c r="E660" s="12"/>
+      <c r="B660" s="11"/>
+      <c r="E660" s="11"/>
     </row>
     <row r="661" spans="2:5" ht="13">
-      <c r="B661" s="12"/>
-      <c r="E661" s="12"/>
+      <c r="B661" s="11"/>
+      <c r="E661" s="11"/>
     </row>
     <row r="662" spans="2:5" ht="13">
-      <c r="B662" s="12"/>
-      <c r="E662" s="12"/>
+      <c r="B662" s="11"/>
+      <c r="E662" s="11"/>
     </row>
     <row r="663" spans="2:5" ht="13">
-      <c r="B663" s="12"/>
-      <c r="E663" s="12"/>
+      <c r="B663" s="11"/>
+      <c r="E663" s="11"/>
     </row>
     <row r="664" spans="2:5" ht="13">
-      <c r="B664" s="12"/>
-      <c r="E664" s="12"/>
+      <c r="B664" s="11"/>
+      <c r="E664" s="11"/>
     </row>
     <row r="665" spans="2:5" ht="13">
-      <c r="B665" s="12"/>
-      <c r="E665" s="12"/>
+      <c r="B665" s="11"/>
+      <c r="E665" s="11"/>
     </row>
     <row r="666" spans="2:5" ht="13">
-      <c r="B666" s="12"/>
-      <c r="E666" s="12"/>
+      <c r="B666" s="11"/>
+      <c r="E666" s="11"/>
     </row>
     <row r="667" spans="2:5" ht="13">
-      <c r="B667" s="12"/>
-      <c r="E667" s="12"/>
+      <c r="B667" s="11"/>
+      <c r="E667" s="11"/>
     </row>
     <row r="668" spans="2:5" ht="13">
-      <c r="B668" s="12"/>
-      <c r="E668" s="12"/>
+      <c r="B668" s="11"/>
+      <c r="E668" s="11"/>
     </row>
     <row r="669" spans="2:5" ht="13">
-      <c r="B669" s="12"/>
-      <c r="E669" s="12"/>
+      <c r="B669" s="11"/>
+      <c r="E669" s="11"/>
     </row>
     <row r="670" spans="2:5" ht="13">
-      <c r="B670" s="12"/>
-      <c r="E670" s="12"/>
+      <c r="B670" s="11"/>
+      <c r="E670" s="11"/>
     </row>
     <row r="671" spans="2:5" ht="13">
-      <c r="B671" s="12"/>
-      <c r="E671" s="12"/>
+      <c r="B671" s="11"/>
+      <c r="E671" s="11"/>
     </row>
     <row r="672" spans="2:5" ht="13">
-      <c r="B672" s="12"/>
-      <c r="E672" s="12"/>
+      <c r="B672" s="11"/>
+      <c r="E672" s="11"/>
     </row>
     <row r="673" spans="2:5" ht="13">
-      <c r="B673" s="12"/>
-      <c r="E673" s="12"/>
+      <c r="B673" s="11"/>
+      <c r="E673" s="11"/>
     </row>
     <row r="674" spans="2:5" ht="13">
-      <c r="B674" s="12"/>
-      <c r="E674" s="12"/>
+      <c r="B674" s="11"/>
+      <c r="E674" s="11"/>
     </row>
     <row r="675" spans="2:5" ht="13">
-      <c r="B675" s="12"/>
-      <c r="E675" s="12"/>
+      <c r="B675" s="11"/>
+      <c r="E675" s="11"/>
     </row>
     <row r="676" spans="2:5" ht="13">
-      <c r="B676" s="12"/>
-      <c r="E676" s="12"/>
+      <c r="B676" s="11"/>
+      <c r="E676" s="11"/>
     </row>
     <row r="677" spans="2:5" ht="13">
-      <c r="B677" s="12"/>
-      <c r="E677" s="12"/>
+      <c r="B677" s="11"/>
+      <c r="E677" s="11"/>
     </row>
     <row r="678" spans="2:5" ht="13">
-      <c r="B678" s="12"/>
-      <c r="E678" s="12"/>
+      <c r="B678" s="11"/>
+      <c r="E678" s="11"/>
     </row>
     <row r="679" spans="2:5" ht="13">
-      <c r="B679" s="12"/>
-      <c r="E679" s="12"/>
+      <c r="B679" s="11"/>
+      <c r="E679" s="11"/>
     </row>
     <row r="680" spans="2:5" ht="13">
-      <c r="B680" s="12"/>
-      <c r="E680" s="12"/>
+      <c r="B680" s="11"/>
+      <c r="E680" s="11"/>
     </row>
     <row r="681" spans="2:5" ht="13">
-      <c r="B681" s="12"/>
-      <c r="E681" s="12"/>
+      <c r="B681" s="11"/>
+      <c r="E681" s="11"/>
     </row>
     <row r="682" spans="2:5" ht="13">
-      <c r="B682" s="12"/>
-      <c r="E682" s="12"/>
+      <c r="B682" s="11"/>
+      <c r="E682" s="11"/>
     </row>
     <row r="683" spans="2:5" ht="13">
-      <c r="B683" s="12"/>
-      <c r="E683" s="12"/>
+      <c r="B683" s="11"/>
+      <c r="E683" s="11"/>
     </row>
     <row r="684" spans="2:5" ht="13">
-      <c r="B684" s="12"/>
-      <c r="E684" s="12"/>
+      <c r="B684" s="11"/>
+      <c r="E684" s="11"/>
     </row>
     <row r="685" spans="2:5" ht="13">
-      <c r="B685" s="12"/>
-      <c r="E685" s="12"/>
+      <c r="B685" s="11"/>
+      <c r="E685" s="11"/>
     </row>
     <row r="686" spans="2:5" ht="13">
-      <c r="B686" s="12"/>
-      <c r="E686" s="12"/>
+      <c r="B686" s="11"/>
+      <c r="E686" s="11"/>
     </row>
     <row r="687" spans="2:5" ht="13">
-      <c r="B687" s="12"/>
-      <c r="E687" s="12"/>
+      <c r="B687" s="11"/>
+      <c r="E687" s="11"/>
     </row>
     <row r="688" spans="2:5" ht="13">
-      <c r="B688" s="12"/>
-      <c r="E688" s="12"/>
+      <c r="B688" s="11"/>
+      <c r="E688" s="11"/>
     </row>
     <row r="689" spans="2:5" ht="13">
-      <c r="B689" s="12"/>
-      <c r="E689" s="12"/>
+      <c r="B689" s="11"/>
+      <c r="E689" s="11"/>
     </row>
     <row r="690" spans="2:5" ht="13">
-      <c r="B690" s="12"/>
-      <c r="E690" s="12"/>
+      <c r="B690" s="11"/>
+      <c r="E690" s="11"/>
     </row>
     <row r="691" spans="2:5" ht="13">
-      <c r="B691" s="12"/>
-      <c r="E691" s="12"/>
+      <c r="B691" s="11"/>
+      <c r="E691" s="11"/>
     </row>
     <row r="692" spans="2:5" ht="13">
-      <c r="B692" s="12"/>
-      <c r="E692" s="12"/>
+      <c r="B692" s="11"/>
+      <c r="E692" s="11"/>
     </row>
     <row r="693" spans="2:5" ht="13">
-      <c r="B693" s="12"/>
-      <c r="E693" s="12"/>
+      <c r="B693" s="11"/>
+      <c r="E693" s="11"/>
     </row>
     <row r="694" spans="2:5" ht="13">
-      <c r="B694" s="12"/>
-      <c r="E694" s="12"/>
+      <c r="B694" s="11"/>
+      <c r="E694" s="11"/>
     </row>
     <row r="695" spans="2:5" ht="13">
-      <c r="B695" s="12"/>
-      <c r="E695" s="12"/>
+      <c r="B695" s="11"/>
+      <c r="E695" s="11"/>
     </row>
     <row r="696" spans="2:5" ht="13">
-      <c r="B696" s="12"/>
-      <c r="E696" s="12"/>
+      <c r="B696" s="11"/>
+      <c r="E696" s="11"/>
     </row>
     <row r="697" spans="2:5" ht="13">
-      <c r="B697" s="12"/>
-      <c r="E697" s="12"/>
+      <c r="B697" s="11"/>
+      <c r="E697" s="11"/>
     </row>
     <row r="698" spans="2:5" ht="13">
-      <c r="B698" s="12"/>
-      <c r="E698" s="12"/>
+      <c r="B698" s="11"/>
+      <c r="E698" s="11"/>
     </row>
     <row r="699" spans="2:5" ht="13">
-      <c r="B699" s="12"/>
-      <c r="E699" s="12"/>
+      <c r="B699" s="11"/>
+      <c r="E699" s="11"/>
     </row>
     <row r="700" spans="2:5" ht="13">
-      <c r="B700" s="12"/>
-      <c r="E700" s="12"/>
+      <c r="B700" s="11"/>
+      <c r="E700" s="11"/>
     </row>
     <row r="701" spans="2:5" ht="13">
-      <c r="B701" s="12"/>
-      <c r="E701" s="12"/>
+      <c r="B701" s="11"/>
+      <c r="E701" s="11"/>
     </row>
     <row r="702" spans="2:5" ht="13">
-      <c r="B702" s="12"/>
-      <c r="E702" s="12"/>
+      <c r="B702" s="11"/>
+      <c r="E702" s="11"/>
     </row>
     <row r="703" spans="2:5" ht="13">
-      <c r="B703" s="12"/>
-      <c r="E703" s="12"/>
+      <c r="B703" s="11"/>
+      <c r="E703" s="11"/>
     </row>
     <row r="704" spans="2:5" ht="13">
-      <c r="B704" s="12"/>
-      <c r="E704" s="12"/>
+      <c r="B704" s="11"/>
+      <c r="E704" s="11"/>
     </row>
     <row r="705" spans="2:5" ht="13">
-      <c r="B705" s="12"/>
-      <c r="E705" s="12"/>
+      <c r="B705" s="11"/>
+      <c r="E705" s="11"/>
     </row>
     <row r="706" spans="2:5" ht="13">
-      <c r="B706" s="12"/>
-      <c r="E706" s="12"/>
+      <c r="B706" s="11"/>
+      <c r="E706" s="11"/>
     </row>
     <row r="707" spans="2:5" ht="13">
-      <c r="B707" s="12"/>
-      <c r="E707" s="12"/>
+      <c r="B707" s="11"/>
+      <c r="E707" s="11"/>
     </row>
     <row r="708" spans="2:5" ht="13">
-      <c r="B708" s="12"/>
-      <c r="E708" s="12"/>
+      <c r="B708" s="11"/>
+      <c r="E708" s="11"/>
     </row>
     <row r="709" spans="2:5" ht="13">
-      <c r="B709" s="12"/>
-      <c r="E709" s="12"/>
+      <c r="B709" s="11"/>
+      <c r="E709" s="11"/>
     </row>
     <row r="710" spans="2:5" ht="13">
-      <c r="B710" s="12"/>
-      <c r="E710" s="12"/>
+      <c r="B710" s="11"/>
+      <c r="E710" s="11"/>
     </row>
     <row r="711" spans="2:5" ht="13">
-      <c r="B711" s="12"/>
-      <c r="E711" s="12"/>
+      <c r="B711" s="11"/>
+      <c r="E711" s="11"/>
     </row>
     <row r="712" spans="2:5" ht="13">
-      <c r="B712" s="12"/>
-      <c r="E712" s="12"/>
+      <c r="B712" s="11"/>
+      <c r="E712" s="11"/>
     </row>
     <row r="713" spans="2:5" ht="13">
-      <c r="B713" s="12"/>
-      <c r="E713" s="12"/>
+      <c r="B713" s="11"/>
+      <c r="E713" s="11"/>
     </row>
     <row r="714" spans="2:5" ht="13">
-      <c r="B714" s="12"/>
-      <c r="E714" s="12"/>
+      <c r="B714" s="11"/>
+      <c r="E714" s="11"/>
     </row>
     <row r="715" spans="2:5" ht="13">
-      <c r="B715" s="12"/>
-      <c r="E715" s="12"/>
+      <c r="B715" s="11"/>
+      <c r="E715" s="11"/>
     </row>
     <row r="716" spans="2:5" ht="13">
-      <c r="B716" s="12"/>
-      <c r="E716" s="12"/>
+      <c r="B716" s="11"/>
+      <c r="E716" s="11"/>
     </row>
     <row r="717" spans="2:5" ht="13">
-      <c r="B717" s="12"/>
-      <c r="E717" s="12"/>
+      <c r="B717" s="11"/>
+      <c r="E717" s="11"/>
     </row>
     <row r="718" spans="2:5" ht="13">
-      <c r="B718" s="12"/>
-      <c r="E718" s="12"/>
+      <c r="B718" s="11"/>
+      <c r="E718" s="11"/>
     </row>
     <row r="719" spans="2:5" ht="13">
-      <c r="B719" s="12"/>
-      <c r="E719" s="12"/>
+      <c r="B719" s="11"/>
+      <c r="E719" s="11"/>
     </row>
     <row r="720" spans="2:5" ht="13">
-      <c r="B720" s="12"/>
-      <c r="E720" s="12"/>
+      <c r="B720" s="11"/>
+      <c r="E720" s="11"/>
     </row>
     <row r="721" spans="2:5" ht="13">
-      <c r="B721" s="12"/>
-      <c r="E721" s="12"/>
+      <c r="B721" s="11"/>
+      <c r="E721" s="11"/>
     </row>
     <row r="722" spans="2:5" ht="13">
-      <c r="B722" s="12"/>
-      <c r="E722" s="12"/>
+      <c r="B722" s="11"/>
+      <c r="E722" s="11"/>
     </row>
     <row r="723" spans="2:5" ht="13">
-      <c r="B723" s="12"/>
-      <c r="E723" s="12"/>
+      <c r="B723" s="11"/>
+      <c r="E723" s="11"/>
     </row>
     <row r="724" spans="2:5" ht="13">
-      <c r="B724" s="12"/>
-      <c r="E724" s="12"/>
+      <c r="B724" s="11"/>
+      <c r="E724" s="11"/>
     </row>
     <row r="725" spans="2:5" ht="13">
-      <c r="B725" s="12"/>
-      <c r="E725" s="12"/>
+      <c r="B725" s="11"/>
+      <c r="E725" s="11"/>
     </row>
     <row r="726" spans="2:5" ht="13">
-      <c r="B726" s="12"/>
-      <c r="E726" s="12"/>
+      <c r="B726" s="11"/>
+      <c r="E726" s="11"/>
     </row>
     <row r="727" spans="2:5" ht="13">
-      <c r="B727" s="12"/>
-      <c r="E727" s="12"/>
+      <c r="B727" s="11"/>
+      <c r="E727" s="11"/>
     </row>
     <row r="728" spans="2:5" ht="13">
-      <c r="B728" s="12"/>
-      <c r="E728" s="12"/>
+      <c r="B728" s="11"/>
+      <c r="E728" s="11"/>
     </row>
     <row r="729" spans="2:5" ht="13">
-      <c r="B729" s="12"/>
-      <c r="E729" s="12"/>
+      <c r="B729" s="11"/>
+      <c r="E729" s="11"/>
     </row>
     <row r="730" spans="2:5" ht="13">
-      <c r="B730" s="12"/>
-      <c r="E730" s="12"/>
+      <c r="B730" s="11"/>
+      <c r="E730" s="11"/>
     </row>
     <row r="731" spans="2:5" ht="13">
-      <c r="B731" s="12"/>
-      <c r="E731" s="12"/>
+      <c r="B731" s="11"/>
+      <c r="E731" s="11"/>
     </row>
     <row r="732" spans="2:5" ht="13">
-      <c r="B732" s="12"/>
-      <c r="E732" s="12"/>
+      <c r="B732" s="11"/>
+      <c r="E732" s="11"/>
     </row>
     <row r="733" spans="2:5" ht="13">
-      <c r="B733" s="12"/>
-      <c r="E733" s="12"/>
+      <c r="B733" s="11"/>
+      <c r="E733" s="11"/>
     </row>
     <row r="734" spans="2:5" ht="13">
-      <c r="B734" s="12"/>
-      <c r="E734" s="12"/>
+      <c r="B734" s="11"/>
+      <c r="E734" s="11"/>
     </row>
     <row r="735" spans="2:5" ht="13">
-      <c r="B735" s="12"/>
-      <c r="E735" s="12"/>
+      <c r="B735" s="11"/>
+      <c r="E735" s="11"/>
     </row>
     <row r="736" spans="2:5" ht="13">
-      <c r="B736" s="12"/>
-      <c r="E736" s="12"/>
+      <c r="B736" s="11"/>
+      <c r="E736" s="11"/>
     </row>
     <row r="737" spans="2:5" ht="13">
-      <c r="B737" s="12"/>
-      <c r="E737" s="12"/>
+      <c r="B737" s="11"/>
+      <c r="E737" s="11"/>
     </row>
     <row r="738" spans="2:5" ht="13">
-      <c r="B738" s="12"/>
-      <c r="E738" s="12"/>
+      <c r="B738" s="11"/>
+      <c r="E738" s="11"/>
     </row>
     <row r="739" spans="2:5" ht="13">
-      <c r="B739" s="12"/>
-      <c r="E739" s="12"/>
+      <c r="B739" s="11"/>
+      <c r="E739" s="11"/>
     </row>
     <row r="740" spans="2:5" ht="13">
-      <c r="B740" s="12"/>
-      <c r="E740" s="12"/>
+      <c r="B740" s="11"/>
+      <c r="E740" s="11"/>
     </row>
     <row r="741" spans="2:5" ht="13">
-      <c r="B741" s="12"/>
-      <c r="E741" s="12"/>
+      <c r="B741" s="11"/>
+      <c r="E741" s="11"/>
     </row>
     <row r="742" spans="2:5" ht="13">
-      <c r="B742" s="12"/>
-      <c r="E742" s="12"/>
+      <c r="B742" s="11"/>
+      <c r="E742" s="11"/>
     </row>
     <row r="743" spans="2:5" ht="13">
-      <c r="B743" s="12"/>
-      <c r="E743" s="12"/>
+      <c r="B743" s="11"/>
+      <c r="E743" s="11"/>
     </row>
     <row r="744" spans="2:5" ht="13">
-      <c r="B744" s="12"/>
-      <c r="E744" s="12"/>
+      <c r="B744" s="11"/>
+      <c r="E744" s="11"/>
     </row>
     <row r="745" spans="2:5" ht="13">
-      <c r="B745" s="12"/>
-      <c r="E745" s="12"/>
+      <c r="B745" s="11"/>
+      <c r="E745" s="11"/>
     </row>
     <row r="746" spans="2:5" ht="13">
-      <c r="B746" s="12"/>
-      <c r="E746" s="12"/>
+      <c r="B746" s="11"/>
+      <c r="E746" s="11"/>
     </row>
     <row r="747" spans="2:5" ht="13">
-      <c r="B747" s="12"/>
-      <c r="E747" s="12"/>
+      <c r="B747" s="11"/>
+      <c r="E747" s="11"/>
     </row>
     <row r="748" spans="2:5" ht="13">
-      <c r="B748" s="12"/>
-      <c r="E748" s="12"/>
+      <c r="B748" s="11"/>
+      <c r="E748" s="11"/>
     </row>
     <row r="749" spans="2:5" ht="13">
-      <c r="B749" s="12"/>
-      <c r="E749" s="12"/>
+      <c r="B749" s="11"/>
+      <c r="E749" s="11"/>
     </row>
     <row r="750" spans="2:5" ht="13">
-      <c r="B750" s="12"/>
-      <c r="E750" s="12"/>
+      <c r="B750" s="11"/>
+      <c r="E750" s="11"/>
     </row>
     <row r="751" spans="2:5" ht="13">
-      <c r="B751" s="12"/>
-      <c r="E751" s="12"/>
+      <c r="B751" s="11"/>
+      <c r="E751" s="11"/>
     </row>
     <row r="752" spans="2:5" ht="13">
-      <c r="B752" s="12"/>
-      <c r="E752" s="12"/>
+      <c r="B752" s="11"/>
+      <c r="E752" s="11"/>
     </row>
     <row r="753" spans="2:5" ht="13">
-      <c r="B753" s="12"/>
-      <c r="E753" s="12"/>
+      <c r="B753" s="11"/>
+      <c r="E753" s="11"/>
     </row>
     <row r="754" spans="2:5" ht="13">
-      <c r="B754" s="12"/>
-      <c r="E754" s="12"/>
+      <c r="B754" s="11"/>
+      <c r="E754" s="11"/>
     </row>
     <row r="755" spans="2:5" ht="13">
-      <c r="B755" s="12"/>
-      <c r="E755" s="12"/>
+      <c r="B755" s="11"/>
+      <c r="E755" s="11"/>
     </row>
     <row r="756" spans="2:5" ht="13">
-      <c r="B756" s="12"/>
-      <c r="E756" s="12"/>
+      <c r="B756" s="11"/>
+      <c r="E756" s="11"/>
     </row>
     <row r="757" spans="2:5" ht="13">
-      <c r="B757" s="12"/>
-      <c r="E757" s="12"/>
+      <c r="B757" s="11"/>
+      <c r="E757" s="11"/>
     </row>
     <row r="758" spans="2:5" ht="13">
-      <c r="B758" s="12"/>
-      <c r="E758" s="12"/>
+      <c r="B758" s="11"/>
+      <c r="E758" s="11"/>
     </row>
     <row r="759" spans="2:5" ht="13">
-      <c r="B759" s="12"/>
-      <c r="E759" s="12"/>
+      <c r="B759" s="11"/>
+      <c r="E759" s="11"/>
     </row>
     <row r="760" spans="2:5" ht="13">
-      <c r="B760" s="12"/>
-      <c r="E760" s="12"/>
+      <c r="B760" s="11"/>
+      <c r="E760" s="11"/>
     </row>
     <row r="761" spans="2:5" ht="13">
-      <c r="B761" s="12"/>
-      <c r="E761" s="12"/>
+      <c r="B761" s="11"/>
+      <c r="E761" s="11"/>
     </row>
     <row r="762" spans="2:5" ht="13">
-      <c r="B762" s="12"/>
-      <c r="E762" s="12"/>
+      <c r="B762" s="11"/>
+      <c r="E762" s="11"/>
     </row>
     <row r="763" spans="2:5" ht="13">
-      <c r="B763" s="12"/>
-      <c r="E763" s="12"/>
+      <c r="B763" s="11"/>
+      <c r="E763" s="11"/>
     </row>
     <row r="764" spans="2:5" ht="13">
-      <c r="B764" s="12"/>
-      <c r="E764" s="12"/>
+      <c r="B764" s="11"/>
+      <c r="E764" s="11"/>
     </row>
     <row r="765" spans="2:5" ht="13">
-      <c r="B765" s="12"/>
-      <c r="E765" s="12"/>
+      <c r="B765" s="11"/>
+      <c r="E765" s="11"/>
     </row>
     <row r="766" spans="2:5" ht="13">
-      <c r="B766" s="12"/>
-      <c r="E766" s="12"/>
+      <c r="B766" s="11"/>
+      <c r="E766" s="11"/>
     </row>
     <row r="767" spans="2:5" ht="13">
-      <c r="B767" s="12"/>
-      <c r="E767" s="12"/>
+      <c r="B767" s="11"/>
+      <c r="E767" s="11"/>
     </row>
     <row r="768" spans="2:5" ht="13">
-      <c r="B768" s="12"/>
-      <c r="E768" s="12"/>
+      <c r="B768" s="11"/>
+      <c r="E768" s="11"/>
     </row>
     <row r="769" spans="2:5" ht="13">
-      <c r="B769" s="12"/>
-      <c r="E769" s="12"/>
+      <c r="B769" s="11"/>
+      <c r="E769" s="11"/>
     </row>
     <row r="770" spans="2:5" ht="13">
-      <c r="B770" s="12"/>
-      <c r="E770" s="12"/>
+      <c r="B770" s="11"/>
+      <c r="E770" s="11"/>
     </row>
     <row r="771" spans="2:5" ht="13">
-      <c r="B771" s="12"/>
-      <c r="E771" s="12"/>
+      <c r="B771" s="11"/>
+      <c r="E771" s="11"/>
     </row>
     <row r="772" spans="2:5" ht="13">
-      <c r="B772" s="12"/>
-      <c r="E772" s="12"/>
+      <c r="B772" s="11"/>
+      <c r="E772" s="11"/>
     </row>
     <row r="773" spans="2:5" ht="13">
-      <c r="B773" s="12"/>
-      <c r="E773" s="12"/>
+      <c r="B773" s="11"/>
+      <c r="E773" s="11"/>
     </row>
     <row r="774" spans="2:5" ht="13">
-      <c r="B774" s="12"/>
-      <c r="E774" s="12"/>
+      <c r="B774" s="11"/>
+      <c r="E774" s="11"/>
     </row>
     <row r="775" spans="2:5" ht="13">
-      <c r="B775" s="12"/>
-      <c r="E775" s="12"/>
+      <c r="B775" s="11"/>
+      <c r="E775" s="11"/>
     </row>
     <row r="776" spans="2:5" ht="13">
-      <c r="B776" s="12"/>
-      <c r="E776" s="12"/>
+      <c r="B776" s="11"/>
+      <c r="E776" s="11"/>
     </row>
     <row r="777" spans="2:5" ht="13">
-      <c r="B777" s="12"/>
-      <c r="E777" s="12"/>
+      <c r="B777" s="11"/>
+      <c r="E777" s="11"/>
     </row>
     <row r="778" spans="2:5" ht="13">
-      <c r="B778" s="12"/>
-      <c r="E778" s="12"/>
+      <c r="B778" s="11"/>
+      <c r="E778" s="11"/>
     </row>
     <row r="779" spans="2:5" ht="13">
-      <c r="B779" s="12"/>
-      <c r="E779" s="12"/>
+      <c r="B779" s="11"/>
+      <c r="E779" s="11"/>
     </row>
     <row r="780" spans="2:5" ht="13">
-      <c r="B780" s="12"/>
-      <c r="E780" s="12"/>
+      <c r="B780" s="11"/>
+      <c r="E780" s="11"/>
     </row>
     <row r="781" spans="2:5" ht="13">
-      <c r="B781" s="12"/>
-      <c r="E781" s="12"/>
+      <c r="B781" s="11"/>
+      <c r="E781" s="11"/>
     </row>
     <row r="782" spans="2:5" ht="13">
-      <c r="B782" s="12"/>
-      <c r="E782" s="12"/>
+      <c r="B782" s="11"/>
+      <c r="E782" s="11"/>
     </row>
     <row r="783" spans="2:5" ht="13">
-      <c r="B783" s="12"/>
-      <c r="E783" s="12"/>
+      <c r="B783" s="11"/>
+      <c r="E783" s="11"/>
     </row>
     <row r="784" spans="2:5" ht="13">
-      <c r="B784" s="12"/>
-      <c r="E784" s="12"/>
+      <c r="B784" s="11"/>
+      <c r="E784" s="11"/>
     </row>
     <row r="785" spans="2:5" ht="13">
-      <c r="B785" s="12"/>
-      <c r="E785" s="12"/>
+      <c r="B785" s="11"/>
+      <c r="E785" s="11"/>
     </row>
     <row r="786" spans="2:5" ht="13">
-      <c r="B786" s="12"/>
-      <c r="E786" s="12"/>
+      <c r="B786" s="11"/>
+      <c r="E786" s="11"/>
     </row>
     <row r="787" spans="2:5" ht="13">
-      <c r="B787" s="12"/>
-      <c r="E787" s="12"/>
+      <c r="B787" s="11"/>
+      <c r="E787" s="11"/>
     </row>
     <row r="788" spans="2:5" ht="13">
-      <c r="B788" s="12"/>
-      <c r="E788" s="12"/>
+      <c r="B788" s="11"/>
+      <c r="E788" s="11"/>
     </row>
     <row r="789" spans="2:5" ht="13">
-      <c r="B789" s="12"/>
-      <c r="E789" s="12"/>
+      <c r="B789" s="11"/>
+      <c r="E789" s="11"/>
     </row>
     <row r="790" spans="2:5" ht="13">
-      <c r="B790" s="12"/>
-      <c r="E790" s="12"/>
+      <c r="B790" s="11"/>
+      <c r="E790" s="11"/>
     </row>
     <row r="791" spans="2:5" ht="13">
-      <c r="B791" s="12"/>
-      <c r="E791" s="12"/>
+      <c r="B791" s="11"/>
+      <c r="E791" s="11"/>
     </row>
     <row r="792" spans="2:5" ht="13">
-      <c r="B792" s="12"/>
-      <c r="E792" s="12"/>
+      <c r="B792" s="11"/>
+      <c r="E792" s="11"/>
     </row>
     <row r="793" spans="2:5" ht="13">
-      <c r="B793" s="12"/>
-      <c r="E793" s="12"/>
+      <c r="B793" s="11"/>
+      <c r="E793" s="11"/>
     </row>
     <row r="794" spans="2:5" ht="13">
-      <c r="B794" s="12"/>
-      <c r="E794" s="12"/>
+      <c r="B794" s="11"/>
+      <c r="E794" s="11"/>
     </row>
     <row r="795" spans="2:5" ht="13">
-      <c r="B795" s="12"/>
-      <c r="E795" s="12"/>
+      <c r="B795" s="11"/>
+      <c r="E795" s="11"/>
     </row>
     <row r="796" spans="2:5" ht="13">
-      <c r="B796" s="12"/>
-      <c r="E796" s="12"/>
+      <c r="B796" s="11"/>
+      <c r="E796" s="11"/>
     </row>
     <row r="797" spans="2:5" ht="13">
-      <c r="B797" s="12"/>
-      <c r="E797" s="12"/>
+      <c r="B797" s="11"/>
+      <c r="E797" s="11"/>
     </row>
     <row r="798" spans="2:5" ht="13">
-      <c r="B798" s="12"/>
-      <c r="E798" s="12"/>
+      <c r="B798" s="11"/>
+      <c r="E798" s="11"/>
     </row>
     <row r="799" spans="2:5" ht="13">
-      <c r="B799" s="12"/>
-      <c r="E799" s="12"/>
+      <c r="B799" s="11"/>
+      <c r="E799" s="11"/>
     </row>
     <row r="800" spans="2:5" ht="13">
-      <c r="B800" s="12"/>
-      <c r="E800" s="12"/>
+      <c r="B800" s="11"/>
+      <c r="E800" s="11"/>
     </row>
     <row r="801" spans="2:5" ht="13">
-      <c r="B801" s="12"/>
-      <c r="E801" s="12"/>
+      <c r="B801" s="11"/>
+      <c r="E801" s="11"/>
     </row>
     <row r="802" spans="2:5" ht="13">
-      <c r="B802" s="12"/>
-      <c r="E802" s="12"/>
+      <c r="B802" s="11"/>
+      <c r="E802" s="11"/>
     </row>
     <row r="803" spans="2:5" ht="13">
-      <c r="B803" s="12"/>
-      <c r="E803" s="12"/>
+      <c r="B803" s="11"/>
+      <c r="E803" s="11"/>
     </row>
     <row r="804" spans="2:5" ht="13">
-      <c r="B804" s="12"/>
-      <c r="E804" s="12"/>
+      <c r="B804" s="11"/>
+      <c r="E804" s="11"/>
     </row>
     <row r="805" spans="2:5" ht="13">
-      <c r="B805" s="12"/>
-      <c r="E805" s="12"/>
+      <c r="B805" s="11"/>
+      <c r="E805" s="11"/>
     </row>
     <row r="806" spans="2:5" ht="13">
-      <c r="B806" s="12"/>
-      <c r="E806" s="12"/>
+      <c r="B806" s="11"/>
+      <c r="E806" s="11"/>
     </row>
     <row r="807" spans="2:5" ht="13">
-      <c r="B807" s="12"/>
-      <c r="E807" s="12"/>
+      <c r="B807" s="11"/>
+      <c r="E807" s="11"/>
     </row>
     <row r="808" spans="2:5" ht="13">
-      <c r="B808" s="12"/>
-      <c r="E808" s="12"/>
+      <c r="B808" s="11"/>
+      <c r="E808" s="11"/>
     </row>
     <row r="809" spans="2:5" ht="13">
-      <c r="B809" s="12"/>
-      <c r="E809" s="12"/>
+      <c r="B809" s="11"/>
+      <c r="E809" s="11"/>
     </row>
     <row r="810" spans="2:5" ht="13">
-      <c r="B810" s="12"/>
-      <c r="E810" s="12"/>
+      <c r="B810" s="11"/>
+      <c r="E810" s="11"/>
     </row>
     <row r="811" spans="2:5" ht="13">
-      <c r="B811" s="12"/>
-      <c r="E811" s="12"/>
+      <c r="B811" s="11"/>
+      <c r="E811" s="11"/>
     </row>
     <row r="812" spans="2:5" ht="13">
-      <c r="B812" s="12"/>
-      <c r="E812" s="12"/>
+      <c r="B812" s="11"/>
+      <c r="E812" s="11"/>
     </row>
     <row r="813" spans="2:5" ht="13">
-      <c r="B813" s="12"/>
-      <c r="E813" s="12"/>
+      <c r="B813" s="11"/>
+      <c r="E813" s="11"/>
     </row>
     <row r="814" spans="2:5" ht="13">
-      <c r="B814" s="12"/>
-      <c r="E814" s="12"/>
+      <c r="B814" s="11"/>
+      <c r="E814" s="11"/>
     </row>
     <row r="815" spans="2:5" ht="13">
-      <c r="B815" s="12"/>
-      <c r="E815" s="12"/>
+      <c r="B815" s="11"/>
+      <c r="E815" s="11"/>
     </row>
     <row r="816" spans="2:5" ht="13">
-      <c r="B816" s="12"/>
-      <c r="E816" s="12"/>
+      <c r="B816" s="11"/>
+      <c r="E816" s="11"/>
     </row>
     <row r="817" spans="2:5" ht="13">
-      <c r="B817" s="12"/>
-      <c r="E817" s="12"/>
+      <c r="B817" s="11"/>
+      <c r="E817" s="11"/>
     </row>
     <row r="818" spans="2:5" ht="13">
-      <c r="B818" s="12"/>
-      <c r="E818" s="12"/>
+      <c r="B818" s="11"/>
+      <c r="E818" s="11"/>
     </row>
     <row r="819" spans="2:5" ht="13">
-      <c r="B819" s="12"/>
-      <c r="E819" s="12"/>
+      <c r="B819" s="11"/>
+      <c r="E819" s="11"/>
     </row>
     <row r="820" spans="2:5" ht="13">
-      <c r="B820" s="12"/>
-      <c r="E820" s="12"/>
+      <c r="B820" s="11"/>
+      <c r="E820" s="11"/>
     </row>
     <row r="821" spans="2:5" ht="13">
-      <c r="B821" s="12"/>
-      <c r="E821" s="12"/>
+      <c r="B821" s="11"/>
+      <c r="E821" s="11"/>
     </row>
     <row r="822" spans="2:5" ht="13">
-      <c r="B822" s="12"/>
-      <c r="E822" s="12"/>
+      <c r="B822" s="11"/>
+      <c r="E822" s="11"/>
     </row>
     <row r="823" spans="2:5" ht="13">
-      <c r="B823" s="12"/>
-      <c r="E823" s="12"/>
+      <c r="B823" s="11"/>
+      <c r="E823" s="11"/>
     </row>
     <row r="824" spans="2:5" ht="13">
-      <c r="B824" s="12"/>
-      <c r="E824" s="12"/>
+      <c r="B824" s="11"/>
+      <c r="E824" s="11"/>
     </row>
     <row r="825" spans="2:5" ht="13">
-      <c r="B825" s="12"/>
-      <c r="E825" s="12"/>
+      <c r="B825" s="11"/>
+      <c r="E825" s="11"/>
     </row>
     <row r="826" spans="2:5" ht="13">
-      <c r="B826" s="12"/>
-      <c r="E826" s="12"/>
+      <c r="B826" s="11"/>
+      <c r="E826" s="11"/>
     </row>
     <row r="827" spans="2:5" ht="13">
-      <c r="B827" s="12"/>
-      <c r="E827" s="12"/>
+      <c r="B827" s="11"/>
+      <c r="E827" s="11"/>
     </row>
     <row r="828" spans="2:5" ht="13">
-      <c r="B828" s="12"/>
-      <c r="E828" s="12"/>
+      <c r="B828" s="11"/>
+      <c r="E828" s="11"/>
     </row>
     <row r="829" spans="2:5" ht="13">
-      <c r="B829" s="12"/>
-      <c r="E829" s="12"/>
+      <c r="B829" s="11"/>
+      <c r="E829" s="11"/>
     </row>
     <row r="830" spans="2:5" ht="13">
-      <c r="B830" s="12"/>
-      <c r="E830" s="12"/>
+      <c r="B830" s="11"/>
+      <c r="E830" s="11"/>
     </row>
     <row r="831" spans="2:5" ht="13">
-      <c r="B831" s="12"/>
-      <c r="E831" s="12"/>
+      <c r="B831" s="11"/>
+      <c r="E831" s="11"/>
     </row>
     <row r="832" spans="2:5" ht="13">
-      <c r="B832" s="12"/>
-      <c r="E832" s="12"/>
+      <c r="B832" s="11"/>
+      <c r="E832" s="11"/>
     </row>
     <row r="833" spans="2:5" ht="13">
-      <c r="B833" s="12"/>
-      <c r="E833" s="12"/>
+      <c r="B833" s="11"/>
+      <c r="E833" s="11"/>
     </row>
     <row r="834" spans="2:5" ht="13">
-      <c r="B834" s="12"/>
-      <c r="E834" s="12"/>
+      <c r="B834" s="11"/>
+      <c r="E834" s="11"/>
     </row>
     <row r="835" spans="2:5" ht="13">
-      <c r="B835" s="12"/>
-      <c r="E835" s="12"/>
+      <c r="B835" s="11"/>
+      <c r="E835" s="11"/>
     </row>
     <row r="836" spans="2:5" ht="13">
-      <c r="B836" s="12"/>
-      <c r="E836" s="12"/>
+      <c r="B836" s="11"/>
+      <c r="E836" s="11"/>
     </row>
     <row r="837" spans="2:5" ht="13">
-      <c r="B837" s="12"/>
-      <c r="E837" s="12"/>
+      <c r="B837" s="11"/>
+      <c r="E837" s="11"/>
     </row>
     <row r="838" spans="2:5" ht="13">
-      <c r="B838" s="12"/>
-      <c r="E838" s="12"/>
+      <c r="B838" s="11"/>
+      <c r="E838" s="11"/>
     </row>
     <row r="839" spans="2:5" ht="13">
-      <c r="B839" s="12"/>
-      <c r="E839" s="12"/>
+      <c r="B839" s="11"/>
+      <c r="E839" s="11"/>
     </row>
     <row r="840" spans="2:5" ht="13">
-      <c r="B840" s="12"/>
-      <c r="E840" s="12"/>
+      <c r="B840" s="11"/>
+      <c r="E840" s="11"/>
     </row>
     <row r="841" spans="2:5" ht="13">
-      <c r="B841" s="12"/>
-      <c r="E841" s="12"/>
+      <c r="B841" s="11"/>
+      <c r="E841" s="11"/>
     </row>
     <row r="842" spans="2:5" ht="13">
-      <c r="B842" s="12"/>
-      <c r="E842" s="12"/>
+      <c r="B842" s="11"/>
+      <c r="E842" s="11"/>
     </row>
     <row r="843" spans="2:5" ht="13">
-      <c r="B843" s="12"/>
-      <c r="E843" s="12"/>
+      <c r="B843" s="11"/>
+      <c r="E843" s="11"/>
     </row>
     <row r="844" spans="2:5" ht="13">
-      <c r="B844" s="12"/>
-      <c r="E844" s="12"/>
+      <c r="B844" s="11"/>
+      <c r="E844" s="11"/>
     </row>
     <row r="845" spans="2:5" ht="13">
-      <c r="B845" s="12"/>
-      <c r="E845" s="12"/>
+      <c r="B845" s="11"/>
+      <c r="E845" s="11"/>
     </row>
     <row r="846" spans="2:5" ht="13">
-      <c r="B846" s="12"/>
-      <c r="E846" s="12"/>
+      <c r="B846" s="11"/>
+      <c r="E846" s="11"/>
     </row>
     <row r="847" spans="2:5" ht="13">
-      <c r="B847" s="12"/>
-      <c r="E847" s="12"/>
+      <c r="B847" s="11"/>
+      <c r="E847" s="11"/>
     </row>
     <row r="848" spans="2:5" ht="13">
-      <c r="B848" s="12"/>
-      <c r="E848" s="12"/>
+      <c r="B848" s="11"/>
+      <c r="E848" s="11"/>
     </row>
     <row r="849" spans="2:5" ht="13">
-      <c r="B849" s="12"/>
-      <c r="E849" s="12"/>
+      <c r="B849" s="11"/>
+      <c r="E849" s="11"/>
     </row>
     <row r="850" spans="2:5" ht="13">
-      <c r="B850" s="12"/>
-      <c r="E850" s="12"/>
+      <c r="B850" s="11"/>
+      <c r="E850" s="11"/>
     </row>
     <row r="851" spans="2:5" ht="13">
-      <c r="B851" s="12"/>
-      <c r="E851" s="12"/>
+      <c r="B851" s="11"/>
+      <c r="E851" s="11"/>
     </row>
     <row r="852" spans="2:5" ht="13">
-      <c r="B852" s="12"/>
-      <c r="E852" s="12"/>
+      <c r="B852" s="11"/>
+      <c r="E852" s="11"/>
     </row>
     <row r="853" spans="2:5" ht="13">
-      <c r="B853" s="12"/>
-      <c r="E853" s="12"/>
+      <c r="B853" s="11"/>
+      <c r="E853" s="11"/>
     </row>
     <row r="854" spans="2:5" ht="13">
-      <c r="B854" s="12"/>
-      <c r="E854" s="12"/>
+      <c r="B854" s="11"/>
+      <c r="E854" s="11"/>
     </row>
     <row r="855" spans="2:5" ht="13">
-      <c r="B855" s="12"/>
-      <c r="E855" s="12"/>
+      <c r="B855" s="11"/>
+      <c r="E855" s="11"/>
     </row>
     <row r="856" spans="2:5" ht="13">
-      <c r="B856" s="12"/>
-      <c r="E856" s="12"/>
+      <c r="B856" s="11"/>
+      <c r="E856" s="11"/>
     </row>
     <row r="857" spans="2:5" ht="13">
-      <c r="B857" s="12"/>
-      <c r="E857" s="12"/>
+      <c r="B857" s="11"/>
+      <c r="E857" s="11"/>
     </row>
     <row r="858" spans="2:5" ht="13">
-      <c r="B858" s="12"/>
-      <c r="E858" s="12"/>
+      <c r="B858" s="11"/>
+      <c r="E858" s="11"/>
     </row>
     <row r="859" spans="2:5" ht="13">
-      <c r="B859" s="12"/>
-      <c r="E859" s="12"/>
+      <c r="B859" s="11"/>
+      <c r="E859" s="11"/>
     </row>
     <row r="860" spans="2:5" ht="13">
-      <c r="B860" s="12"/>
-      <c r="E860" s="12"/>
+      <c r="B860" s="11"/>
+      <c r="E860" s="11"/>
     </row>
     <row r="861" spans="2:5" ht="13">
-      <c r="B861" s="12"/>
-      <c r="E861" s="12"/>
+      <c r="B861" s="11"/>
+      <c r="E861" s="11"/>
     </row>
     <row r="862" spans="2:5" ht="13">
-      <c r="B862" s="12"/>
-      <c r="E862" s="12"/>
+      <c r="B862" s="11"/>
+      <c r="E862" s="11"/>
     </row>
     <row r="863" spans="2:5" ht="13">
-      <c r="B863" s="12"/>
-      <c r="E863" s="12"/>
+      <c r="B863" s="11"/>
+      <c r="E863" s="11"/>
     </row>
     <row r="864" spans="2:5" ht="13">
-      <c r="B864" s="12"/>
-      <c r="E864" s="12"/>
+      <c r="B864" s="11"/>
+      <c r="E864" s="11"/>
     </row>
     <row r="865" spans="2:5" ht="13">
-      <c r="B865" s="12"/>
-      <c r="E865" s="12"/>
+      <c r="B865" s="11"/>
+      <c r="E865" s="11"/>
     </row>
     <row r="866" spans="2:5" ht="13">
-      <c r="B866" s="12"/>
-      <c r="E866" s="12"/>
+      <c r="B866" s="11"/>
+      <c r="E866" s="11"/>
     </row>
     <row r="867" spans="2:5" ht="13">
-      <c r="B867" s="12"/>
-      <c r="E867" s="12"/>
+      <c r="B867" s="11"/>
+      <c r="E867" s="11"/>
     </row>
     <row r="868" spans="2:5" ht="13">
-      <c r="B868" s="12"/>
-      <c r="E868" s="12"/>
+      <c r="B868" s="11"/>
+      <c r="E868" s="11"/>
     </row>
     <row r="869" spans="2:5" ht="13">
-      <c r="B869" s="12"/>
-      <c r="E869" s="12"/>
+      <c r="B869" s="11"/>
+      <c r="E869" s="11"/>
     </row>
     <row r="870" spans="2:5" ht="13">
-      <c r="B870" s="12"/>
-      <c r="E870" s="12"/>
+      <c r="B870" s="11"/>
+      <c r="E870" s="11"/>
     </row>
     <row r="871" spans="2:5" ht="13">
-      <c r="B871" s="12"/>
-      <c r="E871" s="12"/>
+      <c r="B871" s="11"/>
+      <c r="E871" s="11"/>
     </row>
     <row r="872" spans="2:5" ht="13">
-      <c r="B872" s="12"/>
-      <c r="E872" s="12"/>
+      <c r="B872" s="11"/>
+      <c r="E872" s="11"/>
     </row>
     <row r="873" spans="2:5" ht="13">
-      <c r="B873" s="12"/>
-      <c r="E873" s="12"/>
+      <c r="B873" s="11"/>
+      <c r="E873" s="11"/>
     </row>
     <row r="874" spans="2:5" ht="13">
-      <c r="B874" s="12"/>
-      <c r="E874" s="12"/>
+      <c r="B874" s="11"/>
+      <c r="E874" s="11"/>
     </row>
     <row r="875" spans="2:5" ht="13">
-      <c r="B875" s="12"/>
-      <c r="E875" s="12"/>
+      <c r="B875" s="11"/>
+      <c r="E875" s="11"/>
     </row>
     <row r="876" spans="2:5" ht="13">
-      <c r="B876" s="12"/>
-      <c r="E876" s="12"/>
+      <c r="B876" s="11"/>
+      <c r="E876" s="11"/>
     </row>
     <row r="877" spans="2:5" ht="13">
-      <c r="B877" s="12"/>
-      <c r="E877" s="12"/>
+      <c r="B877" s="11"/>
+      <c r="E877" s="11"/>
     </row>
     <row r="878" spans="2:5" ht="13">
-      <c r="B878" s="12"/>
-      <c r="E878" s="12"/>
+      <c r="B878" s="11"/>
+      <c r="E878" s="11"/>
     </row>
     <row r="879" spans="2:5" ht="13">
-      <c r="B879" s="12"/>
-      <c r="E879" s="12"/>
+      <c r="B879" s="11"/>
+      <c r="E879" s="11"/>
     </row>
     <row r="880" spans="2:5" ht="13">
-      <c r="B880" s="12"/>
-      <c r="E880" s="12"/>
+      <c r="B880" s="11"/>
+      <c r="E880" s="11"/>
     </row>
     <row r="881" spans="2:5" ht="13">
-      <c r="B881" s="12"/>
-      <c r="E881" s="12"/>
+      <c r="B881" s="11"/>
+      <c r="E881" s="11"/>
     </row>
     <row r="882" spans="2:5" ht="13">
-      <c r="B882" s="12"/>
-      <c r="E882" s="12"/>
+      <c r="B882" s="11"/>
+      <c r="E882" s="11"/>
     </row>
     <row r="883" spans="2:5" ht="13">
-      <c r="B883" s="12"/>
-      <c r="E883" s="12"/>
+      <c r="B883" s="11"/>
+      <c r="E883" s="11"/>
     </row>
     <row r="884" spans="2:5" ht="13">
-      <c r="B884" s="12"/>
-      <c r="E884" s="12"/>
+      <c r="B884" s="11"/>
+      <c r="E884" s="11"/>
     </row>
     <row r="885" spans="2:5" ht="13">
-      <c r="B885" s="12"/>
-      <c r="E885" s="12"/>
+      <c r="B885" s="11"/>
+      <c r="E885" s="11"/>
     </row>
     <row r="886" spans="2:5" ht="13">
-      <c r="B886" s="12"/>
-      <c r="E886" s="12"/>
+      <c r="B886" s="11"/>
+      <c r="E886" s="11"/>
     </row>
     <row r="887" spans="2:5" ht="13">
-      <c r="B887" s="12"/>
-      <c r="E887" s="12"/>
+      <c r="B887" s="11"/>
+      <c r="E887" s="11"/>
     </row>
     <row r="888" spans="2:5" ht="13">
-      <c r="B888" s="12"/>
-      <c r="E888" s="12"/>
+      <c r="B888" s="11"/>
+      <c r="E888" s="11"/>
     </row>
     <row r="889" spans="2:5" ht="13">
-      <c r="B889" s="12"/>
-      <c r="E889" s="12"/>
+      <c r="B889" s="11"/>
+      <c r="E889" s="11"/>
     </row>
     <row r="890" spans="2:5" ht="13">
-      <c r="B890" s="12"/>
-      <c r="E890" s="12"/>
+      <c r="B890" s="11"/>
+      <c r="E890" s="11"/>
     </row>
     <row r="891" spans="2:5" ht="13">
-      <c r="B891" s="12"/>
-      <c r="E891" s="12"/>
+      <c r="B891" s="11"/>
+      <c r="E891" s="11"/>
     </row>
     <row r="892" spans="2:5" ht="13">
-      <c r="B892" s="12"/>
-      <c r="E892" s="12"/>
+      <c r="B892" s="11"/>
+      <c r="E892" s="11"/>
     </row>
     <row r="893" spans="2:5" ht="13">
-      <c r="B893" s="12"/>
-      <c r="E893" s="12"/>
+      <c r="B893" s="11"/>
+      <c r="E893" s="11"/>
     </row>
     <row r="894" spans="2:5" ht="13">
-      <c r="B894" s="12"/>
-      <c r="E894" s="12"/>
+      <c r="B894" s="11"/>
+      <c r="E894" s="11"/>
     </row>
     <row r="895" spans="2:5" ht="13">
-      <c r="B895" s="12"/>
-      <c r="E895" s="12"/>
+      <c r="B895" s="11"/>
+      <c r="E895" s="11"/>
     </row>
     <row r="896" spans="2:5" ht="13">
-      <c r="B896" s="12"/>
-      <c r="E896" s="12"/>
+      <c r="B896" s="11"/>
+      <c r="E896" s="11"/>
     </row>
     <row r="897" spans="2:5" ht="13">
-      <c r="B897" s="12"/>
-      <c r="E897" s="12"/>
+      <c r="B897" s="11"/>
+      <c r="E897" s="11"/>
     </row>
     <row r="898" spans="2:5" ht="13">
-      <c r="B898" s="12"/>
-      <c r="E898" s="12"/>
+      <c r="B898" s="11"/>
+      <c r="E898" s="11"/>
     </row>
     <row r="899" spans="2:5" ht="13">
-      <c r="B899" s="12"/>
-      <c r="E899" s="12"/>
+      <c r="B899" s="11"/>
+      <c r="E899" s="11"/>
     </row>
     <row r="900" spans="2:5" ht="13">
-      <c r="B900" s="12"/>
-      <c r="E900" s="12"/>
+      <c r="B900" s="11"/>
+      <c r="E900" s="11"/>
     </row>
     <row r="901" spans="2:5" ht="13">
-      <c r="B901" s="12"/>
-      <c r="E901" s="12"/>
+      <c r="B901" s="11"/>
+      <c r="E901" s="11"/>
     </row>
     <row r="902" spans="2:5" ht="13">
-      <c r="B902" s="12"/>
-      <c r="E902" s="12"/>
+      <c r="B902" s="11"/>
+      <c r="E902" s="11"/>
     </row>
     <row r="903" spans="2:5" ht="13">
-      <c r="B903" s="12"/>
-      <c r="E903" s="12"/>
+      <c r="B903" s="11"/>
+      <c r="E903" s="11"/>
     </row>
     <row r="904" spans="2:5" ht="13">
-      <c r="B904" s="12"/>
-      <c r="E904" s="12"/>
+      <c r="B904" s="11"/>
+      <c r="E904" s="11"/>
     </row>
     <row r="905" spans="2:5" ht="13">
-      <c r="B905" s="12"/>
-      <c r="E905" s="12"/>
+      <c r="B905" s="11"/>
+      <c r="E905" s="11"/>
     </row>
     <row r="906" spans="2:5" ht="13">
-      <c r="B906" s="12"/>
-      <c r="E906" s="12"/>
+      <c r="B906" s="11"/>
+      <c r="E906" s="11"/>
     </row>
     <row r="907" spans="2:5" ht="13">
-      <c r="B907" s="12"/>
-      <c r="E907" s="12"/>
+      <c r="B907" s="11"/>
+      <c r="E907" s="11"/>
     </row>
     <row r="908" spans="2:5" ht="13">
-      <c r="B908" s="12"/>
-      <c r="E908" s="12"/>
+      <c r="B908" s="11"/>
+      <c r="E908" s="11"/>
     </row>
     <row r="909" spans="2:5" ht="13">
-      <c r="B909" s="12"/>
-      <c r="E909" s="12"/>
+      <c r="B909" s="11"/>
+      <c r="E909" s="11"/>
     </row>
     <row r="910" spans="2:5" ht="13">
-      <c r="B910" s="12"/>
-      <c r="E910" s="12"/>
+      <c r="B910" s="11"/>
+      <c r="E910" s="11"/>
     </row>
     <row r="911" spans="2:5" ht="13">
-      <c r="B911" s="12"/>
-      <c r="E911" s="12"/>
+      <c r="B911" s="11"/>
+      <c r="E911" s="11"/>
     </row>
     <row r="912" spans="2:5" ht="13">
-      <c r="B912" s="12"/>
-      <c r="E912" s="12"/>
+      <c r="B912" s="11"/>
+      <c r="E912" s="11"/>
     </row>
     <row r="913" spans="2:5" ht="13">
-      <c r="B913" s="12"/>
-      <c r="E913" s="12"/>
+      <c r="B913" s="11"/>
+      <c r="E913" s="11"/>
     </row>
     <row r="914" spans="2:5" ht="13">
-      <c r="B914" s="12"/>
-      <c r="E914" s="12"/>
+      <c r="B914" s="11"/>
+      <c r="E914" s="11"/>
     </row>
     <row r="915" spans="2:5" ht="13">
-      <c r="B915" s="12"/>
-      <c r="E915" s="12"/>
+      <c r="B915" s="11"/>
+      <c r="E915" s="11"/>
     </row>
     <row r="916" spans="2:5" ht="13">
-      <c r="B916" s="12"/>
-      <c r="E916" s="12"/>
+      <c r="B916" s="11"/>
+      <c r="E916" s="11"/>
     </row>
     <row r="917" spans="2:5" ht="13">
-      <c r="B917" s="12"/>
-      <c r="E917" s="12"/>
+      <c r="B917" s="11"/>
+      <c r="E917" s="11"/>
     </row>
     <row r="918" spans="2:5" ht="13">
-      <c r="B918" s="12"/>
-      <c r="E918" s="12"/>
+      <c r="B918" s="11"/>
+      <c r="E918" s="11"/>
     </row>
     <row r="919" spans="2:5" ht="13">
-      <c r="B919" s="12"/>
-      <c r="E919" s="12"/>
+      <c r="B919" s="11"/>
+      <c r="E919" s="11"/>
     </row>
     <row r="920" spans="2:5" ht="13">
-      <c r="B920" s="12"/>
-      <c r="E920" s="12"/>
+      <c r="B920" s="11"/>
+      <c r="E920" s="11"/>
     </row>
     <row r="921" spans="2:5" ht="13">
-      <c r="B921" s="12"/>
-      <c r="E921" s="12"/>
+      <c r="B921" s="11"/>
+      <c r="E921" s="11"/>
     </row>
     <row r="922" spans="2:5" ht="13">
-      <c r="B922" s="12"/>
-      <c r="E922" s="12"/>
+      <c r="B922" s="11"/>
+      <c r="E922" s="11"/>
     </row>
     <row r="923" spans="2:5" ht="13">
-      <c r="B923" s="12"/>
-      <c r="E923" s="12"/>
+      <c r="B923" s="11"/>
+      <c r="E923" s="11"/>
     </row>
     <row r="924" spans="2:5" ht="13">
-      <c r="B924" s="12"/>
-      <c r="E924" s="12"/>
+      <c r="B924" s="11"/>
+      <c r="E924" s="11"/>
     </row>
     <row r="925" spans="2:5" ht="13">
-      <c r="B925" s="12"/>
-      <c r="E925" s="12"/>
+      <c r="B925" s="11"/>
+      <c r="E925" s="11"/>
     </row>
     <row r="926" spans="2:5" ht="13">
-      <c r="B926" s="12"/>
-      <c r="E926" s="12"/>
+      <c r="B926" s="11"/>
+      <c r="E926" s="11"/>
     </row>
     <row r="927" spans="2:5" ht="13">
-      <c r="B927" s="12"/>
-      <c r="E927" s="12"/>
+      <c r="B927" s="11"/>
+      <c r="E927" s="11"/>
     </row>
     <row r="928" spans="2:5" ht="13">
-      <c r="B928" s="12"/>
-      <c r="E928" s="12"/>
+      <c r="B928" s="11"/>
+      <c r="E928" s="11"/>
     </row>
     <row r="929" spans="2:5" ht="13">
-      <c r="B929" s="12"/>
-      <c r="E929" s="12"/>
+      <c r="B929" s="11"/>
+      <c r="E929" s="11"/>
     </row>
     <row r="930" spans="2:5" ht="13">
-      <c r="B930" s="12"/>
-      <c r="E930" s="12"/>
+      <c r="B930" s="11"/>
+      <c r="E930" s="11"/>
     </row>
     <row r="931" spans="2:5" ht="13">
-      <c r="B931" s="12"/>
-      <c r="E931" s="12"/>
+      <c r="B931" s="11"/>
+      <c r="E931" s="11"/>
     </row>
     <row r="932" spans="2:5" ht="13">
-      <c r="B932" s="12"/>
-      <c r="E932" s="12"/>
+      <c r="B932" s="11"/>
+      <c r="E932" s="11"/>
     </row>
     <row r="933" spans="2:5" ht="13">
-      <c r="B933" s="12"/>
-      <c r="E933" s="12"/>
+      <c r="B933" s="11"/>
+      <c r="E933" s="11"/>
     </row>
     <row r="934" spans="2:5" ht="13">
-      <c r="B934" s="12"/>
-      <c r="E934" s="12"/>
+      <c r="B934" s="11"/>
+      <c r="E934" s="11"/>
     </row>
     <row r="935" spans="2:5" ht="13">
-      <c r="B935" s="12"/>
-      <c r="E935" s="12"/>
+      <c r="B935" s="11"/>
+      <c r="E935" s="11"/>
     </row>
     <row r="936" spans="2:5" ht="13">
-      <c r="B936" s="12"/>
-      <c r="E936" s="12"/>
+      <c r="B936" s="11"/>
+      <c r="E936" s="11"/>
     </row>
     <row r="937" spans="2:5" ht="13">
-      <c r="B937" s="12"/>
-      <c r="E937" s="12"/>
+      <c r="B937" s="11"/>
+      <c r="E937" s="11"/>
     </row>
     <row r="938" spans="2:5" ht="13">
-      <c r="B938" s="12"/>
-      <c r="E938" s="12"/>
+      <c r="B938" s="11"/>
+      <c r="E938" s="11"/>
     </row>
     <row r="939" spans="2:5" ht="13">
-      <c r="B939" s="12"/>
-      <c r="E939" s="12"/>
+      <c r="B939" s="11"/>
+      <c r="E939" s="11"/>
     </row>
     <row r="940" spans="2:5" ht="13">
-      <c r="B940" s="12"/>
-      <c r="E940" s="12"/>
+      <c r="B940" s="11"/>
+      <c r="E940" s="11"/>
     </row>
     <row r="941" spans="2:5" ht="13">
-      <c r="B941" s="12"/>
-      <c r="E941" s="12"/>
+      <c r="B941" s="11"/>
+      <c r="E941" s="11"/>
     </row>
     <row r="942" spans="2:5" ht="13">
-      <c r="B942" s="12"/>
-      <c r="E942" s="12"/>
+      <c r="B942" s="11"/>
+      <c r="E942" s="11"/>
     </row>
     <row r="943" spans="2:5" ht="13">
-      <c r="B943" s="12"/>
-      <c r="E943" s="12"/>
+      <c r="B943" s="11"/>
+      <c r="E943" s="11"/>
     </row>
     <row r="944" spans="2:5" ht="13">
-      <c r="B944" s="12"/>
-      <c r="E944" s="12"/>
+      <c r="B944" s="11"/>
+      <c r="E944" s="11"/>
     </row>
     <row r="945" spans="2:5" ht="13">
-      <c r="B945" s="12"/>
-      <c r="E945" s="12"/>
+      <c r="B945" s="11"/>
+      <c r="E945" s="11"/>
     </row>
     <row r="946" spans="2:5" ht="13">
-      <c r="B946" s="12"/>
-      <c r="E946" s="12"/>
+      <c r="B946" s="11"/>
+      <c r="E946" s="11"/>
     </row>
     <row r="947" spans="2:5" ht="13">
-      <c r="B947" s="12"/>
-      <c r="E947" s="12"/>
+      <c r="B947" s="11"/>
+      <c r="E947" s="11"/>
     </row>
     <row r="948" spans="2:5" ht="13">
-      <c r="B948" s="12"/>
-      <c r="E948" s="12"/>
+      <c r="B948" s="11"/>
+      <c r="E948" s="11"/>
     </row>
     <row r="949" spans="2:5" ht="13">
-      <c r="B949" s="12"/>
-      <c r="E949" s="12"/>
+      <c r="B949" s="11"/>
+      <c r="E949" s="11"/>
     </row>
     <row r="950" spans="2:5" ht="13">
-      <c r="B950" s="12"/>
-      <c r="E950" s="12"/>
+      <c r="B950" s="11"/>
+      <c r="E950" s="11"/>
     </row>
     <row r="951" spans="2:5" ht="13">
-      <c r="B951" s="12"/>
-      <c r="E951" s="12"/>
+      <c r="B951" s="11"/>
+      <c r="E951" s="11"/>
     </row>
     <row r="952" spans="2:5" ht="13">
-      <c r="B952" s="12"/>
-      <c r="E952" s="12"/>
+      <c r="B952" s="11"/>
+      <c r="E952" s="11"/>
     </row>
     <row r="953" spans="2:5" ht="13">
-      <c r="B953" s="12"/>
-      <c r="E953" s="12"/>
+      <c r="B953" s="11"/>
+      <c r="E953" s="11"/>
     </row>
     <row r="954" spans="2:5" ht="13">
-      <c r="B954" s="12"/>
-      <c r="E954" s="12"/>
+      <c r="B954" s="11"/>
+      <c r="E954" s="11"/>
     </row>
     <row r="955" spans="2:5" ht="13">
-      <c r="B955" s="12"/>
-      <c r="E955" s="12"/>
+      <c r="B955" s="11"/>
+      <c r="E955" s="11"/>
     </row>
     <row r="956" spans="2:5" ht="13">
-      <c r="B956" s="12"/>
-      <c r="E956" s="12"/>
+      <c r="B956" s="11"/>
+      <c r="E956" s="11"/>
     </row>
     <row r="957" spans="2:5" ht="13">
-      <c r="B957" s="12"/>
-      <c r="E957" s="12"/>
+      <c r="B957" s="11"/>
+      <c r="E957" s="11"/>
     </row>
     <row r="958" spans="2:5" ht="13">
-      <c r="B958" s="12"/>
-      <c r="E958" s="12"/>
+      <c r="B958" s="11"/>
+      <c r="E958" s="11"/>
     </row>
     <row r="959" spans="2:5" ht="13">
-      <c r="B959" s="12"/>
-      <c r="E959" s="12"/>
+      <c r="B959" s="11"/>
+      <c r="E959" s="11"/>
     </row>
     <row r="960" spans="2:5" ht="13">
-      <c r="B960" s="12"/>
-      <c r="E960" s="12"/>
+      <c r="B960" s="11"/>
+      <c r="E960" s="11"/>
     </row>
     <row r="961" spans="2:5" ht="13">
-      <c r="B961" s="12"/>
-      <c r="E961" s="12"/>
+      <c r="B961" s="11"/>
+      <c r="E961" s="11"/>
     </row>
     <row r="962" spans="2:5" ht="13">
-      <c r="B962" s="12"/>
-      <c r="E962" s="12"/>
+      <c r="B962" s="11"/>
+      <c r="E962" s="11"/>
     </row>
     <row r="963" spans="2:5" ht="13">
-      <c r="B963" s="12"/>
-      <c r="E963" s="12"/>
+      <c r="B963" s="11"/>
+      <c r="E963" s="11"/>
     </row>
     <row r="964" spans="2:5" ht="13">
-      <c r="B964" s="12"/>
-      <c r="E964" s="12"/>
+      <c r="B964" s="11"/>
+      <c r="E964" s="11"/>
     </row>
     <row r="965" spans="2:5" ht="13">
-      <c r="B965" s="12"/>
-      <c r="E965" s="12"/>
+      <c r="B965" s="11"/>
+      <c r="E965" s="11"/>
     </row>
     <row r="966" spans="2:5" ht="13">
-      <c r="B966" s="12"/>
-      <c r="E966" s="12"/>
+      <c r="B966" s="11"/>
+      <c r="E966" s="11"/>
     </row>
     <row r="967" spans="2:5" ht="13">
-      <c r="B967" s="12"/>
-      <c r="E967" s="12"/>
+      <c r="B967" s="11"/>
+      <c r="E967" s="11"/>
     </row>
     <row r="968" spans="2:5" ht="13">
-      <c r="B968" s="12"/>
-      <c r="E968" s="12"/>
+      <c r="B968" s="11"/>
+      <c r="E968" s="11"/>
     </row>
     <row r="969" spans="2:5" ht="13">
-      <c r="B969" s="12"/>
-      <c r="E969" s="12"/>
+      <c r="B969" s="11"/>
+      <c r="E969" s="11"/>
     </row>
     <row r="970" spans="2:5" ht="13">
-      <c r="B970" s="12"/>
-      <c r="E970" s="12"/>
+      <c r="B970" s="11"/>
+      <c r="E970" s="11"/>
     </row>
     <row r="971" spans="2:5" ht="13">
-      <c r="B971" s="12"/>
-      <c r="E971" s="12"/>
+      <c r="B971" s="11"/>
+      <c r="E971" s="11"/>
     </row>
     <row r="972" spans="2:5" ht="13">
-      <c r="B972" s="12"/>
-      <c r="E972" s="12"/>
+      <c r="B972" s="11"/>
+      <c r="E972" s="11"/>
     </row>
     <row r="973" spans="2:5" ht="13">
-      <c r="B973" s="12"/>
-      <c r="E973" s="12"/>
+      <c r="B973" s="11"/>
+      <c r="E973" s="11"/>
     </row>
     <row r="974" spans="2:5" ht="13">
-      <c r="B974" s="12"/>
-      <c r="E974" s="12"/>
+      <c r="B974" s="11"/>
+      <c r="E974" s="11"/>
     </row>
     <row r="975" spans="2:5" ht="13">
-      <c r="B975" s="12"/>
-      <c r="E975" s="12"/>
+      <c r="B975" s="11"/>
+      <c r="E975" s="11"/>
     </row>
     <row r="976" spans="2:5" ht="13">
-      <c r="B976" s="12"/>
-      <c r="E976" s="12"/>
+      <c r="B976" s="11"/>
+      <c r="E976" s="11"/>
     </row>
     <row r="977" spans="2:5" ht="13">
-      <c r="B977" s="12"/>
-      <c r="E977" s="12"/>
+      <c r="B977" s="11"/>
+      <c r="E977" s="11"/>
     </row>
     <row r="978" spans="2:5" ht="13">
-      <c r="B978" s="12"/>
-      <c r="E978" s="12"/>
+      <c r="B978" s="11"/>
+      <c r="E978" s="11"/>
     </row>
     <row r="979" spans="2:5" ht="13">
-      <c r="B979" s="12"/>
-      <c r="E979" s="12"/>
+      <c r="B979" s="11"/>
+      <c r="E979" s="11"/>
     </row>
     <row r="980" spans="2:5" ht="13">
-      <c r="B980" s="12"/>
-      <c r="E980" s="12"/>
+      <c r="B980" s="11"/>
+      <c r="E980" s="11"/>
     </row>
     <row r="981" spans="2:5" ht="13">
-      <c r="B981" s="12"/>
-      <c r="E981" s="12"/>
+      <c r="B981" s="11"/>
+      <c r="E981" s="11"/>
     </row>
     <row r="982" spans="2:5" ht="13">
-      <c r="B982" s="12"/>
-      <c r="E982" s="12"/>
+      <c r="B982" s="11"/>
+      <c r="E982" s="11"/>
     </row>
     <row r="983" spans="2:5" ht="13">
-      <c r="B983" s="12"/>
-      <c r="E983" s="12"/>
+      <c r="B983" s="11"/>
+      <c r="E983" s="11"/>
     </row>
     <row r="984" spans="2:5" ht="13">
-      <c r="B984" s="12"/>
-      <c r="E984" s="12"/>
+      <c r="B984" s="11"/>
+      <c r="E984" s="11"/>
     </row>
     <row r="985" spans="2:5" ht="13">
-      <c r="B985" s="12"/>
-      <c r="E985" s="12"/>
+      <c r="B985" s="11"/>
+      <c r="E985" s="11"/>
     </row>
     <row r="986" spans="2:5" ht="13">
-      <c r="B986" s="12"/>
-      <c r="E986" s="12"/>
+      <c r="B986" s="11"/>
+      <c r="E986" s="11"/>
     </row>
     <row r="987" spans="2:5" ht="13">
-      <c r="B987" s="12"/>
-      <c r="E987" s="12"/>
+      <c r="B987" s="11"/>
+      <c r="E987" s="11"/>
     </row>
     <row r="988" spans="2:5" ht="13">
-      <c r="B988" s="12"/>
-      <c r="E988" s="12"/>
+      <c r="B988" s="11"/>
+      <c r="E988" s="11"/>
     </row>
     <row r="989" spans="2:5" ht="13">
-      <c r="B989" s="12"/>
-      <c r="E989" s="12"/>
+      <c r="B989" s="11"/>
+      <c r="E989" s="11"/>
     </row>
     <row r="990" spans="2:5" ht="13">
-      <c r="B990" s="12"/>
-      <c r="E990" s="12"/>
+      <c r="B990" s="11"/>
+      <c r="E990" s="11"/>
     </row>
     <row r="991" spans="2:5" ht="13">
-      <c r="B991" s="12"/>
-      <c r="E991" s="12"/>
+      <c r="B991" s="11"/>
+      <c r="E991" s="11"/>
     </row>
     <row r="992" spans="2:5" ht="13">
-      <c r="B992" s="12"/>
-      <c r="E992" s="12"/>
+      <c r="B992" s="11"/>
+      <c r="E992" s="11"/>
     </row>
     <row r="993" spans="2:5" ht="13">
-      <c r="B993" s="12"/>
-      <c r="E993" s="12"/>
+      <c r="B993" s="11"/>
+      <c r="E993" s="11"/>
     </row>
     <row r="994" spans="2:5" ht="13">
-      <c r="B994" s="12"/>
-      <c r="E994" s="12"/>
+      <c r="B994" s="11"/>
+      <c r="E994" s="11"/>
     </row>
     <row r="995" spans="2:5" ht="13">
-      <c r="B995" s="12"/>
-      <c r="E995" s="12"/>
+      <c r="B995" s="11"/>
+      <c r="E995" s="11"/>
     </row>
     <row r="996" spans="2:5" ht="13">
-      <c r="B996" s="12"/>
-      <c r="E996" s="12"/>
+      <c r="B996" s="11"/>
+      <c r="E996" s="11"/>
     </row>
     <row r="997" spans="2:5" ht="13">
-      <c r="B997" s="12"/>
-      <c r="E997" s="12"/>
+      <c r="B997" s="11"/>
+      <c r="E997" s="11"/>
     </row>
     <row r="998" spans="2:5" ht="13">
-      <c r="B998" s="12"/>
-      <c r="E998" s="12"/>
+      <c r="B998" s="11"/>
+      <c r="E998" s="11"/>
     </row>
     <row r="999" spans="2:5" ht="13">
-      <c r="B999" s="12"/>
-      <c r="E999" s="12"/>
+      <c r="B999" s="11"/>
+      <c r="E999" s="11"/>
     </row>
     <row r="1000" spans="2:5" ht="13">
-      <c r="B1000" s="12"/>
-      <c r="E1000" s="12"/>
+      <c r="B1000" s="11"/>
+      <c r="E1000" s="11"/>
     </row>
     <row r="1001" spans="2:5" ht="13">
-      <c r="B1001" s="12"/>
-      <c r="E1001" s="12"/>
+      <c r="B1001" s="11"/>
+      <c r="E1001" s="11"/>
     </row>
     <row r="1002" spans="2:5" ht="13">
-      <c r="B1002" s="12"/>
-      <c r="E1002" s="12"/>
+      <c r="B1002" s="11"/>
+      <c r="E1002" s="11"/>
     </row>
     <row r="1003" spans="2:5" ht="13">
-      <c r="B1003" s="12"/>
-      <c r="E1003" s="12"/>
+      <c r="B1003" s="11"/>
+      <c r="E1003" s="11"/>
     </row>
     <row r="1004" spans="2:5" ht="13">
-      <c r="B1004" s="12"/>
-      <c r="E1004" s="12"/>
+      <c r="B1004" s="11"/>
+      <c r="E1004" s="11"/>
     </row>
     <row r="1005" spans="2:5" ht="13">
-      <c r="B1005" s="12"/>
-      <c r="E1005" s="12"/>
+      <c r="B1005" s="11"/>
+      <c r="E1005" s="11"/>
     </row>
     <row r="1006" spans="2:5" ht="13">
-      <c r="B1006" s="12"/>
-      <c r="E1006" s="12"/>
+      <c r="B1006" s="11"/>
+      <c r="E1006" s="11"/>
     </row>
     <row r="1007" spans="2:5" ht="13">
-      <c r="B1007" s="12"/>
-      <c r="E1007" s="12"/>
+      <c r="B1007" s="11"/>
+      <c r="E1007" s="11"/>
     </row>
     <row r="1008" spans="2:5" ht="13">
-      <c r="B1008" s="12"/>
-      <c r="E1008" s="12"/>
+      <c r="B1008" s="11"/>
+      <c r="E1008" s="11"/>
     </row>
     <row r="1009" spans="2:5" ht="13">
-      <c r="B1009" s="12"/>
-      <c r="E1009" s="12"/>
+      <c r="B1009" s="11"/>
+      <c r="E1009" s="11"/>
     </row>
     <row r="1010" spans="2:5" ht="13">
-      <c r="B1010" s="12"/>
-      <c r="E1010" s="12"/>
+      <c r="B1010" s="11"/>
+      <c r="E1010" s="11"/>
     </row>
     <row r="1011" spans="2:5" ht="13">
-      <c r="B1011" s="12"/>
-      <c r="E1011" s="12"/>
+      <c r="B1011" s="11"/>
+      <c r="E1011" s="11"/>
     </row>
     <row r="1012" spans="2:5" ht="13">
-      <c r="B1012" s="12"/>
-      <c r="E1012" s="12"/>
+      <c r="B1012" s="11"/>
+      <c r="E1012" s="11"/>
     </row>
     <row r="1013" spans="2:5" ht="13">
-      <c r="B1013" s="12"/>
-      <c r="E1013" s="12"/>
+      <c r="B1013" s="11"/>
+      <c r="E1013" s="11"/>
     </row>
     <row r="1014" spans="2:5" ht="13">
-      <c r="B1014" s="12"/>
-      <c r="E1014" s="12"/>
+      <c r="B1014" s="11"/>
+      <c r="E1014" s="11"/>
     </row>
     <row r="1015" spans="2:5" ht="13">
-      <c r="B1015" s="12"/>
-      <c r="E1015" s="12"/>
+      <c r="B1015" s="11"/>
+      <c r="E1015" s="11"/>
     </row>
     <row r="1016" spans="2:5" ht="13">
-      <c r="B1016" s="12"/>
-      <c r="E1016" s="12"/>
+      <c r="B1016" s="11"/>
+      <c r="E1016" s="11"/>
     </row>
     <row r="1017" spans="2:5" ht="13">
-      <c r="B1017" s="12"/>
-      <c r="E1017" s="12"/>
+      <c r="B1017" s="11"/>
+      <c r="E1017" s="11"/>
     </row>
     <row r="1018" spans="2:5" ht="13">
-      <c r="B1018" s="12"/>
-      <c r="E1018" s="12"/>
+      <c r="B1018" s="11"/>
+      <c r="E1018" s="11"/>
     </row>
     <row r="1019" spans="2:5" ht="13">
-      <c r="B1019" s="12"/>
-      <c r="E1019" s="12"/>
+      <c r="B1019" s="11"/>
+      <c r="E1019" s="11"/>
     </row>
     <row r="1020" spans="2:5" ht="13">
-      <c r="B1020" s="12"/>
-      <c r="E1020" s="12"/>
+      <c r="B1020" s="11"/>
+      <c r="E1020" s="11"/>
     </row>
     <row r="1021" spans="2:5" ht="13">
-      <c r="B1021" s="12"/>
-      <c r="E1021" s="12"/>
+      <c r="B1021" s="11"/>
+      <c r="E1021" s="11"/>
     </row>
     <row r="1022" spans="2:5" ht="13">
-      <c r="B1022" s="12"/>
-      <c r="E1022" s="12"/>
+      <c r="B1022" s="11"/>
+      <c r="E1022" s="11"/>
     </row>
     <row r="1023" spans="2:5" ht="13">
-      <c r="B1023" s="12"/>
-      <c r="E1023" s="12"/>
+      <c r="B1023" s="11"/>
+      <c r="E1023" s="11"/>
     </row>
     <row r="1024" spans="2:5" ht="13">
-      <c r="B1024" s="12"/>
-      <c r="E1024" s="12"/>
+      <c r="B1024" s="11"/>
+      <c r="E1024" s="11"/>
     </row>
     <row r="1025" spans="2:5" ht="13">
-      <c r="B1025" s="12"/>
-      <c r="E1025" s="12"/>
+      <c r="B1025" s="11"/>
+      <c r="E1025" s="11"/>
     </row>
     <row r="1026" spans="2:5" ht="13">
-      <c r="B1026" s="12"/>
-      <c r="E1026" s="12"/>
+      <c r="B1026" s="11"/>
+      <c r="E1026" s="11"/>
     </row>
     <row r="1027" spans="2:5" ht="13">
-      <c r="B1027" s="12"/>
-      <c r="E1027" s="12"/>
+      <c r="B1027" s="11"/>
+      <c r="E1027" s="11"/>
     </row>
     <row r="1028" spans="2:5" ht="13">
-      <c r="B1028" s="12"/>
-      <c r="E1028" s="12"/>
+      <c r="B1028" s="11"/>
+      <c r="E1028" s="11"/>
     </row>
     <row r="1029" spans="2:5" ht="13">
-      <c r="B1029" s="12"/>
-      <c r="E1029" s="12"/>
+      <c r="B1029" s="11"/>
+      <c r="E1029" s="11"/>
     </row>
     <row r="1030" spans="2:5" ht="13">
-      <c r="B1030" s="12"/>
-      <c r="E1030" s="12"/>
+      <c r="B1030" s="11"/>
+      <c r="E1030" s="11"/>
     </row>
     <row r="1031" spans="2:5" ht="13">
-      <c r="B1031" s="12"/>
-      <c r="E1031" s="12"/>
+      <c r="B1031" s="11"/>
+      <c r="E1031" s="11"/>
     </row>
     <row r="1032" spans="2:5" ht="13">
-      <c r="B1032" s="12"/>
-      <c r="E1032" s="12"/>
+      <c r="B1032" s="11"/>
+      <c r="E1032" s="11"/>
     </row>
     <row r="1033" spans="2:5" ht="13">
-      <c r="B1033" s="12"/>
-      <c r="E1033" s="12"/>
+      <c r="B1033" s="11"/>
+      <c r="E1033" s="11"/>
     </row>
     <row r="1034" spans="2:5" ht="13">
-      <c r="B1034" s="12"/>
-      <c r="E1034" s="12"/>
+      <c r="B1034" s="11"/>
+      <c r="E1034" s="11"/>
     </row>
     <row r="1035" spans="2:5" ht="13">
-      <c r="B1035" s="12"/>
-      <c r="E1035" s="12"/>
+      <c r="B1035" s="11"/>
+      <c r="E1035" s="11"/>
     </row>
     <row r="1036" spans="2:5" ht="13">
-      <c r="B1036" s="12"/>
-      <c r="E1036" s="12"/>
+      <c r="B1036" s="11"/>
+      <c r="E1036" s="11"/>
     </row>
     <row r="1037" spans="2:5" ht="13">
-      <c r="B1037" s="12"/>
-      <c r="E1037" s="12"/>
+      <c r="B1037" s="11"/>
+      <c r="E1037" s="11"/>
     </row>
     <row r="1038" spans="2:5" ht="13">
-      <c r="B1038" s="12"/>
-      <c r="E1038" s="12"/>
+      <c r="B1038" s="11"/>
+      <c r="E1038" s="11"/>
     </row>
     <row r="1039" spans="2:5" ht="13">
-      <c r="B1039" s="12"/>
-      <c r="E1039" s="12"/>
+      <c r="B1039" s="11"/>
+      <c r="E1039" s="11"/>
     </row>
     <row r="1040" spans="2:5" ht="13">
-      <c r="B1040" s="12"/>
-      <c r="E1040" s="12"/>
+      <c r="B1040" s="11"/>
+      <c r="E1040" s="11"/>
     </row>
     <row r="1041" spans="2:5" ht="13">
-      <c r="B1041" s="12"/>
-      <c r="E1041" s="12"/>
+      <c r="B1041" s="11"/>
+      <c r="E1041" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/requirements/Requirements - conceptual mapping.xlsx
+++ b/requirements/Requirements - conceptual mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aiglesias/Documents/Conceptual-Mapping/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D200404D-A70C-2047-853A-52EEC19FEB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77608CAE-9E6F-4E4E-BCD5-03DC41699258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33180" yWindow="-900" windowWidth="34020" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="77">
   <si>
     <t>Identifier</t>
   </si>
@@ -199,6 +199,27 @@
     <t>cm-r25</t>
   </si>
   <si>
+    <t>cm-r26</t>
+  </si>
+  <si>
+    <t>cm-r27</t>
+  </si>
+  <si>
+    <t>cm-r28</t>
+  </si>
+  <si>
+    <t>cm-r29</t>
+  </si>
+  <si>
+    <t>cm-r30</t>
+  </si>
+  <si>
+    <t>cm-r31</t>
+  </si>
+  <si>
+    <t>cm-r32</t>
+  </si>
+  <si>
     <t>A statement map can be linked to another statement map with none, one or several conditions</t>
   </si>
   <si>
@@ -206,6 +227,48 @@
   </si>
   <si>
     <t>A function may have nested functions</t>
+  </si>
+  <si>
+    <t>Datatype and language tags can be generated from one or more data sources</t>
+  </si>
+  <si>
+    <t>Mapping challenges - C1 (KGC-WG)</t>
+  </si>
+  <si>
+    <t>A resource map can obtain data fields from different levels of iteration of the frame dat handles a data source</t>
+  </si>
+  <si>
+    <t>Mapping challenges - C2a (KGC-WG)</t>
+  </si>
+  <si>
+    <t>A frame can have nested frames to access multi-value references</t>
+  </si>
+  <si>
+    <t>Mapping challenges - C2b (KGC-WG)</t>
+  </si>
+  <si>
+    <t>A resource map can access multi-value references as lists or containers</t>
+  </si>
+  <si>
+    <t>Mapping challenges - C3, C4 (KGC-WG)</t>
+  </si>
+  <si>
+    <t>Links between statements can happen without condition</t>
+  </si>
+  <si>
+    <t>Mapping challenges - C5a (KGC-WG)</t>
+  </si>
+  <si>
+    <t>A statement map can have objects of type literal using data from different sources joining data sources in combined frames</t>
+  </si>
+  <si>
+    <t>Mapping challenges - C5b (KGC-WG)</t>
+  </si>
+  <si>
+    <t>A statement map can have datatype and language tags using data from different sources joining data sources in combined frames</t>
+  </si>
+  <si>
+    <t>Mapping challenges - C5c (KGC-WG)</t>
   </si>
 </sst>
 </file>
@@ -636,7 +699,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -934,7 +997,7 @@
         <v>50</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C24" s="5"/>
       <c r="E24" s="12" t="s">
@@ -946,7 +1009,7 @@
         <v>51</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C25" s="5"/>
       <c r="E25" s="12" t="s">
@@ -958,54 +1021,96 @@
         <v>52</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C26" s="5"/>
       <c r="E26" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="13">
-      <c r="A27" s="13"/>
-      <c r="B27" s="4"/>
+    <row r="27" spans="1:5" ht="28">
+      <c r="A27" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="C27" s="9"/>
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" spans="1:5" ht="13">
-      <c r="A28" s="13"/>
-      <c r="B28" s="4"/>
+      <c r="E27" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="42">
+      <c r="A28" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="C28" s="5"/>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="1:5" ht="13">
-      <c r="A29" s="13"/>
-      <c r="B29" s="12"/>
+      <c r="E28" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28">
+      <c r="A29" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="C29" s="5"/>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" spans="1:5" ht="13">
-      <c r="A30" s="13"/>
-      <c r="B30" s="4"/>
+      <c r="E29" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="28">
+      <c r="A30" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="C30" s="5"/>
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" spans="1:5" ht="13">
-      <c r="A31" s="13"/>
-      <c r="B31" s="4"/>
+      <c r="E30" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28">
+      <c r="A31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="C31" s="5"/>
-      <c r="E31" s="12"/>
-    </row>
-    <row r="32" spans="1:5" ht="13">
-      <c r="A32" s="13"/>
-      <c r="B32" s="4"/>
+      <c r="E31" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="42">
+      <c r="A32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="C32" s="5"/>
-      <c r="E32" s="12"/>
-    </row>
-    <row r="33" spans="1:5" ht="13">
-      <c r="A33" s="13"/>
-      <c r="B33" s="4"/>
+      <c r="E32" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="42">
+      <c r="A33" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="C33" s="5"/>
-      <c r="E33" s="12"/>
+      <c r="E33" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="13">
       <c r="A34" s="13"/>

--- a/requirements/Requirements - conceptual mapping.xlsx
+++ b/requirements/Requirements - conceptual mapping.xlsx
@@ -8,14 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aiglesias/Documents/Conceptual-Mapping/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77608CAE-9E6F-4E4E-BCD5-03DC41699258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60994AA-7ABF-8B46-828B-6E8768E7C557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33180" yWindow="-900" windowWidth="34020" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -38,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
   <si>
     <t>Identifier</t>
   </si>
@@ -139,24 +151,12 @@
     <t>A data source can specify the encoding</t>
   </si>
   <si>
-    <t>A mapping can describe metadata of the dataset/data source</t>
-  </si>
-  <si>
-    <t>A frame can describe multiple data sources with combined frames and nested frames</t>
-  </si>
-  <si>
     <t>A source frame describes exacly one data source</t>
   </si>
   <si>
     <t>A mapping specifies statement maps to declare the transformation of frames into RDF triples</t>
   </si>
   <si>
-    <t>A resource map can reference one or more data fields from one or more data sources</t>
-  </si>
-  <si>
-    <t>A data source can describe data source with different formats</t>
-  </si>
-  <si>
     <t>A resource map may contain data with different levels of iteration of a source</t>
   </si>
   <si>
@@ -217,9 +217,6 @@
     <t>cm-r31</t>
   </si>
   <si>
-    <t>cm-r32</t>
-  </si>
-  <si>
     <t>A statement map can be linked to another statement map with none, one or several conditions</t>
   </si>
   <si>
@@ -229,12 +226,6 @@
     <t>A function may have nested functions</t>
   </si>
   <si>
-    <t>Datatype and language tags can be generated from one or more data sources</t>
-  </si>
-  <si>
-    <t>Mapping challenges - C1 (KGC-WG)</t>
-  </si>
-  <si>
     <t>A resource map can obtain data fields from different levels of iteration of the frame dat handles a data source</t>
   </si>
   <si>
@@ -253,29 +244,44 @@
     <t>Mapping challenges - C3, C4 (KGC-WG)</t>
   </si>
   <si>
-    <t>Links between statements can happen without condition</t>
-  </si>
-  <si>
-    <t>Mapping challenges - C5a (KGC-WG)</t>
-  </si>
-  <si>
-    <t>A statement map can have objects of type literal using data from different sources joining data sources in combined frames</t>
-  </si>
-  <si>
     <t>Mapping challenges - C5b (KGC-WG)</t>
   </si>
   <si>
-    <t>A statement map can have datatype and language tags using data from different sources joining data sources in combined frames</t>
-  </si>
-  <si>
     <t>Mapping challenges - C5c (KGC-WG)</t>
+  </si>
+  <si>
+    <t>A data source may have a specified data access service</t>
+  </si>
+  <si>
+    <t>A data source can describe data in different formats specifying its Media Type</t>
+  </si>
+  <si>
+    <t>A mapping can include metadata on the dataset and/or data source</t>
+  </si>
+  <si>
+    <t>Multiple data sources can be described with combined frames and nested frames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A resource map can reference one or more data fields from one or more data sources </t>
+  </si>
+  <si>
+    <t>Comparison framework analysis and Mapping challenges - C1 (KGC-WG)</t>
+  </si>
+  <si>
+    <t>Comparison framework analysis and Mapping challenges - C5a (KGC-WG)</t>
+  </si>
+  <si>
+    <t>A statement map can have objects of type literal using data from different sources using combined frames</t>
+  </si>
+  <si>
+    <t>A statement map can have datatype and language tags using data from different sources using combined frames</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -296,11 +302,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="'Arial'"/>
@@ -314,12 +315,6 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -353,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -378,9 +373,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -392,10 +384,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -697,9 +689,9 @@
   </sheetPr>
   <dimension ref="A1:E1041"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -729,393 +721,378 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="28">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:5" ht="28">
+      <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14">
+      <c r="A5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="E4" s="12" t="s">
+      <c r="C5" s="5"/>
+      <c r="E5" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28">
-      <c r="A5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="12" t="s">
+    <row r="6" spans="1:5" ht="28">
+      <c r="A6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="E5" s="12" t="s">
+      <c r="C6" s="5"/>
+      <c r="E6" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14">
-      <c r="A6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="15" t="s">
+    <row r="7" spans="1:5" ht="14">
+      <c r="A7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="E6" s="12" t="s">
+      <c r="C7" s="5"/>
+      <c r="E7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28">
-      <c r="A7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="14" t="s">
+    <row r="8" spans="1:5" ht="29" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="E8" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28">
+      <c r="A9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="E9" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28">
+      <c r="A10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28">
+      <c r="A11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14">
+      <c r="A12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28">
+      <c r="A13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="E13" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="42">
+      <c r="A14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="E14" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28">
+      <c r="A15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="E15" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28">
+      <c r="A16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="E16" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14">
+      <c r="A17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="E17" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28">
+      <c r="A18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="E18" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14">
+      <c r="A19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="E7" s="12" t="s">
+      <c r="C19" s="5"/>
+      <c r="E19" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29" customHeight="1">
-      <c r="A8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="E8" s="12" t="s">
+    <row r="20" spans="1:5" ht="28">
+      <c r="A20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="E20" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28">
-      <c r="A9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="E9" s="12" t="s">
+    <row r="21" spans="1:5" ht="28">
+      <c r="A21" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="E21" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28">
-      <c r="A10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="12" t="s">
+    <row r="22" spans="1:5" ht="15" customHeight="1">
+      <c r="A22" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="E22" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14">
-      <c r="A11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="12" t="s">
+    <row r="23" spans="1:5" ht="28">
+      <c r="A23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="E23" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28">
-      <c r="A12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="14" t="s">
+    <row r="24" spans="1:5" ht="29" customHeight="1">
+      <c r="A24" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="E24" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="42">
+      <c r="A25" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="E12" s="12" t="s">
+      <c r="B25" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="E25" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28">
+      <c r="A26" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="E26" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="42">
-      <c r="A13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="E13" s="12" t="s">
+    <row r="27" spans="1:5" ht="14">
+      <c r="A27" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="E27" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28">
-      <c r="A14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="E14" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="28">
-      <c r="A15" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="E15" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14">
-      <c r="A16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="E16" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="28">
-      <c r="A17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="E17" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14">
-      <c r="A18" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="E18" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="28">
-      <c r="A19" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="28">
-      <c r="A20" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="E20" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14">
-      <c r="A21" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="E21" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1">
-      <c r="A22" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="E22" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14">
-      <c r="A23" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="E23" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="29" customHeight="1">
-      <c r="A24" s="13" t="s">
+    <row r="28" spans="1:5" ht="42">
+      <c r="A28" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B28" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="E28" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28">
+      <c r="A29" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="E24" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="28">
-      <c r="A25" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="14" t="s">
+      <c r="C29" s="5"/>
+      <c r="E29" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="E25" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="14">
-      <c r="A26" s="13" t="s">
+    </row>
+    <row r="30" spans="1:5" ht="28">
+      <c r="A30" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="E26" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="28">
-      <c r="A27" s="13" t="s">
+      <c r="C30" s="5"/>
+      <c r="E30" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="42">
+      <c r="A31" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="E27" s="14" t="s">
+      <c r="B31" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="E31" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="42">
-      <c r="A28" s="13" t="s">
+    <row r="32" spans="1:5" ht="42">
+      <c r="A32" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B32" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="E32" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="E28" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="28">
-      <c r="A29" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="E29" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="28">
-      <c r="A30" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="E30" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="28">
-      <c r="A31" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="E31" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="42">
-      <c r="A32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="E32" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="42">
-      <c r="A33" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="E33" s="14" t="s">
-        <v>76</v>
-      </c>
+    </row>
+    <row r="33" spans="1:5" ht="13">
+      <c r="A33" s="12"/>
     </row>
     <row r="34" spans="1:5" ht="13">
-      <c r="A34" s="13"/>
-      <c r="B34" s="4"/>
-      <c r="E34" s="12"/>
+      <c r="A34" s="12"/>
     </row>
     <row r="35" spans="1:5" ht="13">
       <c r="A35" s="3"/>
@@ -1135,7 +1112,7 @@
     </row>
     <row r="38" spans="1:5" ht="13">
       <c r="A38" s="3"/>
-      <c r="B38" s="10"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="5"/>
       <c r="E38" s="8"/>
     </row>
@@ -1244,3951 +1221,3951 @@
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" ht="13">
-      <c r="B56" s="11"/>
-      <c r="E56" s="11"/>
+      <c r="B56" s="10"/>
+      <c r="E56" s="10"/>
     </row>
     <row r="57" spans="1:5" ht="13">
-      <c r="B57" s="11"/>
-      <c r="E57" s="11"/>
+      <c r="B57" s="10"/>
+      <c r="E57" s="10"/>
     </row>
     <row r="58" spans="1:5" ht="13">
-      <c r="B58" s="11"/>
-      <c r="E58" s="11"/>
+      <c r="B58" s="10"/>
+      <c r="E58" s="10"/>
     </row>
     <row r="59" spans="1:5" ht="13">
-      <c r="B59" s="11"/>
-      <c r="E59" s="11"/>
+      <c r="B59" s="10"/>
+      <c r="E59" s="10"/>
     </row>
     <row r="60" spans="1:5" ht="13">
-      <c r="B60" s="11"/>
-      <c r="E60" s="11"/>
+      <c r="B60" s="10"/>
+      <c r="E60" s="10"/>
     </row>
     <row r="61" spans="1:5" ht="13">
-      <c r="B61" s="11"/>
-      <c r="E61" s="11"/>
+      <c r="B61" s="10"/>
+      <c r="E61" s="10"/>
     </row>
     <row r="62" spans="1:5" ht="13">
-      <c r="B62" s="11"/>
-      <c r="E62" s="11"/>
+      <c r="B62" s="10"/>
+      <c r="E62" s="10"/>
     </row>
     <row r="63" spans="1:5" ht="13">
-      <c r="B63" s="11"/>
-      <c r="E63" s="11"/>
+      <c r="B63" s="10"/>
+      <c r="E63" s="10"/>
     </row>
     <row r="64" spans="1:5" ht="13">
-      <c r="B64" s="11"/>
-      <c r="E64" s="11"/>
+      <c r="B64" s="10"/>
+      <c r="E64" s="10"/>
     </row>
     <row r="65" spans="2:5" ht="13">
-      <c r="B65" s="11"/>
-      <c r="E65" s="11"/>
+      <c r="B65" s="10"/>
+      <c r="E65" s="10"/>
     </row>
     <row r="66" spans="2:5" ht="13">
-      <c r="B66" s="11"/>
-      <c r="E66" s="11"/>
+      <c r="B66" s="10"/>
+      <c r="E66" s="10"/>
     </row>
     <row r="67" spans="2:5" ht="13">
-      <c r="B67" s="11"/>
-      <c r="E67" s="11"/>
+      <c r="B67" s="10"/>
+      <c r="E67" s="10"/>
     </row>
     <row r="68" spans="2:5" ht="13">
-      <c r="B68" s="11"/>
-      <c r="E68" s="11"/>
+      <c r="B68" s="10"/>
+      <c r="E68" s="10"/>
     </row>
     <row r="69" spans="2:5" ht="13">
-      <c r="B69" s="11"/>
-      <c r="E69" s="11"/>
+      <c r="B69" s="10"/>
+      <c r="E69" s="10"/>
     </row>
     <row r="70" spans="2:5" ht="13">
-      <c r="B70" s="11"/>
-      <c r="E70" s="11"/>
+      <c r="B70" s="10"/>
+      <c r="E70" s="10"/>
     </row>
     <row r="71" spans="2:5" ht="13">
-      <c r="B71" s="11"/>
-      <c r="E71" s="11"/>
+      <c r="B71" s="10"/>
+      <c r="E71" s="10"/>
     </row>
     <row r="72" spans="2:5" ht="13">
-      <c r="B72" s="11"/>
-      <c r="E72" s="11"/>
+      <c r="B72" s="10"/>
+      <c r="E72" s="10"/>
     </row>
     <row r="73" spans="2:5" ht="13">
-      <c r="B73" s="11"/>
-      <c r="E73" s="11"/>
+      <c r="B73" s="10"/>
+      <c r="E73" s="10"/>
     </row>
     <row r="74" spans="2:5" ht="13">
-      <c r="B74" s="11"/>
-      <c r="E74" s="11"/>
+      <c r="B74" s="10"/>
+      <c r="E74" s="10"/>
     </row>
     <row r="75" spans="2:5" ht="13">
-      <c r="B75" s="11"/>
-      <c r="E75" s="11"/>
+      <c r="B75" s="10"/>
+      <c r="E75" s="10"/>
     </row>
     <row r="76" spans="2:5" ht="13">
-      <c r="B76" s="11"/>
-      <c r="E76" s="11"/>
+      <c r="B76" s="10"/>
+      <c r="E76" s="10"/>
     </row>
     <row r="77" spans="2:5" ht="13">
-      <c r="B77" s="11"/>
-      <c r="E77" s="11"/>
+      <c r="B77" s="10"/>
+      <c r="E77" s="10"/>
     </row>
     <row r="78" spans="2:5" ht="13">
-      <c r="B78" s="11"/>
-      <c r="E78" s="11"/>
+      <c r="B78" s="10"/>
+      <c r="E78" s="10"/>
     </row>
     <row r="79" spans="2:5" ht="13">
-      <c r="B79" s="11"/>
-      <c r="E79" s="11"/>
+      <c r="B79" s="10"/>
+      <c r="E79" s="10"/>
     </row>
     <row r="80" spans="2:5" ht="13">
-      <c r="B80" s="11"/>
-      <c r="E80" s="11"/>
+      <c r="B80" s="10"/>
+      <c r="E80" s="10"/>
     </row>
     <row r="81" spans="2:5" ht="13">
-      <c r="B81" s="11"/>
-      <c r="E81" s="11"/>
+      <c r="B81" s="10"/>
+      <c r="E81" s="10"/>
     </row>
     <row r="82" spans="2:5" ht="13">
-      <c r="B82" s="11"/>
-      <c r="E82" s="11"/>
+      <c r="B82" s="10"/>
+      <c r="E82" s="10"/>
     </row>
     <row r="83" spans="2:5" ht="13">
-      <c r="B83" s="11"/>
-      <c r="E83" s="11"/>
+      <c r="B83" s="10"/>
+      <c r="E83" s="10"/>
     </row>
     <row r="84" spans="2:5" ht="13">
-      <c r="B84" s="11"/>
-      <c r="E84" s="11"/>
+      <c r="B84" s="10"/>
+      <c r="E84" s="10"/>
     </row>
     <row r="85" spans="2:5" ht="13">
-      <c r="B85" s="11"/>
-      <c r="E85" s="11"/>
+      <c r="B85" s="10"/>
+      <c r="E85" s="10"/>
     </row>
     <row r="86" spans="2:5" ht="13">
-      <c r="B86" s="11"/>
-      <c r="E86" s="11"/>
+      <c r="B86" s="10"/>
+      <c r="E86" s="10"/>
     </row>
     <row r="87" spans="2:5" ht="13">
-      <c r="B87" s="11"/>
-      <c r="E87" s="11"/>
+      <c r="B87" s="10"/>
+      <c r="E87" s="10"/>
     </row>
     <row r="88" spans="2:5" ht="13">
-      <c r="B88" s="11"/>
-      <c r="E88" s="11"/>
+      <c r="B88" s="10"/>
+      <c r="E88" s="10"/>
     </row>
     <row r="89" spans="2:5" ht="13">
-      <c r="B89" s="11"/>
-      <c r="E89" s="11"/>
+      <c r="B89" s="10"/>
+      <c r="E89" s="10"/>
     </row>
     <row r="90" spans="2:5" ht="13">
-      <c r="B90" s="11"/>
-      <c r="E90" s="11"/>
+      <c r="B90" s="10"/>
+      <c r="E90" s="10"/>
     </row>
     <row r="91" spans="2:5" ht="13">
-      <c r="B91" s="11"/>
-      <c r="E91" s="11"/>
+      <c r="B91" s="10"/>
+      <c r="E91" s="10"/>
     </row>
     <row r="92" spans="2:5" ht="13">
-      <c r="B92" s="11"/>
-      <c r="E92" s="11"/>
+      <c r="B92" s="10"/>
+      <c r="E92" s="10"/>
     </row>
     <row r="93" spans="2:5" ht="13">
-      <c r="B93" s="11"/>
-      <c r="E93" s="11"/>
+      <c r="B93" s="10"/>
+      <c r="E93" s="10"/>
     </row>
     <row r="94" spans="2:5" ht="13">
-      <c r="B94" s="11"/>
-      <c r="E94" s="11"/>
+      <c r="B94" s="10"/>
+      <c r="E94" s="10"/>
     </row>
     <row r="95" spans="2:5" ht="13">
-      <c r="B95" s="11"/>
-      <c r="E95" s="11"/>
+      <c r="B95" s="10"/>
+      <c r="E95" s="10"/>
     </row>
     <row r="96" spans="2:5" ht="13">
-      <c r="B96" s="11"/>
-      <c r="E96" s="11"/>
+      <c r="B96" s="10"/>
+      <c r="E96" s="10"/>
     </row>
     <row r="97" spans="2:5" ht="13">
-      <c r="B97" s="11"/>
-      <c r="E97" s="11"/>
+      <c r="B97" s="10"/>
+      <c r="E97" s="10"/>
     </row>
     <row r="98" spans="2:5" ht="13">
-      <c r="B98" s="11"/>
-      <c r="E98" s="11"/>
+      <c r="B98" s="10"/>
+      <c r="E98" s="10"/>
     </row>
     <row r="99" spans="2:5" ht="13">
-      <c r="B99" s="11"/>
-      <c r="E99" s="11"/>
+      <c r="B99" s="10"/>
+      <c r="E99" s="10"/>
     </row>
     <row r="100" spans="2:5" ht="13">
-      <c r="B100" s="11"/>
-      <c r="E100" s="11"/>
+      <c r="B100" s="10"/>
+      <c r="E100" s="10"/>
     </row>
     <row r="101" spans="2:5" ht="13">
-      <c r="B101" s="11"/>
-      <c r="E101" s="11"/>
+      <c r="B101" s="10"/>
+      <c r="E101" s="10"/>
     </row>
     <row r="102" spans="2:5" ht="13">
-      <c r="B102" s="11"/>
-      <c r="E102" s="11"/>
+      <c r="B102" s="10"/>
+      <c r="E102" s="10"/>
     </row>
     <row r="103" spans="2:5" ht="13">
-      <c r="B103" s="11"/>
-      <c r="E103" s="11"/>
+      <c r="B103" s="10"/>
+      <c r="E103" s="10"/>
     </row>
     <row r="104" spans="2:5" ht="13">
-      <c r="B104" s="11"/>
-      <c r="E104" s="11"/>
+      <c r="B104" s="10"/>
+      <c r="E104" s="10"/>
     </row>
     <row r="105" spans="2:5" ht="13">
-      <c r="B105" s="11"/>
-      <c r="E105" s="11"/>
+      <c r="B105" s="10"/>
+      <c r="E105" s="10"/>
     </row>
     <row r="106" spans="2:5" ht="13">
-      <c r="B106" s="11"/>
-      <c r="E106" s="11"/>
+      <c r="B106" s="10"/>
+      <c r="E106" s="10"/>
     </row>
     <row r="107" spans="2:5" ht="13">
-      <c r="B107" s="11"/>
-      <c r="E107" s="11"/>
+      <c r="B107" s="10"/>
+      <c r="E107" s="10"/>
     </row>
     <row r="108" spans="2:5" ht="13">
-      <c r="B108" s="11"/>
-      <c r="E108" s="11"/>
+      <c r="B108" s="10"/>
+      <c r="E108" s="10"/>
     </row>
     <row r="109" spans="2:5" ht="13">
-      <c r="B109" s="11"/>
-      <c r="E109" s="11"/>
+      <c r="B109" s="10"/>
+      <c r="E109" s="10"/>
     </row>
     <row r="110" spans="2:5" ht="13">
-      <c r="B110" s="11"/>
-      <c r="E110" s="11"/>
+      <c r="B110" s="10"/>
+      <c r="E110" s="10"/>
     </row>
     <row r="111" spans="2:5" ht="13">
-      <c r="B111" s="11"/>
-      <c r="E111" s="11"/>
+      <c r="B111" s="10"/>
+      <c r="E111" s="10"/>
     </row>
     <row r="112" spans="2:5" ht="13">
-      <c r="B112" s="11"/>
-      <c r="E112" s="11"/>
+      <c r="B112" s="10"/>
+      <c r="E112" s="10"/>
     </row>
     <row r="113" spans="2:5" ht="13">
-      <c r="B113" s="11"/>
-      <c r="E113" s="11"/>
+      <c r="B113" s="10"/>
+      <c r="E113" s="10"/>
     </row>
     <row r="114" spans="2:5" ht="13">
-      <c r="B114" s="11"/>
-      <c r="E114" s="11"/>
+      <c r="B114" s="10"/>
+      <c r="E114" s="10"/>
     </row>
     <row r="115" spans="2:5" ht="13">
-      <c r="B115" s="11"/>
-      <c r="E115" s="11"/>
+      <c r="B115" s="10"/>
+      <c r="E115" s="10"/>
     </row>
     <row r="116" spans="2:5" ht="13">
-      <c r="B116" s="11"/>
-      <c r="E116" s="11"/>
+      <c r="B116" s="10"/>
+      <c r="E116" s="10"/>
     </row>
     <row r="117" spans="2:5" ht="13">
-      <c r="B117" s="11"/>
-      <c r="E117" s="11"/>
+      <c r="B117" s="10"/>
+      <c r="E117" s="10"/>
     </row>
     <row r="118" spans="2:5" ht="13">
-      <c r="B118" s="11"/>
-      <c r="E118" s="11"/>
+      <c r="B118" s="10"/>
+      <c r="E118" s="10"/>
     </row>
     <row r="119" spans="2:5" ht="13">
-      <c r="B119" s="11"/>
-      <c r="E119" s="11"/>
+      <c r="B119" s="10"/>
+      <c r="E119" s="10"/>
     </row>
     <row r="120" spans="2:5" ht="13">
-      <c r="B120" s="11"/>
-      <c r="E120" s="11"/>
+      <c r="B120" s="10"/>
+      <c r="E120" s="10"/>
     </row>
     <row r="121" spans="2:5" ht="13">
-      <c r="B121" s="11"/>
-      <c r="E121" s="11"/>
+      <c r="B121" s="10"/>
+      <c r="E121" s="10"/>
     </row>
     <row r="122" spans="2:5" ht="13">
-      <c r="B122" s="11"/>
-      <c r="E122" s="11"/>
+      <c r="B122" s="10"/>
+      <c r="E122" s="10"/>
     </row>
     <row r="123" spans="2:5" ht="13">
-      <c r="B123" s="11"/>
-      <c r="E123" s="11"/>
+      <c r="B123" s="10"/>
+      <c r="E123" s="10"/>
     </row>
     <row r="124" spans="2:5" ht="13">
-      <c r="B124" s="11"/>
-      <c r="E124" s="11"/>
+      <c r="B124" s="10"/>
+      <c r="E124" s="10"/>
     </row>
     <row r="125" spans="2:5" ht="13">
-      <c r="B125" s="11"/>
-      <c r="E125" s="11"/>
+      <c r="B125" s="10"/>
+      <c r="E125" s="10"/>
     </row>
     <row r="126" spans="2:5" ht="13">
-      <c r="B126" s="11"/>
-      <c r="E126" s="11"/>
+      <c r="B126" s="10"/>
+      <c r="E126" s="10"/>
     </row>
     <row r="127" spans="2:5" ht="13">
-      <c r="B127" s="11"/>
-      <c r="E127" s="11"/>
+      <c r="B127" s="10"/>
+      <c r="E127" s="10"/>
     </row>
     <row r="128" spans="2:5" ht="13">
-      <c r="B128" s="11"/>
-      <c r="E128" s="11"/>
+      <c r="B128" s="10"/>
+      <c r="E128" s="10"/>
     </row>
     <row r="129" spans="2:5" ht="13">
-      <c r="B129" s="11"/>
-      <c r="E129" s="11"/>
+      <c r="B129" s="10"/>
+      <c r="E129" s="10"/>
     </row>
     <row r="130" spans="2:5" ht="13">
-      <c r="B130" s="11"/>
-      <c r="E130" s="11"/>
+      <c r="B130" s="10"/>
+      <c r="E130" s="10"/>
     </row>
     <row r="131" spans="2:5" ht="13">
-      <c r="B131" s="11"/>
-      <c r="E131" s="11"/>
+      <c r="B131" s="10"/>
+      <c r="E131" s="10"/>
     </row>
     <row r="132" spans="2:5" ht="13">
-      <c r="B132" s="11"/>
-      <c r="E132" s="11"/>
+      <c r="B132" s="10"/>
+      <c r="E132" s="10"/>
     </row>
     <row r="133" spans="2:5" ht="13">
-      <c r="B133" s="11"/>
-      <c r="E133" s="11"/>
+      <c r="B133" s="10"/>
+      <c r="E133" s="10"/>
     </row>
     <row r="134" spans="2:5" ht="13">
-      <c r="B134" s="11"/>
-      <c r="E134" s="11"/>
+      <c r="B134" s="10"/>
+      <c r="E134" s="10"/>
     </row>
     <row r="135" spans="2:5" ht="13">
-      <c r="B135" s="11"/>
-      <c r="E135" s="11"/>
+      <c r="B135" s="10"/>
+      <c r="E135" s="10"/>
     </row>
     <row r="136" spans="2:5" ht="13">
-      <c r="B136" s="11"/>
-      <c r="E136" s="11"/>
+      <c r="B136" s="10"/>
+      <c r="E136" s="10"/>
     </row>
     <row r="137" spans="2:5" ht="13">
-      <c r="B137" s="11"/>
-      <c r="E137" s="11"/>
+      <c r="B137" s="10"/>
+      <c r="E137" s="10"/>
     </row>
     <row r="138" spans="2:5" ht="13">
-      <c r="B138" s="11"/>
-      <c r="E138" s="11"/>
+      <c r="B138" s="10"/>
+      <c r="E138" s="10"/>
     </row>
     <row r="139" spans="2:5" ht="13">
-      <c r="B139" s="11"/>
-      <c r="E139" s="11"/>
+      <c r="B139" s="10"/>
+      <c r="E139" s="10"/>
     </row>
     <row r="140" spans="2:5" ht="13">
-      <c r="B140" s="11"/>
-      <c r="E140" s="11"/>
+      <c r="B140" s="10"/>
+      <c r="E140" s="10"/>
     </row>
     <row r="141" spans="2:5" ht="13">
-      <c r="B141" s="11"/>
-      <c r="E141" s="11"/>
+      <c r="B141" s="10"/>
+      <c r="E141" s="10"/>
     </row>
     <row r="142" spans="2:5" ht="13">
-      <c r="B142" s="11"/>
-      <c r="E142" s="11"/>
+      <c r="B142" s="10"/>
+      <c r="E142" s="10"/>
     </row>
     <row r="143" spans="2:5" ht="13">
-      <c r="B143" s="11"/>
-      <c r="E143" s="11"/>
+      <c r="B143" s="10"/>
+      <c r="E143" s="10"/>
     </row>
     <row r="144" spans="2:5" ht="13">
-      <c r="B144" s="11"/>
-      <c r="E144" s="11"/>
+      <c r="B144" s="10"/>
+      <c r="E144" s="10"/>
     </row>
     <row r="145" spans="2:5" ht="13">
-      <c r="B145" s="11"/>
-      <c r="E145" s="11"/>
+      <c r="B145" s="10"/>
+      <c r="E145" s="10"/>
     </row>
     <row r="146" spans="2:5" ht="13">
-      <c r="B146" s="11"/>
-      <c r="E146" s="11"/>
+      <c r="B146" s="10"/>
+      <c r="E146" s="10"/>
     </row>
     <row r="147" spans="2:5" ht="13">
-      <c r="B147" s="11"/>
-      <c r="E147" s="11"/>
+      <c r="B147" s="10"/>
+      <c r="E147" s="10"/>
     </row>
     <row r="148" spans="2:5" ht="13">
-      <c r="B148" s="11"/>
-      <c r="E148" s="11"/>
+      <c r="B148" s="10"/>
+      <c r="E148" s="10"/>
     </row>
     <row r="149" spans="2:5" ht="13">
-      <c r="B149" s="11"/>
-      <c r="E149" s="11"/>
+      <c r="B149" s="10"/>
+      <c r="E149" s="10"/>
     </row>
     <row r="150" spans="2:5" ht="13">
-      <c r="B150" s="11"/>
-      <c r="E150" s="11"/>
+      <c r="B150" s="10"/>
+      <c r="E150" s="10"/>
     </row>
     <row r="151" spans="2:5" ht="13">
-      <c r="B151" s="11"/>
-      <c r="E151" s="11"/>
+      <c r="B151" s="10"/>
+      <c r="E151" s="10"/>
     </row>
     <row r="152" spans="2:5" ht="13">
-      <c r="B152" s="11"/>
-      <c r="E152" s="11"/>
+      <c r="B152" s="10"/>
+      <c r="E152" s="10"/>
     </row>
     <row r="153" spans="2:5" ht="13">
-      <c r="B153" s="11"/>
-      <c r="E153" s="11"/>
+      <c r="B153" s="10"/>
+      <c r="E153" s="10"/>
     </row>
     <row r="154" spans="2:5" ht="13">
-      <c r="B154" s="11"/>
-      <c r="E154" s="11"/>
+      <c r="B154" s="10"/>
+      <c r="E154" s="10"/>
     </row>
     <row r="155" spans="2:5" ht="13">
-      <c r="B155" s="11"/>
-      <c r="E155" s="11"/>
+      <c r="B155" s="10"/>
+      <c r="E155" s="10"/>
     </row>
     <row r="156" spans="2:5" ht="13">
-      <c r="B156" s="11"/>
-      <c r="E156" s="11"/>
+      <c r="B156" s="10"/>
+      <c r="E156" s="10"/>
     </row>
     <row r="157" spans="2:5" ht="13">
-      <c r="B157" s="11"/>
-      <c r="E157" s="11"/>
+      <c r="B157" s="10"/>
+      <c r="E157" s="10"/>
     </row>
     <row r="158" spans="2:5" ht="13">
-      <c r="B158" s="11"/>
-      <c r="E158" s="11"/>
+      <c r="B158" s="10"/>
+      <c r="E158" s="10"/>
     </row>
     <row r="159" spans="2:5" ht="13">
-      <c r="B159" s="11"/>
-      <c r="E159" s="11"/>
+      <c r="B159" s="10"/>
+      <c r="E159" s="10"/>
     </row>
     <row r="160" spans="2:5" ht="13">
-      <c r="B160" s="11"/>
-      <c r="E160" s="11"/>
+      <c r="B160" s="10"/>
+      <c r="E160" s="10"/>
     </row>
     <row r="161" spans="2:5" ht="13">
-      <c r="B161" s="11"/>
-      <c r="E161" s="11"/>
+      <c r="B161" s="10"/>
+      <c r="E161" s="10"/>
     </row>
     <row r="162" spans="2:5" ht="13">
-      <c r="B162" s="11"/>
-      <c r="E162" s="11"/>
+      <c r="B162" s="10"/>
+      <c r="E162" s="10"/>
     </row>
     <row r="163" spans="2:5" ht="13">
-      <c r="B163" s="11"/>
-      <c r="E163" s="11"/>
+      <c r="B163" s="10"/>
+      <c r="E163" s="10"/>
     </row>
     <row r="164" spans="2:5" ht="13">
-      <c r="B164" s="11"/>
-      <c r="E164" s="11"/>
+      <c r="B164" s="10"/>
+      <c r="E164" s="10"/>
     </row>
     <row r="165" spans="2:5" ht="13">
-      <c r="B165" s="11"/>
-      <c r="E165" s="11"/>
+      <c r="B165" s="10"/>
+      <c r="E165" s="10"/>
     </row>
     <row r="166" spans="2:5" ht="13">
-      <c r="B166" s="11"/>
-      <c r="E166" s="11"/>
+      <c r="B166" s="10"/>
+      <c r="E166" s="10"/>
     </row>
     <row r="167" spans="2:5" ht="13">
-      <c r="B167" s="11"/>
-      <c r="E167" s="11"/>
+      <c r="B167" s="10"/>
+      <c r="E167" s="10"/>
     </row>
     <row r="168" spans="2:5" ht="13">
-      <c r="B168" s="11"/>
-      <c r="E168" s="11"/>
+      <c r="B168" s="10"/>
+      <c r="E168" s="10"/>
     </row>
     <row r="169" spans="2:5" ht="13">
-      <c r="B169" s="11"/>
-      <c r="E169" s="11"/>
+      <c r="B169" s="10"/>
+      <c r="E169" s="10"/>
     </row>
     <row r="170" spans="2:5" ht="13">
-      <c r="B170" s="11"/>
-      <c r="E170" s="11"/>
+      <c r="B170" s="10"/>
+      <c r="E170" s="10"/>
     </row>
     <row r="171" spans="2:5" ht="13">
-      <c r="B171" s="11"/>
-      <c r="E171" s="11"/>
+      <c r="B171" s="10"/>
+      <c r="E171" s="10"/>
     </row>
     <row r="172" spans="2:5" ht="13">
-      <c r="B172" s="11"/>
-      <c r="E172" s="11"/>
+      <c r="B172" s="10"/>
+      <c r="E172" s="10"/>
     </row>
     <row r="173" spans="2:5" ht="13">
-      <c r="B173" s="11"/>
-      <c r="E173" s="11"/>
+      <c r="B173" s="10"/>
+      <c r="E173" s="10"/>
     </row>
     <row r="174" spans="2:5" ht="13">
-      <c r="B174" s="11"/>
-      <c r="E174" s="11"/>
+      <c r="B174" s="10"/>
+      <c r="E174" s="10"/>
     </row>
     <row r="175" spans="2:5" ht="13">
-      <c r="B175" s="11"/>
-      <c r="E175" s="11"/>
+      <c r="B175" s="10"/>
+      <c r="E175" s="10"/>
     </row>
     <row r="176" spans="2:5" ht="13">
-      <c r="B176" s="11"/>
-      <c r="E176" s="11"/>
+      <c r="B176" s="10"/>
+      <c r="E176" s="10"/>
     </row>
     <row r="177" spans="2:5" ht="13">
-      <c r="B177" s="11"/>
-      <c r="E177" s="11"/>
+      <c r="B177" s="10"/>
+      <c r="E177" s="10"/>
     </row>
     <row r="178" spans="2:5" ht="13">
-      <c r="B178" s="11"/>
-      <c r="E178" s="11"/>
+      <c r="B178" s="10"/>
+      <c r="E178" s="10"/>
     </row>
     <row r="179" spans="2:5" ht="13">
-      <c r="B179" s="11"/>
-      <c r="E179" s="11"/>
+      <c r="B179" s="10"/>
+      <c r="E179" s="10"/>
     </row>
     <row r="180" spans="2:5" ht="13">
-      <c r="B180" s="11"/>
-      <c r="E180" s="11"/>
+      <c r="B180" s="10"/>
+      <c r="E180" s="10"/>
     </row>
     <row r="181" spans="2:5" ht="13">
-      <c r="B181" s="11"/>
-      <c r="E181" s="11"/>
+      <c r="B181" s="10"/>
+      <c r="E181" s="10"/>
     </row>
     <row r="182" spans="2:5" ht="13">
-      <c r="B182" s="11"/>
-      <c r="E182" s="11"/>
+      <c r="B182" s="10"/>
+      <c r="E182" s="10"/>
     </row>
     <row r="183" spans="2:5" ht="13">
-      <c r="B183" s="11"/>
-      <c r="E183" s="11"/>
+      <c r="B183" s="10"/>
+      <c r="E183" s="10"/>
     </row>
     <row r="184" spans="2:5" ht="13">
-      <c r="B184" s="11"/>
-      <c r="E184" s="11"/>
+      <c r="B184" s="10"/>
+      <c r="E184" s="10"/>
     </row>
     <row r="185" spans="2:5" ht="13">
-      <c r="B185" s="11"/>
-      <c r="E185" s="11"/>
+      <c r="B185" s="10"/>
+      <c r="E185" s="10"/>
     </row>
     <row r="186" spans="2:5" ht="13">
-      <c r="B186" s="11"/>
-      <c r="E186" s="11"/>
+      <c r="B186" s="10"/>
+      <c r="E186" s="10"/>
     </row>
     <row r="187" spans="2:5" ht="13">
-      <c r="B187" s="11"/>
-      <c r="E187" s="11"/>
+      <c r="B187" s="10"/>
+      <c r="E187" s="10"/>
     </row>
     <row r="188" spans="2:5" ht="13">
-      <c r="B188" s="11"/>
-      <c r="E188" s="11"/>
+      <c r="B188" s="10"/>
+      <c r="E188" s="10"/>
     </row>
     <row r="189" spans="2:5" ht="13">
-      <c r="B189" s="11"/>
-      <c r="E189" s="11"/>
+      <c r="B189" s="10"/>
+      <c r="E189" s="10"/>
     </row>
     <row r="190" spans="2:5" ht="13">
-      <c r="B190" s="11"/>
-      <c r="E190" s="11"/>
+      <c r="B190" s="10"/>
+      <c r="E190" s="10"/>
     </row>
     <row r="191" spans="2:5" ht="13">
-      <c r="B191" s="11"/>
-      <c r="E191" s="11"/>
+      <c r="B191" s="10"/>
+      <c r="E191" s="10"/>
     </row>
     <row r="192" spans="2:5" ht="13">
-      <c r="B192" s="11"/>
-      <c r="E192" s="11"/>
+      <c r="B192" s="10"/>
+      <c r="E192" s="10"/>
     </row>
     <row r="193" spans="2:5" ht="13">
-      <c r="B193" s="11"/>
-      <c r="E193" s="11"/>
+      <c r="B193" s="10"/>
+      <c r="E193" s="10"/>
     </row>
     <row r="194" spans="2:5" ht="13">
-      <c r="B194" s="11"/>
-      <c r="E194" s="11"/>
+      <c r="B194" s="10"/>
+      <c r="E194" s="10"/>
     </row>
     <row r="195" spans="2:5" ht="13">
-      <c r="B195" s="11"/>
-      <c r="E195" s="11"/>
+      <c r="B195" s="10"/>
+      <c r="E195" s="10"/>
     </row>
     <row r="196" spans="2:5" ht="13">
-      <c r="B196" s="11"/>
-      <c r="E196" s="11"/>
+      <c r="B196" s="10"/>
+      <c r="E196" s="10"/>
     </row>
     <row r="197" spans="2:5" ht="13">
-      <c r="B197" s="11"/>
-      <c r="E197" s="11"/>
+      <c r="B197" s="10"/>
+      <c r="E197" s="10"/>
     </row>
     <row r="198" spans="2:5" ht="13">
-      <c r="B198" s="11"/>
-      <c r="E198" s="11"/>
+      <c r="B198" s="10"/>
+      <c r="E198" s="10"/>
     </row>
     <row r="199" spans="2:5" ht="13">
-      <c r="B199" s="11"/>
-      <c r="E199" s="11"/>
+      <c r="B199" s="10"/>
+      <c r="E199" s="10"/>
     </row>
     <row r="200" spans="2:5" ht="13">
-      <c r="B200" s="11"/>
-      <c r="E200" s="11"/>
+      <c r="B200" s="10"/>
+      <c r="E200" s="10"/>
     </row>
     <row r="201" spans="2:5" ht="13">
-      <c r="B201" s="11"/>
-      <c r="E201" s="11"/>
+      <c r="B201" s="10"/>
+      <c r="E201" s="10"/>
     </row>
     <row r="202" spans="2:5" ht="13">
-      <c r="B202" s="11"/>
-      <c r="E202" s="11"/>
+      <c r="B202" s="10"/>
+      <c r="E202" s="10"/>
     </row>
     <row r="203" spans="2:5" ht="13">
-      <c r="B203" s="11"/>
-      <c r="E203" s="11"/>
+      <c r="B203" s="10"/>
+      <c r="E203" s="10"/>
     </row>
     <row r="204" spans="2:5" ht="13">
-      <c r="B204" s="11"/>
-      <c r="E204" s="11"/>
+      <c r="B204" s="10"/>
+      <c r="E204" s="10"/>
     </row>
     <row r="205" spans="2:5" ht="13">
-      <c r="B205" s="11"/>
-      <c r="E205" s="11"/>
+      <c r="B205" s="10"/>
+      <c r="E205" s="10"/>
     </row>
     <row r="206" spans="2:5" ht="13">
-      <c r="B206" s="11"/>
-      <c r="E206" s="11"/>
+      <c r="B206" s="10"/>
+      <c r="E206" s="10"/>
     </row>
     <row r="207" spans="2:5" ht="13">
-      <c r="B207" s="11"/>
-      <c r="E207" s="11"/>
+      <c r="B207" s="10"/>
+      <c r="E207" s="10"/>
     </row>
     <row r="208" spans="2:5" ht="13">
-      <c r="B208" s="11"/>
-      <c r="E208" s="11"/>
+      <c r="B208" s="10"/>
+      <c r="E208" s="10"/>
     </row>
     <row r="209" spans="2:5" ht="13">
-      <c r="B209" s="11"/>
-      <c r="E209" s="11"/>
+      <c r="B209" s="10"/>
+      <c r="E209" s="10"/>
     </row>
     <row r="210" spans="2:5" ht="13">
-      <c r="B210" s="11"/>
-      <c r="E210" s="11"/>
+      <c r="B210" s="10"/>
+      <c r="E210" s="10"/>
     </row>
     <row r="211" spans="2:5" ht="13">
-      <c r="B211" s="11"/>
-      <c r="E211" s="11"/>
+      <c r="B211" s="10"/>
+      <c r="E211" s="10"/>
     </row>
     <row r="212" spans="2:5" ht="13">
-      <c r="B212" s="11"/>
-      <c r="E212" s="11"/>
+      <c r="B212" s="10"/>
+      <c r="E212" s="10"/>
     </row>
     <row r="213" spans="2:5" ht="13">
-      <c r="B213" s="11"/>
-      <c r="E213" s="11"/>
+      <c r="B213" s="10"/>
+      <c r="E213" s="10"/>
     </row>
     <row r="214" spans="2:5" ht="13">
-      <c r="B214" s="11"/>
-      <c r="E214" s="11"/>
+      <c r="B214" s="10"/>
+      <c r="E214" s="10"/>
     </row>
     <row r="215" spans="2:5" ht="13">
-      <c r="B215" s="11"/>
-      <c r="E215" s="11"/>
+      <c r="B215" s="10"/>
+      <c r="E215" s="10"/>
     </row>
     <row r="216" spans="2:5" ht="13">
-      <c r="B216" s="11"/>
-      <c r="E216" s="11"/>
+      <c r="B216" s="10"/>
+      <c r="E216" s="10"/>
     </row>
     <row r="217" spans="2:5" ht="13">
-      <c r="B217" s="11"/>
-      <c r="E217" s="11"/>
+      <c r="B217" s="10"/>
+      <c r="E217" s="10"/>
     </row>
     <row r="218" spans="2:5" ht="13">
-      <c r="B218" s="11"/>
-      <c r="E218" s="11"/>
+      <c r="B218" s="10"/>
+      <c r="E218" s="10"/>
     </row>
     <row r="219" spans="2:5" ht="13">
-      <c r="B219" s="11"/>
-      <c r="E219" s="11"/>
+      <c r="B219" s="10"/>
+      <c r="E219" s="10"/>
     </row>
     <row r="220" spans="2:5" ht="13">
-      <c r="B220" s="11"/>
-      <c r="E220" s="11"/>
+      <c r="B220" s="10"/>
+      <c r="E220" s="10"/>
     </row>
     <row r="221" spans="2:5" ht="13">
-      <c r="B221" s="11"/>
-      <c r="E221" s="11"/>
+      <c r="B221" s="10"/>
+      <c r="E221" s="10"/>
     </row>
     <row r="222" spans="2:5" ht="13">
-      <c r="B222" s="11"/>
-      <c r="E222" s="11"/>
+      <c r="B222" s="10"/>
+      <c r="E222" s="10"/>
     </row>
     <row r="223" spans="2:5" ht="13">
-      <c r="B223" s="11"/>
-      <c r="E223" s="11"/>
+      <c r="B223" s="10"/>
+      <c r="E223" s="10"/>
     </row>
     <row r="224" spans="2:5" ht="13">
-      <c r="B224" s="11"/>
-      <c r="E224" s="11"/>
+      <c r="B224" s="10"/>
+      <c r="E224" s="10"/>
     </row>
     <row r="225" spans="2:5" ht="13">
-      <c r="B225" s="11"/>
-      <c r="E225" s="11"/>
+      <c r="B225" s="10"/>
+      <c r="E225" s="10"/>
     </row>
     <row r="226" spans="2:5" ht="13">
-      <c r="B226" s="11"/>
-      <c r="E226" s="11"/>
+      <c r="B226" s="10"/>
+      <c r="E226" s="10"/>
     </row>
     <row r="227" spans="2:5" ht="13">
-      <c r="B227" s="11"/>
-      <c r="E227" s="11"/>
+      <c r="B227" s="10"/>
+      <c r="E227" s="10"/>
     </row>
     <row r="228" spans="2:5" ht="13">
-      <c r="B228" s="11"/>
-      <c r="E228" s="11"/>
+      <c r="B228" s="10"/>
+      <c r="E228" s="10"/>
     </row>
     <row r="229" spans="2:5" ht="13">
-      <c r="B229" s="11"/>
-      <c r="E229" s="11"/>
+      <c r="B229" s="10"/>
+      <c r="E229" s="10"/>
     </row>
     <row r="230" spans="2:5" ht="13">
-      <c r="B230" s="11"/>
-      <c r="E230" s="11"/>
+      <c r="B230" s="10"/>
+      <c r="E230" s="10"/>
     </row>
     <row r="231" spans="2:5" ht="13">
-      <c r="B231" s="11"/>
-      <c r="E231" s="11"/>
+      <c r="B231" s="10"/>
+      <c r="E231" s="10"/>
     </row>
     <row r="232" spans="2:5" ht="13">
-      <c r="B232" s="11"/>
-      <c r="E232" s="11"/>
+      <c r="B232" s="10"/>
+      <c r="E232" s="10"/>
     </row>
     <row r="233" spans="2:5" ht="13">
-      <c r="B233" s="11"/>
-      <c r="E233" s="11"/>
+      <c r="B233" s="10"/>
+      <c r="E233" s="10"/>
     </row>
     <row r="234" spans="2:5" ht="13">
-      <c r="B234" s="11"/>
-      <c r="E234" s="11"/>
+      <c r="B234" s="10"/>
+      <c r="E234" s="10"/>
     </row>
     <row r="235" spans="2:5" ht="13">
-      <c r="B235" s="11"/>
-      <c r="E235" s="11"/>
+      <c r="B235" s="10"/>
+      <c r="E235" s="10"/>
     </row>
     <row r="236" spans="2:5" ht="13">
-      <c r="B236" s="11"/>
-      <c r="E236" s="11"/>
+      <c r="B236" s="10"/>
+      <c r="E236" s="10"/>
     </row>
     <row r="237" spans="2:5" ht="13">
-      <c r="B237" s="11"/>
-      <c r="E237" s="11"/>
+      <c r="B237" s="10"/>
+      <c r="E237" s="10"/>
     </row>
     <row r="238" spans="2:5" ht="13">
-      <c r="B238" s="11"/>
-      <c r="E238" s="11"/>
+      <c r="B238" s="10"/>
+      <c r="E238" s="10"/>
     </row>
     <row r="239" spans="2:5" ht="13">
-      <c r="B239" s="11"/>
-      <c r="E239" s="11"/>
+      <c r="B239" s="10"/>
+      <c r="E239" s="10"/>
     </row>
     <row r="240" spans="2:5" ht="13">
-      <c r="B240" s="11"/>
-      <c r="E240" s="11"/>
+      <c r="B240" s="10"/>
+      <c r="E240" s="10"/>
     </row>
     <row r="241" spans="2:5" ht="13">
-      <c r="B241" s="11"/>
-      <c r="E241" s="11"/>
+      <c r="B241" s="10"/>
+      <c r="E241" s="10"/>
     </row>
     <row r="242" spans="2:5" ht="13">
-      <c r="B242" s="11"/>
-      <c r="E242" s="11"/>
+      <c r="B242" s="10"/>
+      <c r="E242" s="10"/>
     </row>
     <row r="243" spans="2:5" ht="13">
-      <c r="B243" s="11"/>
-      <c r="E243" s="11"/>
+      <c r="B243" s="10"/>
+      <c r="E243" s="10"/>
     </row>
     <row r="244" spans="2:5" ht="13">
-      <c r="B244" s="11"/>
-      <c r="E244" s="11"/>
+      <c r="B244" s="10"/>
+      <c r="E244" s="10"/>
     </row>
     <row r="245" spans="2:5" ht="13">
-      <c r="B245" s="11"/>
-      <c r="E245" s="11"/>
+      <c r="B245" s="10"/>
+      <c r="E245" s="10"/>
     </row>
     <row r="246" spans="2:5" ht="13">
-      <c r="B246" s="11"/>
-      <c r="E246" s="11"/>
+      <c r="B246" s="10"/>
+      <c r="E246" s="10"/>
     </row>
     <row r="247" spans="2:5" ht="13">
-      <c r="B247" s="11"/>
-      <c r="E247" s="11"/>
+      <c r="B247" s="10"/>
+      <c r="E247" s="10"/>
     </row>
     <row r="248" spans="2:5" ht="13">
-      <c r="B248" s="11"/>
-      <c r="E248" s="11"/>
+      <c r="B248" s="10"/>
+      <c r="E248" s="10"/>
     </row>
     <row r="249" spans="2:5" ht="13">
-      <c r="B249" s="11"/>
-      <c r="E249" s="11"/>
+      <c r="B249" s="10"/>
+      <c r="E249" s="10"/>
     </row>
     <row r="250" spans="2:5" ht="13">
-      <c r="B250" s="11"/>
-      <c r="E250" s="11"/>
+      <c r="B250" s="10"/>
+      <c r="E250" s="10"/>
     </row>
     <row r="251" spans="2:5" ht="13">
-      <c r="B251" s="11"/>
-      <c r="E251" s="11"/>
+      <c r="B251" s="10"/>
+      <c r="E251" s="10"/>
     </row>
     <row r="252" spans="2:5" ht="13">
-      <c r="B252" s="11"/>
-      <c r="E252" s="11"/>
+      <c r="B252" s="10"/>
+      <c r="E252" s="10"/>
     </row>
     <row r="253" spans="2:5" ht="13">
-      <c r="B253" s="11"/>
-      <c r="E253" s="11"/>
+      <c r="B253" s="10"/>
+      <c r="E253" s="10"/>
     </row>
     <row r="254" spans="2:5" ht="13">
-      <c r="B254" s="11"/>
-      <c r="E254" s="11"/>
+      <c r="B254" s="10"/>
+      <c r="E254" s="10"/>
     </row>
     <row r="255" spans="2:5" ht="13">
-      <c r="B255" s="11"/>
-      <c r="E255" s="11"/>
+      <c r="B255" s="10"/>
+      <c r="E255" s="10"/>
     </row>
     <row r="256" spans="2:5" ht="13">
-      <c r="B256" s="11"/>
-      <c r="E256" s="11"/>
+      <c r="B256" s="10"/>
+      <c r="E256" s="10"/>
     </row>
     <row r="257" spans="2:5" ht="13">
-      <c r="B257" s="11"/>
-      <c r="E257" s="11"/>
+      <c r="B257" s="10"/>
+      <c r="E257" s="10"/>
     </row>
     <row r="258" spans="2:5" ht="13">
-      <c r="B258" s="11"/>
-      <c r="E258" s="11"/>
+      <c r="B258" s="10"/>
+      <c r="E258" s="10"/>
     </row>
     <row r="259" spans="2:5" ht="13">
-      <c r="B259" s="11"/>
-      <c r="E259" s="11"/>
+      <c r="B259" s="10"/>
+      <c r="E259" s="10"/>
     </row>
     <row r="260" spans="2:5" ht="13">
-      <c r="B260" s="11"/>
-      <c r="E260" s="11"/>
+      <c r="B260" s="10"/>
+      <c r="E260" s="10"/>
     </row>
     <row r="261" spans="2:5" ht="13">
-      <c r="B261" s="11"/>
-      <c r="E261" s="11"/>
+      <c r="B261" s="10"/>
+      <c r="E261" s="10"/>
     </row>
     <row r="262" spans="2:5" ht="13">
-      <c r="B262" s="11"/>
-      <c r="E262" s="11"/>
+      <c r="B262" s="10"/>
+      <c r="E262" s="10"/>
     </row>
     <row r="263" spans="2:5" ht="13">
-      <c r="B263" s="11"/>
-      <c r="E263" s="11"/>
+      <c r="B263" s="10"/>
+      <c r="E263" s="10"/>
     </row>
     <row r="264" spans="2:5" ht="13">
-      <c r="B264" s="11"/>
-      <c r="E264" s="11"/>
+      <c r="B264" s="10"/>
+      <c r="E264" s="10"/>
     </row>
     <row r="265" spans="2:5" ht="13">
-      <c r="B265" s="11"/>
-      <c r="E265" s="11"/>
+      <c r="B265" s="10"/>
+      <c r="E265" s="10"/>
     </row>
     <row r="266" spans="2:5" ht="13">
-      <c r="B266" s="11"/>
-      <c r="E266" s="11"/>
+      <c r="B266" s="10"/>
+      <c r="E266" s="10"/>
     </row>
     <row r="267" spans="2:5" ht="13">
-      <c r="B267" s="11"/>
-      <c r="E267" s="11"/>
+      <c r="B267" s="10"/>
+      <c r="E267" s="10"/>
     </row>
     <row r="268" spans="2:5" ht="13">
-      <c r="B268" s="11"/>
-      <c r="E268" s="11"/>
+      <c r="B268" s="10"/>
+      <c r="E268" s="10"/>
     </row>
     <row r="269" spans="2:5" ht="13">
-      <c r="B269" s="11"/>
-      <c r="E269" s="11"/>
+      <c r="B269" s="10"/>
+      <c r="E269" s="10"/>
     </row>
     <row r="270" spans="2:5" ht="13">
-      <c r="B270" s="11"/>
-      <c r="E270" s="11"/>
+      <c r="B270" s="10"/>
+      <c r="E270" s="10"/>
     </row>
     <row r="271" spans="2:5" ht="13">
-      <c r="B271" s="11"/>
-      <c r="E271" s="11"/>
+      <c r="B271" s="10"/>
+      <c r="E271" s="10"/>
     </row>
     <row r="272" spans="2:5" ht="13">
-      <c r="B272" s="11"/>
-      <c r="E272" s="11"/>
+      <c r="B272" s="10"/>
+      <c r="E272" s="10"/>
     </row>
     <row r="273" spans="2:5" ht="13">
-      <c r="B273" s="11"/>
-      <c r="E273" s="11"/>
+      <c r="B273" s="10"/>
+      <c r="E273" s="10"/>
     </row>
     <row r="274" spans="2:5" ht="13">
-      <c r="B274" s="11"/>
-      <c r="E274" s="11"/>
+      <c r="B274" s="10"/>
+      <c r="E274" s="10"/>
     </row>
     <row r="275" spans="2:5" ht="13">
-      <c r="B275" s="11"/>
-      <c r="E275" s="11"/>
+      <c r="B275" s="10"/>
+      <c r="E275" s="10"/>
     </row>
     <row r="276" spans="2:5" ht="13">
-      <c r="B276" s="11"/>
-      <c r="E276" s="11"/>
+      <c r="B276" s="10"/>
+      <c r="E276" s="10"/>
     </row>
     <row r="277" spans="2:5" ht="13">
-      <c r="B277" s="11"/>
-      <c r="E277" s="11"/>
+      <c r="B277" s="10"/>
+      <c r="E277" s="10"/>
     </row>
     <row r="278" spans="2:5" ht="13">
-      <c r="B278" s="11"/>
-      <c r="E278" s="11"/>
+      <c r="B278" s="10"/>
+      <c r="E278" s="10"/>
     </row>
     <row r="279" spans="2:5" ht="13">
-      <c r="B279" s="11"/>
-      <c r="E279" s="11"/>
+      <c r="B279" s="10"/>
+      <c r="E279" s="10"/>
     </row>
     <row r="280" spans="2:5" ht="13">
-      <c r="B280" s="11"/>
-      <c r="E280" s="11"/>
+      <c r="B280" s="10"/>
+      <c r="E280" s="10"/>
     </row>
     <row r="281" spans="2:5" ht="13">
-      <c r="B281" s="11"/>
-      <c r="E281" s="11"/>
+      <c r="B281" s="10"/>
+      <c r="E281" s="10"/>
     </row>
     <row r="282" spans="2:5" ht="13">
-      <c r="B282" s="11"/>
-      <c r="E282" s="11"/>
+      <c r="B282" s="10"/>
+      <c r="E282" s="10"/>
     </row>
     <row r="283" spans="2:5" ht="13">
-      <c r="B283" s="11"/>
-      <c r="E283" s="11"/>
+      <c r="B283" s="10"/>
+      <c r="E283" s="10"/>
     </row>
     <row r="284" spans="2:5" ht="13">
-      <c r="B284" s="11"/>
-      <c r="E284" s="11"/>
+      <c r="B284" s="10"/>
+      <c r="E284" s="10"/>
     </row>
     <row r="285" spans="2:5" ht="13">
-      <c r="B285" s="11"/>
-      <c r="E285" s="11"/>
+      <c r="B285" s="10"/>
+      <c r="E285" s="10"/>
     </row>
     <row r="286" spans="2:5" ht="13">
-      <c r="B286" s="11"/>
-      <c r="E286" s="11"/>
+      <c r="B286" s="10"/>
+      <c r="E286" s="10"/>
     </row>
     <row r="287" spans="2:5" ht="13">
-      <c r="B287" s="11"/>
-      <c r="E287" s="11"/>
+      <c r="B287" s="10"/>
+      <c r="E287" s="10"/>
     </row>
     <row r="288" spans="2:5" ht="13">
-      <c r="B288" s="11"/>
-      <c r="E288" s="11"/>
+      <c r="B288" s="10"/>
+      <c r="E288" s="10"/>
     </row>
     <row r="289" spans="2:5" ht="13">
-      <c r="B289" s="11"/>
-      <c r="E289" s="11"/>
+      <c r="B289" s="10"/>
+      <c r="E289" s="10"/>
     </row>
     <row r="290" spans="2:5" ht="13">
-      <c r="B290" s="11"/>
-      <c r="E290" s="11"/>
+      <c r="B290" s="10"/>
+      <c r="E290" s="10"/>
     </row>
     <row r="291" spans="2:5" ht="13">
-      <c r="B291" s="11"/>
-      <c r="E291" s="11"/>
+      <c r="B291" s="10"/>
+      <c r="E291" s="10"/>
     </row>
     <row r="292" spans="2:5" ht="13">
-      <c r="B292" s="11"/>
-      <c r="E292" s="11"/>
+      <c r="B292" s="10"/>
+      <c r="E292" s="10"/>
     </row>
     <row r="293" spans="2:5" ht="13">
-      <c r="B293" s="11"/>
-      <c r="E293" s="11"/>
+      <c r="B293" s="10"/>
+      <c r="E293" s="10"/>
     </row>
     <row r="294" spans="2:5" ht="13">
-      <c r="B294" s="11"/>
-      <c r="E294" s="11"/>
+      <c r="B294" s="10"/>
+      <c r="E294" s="10"/>
     </row>
     <row r="295" spans="2:5" ht="13">
-      <c r="B295" s="11"/>
-      <c r="E295" s="11"/>
+      <c r="B295" s="10"/>
+      <c r="E295" s="10"/>
     </row>
     <row r="296" spans="2:5" ht="13">
-      <c r="B296" s="11"/>
-      <c r="E296" s="11"/>
+      <c r="B296" s="10"/>
+      <c r="E296" s="10"/>
     </row>
     <row r="297" spans="2:5" ht="13">
-      <c r="B297" s="11"/>
-      <c r="E297" s="11"/>
+      <c r="B297" s="10"/>
+      <c r="E297" s="10"/>
     </row>
     <row r="298" spans="2:5" ht="13">
-      <c r="B298" s="11"/>
-      <c r="E298" s="11"/>
+      <c r="B298" s="10"/>
+      <c r="E298" s="10"/>
     </row>
     <row r="299" spans="2:5" ht="13">
-      <c r="B299" s="11"/>
-      <c r="E299" s="11"/>
+      <c r="B299" s="10"/>
+      <c r="E299" s="10"/>
     </row>
     <row r="300" spans="2:5" ht="13">
-      <c r="B300" s="11"/>
-      <c r="E300" s="11"/>
+      <c r="B300" s="10"/>
+      <c r="E300" s="10"/>
     </row>
     <row r="301" spans="2:5" ht="13">
-      <c r="B301" s="11"/>
-      <c r="E301" s="11"/>
+      <c r="B301" s="10"/>
+      <c r="E301" s="10"/>
     </row>
     <row r="302" spans="2:5" ht="13">
-      <c r="B302" s="11"/>
-      <c r="E302" s="11"/>
+      <c r="B302" s="10"/>
+      <c r="E302" s="10"/>
     </row>
     <row r="303" spans="2:5" ht="13">
-      <c r="B303" s="11"/>
-      <c r="E303" s="11"/>
+      <c r="B303" s="10"/>
+      <c r="E303" s="10"/>
     </row>
     <row r="304" spans="2:5" ht="13">
-      <c r="B304" s="11"/>
-      <c r="E304" s="11"/>
+      <c r="B304" s="10"/>
+      <c r="E304" s="10"/>
     </row>
     <row r="305" spans="2:5" ht="13">
-      <c r="B305" s="11"/>
-      <c r="E305" s="11"/>
+      <c r="B305" s="10"/>
+      <c r="E305" s="10"/>
     </row>
     <row r="306" spans="2:5" ht="13">
-      <c r="B306" s="11"/>
-      <c r="E306" s="11"/>
+      <c r="B306" s="10"/>
+      <c r="E306" s="10"/>
     </row>
     <row r="307" spans="2:5" ht="13">
-      <c r="B307" s="11"/>
-      <c r="E307" s="11"/>
+      <c r="B307" s="10"/>
+      <c r="E307" s="10"/>
     </row>
     <row r="308" spans="2:5" ht="13">
-      <c r="B308" s="11"/>
-      <c r="E308" s="11"/>
+      <c r="B308" s="10"/>
+      <c r="E308" s="10"/>
     </row>
     <row r="309" spans="2:5" ht="13">
-      <c r="B309" s="11"/>
-      <c r="E309" s="11"/>
+      <c r="B309" s="10"/>
+      <c r="E309" s="10"/>
     </row>
     <row r="310" spans="2:5" ht="13">
-      <c r="B310" s="11"/>
-      <c r="E310" s="11"/>
+      <c r="B310" s="10"/>
+      <c r="E310" s="10"/>
     </row>
     <row r="311" spans="2:5" ht="13">
-      <c r="B311" s="11"/>
-      <c r="E311" s="11"/>
+      <c r="B311" s="10"/>
+      <c r="E311" s="10"/>
     </row>
     <row r="312" spans="2:5" ht="13">
-      <c r="B312" s="11"/>
-      <c r="E312" s="11"/>
+      <c r="B312" s="10"/>
+      <c r="E312" s="10"/>
     </row>
     <row r="313" spans="2:5" ht="13">
-      <c r="B313" s="11"/>
-      <c r="E313" s="11"/>
+      <c r="B313" s="10"/>
+      <c r="E313" s="10"/>
     </row>
     <row r="314" spans="2:5" ht="13">
-      <c r="B314" s="11"/>
-      <c r="E314" s="11"/>
+      <c r="B314" s="10"/>
+      <c r="E314" s="10"/>
     </row>
     <row r="315" spans="2:5" ht="13">
-      <c r="B315" s="11"/>
-      <c r="E315" s="11"/>
+      <c r="B315" s="10"/>
+      <c r="E315" s="10"/>
     </row>
     <row r="316" spans="2:5" ht="13">
-      <c r="B316" s="11"/>
-      <c r="E316" s="11"/>
+      <c r="B316" s="10"/>
+      <c r="E316" s="10"/>
     </row>
     <row r="317" spans="2:5" ht="13">
-      <c r="B317" s="11"/>
-      <c r="E317" s="11"/>
+      <c r="B317" s="10"/>
+      <c r="E317" s="10"/>
     </row>
     <row r="318" spans="2:5" ht="13">
-      <c r="B318" s="11"/>
-      <c r="E318" s="11"/>
+      <c r="B318" s="10"/>
+      <c r="E318" s="10"/>
     </row>
     <row r="319" spans="2:5" ht="13">
-      <c r="B319" s="11"/>
-      <c r="E319" s="11"/>
+      <c r="B319" s="10"/>
+      <c r="E319" s="10"/>
     </row>
     <row r="320" spans="2:5" ht="13">
-      <c r="B320" s="11"/>
-      <c r="E320" s="11"/>
+      <c r="B320" s="10"/>
+      <c r="E320" s="10"/>
     </row>
     <row r="321" spans="2:5" ht="13">
-      <c r="B321" s="11"/>
-      <c r="E321" s="11"/>
+      <c r="B321" s="10"/>
+      <c r="E321" s="10"/>
     </row>
     <row r="322" spans="2:5" ht="13">
-      <c r="B322" s="11"/>
-      <c r="E322" s="11"/>
+      <c r="B322" s="10"/>
+      <c r="E322" s="10"/>
     </row>
     <row r="323" spans="2:5" ht="13">
-      <c r="B323" s="11"/>
-      <c r="E323" s="11"/>
+      <c r="B323" s="10"/>
+      <c r="E323" s="10"/>
     </row>
     <row r="324" spans="2:5" ht="13">
-      <c r="B324" s="11"/>
-      <c r="E324" s="11"/>
+      <c r="B324" s="10"/>
+      <c r="E324" s="10"/>
     </row>
     <row r="325" spans="2:5" ht="13">
-      <c r="B325" s="11"/>
-      <c r="E325" s="11"/>
+      <c r="B325" s="10"/>
+      <c r="E325" s="10"/>
     </row>
     <row r="326" spans="2:5" ht="13">
-      <c r="B326" s="11"/>
-      <c r="E326" s="11"/>
+      <c r="B326" s="10"/>
+      <c r="E326" s="10"/>
     </row>
     <row r="327" spans="2:5" ht="13">
-      <c r="B327" s="11"/>
-      <c r="E327" s="11"/>
+      <c r="B327" s="10"/>
+      <c r="E327" s="10"/>
     </row>
     <row r="328" spans="2:5" ht="13">
-      <c r="B328" s="11"/>
-      <c r="E328" s="11"/>
+      <c r="B328" s="10"/>
+      <c r="E328" s="10"/>
     </row>
     <row r="329" spans="2:5" ht="13">
-      <c r="B329" s="11"/>
-      <c r="E329" s="11"/>
+      <c r="B329" s="10"/>
+      <c r="E329" s="10"/>
     </row>
     <row r="330" spans="2:5" ht="13">
-      <c r="B330" s="11"/>
-      <c r="E330" s="11"/>
+      <c r="B330" s="10"/>
+      <c r="E330" s="10"/>
     </row>
     <row r="331" spans="2:5" ht="13">
-      <c r="B331" s="11"/>
-      <c r="E331" s="11"/>
+      <c r="B331" s="10"/>
+      <c r="E331" s="10"/>
     </row>
     <row r="332" spans="2:5" ht="13">
-      <c r="B332" s="11"/>
-      <c r="E332" s="11"/>
+      <c r="B332" s="10"/>
+      <c r="E332" s="10"/>
     </row>
     <row r="333" spans="2:5" ht="13">
-      <c r="B333" s="11"/>
-      <c r="E333" s="11"/>
+      <c r="B333" s="10"/>
+      <c r="E333" s="10"/>
     </row>
     <row r="334" spans="2:5" ht="13">
-      <c r="B334" s="11"/>
-      <c r="E334" s="11"/>
+      <c r="B334" s="10"/>
+      <c r="E334" s="10"/>
     </row>
     <row r="335" spans="2:5" ht="13">
-      <c r="B335" s="11"/>
-      <c r="E335" s="11"/>
+      <c r="B335" s="10"/>
+      <c r="E335" s="10"/>
     </row>
     <row r="336" spans="2:5" ht="13">
-      <c r="B336" s="11"/>
-      <c r="E336" s="11"/>
+      <c r="B336" s="10"/>
+      <c r="E336" s="10"/>
     </row>
     <row r="337" spans="2:5" ht="13">
-      <c r="B337" s="11"/>
-      <c r="E337" s="11"/>
+      <c r="B337" s="10"/>
+      <c r="E337" s="10"/>
     </row>
     <row r="338" spans="2:5" ht="13">
-      <c r="B338" s="11"/>
-      <c r="E338" s="11"/>
+      <c r="B338" s="10"/>
+      <c r="E338" s="10"/>
     </row>
     <row r="339" spans="2:5" ht="13">
-      <c r="B339" s="11"/>
-      <c r="E339" s="11"/>
+      <c r="B339" s="10"/>
+      <c r="E339" s="10"/>
     </row>
     <row r="340" spans="2:5" ht="13">
-      <c r="B340" s="11"/>
-      <c r="E340" s="11"/>
+      <c r="B340" s="10"/>
+      <c r="E340" s="10"/>
     </row>
     <row r="341" spans="2:5" ht="13">
-      <c r="B341" s="11"/>
-      <c r="E341" s="11"/>
+      <c r="B341" s="10"/>
+      <c r="E341" s="10"/>
     </row>
     <row r="342" spans="2:5" ht="13">
-      <c r="B342" s="11"/>
-      <c r="E342" s="11"/>
+      <c r="B342" s="10"/>
+      <c r="E342" s="10"/>
     </row>
     <row r="343" spans="2:5" ht="13">
-      <c r="B343" s="11"/>
-      <c r="E343" s="11"/>
+      <c r="B343" s="10"/>
+      <c r="E343" s="10"/>
     </row>
     <row r="344" spans="2:5" ht="13">
-      <c r="B344" s="11"/>
-      <c r="E344" s="11"/>
+      <c r="B344" s="10"/>
+      <c r="E344" s="10"/>
     </row>
     <row r="345" spans="2:5" ht="13">
-      <c r="B345" s="11"/>
-      <c r="E345" s="11"/>
+      <c r="B345" s="10"/>
+      <c r="E345" s="10"/>
     </row>
     <row r="346" spans="2:5" ht="13">
-      <c r="B346" s="11"/>
-      <c r="E346" s="11"/>
+      <c r="B346" s="10"/>
+      <c r="E346" s="10"/>
     </row>
     <row r="347" spans="2:5" ht="13">
-      <c r="B347" s="11"/>
-      <c r="E347" s="11"/>
+      <c r="B347" s="10"/>
+      <c r="E347" s="10"/>
     </row>
     <row r="348" spans="2:5" ht="13">
-      <c r="B348" s="11"/>
-      <c r="E348" s="11"/>
+      <c r="B348" s="10"/>
+      <c r="E348" s="10"/>
     </row>
     <row r="349" spans="2:5" ht="13">
-      <c r="B349" s="11"/>
-      <c r="E349" s="11"/>
+      <c r="B349" s="10"/>
+      <c r="E349" s="10"/>
     </row>
     <row r="350" spans="2:5" ht="13">
-      <c r="B350" s="11"/>
-      <c r="E350" s="11"/>
+      <c r="B350" s="10"/>
+      <c r="E350" s="10"/>
     </row>
     <row r="351" spans="2:5" ht="13">
-      <c r="B351" s="11"/>
-      <c r="E351" s="11"/>
+      <c r="B351" s="10"/>
+      <c r="E351" s="10"/>
     </row>
     <row r="352" spans="2:5" ht="13">
-      <c r="B352" s="11"/>
-      <c r="E352" s="11"/>
+      <c r="B352" s="10"/>
+      <c r="E352" s="10"/>
     </row>
     <row r="353" spans="2:5" ht="13">
-      <c r="B353" s="11"/>
-      <c r="E353" s="11"/>
+      <c r="B353" s="10"/>
+      <c r="E353" s="10"/>
     </row>
     <row r="354" spans="2:5" ht="13">
-      <c r="B354" s="11"/>
-      <c r="E354" s="11"/>
+      <c r="B354" s="10"/>
+      <c r="E354" s="10"/>
     </row>
     <row r="355" spans="2:5" ht="13">
-      <c r="B355" s="11"/>
-      <c r="E355" s="11"/>
+      <c r="B355" s="10"/>
+      <c r="E355" s="10"/>
     </row>
     <row r="356" spans="2:5" ht="13">
-      <c r="B356" s="11"/>
-      <c r="E356" s="11"/>
+      <c r="B356" s="10"/>
+      <c r="E356" s="10"/>
     </row>
     <row r="357" spans="2:5" ht="13">
-      <c r="B357" s="11"/>
-      <c r="E357" s="11"/>
+      <c r="B357" s="10"/>
+      <c r="E357" s="10"/>
     </row>
     <row r="358" spans="2:5" ht="13">
-      <c r="B358" s="11"/>
-      <c r="E358" s="11"/>
+      <c r="B358" s="10"/>
+      <c r="E358" s="10"/>
     </row>
     <row r="359" spans="2:5" ht="13">
-      <c r="B359" s="11"/>
-      <c r="E359" s="11"/>
+      <c r="B359" s="10"/>
+      <c r="E359" s="10"/>
     </row>
     <row r="360" spans="2:5" ht="13">
-      <c r="B360" s="11"/>
-      <c r="E360" s="11"/>
+      <c r="B360" s="10"/>
+      <c r="E360" s="10"/>
     </row>
     <row r="361" spans="2:5" ht="13">
-      <c r="B361" s="11"/>
-      <c r="E361" s="11"/>
+      <c r="B361" s="10"/>
+      <c r="E361" s="10"/>
     </row>
     <row r="362" spans="2:5" ht="13">
-      <c r="B362" s="11"/>
-      <c r="E362" s="11"/>
+      <c r="B362" s="10"/>
+      <c r="E362" s="10"/>
     </row>
     <row r="363" spans="2:5" ht="13">
-      <c r="B363" s="11"/>
-      <c r="E363" s="11"/>
+      <c r="B363" s="10"/>
+      <c r="E363" s="10"/>
     </row>
     <row r="364" spans="2:5" ht="13">
-      <c r="B364" s="11"/>
-      <c r="E364" s="11"/>
+      <c r="B364" s="10"/>
+      <c r="E364" s="10"/>
     </row>
     <row r="365" spans="2:5" ht="13">
-      <c r="B365" s="11"/>
-      <c r="E365" s="11"/>
+      <c r="B365" s="10"/>
+      <c r="E365" s="10"/>
     </row>
     <row r="366" spans="2:5" ht="13">
-      <c r="B366" s="11"/>
-      <c r="E366" s="11"/>
+      <c r="B366" s="10"/>
+      <c r="E366" s="10"/>
     </row>
     <row r="367" spans="2:5" ht="13">
-      <c r="B367" s="11"/>
-      <c r="E367" s="11"/>
+      <c r="B367" s="10"/>
+      <c r="E367" s="10"/>
     </row>
     <row r="368" spans="2:5" ht="13">
-      <c r="B368" s="11"/>
-      <c r="E368" s="11"/>
+      <c r="B368" s="10"/>
+      <c r="E368" s="10"/>
     </row>
     <row r="369" spans="2:5" ht="13">
-      <c r="B369" s="11"/>
-      <c r="E369" s="11"/>
+      <c r="B369" s="10"/>
+      <c r="E369" s="10"/>
     </row>
     <row r="370" spans="2:5" ht="13">
-      <c r="B370" s="11"/>
-      <c r="E370" s="11"/>
+      <c r="B370" s="10"/>
+      <c r="E370" s="10"/>
     </row>
     <row r="371" spans="2:5" ht="13">
-      <c r="B371" s="11"/>
-      <c r="E371" s="11"/>
+      <c r="B371" s="10"/>
+      <c r="E371" s="10"/>
     </row>
     <row r="372" spans="2:5" ht="13">
-      <c r="B372" s="11"/>
-      <c r="E372" s="11"/>
+      <c r="B372" s="10"/>
+      <c r="E372" s="10"/>
     </row>
     <row r="373" spans="2:5" ht="13">
-      <c r="B373" s="11"/>
-      <c r="E373" s="11"/>
+      <c r="B373" s="10"/>
+      <c r="E373" s="10"/>
     </row>
     <row r="374" spans="2:5" ht="13">
-      <c r="B374" s="11"/>
-      <c r="E374" s="11"/>
+      <c r="B374" s="10"/>
+      <c r="E374" s="10"/>
     </row>
     <row r="375" spans="2:5" ht="13">
-      <c r="B375" s="11"/>
-      <c r="E375" s="11"/>
+      <c r="B375" s="10"/>
+      <c r="E375" s="10"/>
     </row>
     <row r="376" spans="2:5" ht="13">
-      <c r="B376" s="11"/>
-      <c r="E376" s="11"/>
+      <c r="B376" s="10"/>
+      <c r="E376" s="10"/>
     </row>
     <row r="377" spans="2:5" ht="13">
-      <c r="B377" s="11"/>
-      <c r="E377" s="11"/>
+      <c r="B377" s="10"/>
+      <c r="E377" s="10"/>
     </row>
     <row r="378" spans="2:5" ht="13">
-      <c r="B378" s="11"/>
-      <c r="E378" s="11"/>
+      <c r="B378" s="10"/>
+      <c r="E378" s="10"/>
     </row>
     <row r="379" spans="2:5" ht="13">
-      <c r="B379" s="11"/>
-      <c r="E379" s="11"/>
+      <c r="B379" s="10"/>
+      <c r="E379" s="10"/>
     </row>
     <row r="380" spans="2:5" ht="13">
-      <c r="B380" s="11"/>
-      <c r="E380" s="11"/>
+      <c r="B380" s="10"/>
+      <c r="E380" s="10"/>
     </row>
     <row r="381" spans="2:5" ht="13">
-      <c r="B381" s="11"/>
-      <c r="E381" s="11"/>
+      <c r="B381" s="10"/>
+      <c r="E381" s="10"/>
     </row>
     <row r="382" spans="2:5" ht="13">
-      <c r="B382" s="11"/>
-      <c r="E382" s="11"/>
+      <c r="B382" s="10"/>
+      <c r="E382" s="10"/>
     </row>
     <row r="383" spans="2:5" ht="13">
-      <c r="B383" s="11"/>
-      <c r="E383" s="11"/>
+      <c r="B383" s="10"/>
+      <c r="E383" s="10"/>
     </row>
     <row r="384" spans="2:5" ht="13">
-      <c r="B384" s="11"/>
-      <c r="E384" s="11"/>
+      <c r="B384" s="10"/>
+      <c r="E384" s="10"/>
     </row>
     <row r="385" spans="2:5" ht="13">
-      <c r="B385" s="11"/>
-      <c r="E385" s="11"/>
+      <c r="B385" s="10"/>
+      <c r="E385" s="10"/>
     </row>
     <row r="386" spans="2:5" ht="13">
-      <c r="B386" s="11"/>
-      <c r="E386" s="11"/>
+      <c r="B386" s="10"/>
+      <c r="E386" s="10"/>
     </row>
     <row r="387" spans="2:5" ht="13">
-      <c r="B387" s="11"/>
-      <c r="E387" s="11"/>
+      <c r="B387" s="10"/>
+      <c r="E387" s="10"/>
     </row>
     <row r="388" spans="2:5" ht="13">
-      <c r="B388" s="11"/>
-      <c r="E388" s="11"/>
+      <c r="B388" s="10"/>
+      <c r="E388" s="10"/>
     </row>
     <row r="389" spans="2:5" ht="13">
-      <c r="B389" s="11"/>
-      <c r="E389" s="11"/>
+      <c r="B389" s="10"/>
+      <c r="E389" s="10"/>
     </row>
     <row r="390" spans="2:5" ht="13">
-      <c r="B390" s="11"/>
-      <c r="E390" s="11"/>
+      <c r="B390" s="10"/>
+      <c r="E390" s="10"/>
     </row>
     <row r="391" spans="2:5" ht="13">
-      <c r="B391" s="11"/>
-      <c r="E391" s="11"/>
+      <c r="B391" s="10"/>
+      <c r="E391" s="10"/>
     </row>
     <row r="392" spans="2:5" ht="13">
-      <c r="B392" s="11"/>
-      <c r="E392" s="11"/>
+      <c r="B392" s="10"/>
+      <c r="E392" s="10"/>
     </row>
     <row r="393" spans="2:5" ht="13">
-      <c r="B393" s="11"/>
-      <c r="E393" s="11"/>
+      <c r="B393" s="10"/>
+      <c r="E393" s="10"/>
     </row>
     <row r="394" spans="2:5" ht="13">
-      <c r="B394" s="11"/>
-      <c r="E394" s="11"/>
+      <c r="B394" s="10"/>
+      <c r="E394" s="10"/>
     </row>
     <row r="395" spans="2:5" ht="13">
-      <c r="B395" s="11"/>
-      <c r="E395" s="11"/>
+      <c r="B395" s="10"/>
+      <c r="E395" s="10"/>
     </row>
     <row r="396" spans="2:5" ht="13">
-      <c r="B396" s="11"/>
-      <c r="E396" s="11"/>
+      <c r="B396" s="10"/>
+      <c r="E396" s="10"/>
     </row>
     <row r="397" spans="2:5" ht="13">
-      <c r="B397" s="11"/>
-      <c r="E397" s="11"/>
+      <c r="B397" s="10"/>
+      <c r="E397" s="10"/>
     </row>
     <row r="398" spans="2:5" ht="13">
-      <c r="B398" s="11"/>
-      <c r="E398" s="11"/>
+      <c r="B398" s="10"/>
+      <c r="E398" s="10"/>
     </row>
     <row r="399" spans="2:5" ht="13">
-      <c r="B399" s="11"/>
-      <c r="E399" s="11"/>
+      <c r="B399" s="10"/>
+      <c r="E399" s="10"/>
     </row>
     <row r="400" spans="2:5" ht="13">
-      <c r="B400" s="11"/>
-      <c r="E400" s="11"/>
+      <c r="B400" s="10"/>
+      <c r="E400" s="10"/>
     </row>
     <row r="401" spans="2:5" ht="13">
-      <c r="B401" s="11"/>
-      <c r="E401" s="11"/>
+      <c r="B401" s="10"/>
+      <c r="E401" s="10"/>
     </row>
     <row r="402" spans="2:5" ht="13">
-      <c r="B402" s="11"/>
-      <c r="E402" s="11"/>
+      <c r="B402" s="10"/>
+      <c r="E402" s="10"/>
     </row>
     <row r="403" spans="2:5" ht="13">
-      <c r="B403" s="11"/>
-      <c r="E403" s="11"/>
+      <c r="B403" s="10"/>
+      <c r="E403" s="10"/>
     </row>
     <row r="404" spans="2:5" ht="13">
-      <c r="B404" s="11"/>
-      <c r="E404" s="11"/>
+      <c r="B404" s="10"/>
+      <c r="E404" s="10"/>
     </row>
     <row r="405" spans="2:5" ht="13">
-      <c r="B405" s="11"/>
-      <c r="E405" s="11"/>
+      <c r="B405" s="10"/>
+      <c r="E405" s="10"/>
     </row>
     <row r="406" spans="2:5" ht="13">
-      <c r="B406" s="11"/>
-      <c r="E406" s="11"/>
+      <c r="B406" s="10"/>
+      <c r="E406" s="10"/>
     </row>
     <row r="407" spans="2:5" ht="13">
-      <c r="B407" s="11"/>
-      <c r="E407" s="11"/>
+      <c r="B407" s="10"/>
+      <c r="E407" s="10"/>
     </row>
     <row r="408" spans="2:5" ht="13">
-      <c r="B408" s="11"/>
-      <c r="E408" s="11"/>
+      <c r="B408" s="10"/>
+      <c r="E408" s="10"/>
     </row>
     <row r="409" spans="2:5" ht="13">
-      <c r="B409" s="11"/>
-      <c r="E409" s="11"/>
+      <c r="B409" s="10"/>
+      <c r="E409" s="10"/>
     </row>
     <row r="410" spans="2:5" ht="13">
-      <c r="B410" s="11"/>
-      <c r="E410" s="11"/>
+      <c r="B410" s="10"/>
+      <c r="E410" s="10"/>
     </row>
     <row r="411" spans="2:5" ht="13">
-      <c r="B411" s="11"/>
-      <c r="E411" s="11"/>
+      <c r="B411" s="10"/>
+      <c r="E411" s="10"/>
     </row>
     <row r="412" spans="2:5" ht="13">
-      <c r="B412" s="11"/>
-      <c r="E412" s="11"/>
+      <c r="B412" s="10"/>
+      <c r="E412" s="10"/>
     </row>
     <row r="413" spans="2:5" ht="13">
-      <c r="B413" s="11"/>
-      <c r="E413" s="11"/>
+      <c r="B413" s="10"/>
+      <c r="E413" s="10"/>
     </row>
     <row r="414" spans="2:5" ht="13">
-      <c r="B414" s="11"/>
-      <c r="E414" s="11"/>
+      <c r="B414" s="10"/>
+      <c r="E414" s="10"/>
     </row>
     <row r="415" spans="2:5" ht="13">
-      <c r="B415" s="11"/>
-      <c r="E415" s="11"/>
+      <c r="B415" s="10"/>
+      <c r="E415" s="10"/>
     </row>
     <row r="416" spans="2:5" ht="13">
-      <c r="B416" s="11"/>
-      <c r="E416" s="11"/>
+      <c r="B416" s="10"/>
+      <c r="E416" s="10"/>
     </row>
     <row r="417" spans="2:5" ht="13">
-      <c r="B417" s="11"/>
-      <c r="E417" s="11"/>
+      <c r="B417" s="10"/>
+      <c r="E417" s="10"/>
     </row>
     <row r="418" spans="2:5" ht="13">
-      <c r="B418" s="11"/>
-      <c r="E418" s="11"/>
+      <c r="B418" s="10"/>
+      <c r="E418" s="10"/>
     </row>
     <row r="419" spans="2:5" ht="13">
-      <c r="B419" s="11"/>
-      <c r="E419" s="11"/>
+      <c r="B419" s="10"/>
+      <c r="E419" s="10"/>
     </row>
     <row r="420" spans="2:5" ht="13">
-      <c r="B420" s="11"/>
-      <c r="E420" s="11"/>
+      <c r="B420" s="10"/>
+      <c r="E420" s="10"/>
     </row>
     <row r="421" spans="2:5" ht="13">
-      <c r="B421" s="11"/>
-      <c r="E421" s="11"/>
+      <c r="B421" s="10"/>
+      <c r="E421" s="10"/>
     </row>
     <row r="422" spans="2:5" ht="13">
-      <c r="B422" s="11"/>
-      <c r="E422" s="11"/>
+      <c r="B422" s="10"/>
+      <c r="E422" s="10"/>
     </row>
     <row r="423" spans="2:5" ht="13">
-      <c r="B423" s="11"/>
-      <c r="E423" s="11"/>
+      <c r="B423" s="10"/>
+      <c r="E423" s="10"/>
     </row>
     <row r="424" spans="2:5" ht="13">
-      <c r="B424" s="11"/>
-      <c r="E424" s="11"/>
+      <c r="B424" s="10"/>
+      <c r="E424" s="10"/>
     </row>
     <row r="425" spans="2:5" ht="13">
-      <c r="B425" s="11"/>
-      <c r="E425" s="11"/>
+      <c r="B425" s="10"/>
+      <c r="E425" s="10"/>
     </row>
     <row r="426" spans="2:5" ht="13">
-      <c r="B426" s="11"/>
-      <c r="E426" s="11"/>
+      <c r="B426" s="10"/>
+      <c r="E426" s="10"/>
     </row>
     <row r="427" spans="2:5" ht="13">
-      <c r="B427" s="11"/>
-      <c r="E427" s="11"/>
+      <c r="B427" s="10"/>
+      <c r="E427" s="10"/>
     </row>
     <row r="428" spans="2:5" ht="13">
-      <c r="B428" s="11"/>
-      <c r="E428" s="11"/>
+      <c r="B428" s="10"/>
+      <c r="E428" s="10"/>
     </row>
     <row r="429" spans="2:5" ht="13">
-      <c r="B429" s="11"/>
-      <c r="E429" s="11"/>
+      <c r="B429" s="10"/>
+      <c r="E429" s="10"/>
     </row>
     <row r="430" spans="2:5" ht="13">
-      <c r="B430" s="11"/>
-      <c r="E430" s="11"/>
+      <c r="B430" s="10"/>
+      <c r="E430" s="10"/>
     </row>
     <row r="431" spans="2:5" ht="13">
-      <c r="B431" s="11"/>
-      <c r="E431" s="11"/>
+      <c r="B431" s="10"/>
+      <c r="E431" s="10"/>
     </row>
     <row r="432" spans="2:5" ht="13">
-      <c r="B432" s="11"/>
-      <c r="E432" s="11"/>
+      <c r="B432" s="10"/>
+      <c r="E432" s="10"/>
     </row>
     <row r="433" spans="2:5" ht="13">
-      <c r="B433" s="11"/>
-      <c r="E433" s="11"/>
+      <c r="B433" s="10"/>
+      <c r="E433" s="10"/>
     </row>
     <row r="434" spans="2:5" ht="13">
-      <c r="B434" s="11"/>
-      <c r="E434" s="11"/>
+      <c r="B434" s="10"/>
+      <c r="E434" s="10"/>
     </row>
     <row r="435" spans="2:5" ht="13">
-      <c r="B435" s="11"/>
-      <c r="E435" s="11"/>
+      <c r="B435" s="10"/>
+      <c r="E435" s="10"/>
     </row>
     <row r="436" spans="2:5" ht="13">
-      <c r="B436" s="11"/>
-      <c r="E436" s="11"/>
+      <c r="B436" s="10"/>
+      <c r="E436" s="10"/>
     </row>
     <row r="437" spans="2:5" ht="13">
-      <c r="B437" s="11"/>
-      <c r="E437" s="11"/>
+      <c r="B437" s="10"/>
+      <c r="E437" s="10"/>
     </row>
     <row r="438" spans="2:5" ht="13">
-      <c r="B438" s="11"/>
-      <c r="E438" s="11"/>
+      <c r="B438" s="10"/>
+      <c r="E438" s="10"/>
     </row>
     <row r="439" spans="2:5" ht="13">
-      <c r="B439" s="11"/>
-      <c r="E439" s="11"/>
+      <c r="B439" s="10"/>
+      <c r="E439" s="10"/>
     </row>
     <row r="440" spans="2:5" ht="13">
-      <c r="B440" s="11"/>
-      <c r="E440" s="11"/>
+      <c r="B440" s="10"/>
+      <c r="E440" s="10"/>
     </row>
     <row r="441" spans="2:5" ht="13">
-      <c r="B441" s="11"/>
-      <c r="E441" s="11"/>
+      <c r="B441" s="10"/>
+      <c r="E441" s="10"/>
     </row>
     <row r="442" spans="2:5" ht="13">
-      <c r="B442" s="11"/>
-      <c r="E442" s="11"/>
+      <c r="B442" s="10"/>
+      <c r="E442" s="10"/>
     </row>
     <row r="443" spans="2:5" ht="13">
-      <c r="B443" s="11"/>
-      <c r="E443" s="11"/>
+      <c r="B443" s="10"/>
+      <c r="E443" s="10"/>
     </row>
     <row r="444" spans="2:5" ht="13">
-      <c r="B444" s="11"/>
-      <c r="E444" s="11"/>
+      <c r="B444" s="10"/>
+      <c r="E444" s="10"/>
     </row>
     <row r="445" spans="2:5" ht="13">
-      <c r="B445" s="11"/>
-      <c r="E445" s="11"/>
+      <c r="B445" s="10"/>
+      <c r="E445" s="10"/>
     </row>
     <row r="446" spans="2:5" ht="13">
-      <c r="B446" s="11"/>
-      <c r="E446" s="11"/>
+      <c r="B446" s="10"/>
+      <c r="E446" s="10"/>
     </row>
     <row r="447" spans="2:5" ht="13">
-      <c r="B447" s="11"/>
-      <c r="E447" s="11"/>
+      <c r="B447" s="10"/>
+      <c r="E447" s="10"/>
     </row>
     <row r="448" spans="2:5" ht="13">
-      <c r="B448" s="11"/>
-      <c r="E448" s="11"/>
+      <c r="B448" s="10"/>
+      <c r="E448" s="10"/>
     </row>
     <row r="449" spans="2:5" ht="13">
-      <c r="B449" s="11"/>
-      <c r="E449" s="11"/>
+      <c r="B449" s="10"/>
+      <c r="E449" s="10"/>
     </row>
     <row r="450" spans="2:5" ht="13">
-      <c r="B450" s="11"/>
-      <c r="E450" s="11"/>
+      <c r="B450" s="10"/>
+      <c r="E450" s="10"/>
     </row>
     <row r="451" spans="2:5" ht="13">
-      <c r="B451" s="11"/>
-      <c r="E451" s="11"/>
+      <c r="B451" s="10"/>
+      <c r="E451" s="10"/>
     </row>
     <row r="452" spans="2:5" ht="13">
-      <c r="B452" s="11"/>
-      <c r="E452" s="11"/>
+      <c r="B452" s="10"/>
+      <c r="E452" s="10"/>
     </row>
     <row r="453" spans="2:5" ht="13">
-      <c r="B453" s="11"/>
-      <c r="E453" s="11"/>
+      <c r="B453" s="10"/>
+      <c r="E453" s="10"/>
     </row>
     <row r="454" spans="2:5" ht="13">
-      <c r="B454" s="11"/>
-      <c r="E454" s="11"/>
+      <c r="B454" s="10"/>
+      <c r="E454" s="10"/>
     </row>
     <row r="455" spans="2:5" ht="13">
-      <c r="B455" s="11"/>
-      <c r="E455" s="11"/>
+      <c r="B455" s="10"/>
+      <c r="E455" s="10"/>
     </row>
     <row r="456" spans="2:5" ht="13">
-      <c r="B456" s="11"/>
-      <c r="E456" s="11"/>
+      <c r="B456" s="10"/>
+      <c r="E456" s="10"/>
     </row>
     <row r="457" spans="2:5" ht="13">
-      <c r="B457" s="11"/>
-      <c r="E457" s="11"/>
+      <c r="B457" s="10"/>
+      <c r="E457" s="10"/>
     </row>
     <row r="458" spans="2:5" ht="13">
-      <c r="B458" s="11"/>
-      <c r="E458" s="11"/>
+      <c r="B458" s="10"/>
+      <c r="E458" s="10"/>
     </row>
     <row r="459" spans="2:5" ht="13">
-      <c r="B459" s="11"/>
-      <c r="E459" s="11"/>
+      <c r="B459" s="10"/>
+      <c r="E459" s="10"/>
     </row>
     <row r="460" spans="2:5" ht="13">
-      <c r="B460" s="11"/>
-      <c r="E460" s="11"/>
+      <c r="B460" s="10"/>
+      <c r="E460" s="10"/>
     </row>
     <row r="461" spans="2:5" ht="13">
-      <c r="B461" s="11"/>
-      <c r="E461" s="11"/>
+      <c r="B461" s="10"/>
+      <c r="E461" s="10"/>
     </row>
     <row r="462" spans="2:5" ht="13">
-      <c r="B462" s="11"/>
-      <c r="E462" s="11"/>
+      <c r="B462" s="10"/>
+      <c r="E462" s="10"/>
     </row>
     <row r="463" spans="2:5" ht="13">
-      <c r="B463" s="11"/>
-      <c r="E463" s="11"/>
+      <c r="B463" s="10"/>
+      <c r="E463" s="10"/>
     </row>
     <row r="464" spans="2:5" ht="13">
-      <c r="B464" s="11"/>
-      <c r="E464" s="11"/>
+      <c r="B464" s="10"/>
+      <c r="E464" s="10"/>
     </row>
     <row r="465" spans="2:5" ht="13">
-      <c r="B465" s="11"/>
-      <c r="E465" s="11"/>
+      <c r="B465" s="10"/>
+      <c r="E465" s="10"/>
     </row>
     <row r="466" spans="2:5" ht="13">
-      <c r="B466" s="11"/>
-      <c r="E466" s="11"/>
+      <c r="B466" s="10"/>
+      <c r="E466" s="10"/>
     </row>
     <row r="467" spans="2:5" ht="13">
-      <c r="B467" s="11"/>
-      <c r="E467" s="11"/>
+      <c r="B467" s="10"/>
+      <c r="E467" s="10"/>
     </row>
     <row r="468" spans="2:5" ht="13">
-      <c r="B468" s="11"/>
-      <c r="E468" s="11"/>
+      <c r="B468" s="10"/>
+      <c r="E468" s="10"/>
     </row>
     <row r="469" spans="2:5" ht="13">
-      <c r="B469" s="11"/>
-      <c r="E469" s="11"/>
+      <c r="B469" s="10"/>
+      <c r="E469" s="10"/>
     </row>
     <row r="470" spans="2:5" ht="13">
-      <c r="B470" s="11"/>
-      <c r="E470" s="11"/>
+      <c r="B470" s="10"/>
+      <c r="E470" s="10"/>
     </row>
     <row r="471" spans="2:5" ht="13">
-      <c r="B471" s="11"/>
-      <c r="E471" s="11"/>
+      <c r="B471" s="10"/>
+      <c r="E471" s="10"/>
     </row>
     <row r="472" spans="2:5" ht="13">
-      <c r="B472" s="11"/>
-      <c r="E472" s="11"/>
+      <c r="B472" s="10"/>
+      <c r="E472" s="10"/>
     </row>
     <row r="473" spans="2:5" ht="13">
-      <c r="B473" s="11"/>
-      <c r="E473" s="11"/>
+      <c r="B473" s="10"/>
+      <c r="E473" s="10"/>
     </row>
     <row r="474" spans="2:5" ht="13">
-      <c r="B474" s="11"/>
-      <c r="E474" s="11"/>
+      <c r="B474" s="10"/>
+      <c r="E474" s="10"/>
     </row>
     <row r="475" spans="2:5" ht="13">
-      <c r="B475" s="11"/>
-      <c r="E475" s="11"/>
+      <c r="B475" s="10"/>
+      <c r="E475" s="10"/>
     </row>
     <row r="476" spans="2:5" ht="13">
-      <c r="B476" s="11"/>
-      <c r="E476" s="11"/>
+      <c r="B476" s="10"/>
+      <c r="E476" s="10"/>
     </row>
     <row r="477" spans="2:5" ht="13">
-      <c r="B477" s="11"/>
-      <c r="E477" s="11"/>
+      <c r="B477" s="10"/>
+      <c r="E477" s="10"/>
     </row>
     <row r="478" spans="2:5" ht="13">
-      <c r="B478" s="11"/>
-      <c r="E478" s="11"/>
+      <c r="B478" s="10"/>
+      <c r="E478" s="10"/>
     </row>
     <row r="479" spans="2:5" ht="13">
-      <c r="B479" s="11"/>
-      <c r="E479" s="11"/>
+      <c r="B479" s="10"/>
+      <c r="E479" s="10"/>
     </row>
     <row r="480" spans="2:5" ht="13">
-      <c r="B480" s="11"/>
-      <c r="E480" s="11"/>
+      <c r="B480" s="10"/>
+      <c r="E480" s="10"/>
     </row>
     <row r="481" spans="2:5" ht="13">
-      <c r="B481" s="11"/>
-      <c r="E481" s="11"/>
+      <c r="B481" s="10"/>
+      <c r="E481" s="10"/>
     </row>
     <row r="482" spans="2:5" ht="13">
-      <c r="B482" s="11"/>
-      <c r="E482" s="11"/>
+      <c r="B482" s="10"/>
+      <c r="E482" s="10"/>
     </row>
     <row r="483" spans="2:5" ht="13">
-      <c r="B483" s="11"/>
-      <c r="E483" s="11"/>
+      <c r="B483" s="10"/>
+      <c r="E483" s="10"/>
     </row>
     <row r="484" spans="2:5" ht="13">
-      <c r="B484" s="11"/>
-      <c r="E484" s="11"/>
+      <c r="B484" s="10"/>
+      <c r="E484" s="10"/>
     </row>
     <row r="485" spans="2:5" ht="13">
-      <c r="B485" s="11"/>
-      <c r="E485" s="11"/>
+      <c r="B485" s="10"/>
+      <c r="E485" s="10"/>
     </row>
     <row r="486" spans="2:5" ht="13">
-      <c r="B486" s="11"/>
-      <c r="E486" s="11"/>
+      <c r="B486" s="10"/>
+      <c r="E486" s="10"/>
     </row>
     <row r="487" spans="2:5" ht="13">
-      <c r="B487" s="11"/>
-      <c r="E487" s="11"/>
+      <c r="B487" s="10"/>
+      <c r="E487" s="10"/>
     </row>
     <row r="488" spans="2:5" ht="13">
-      <c r="B488" s="11"/>
-      <c r="E488" s="11"/>
+      <c r="B488" s="10"/>
+      <c r="E488" s="10"/>
     </row>
     <row r="489" spans="2:5" ht="13">
-      <c r="B489" s="11"/>
-      <c r="E489" s="11"/>
+      <c r="B489" s="10"/>
+      <c r="E489" s="10"/>
     </row>
     <row r="490" spans="2:5" ht="13">
-      <c r="B490" s="11"/>
-      <c r="E490" s="11"/>
+      <c r="B490" s="10"/>
+      <c r="E490" s="10"/>
     </row>
     <row r="491" spans="2:5" ht="13">
-      <c r="B491" s="11"/>
-      <c r="E491" s="11"/>
+      <c r="B491" s="10"/>
+      <c r="E491" s="10"/>
     </row>
     <row r="492" spans="2:5" ht="13">
-      <c r="B492" s="11"/>
-      <c r="E492" s="11"/>
+      <c r="B492" s="10"/>
+      <c r="E492" s="10"/>
     </row>
     <row r="493" spans="2:5" ht="13">
-      <c r="B493" s="11"/>
-      <c r="E493" s="11"/>
+      <c r="B493" s="10"/>
+      <c r="E493" s="10"/>
     </row>
     <row r="494" spans="2:5" ht="13">
-      <c r="B494" s="11"/>
-      <c r="E494" s="11"/>
+      <c r="B494" s="10"/>
+      <c r="E494" s="10"/>
     </row>
     <row r="495" spans="2:5" ht="13">
-      <c r="B495" s="11"/>
-      <c r="E495" s="11"/>
+      <c r="B495" s="10"/>
+      <c r="E495" s="10"/>
     </row>
     <row r="496" spans="2:5" ht="13">
-      <c r="B496" s="11"/>
-      <c r="E496" s="11"/>
+      <c r="B496" s="10"/>
+      <c r="E496" s="10"/>
     </row>
     <row r="497" spans="2:5" ht="13">
-      <c r="B497" s="11"/>
-      <c r="E497" s="11"/>
+      <c r="B497" s="10"/>
+      <c r="E497" s="10"/>
     </row>
     <row r="498" spans="2:5" ht="13">
-      <c r="B498" s="11"/>
-      <c r="E498" s="11"/>
+      <c r="B498" s="10"/>
+      <c r="E498" s="10"/>
     </row>
     <row r="499" spans="2:5" ht="13">
-      <c r="B499" s="11"/>
-      <c r="E499" s="11"/>
+      <c r="B499" s="10"/>
+      <c r="E499" s="10"/>
     </row>
     <row r="500" spans="2:5" ht="13">
-      <c r="B500" s="11"/>
-      <c r="E500" s="11"/>
+      <c r="B500" s="10"/>
+      <c r="E500" s="10"/>
     </row>
     <row r="501" spans="2:5" ht="13">
-      <c r="B501" s="11"/>
-      <c r="E501" s="11"/>
+      <c r="B501" s="10"/>
+      <c r="E501" s="10"/>
     </row>
     <row r="502" spans="2:5" ht="13">
-      <c r="B502" s="11"/>
-      <c r="E502" s="11"/>
+      <c r="B502" s="10"/>
+      <c r="E502" s="10"/>
     </row>
     <row r="503" spans="2:5" ht="13">
-      <c r="B503" s="11"/>
-      <c r="E503" s="11"/>
+      <c r="B503" s="10"/>
+      <c r="E503" s="10"/>
     </row>
     <row r="504" spans="2:5" ht="13">
-      <c r="B504" s="11"/>
-      <c r="E504" s="11"/>
+      <c r="B504" s="10"/>
+      <c r="E504" s="10"/>
     </row>
     <row r="505" spans="2:5" ht="13">
-      <c r="B505" s="11"/>
-      <c r="E505" s="11"/>
+      <c r="B505" s="10"/>
+      <c r="E505" s="10"/>
     </row>
     <row r="506" spans="2:5" ht="13">
-      <c r="B506" s="11"/>
-      <c r="E506" s="11"/>
+      <c r="B506" s="10"/>
+      <c r="E506" s="10"/>
     </row>
     <row r="507" spans="2:5" ht="13">
-      <c r="B507" s="11"/>
-      <c r="E507" s="11"/>
+      <c r="B507" s="10"/>
+      <c r="E507" s="10"/>
     </row>
     <row r="508" spans="2:5" ht="13">
-      <c r="B508" s="11"/>
-      <c r="E508" s="11"/>
+      <c r="B508" s="10"/>
+      <c r="E508" s="10"/>
     </row>
     <row r="509" spans="2:5" ht="13">
-      <c r="B509" s="11"/>
-      <c r="E509" s="11"/>
+      <c r="B509" s="10"/>
+      <c r="E509" s="10"/>
     </row>
     <row r="510" spans="2:5" ht="13">
-      <c r="B510" s="11"/>
-      <c r="E510" s="11"/>
+      <c r="B510" s="10"/>
+      <c r="E510" s="10"/>
     </row>
     <row r="511" spans="2:5" ht="13">
-      <c r="B511" s="11"/>
-      <c r="E511" s="11"/>
+      <c r="B511" s="10"/>
+      <c r="E511" s="10"/>
     </row>
     <row r="512" spans="2:5" ht="13">
-      <c r="B512" s="11"/>
-      <c r="E512" s="11"/>
+      <c r="B512" s="10"/>
+      <c r="E512" s="10"/>
     </row>
     <row r="513" spans="2:5" ht="13">
-      <c r="B513" s="11"/>
-      <c r="E513" s="11"/>
+      <c r="B513" s="10"/>
+      <c r="E513" s="10"/>
     </row>
     <row r="514" spans="2:5" ht="13">
-      <c r="B514" s="11"/>
-      <c r="E514" s="11"/>
+      <c r="B514" s="10"/>
+      <c r="E514" s="10"/>
     </row>
     <row r="515" spans="2:5" ht="13">
-      <c r="B515" s="11"/>
-      <c r="E515" s="11"/>
+      <c r="B515" s="10"/>
+      <c r="E515" s="10"/>
     </row>
     <row r="516" spans="2:5" ht="13">
-      <c r="B516" s="11"/>
-      <c r="E516" s="11"/>
+      <c r="B516" s="10"/>
+      <c r="E516" s="10"/>
     </row>
     <row r="517" spans="2:5" ht="13">
-      <c r="B517" s="11"/>
-      <c r="E517" s="11"/>
+      <c r="B517" s="10"/>
+      <c r="E517" s="10"/>
     </row>
     <row r="518" spans="2:5" ht="13">
-      <c r="B518" s="11"/>
-      <c r="E518" s="11"/>
+      <c r="B518" s="10"/>
+      <c r="E518" s="10"/>
     </row>
     <row r="519" spans="2:5" ht="13">
-      <c r="B519" s="11"/>
-      <c r="E519" s="11"/>
+      <c r="B519" s="10"/>
+      <c r="E519" s="10"/>
     </row>
     <row r="520" spans="2:5" ht="13">
-      <c r="B520" s="11"/>
-      <c r="E520" s="11"/>
+      <c r="B520" s="10"/>
+      <c r="E520" s="10"/>
     </row>
     <row r="521" spans="2:5" ht="13">
-      <c r="B521" s="11"/>
-      <c r="E521" s="11"/>
+      <c r="B521" s="10"/>
+      <c r="E521" s="10"/>
     </row>
     <row r="522" spans="2:5" ht="13">
-      <c r="B522" s="11"/>
-      <c r="E522" s="11"/>
+      <c r="B522" s="10"/>
+      <c r="E522" s="10"/>
     </row>
     <row r="523" spans="2:5" ht="13">
-      <c r="B523" s="11"/>
-      <c r="E523" s="11"/>
+      <c r="B523" s="10"/>
+      <c r="E523" s="10"/>
     </row>
     <row r="524" spans="2:5" ht="13">
-      <c r="B524" s="11"/>
-      <c r="E524" s="11"/>
+      <c r="B524" s="10"/>
+      <c r="E524" s="10"/>
     </row>
     <row r="525" spans="2:5" ht="13">
-      <c r="B525" s="11"/>
-      <c r="E525" s="11"/>
+      <c r="B525" s="10"/>
+      <c r="E525" s="10"/>
     </row>
     <row r="526" spans="2:5" ht="13">
-      <c r="B526" s="11"/>
-      <c r="E526" s="11"/>
+      <c r="B526" s="10"/>
+      <c r="E526" s="10"/>
     </row>
     <row r="527" spans="2:5" ht="13">
-      <c r="B527" s="11"/>
-      <c r="E527" s="11"/>
+      <c r="B527" s="10"/>
+      <c r="E527" s="10"/>
     </row>
     <row r="528" spans="2:5" ht="13">
-      <c r="B528" s="11"/>
-      <c r="E528" s="11"/>
+      <c r="B528" s="10"/>
+      <c r="E528" s="10"/>
     </row>
     <row r="529" spans="2:5" ht="13">
-      <c r="B529" s="11"/>
-      <c r="E529" s="11"/>
+      <c r="B529" s="10"/>
+      <c r="E529" s="10"/>
     </row>
     <row r="530" spans="2:5" ht="13">
-      <c r="B530" s="11"/>
-      <c r="E530" s="11"/>
+      <c r="B530" s="10"/>
+      <c r="E530" s="10"/>
     </row>
     <row r="531" spans="2:5" ht="13">
-      <c r="B531" s="11"/>
-      <c r="E531" s="11"/>
+      <c r="B531" s="10"/>
+      <c r="E531" s="10"/>
     </row>
     <row r="532" spans="2:5" ht="13">
-      <c r="B532" s="11"/>
-      <c r="E532" s="11"/>
+      <c r="B532" s="10"/>
+      <c r="E532" s="10"/>
     </row>
     <row r="533" spans="2:5" ht="13">
-      <c r="B533" s="11"/>
-      <c r="E533" s="11"/>
+      <c r="B533" s="10"/>
+      <c r="E533" s="10"/>
     </row>
     <row r="534" spans="2:5" ht="13">
-      <c r="B534" s="11"/>
-      <c r="E534" s="11"/>
+      <c r="B534" s="10"/>
+      <c r="E534" s="10"/>
     </row>
     <row r="535" spans="2:5" ht="13">
-      <c r="B535" s="11"/>
-      <c r="E535" s="11"/>
+      <c r="B535" s="10"/>
+      <c r="E535" s="10"/>
     </row>
     <row r="536" spans="2:5" ht="13">
-      <c r="B536" s="11"/>
-      <c r="E536" s="11"/>
+      <c r="B536" s="10"/>
+      <c r="E536" s="10"/>
     </row>
     <row r="537" spans="2:5" ht="13">
-      <c r="B537" s="11"/>
-      <c r="E537" s="11"/>
+      <c r="B537" s="10"/>
+      <c r="E537" s="10"/>
     </row>
     <row r="538" spans="2:5" ht="13">
-      <c r="B538" s="11"/>
-      <c r="E538" s="11"/>
+      <c r="B538" s="10"/>
+      <c r="E538" s="10"/>
     </row>
     <row r="539" spans="2:5" ht="13">
-      <c r="B539" s="11"/>
-      <c r="E539" s="11"/>
+      <c r="B539" s="10"/>
+      <c r="E539" s="10"/>
     </row>
     <row r="540" spans="2:5" ht="13">
-      <c r="B540" s="11"/>
-      <c r="E540" s="11"/>
+      <c r="B540" s="10"/>
+      <c r="E540" s="10"/>
     </row>
     <row r="541" spans="2:5" ht="13">
-      <c r="B541" s="11"/>
-      <c r="E541" s="11"/>
+      <c r="B541" s="10"/>
+      <c r="E541" s="10"/>
     </row>
     <row r="542" spans="2:5" ht="13">
-      <c r="B542" s="11"/>
-      <c r="E542" s="11"/>
+      <c r="B542" s="10"/>
+      <c r="E542" s="10"/>
     </row>
     <row r="543" spans="2:5" ht="13">
-      <c r="B543" s="11"/>
-      <c r="E543" s="11"/>
+      <c r="B543" s="10"/>
+      <c r="E543" s="10"/>
     </row>
     <row r="544" spans="2:5" ht="13">
-      <c r="B544" s="11"/>
-      <c r="E544" s="11"/>
+      <c r="B544" s="10"/>
+      <c r="E544" s="10"/>
     </row>
     <row r="545" spans="2:5" ht="13">
-      <c r="B545" s="11"/>
-      <c r="E545" s="11"/>
+      <c r="B545" s="10"/>
+      <c r="E545" s="10"/>
     </row>
     <row r="546" spans="2:5" ht="13">
-      <c r="B546" s="11"/>
-      <c r="E546" s="11"/>
+      <c r="B546" s="10"/>
+      <c r="E546" s="10"/>
     </row>
     <row r="547" spans="2:5" ht="13">
-      <c r="B547" s="11"/>
-      <c r="E547" s="11"/>
+      <c r="B547" s="10"/>
+      <c r="E547" s="10"/>
     </row>
     <row r="548" spans="2:5" ht="13">
-      <c r="B548" s="11"/>
-      <c r="E548" s="11"/>
+      <c r="B548" s="10"/>
+      <c r="E548" s="10"/>
     </row>
     <row r="549" spans="2:5" ht="13">
-      <c r="B549" s="11"/>
-      <c r="E549" s="11"/>
+      <c r="B549" s="10"/>
+      <c r="E549" s="10"/>
     </row>
     <row r="550" spans="2:5" ht="13">
-      <c r="B550" s="11"/>
-      <c r="E550" s="11"/>
+      <c r="B550" s="10"/>
+      <c r="E550" s="10"/>
     </row>
     <row r="551" spans="2:5" ht="13">
-      <c r="B551" s="11"/>
-      <c r="E551" s="11"/>
+      <c r="B551" s="10"/>
+      <c r="E551" s="10"/>
     </row>
     <row r="552" spans="2:5" ht="13">
-      <c r="B552" s="11"/>
-      <c r="E552" s="11"/>
+      <c r="B552" s="10"/>
+      <c r="E552" s="10"/>
     </row>
     <row r="553" spans="2:5" ht="13">
-      <c r="B553" s="11"/>
-      <c r="E553" s="11"/>
+      <c r="B553" s="10"/>
+      <c r="E553" s="10"/>
     </row>
     <row r="554" spans="2:5" ht="13">
-      <c r="B554" s="11"/>
-      <c r="E554" s="11"/>
+      <c r="B554" s="10"/>
+      <c r="E554" s="10"/>
     </row>
     <row r="555" spans="2:5" ht="13">
-      <c r="B555" s="11"/>
-      <c r="E555" s="11"/>
+      <c r="B555" s="10"/>
+      <c r="E555" s="10"/>
     </row>
     <row r="556" spans="2:5" ht="13">
-      <c r="B556" s="11"/>
-      <c r="E556" s="11"/>
+      <c r="B556" s="10"/>
+      <c r="E556" s="10"/>
     </row>
     <row r="557" spans="2:5" ht="13">
-      <c r="B557" s="11"/>
-      <c r="E557" s="11"/>
+      <c r="B557" s="10"/>
+      <c r="E557" s="10"/>
     </row>
     <row r="558" spans="2:5" ht="13">
-      <c r="B558" s="11"/>
-      <c r="E558" s="11"/>
+      <c r="B558" s="10"/>
+      <c r="E558" s="10"/>
     </row>
     <row r="559" spans="2:5" ht="13">
-      <c r="B559" s="11"/>
-      <c r="E559" s="11"/>
+      <c r="B559" s="10"/>
+      <c r="E559" s="10"/>
     </row>
     <row r="560" spans="2:5" ht="13">
-      <c r="B560" s="11"/>
-      <c r="E560" s="11"/>
+      <c r="B560" s="10"/>
+      <c r="E560" s="10"/>
     </row>
     <row r="561" spans="2:5" ht="13">
-      <c r="B561" s="11"/>
-      <c r="E561" s="11"/>
+      <c r="B561" s="10"/>
+      <c r="E561" s="10"/>
     </row>
     <row r="562" spans="2:5" ht="13">
-      <c r="B562" s="11"/>
-      <c r="E562" s="11"/>
+      <c r="B562" s="10"/>
+      <c r="E562" s="10"/>
     </row>
     <row r="563" spans="2:5" ht="13">
-      <c r="B563" s="11"/>
-      <c r="E563" s="11"/>
+      <c r="B563" s="10"/>
+      <c r="E563" s="10"/>
     </row>
     <row r="564" spans="2:5" ht="13">
-      <c r="B564" s="11"/>
-      <c r="E564" s="11"/>
+      <c r="B564" s="10"/>
+      <c r="E564" s="10"/>
     </row>
     <row r="565" spans="2:5" ht="13">
-      <c r="B565" s="11"/>
-      <c r="E565" s="11"/>
+      <c r="B565" s="10"/>
+      <c r="E565" s="10"/>
     </row>
     <row r="566" spans="2:5" ht="13">
-      <c r="B566" s="11"/>
-      <c r="E566" s="11"/>
+      <c r="B566" s="10"/>
+      <c r="E566" s="10"/>
     </row>
     <row r="567" spans="2:5" ht="13">
-      <c r="B567" s="11"/>
-      <c r="E567" s="11"/>
+      <c r="B567" s="10"/>
+      <c r="E567" s="10"/>
     </row>
     <row r="568" spans="2:5" ht="13">
-      <c r="B568" s="11"/>
-      <c r="E568" s="11"/>
+      <c r="B568" s="10"/>
+      <c r="E568" s="10"/>
     </row>
     <row r="569" spans="2:5" ht="13">
-      <c r="B569" s="11"/>
-      <c r="E569" s="11"/>
+      <c r="B569" s="10"/>
+      <c r="E569" s="10"/>
     </row>
     <row r="570" spans="2:5" ht="13">
-      <c r="B570" s="11"/>
-      <c r="E570" s="11"/>
+      <c r="B570" s="10"/>
+      <c r="E570" s="10"/>
     </row>
     <row r="571" spans="2:5" ht="13">
-      <c r="B571" s="11"/>
-      <c r="E571" s="11"/>
+      <c r="B571" s="10"/>
+      <c r="E571" s="10"/>
     </row>
     <row r="572" spans="2:5" ht="13">
-      <c r="B572" s="11"/>
-      <c r="E572" s="11"/>
+      <c r="B572" s="10"/>
+      <c r="E572" s="10"/>
     </row>
     <row r="573" spans="2:5" ht="13">
-      <c r="B573" s="11"/>
-      <c r="E573" s="11"/>
+      <c r="B573" s="10"/>
+      <c r="E573" s="10"/>
     </row>
     <row r="574" spans="2:5" ht="13">
-      <c r="B574" s="11"/>
-      <c r="E574" s="11"/>
+      <c r="B574" s="10"/>
+      <c r="E574" s="10"/>
     </row>
     <row r="575" spans="2:5" ht="13">
-      <c r="B575" s="11"/>
-      <c r="E575" s="11"/>
+      <c r="B575" s="10"/>
+      <c r="E575" s="10"/>
     </row>
     <row r="576" spans="2:5" ht="13">
-      <c r="B576" s="11"/>
-      <c r="E576" s="11"/>
+      <c r="B576" s="10"/>
+      <c r="E576" s="10"/>
     </row>
     <row r="577" spans="2:5" ht="13">
-      <c r="B577" s="11"/>
-      <c r="E577" s="11"/>
+      <c r="B577" s="10"/>
+      <c r="E577" s="10"/>
     </row>
     <row r="578" spans="2:5" ht="13">
-      <c r="B578" s="11"/>
-      <c r="E578" s="11"/>
+      <c r="B578" s="10"/>
+      <c r="E578" s="10"/>
     </row>
     <row r="579" spans="2:5" ht="13">
-      <c r="B579" s="11"/>
-      <c r="E579" s="11"/>
+      <c r="B579" s="10"/>
+      <c r="E579" s="10"/>
     </row>
     <row r="580" spans="2:5" ht="13">
-      <c r="B580" s="11"/>
-      <c r="E580" s="11"/>
+      <c r="B580" s="10"/>
+      <c r="E580" s="10"/>
     </row>
     <row r="581" spans="2:5" ht="13">
-      <c r="B581" s="11"/>
-      <c r="E581" s="11"/>
+      <c r="B581" s="10"/>
+      <c r="E581" s="10"/>
     </row>
     <row r="582" spans="2:5" ht="13">
-      <c r="B582" s="11"/>
-      <c r="E582" s="11"/>
+      <c r="B582" s="10"/>
+      <c r="E582" s="10"/>
     </row>
     <row r="583" spans="2:5" ht="13">
-      <c r="B583" s="11"/>
-      <c r="E583" s="11"/>
+      <c r="B583" s="10"/>
+      <c r="E583" s="10"/>
     </row>
     <row r="584" spans="2:5" ht="13">
-      <c r="B584" s="11"/>
-      <c r="E584" s="11"/>
+      <c r="B584" s="10"/>
+      <c r="E584" s="10"/>
     </row>
     <row r="585" spans="2:5" ht="13">
-      <c r="B585" s="11"/>
-      <c r="E585" s="11"/>
+      <c r="B585" s="10"/>
+      <c r="E585" s="10"/>
     </row>
     <row r="586" spans="2:5" ht="13">
-      <c r="B586" s="11"/>
-      <c r="E586" s="11"/>
+      <c r="B586" s="10"/>
+      <c r="E586" s="10"/>
     </row>
     <row r="587" spans="2:5" ht="13">
-      <c r="B587" s="11"/>
-      <c r="E587" s="11"/>
+      <c r="B587" s="10"/>
+      <c r="E587" s="10"/>
     </row>
     <row r="588" spans="2:5" ht="13">
-      <c r="B588" s="11"/>
-      <c r="E588" s="11"/>
+      <c r="B588" s="10"/>
+      <c r="E588" s="10"/>
     </row>
     <row r="589" spans="2:5" ht="13">
-      <c r="B589" s="11"/>
-      <c r="E589" s="11"/>
+      <c r="B589" s="10"/>
+      <c r="E589" s="10"/>
     </row>
     <row r="590" spans="2:5" ht="13">
-      <c r="B590" s="11"/>
-      <c r="E590" s="11"/>
+      <c r="B590" s="10"/>
+      <c r="E590" s="10"/>
     </row>
     <row r="591" spans="2:5" ht="13">
-      <c r="B591" s="11"/>
-      <c r="E591" s="11"/>
+      <c r="B591" s="10"/>
+      <c r="E591" s="10"/>
     </row>
     <row r="592" spans="2:5" ht="13">
-      <c r="B592" s="11"/>
-      <c r="E592" s="11"/>
+      <c r="B592" s="10"/>
+      <c r="E592" s="10"/>
     </row>
     <row r="593" spans="2:5" ht="13">
-      <c r="B593" s="11"/>
-      <c r="E593" s="11"/>
+      <c r="B593" s="10"/>
+      <c r="E593" s="10"/>
     </row>
     <row r="594" spans="2:5" ht="13">
-      <c r="B594" s="11"/>
-      <c r="E594" s="11"/>
+      <c r="B594" s="10"/>
+      <c r="E594" s="10"/>
     </row>
     <row r="595" spans="2:5" ht="13">
-      <c r="B595" s="11"/>
-      <c r="E595" s="11"/>
+      <c r="B595" s="10"/>
+      <c r="E595" s="10"/>
     </row>
     <row r="596" spans="2:5" ht="13">
-      <c r="B596" s="11"/>
-      <c r="E596" s="11"/>
+      <c r="B596" s="10"/>
+      <c r="E596" s="10"/>
     </row>
     <row r="597" spans="2:5" ht="13">
-      <c r="B597" s="11"/>
-      <c r="E597" s="11"/>
+      <c r="B597" s="10"/>
+      <c r="E597" s="10"/>
     </row>
     <row r="598" spans="2:5" ht="13">
-      <c r="B598" s="11"/>
-      <c r="E598" s="11"/>
+      <c r="B598" s="10"/>
+      <c r="E598" s="10"/>
     </row>
     <row r="599" spans="2:5" ht="13">
-      <c r="B599" s="11"/>
-      <c r="E599" s="11"/>
+      <c r="B599" s="10"/>
+      <c r="E599" s="10"/>
     </row>
     <row r="600" spans="2:5" ht="13">
-      <c r="B600" s="11"/>
-      <c r="E600" s="11"/>
+      <c r="B600" s="10"/>
+      <c r="E600" s="10"/>
     </row>
     <row r="601" spans="2:5" ht="13">
-      <c r="B601" s="11"/>
-      <c r="E601" s="11"/>
+      <c r="B601" s="10"/>
+      <c r="E601" s="10"/>
     </row>
     <row r="602" spans="2:5" ht="13">
-      <c r="B602" s="11"/>
-      <c r="E602" s="11"/>
+      <c r="B602" s="10"/>
+      <c r="E602" s="10"/>
     </row>
     <row r="603" spans="2:5" ht="13">
-      <c r="B603" s="11"/>
-      <c r="E603" s="11"/>
+      <c r="B603" s="10"/>
+      <c r="E603" s="10"/>
     </row>
     <row r="604" spans="2:5" ht="13">
-      <c r="B604" s="11"/>
-      <c r="E604" s="11"/>
+      <c r="B604" s="10"/>
+      <c r="E604" s="10"/>
     </row>
     <row r="605" spans="2:5" ht="13">
-      <c r="B605" s="11"/>
-      <c r="E605" s="11"/>
+      <c r="B605" s="10"/>
+      <c r="E605" s="10"/>
     </row>
     <row r="606" spans="2:5" ht="13">
-      <c r="B606" s="11"/>
-      <c r="E606" s="11"/>
+      <c r="B606" s="10"/>
+      <c r="E606" s="10"/>
     </row>
     <row r="607" spans="2:5" ht="13">
-      <c r="B607" s="11"/>
-      <c r="E607" s="11"/>
+      <c r="B607" s="10"/>
+      <c r="E607" s="10"/>
     </row>
     <row r="608" spans="2:5" ht="13">
-      <c r="B608" s="11"/>
-      <c r="E608" s="11"/>
+      <c r="B608" s="10"/>
+      <c r="E608" s="10"/>
     </row>
     <row r="609" spans="2:5" ht="13">
-      <c r="B609" s="11"/>
-      <c r="E609" s="11"/>
+      <c r="B609" s="10"/>
+      <c r="E609" s="10"/>
     </row>
     <row r="610" spans="2:5" ht="13">
-      <c r="B610" s="11"/>
-      <c r="E610" s="11"/>
+      <c r="B610" s="10"/>
+      <c r="E610" s="10"/>
     </row>
     <row r="611" spans="2:5" ht="13">
-      <c r="B611" s="11"/>
-      <c r="E611" s="11"/>
+      <c r="B611" s="10"/>
+      <c r="E611" s="10"/>
     </row>
     <row r="612" spans="2:5" ht="13">
-      <c r="B612" s="11"/>
-      <c r="E612" s="11"/>
+      <c r="B612" s="10"/>
+      <c r="E612" s="10"/>
     </row>
     <row r="613" spans="2:5" ht="13">
-      <c r="B613" s="11"/>
-      <c r="E613" s="11"/>
+      <c r="B613" s="10"/>
+      <c r="E613" s="10"/>
     </row>
     <row r="614" spans="2:5" ht="13">
-      <c r="B614" s="11"/>
-      <c r="E614" s="11"/>
+      <c r="B614" s="10"/>
+      <c r="E614" s="10"/>
     </row>
     <row r="615" spans="2:5" ht="13">
-      <c r="B615" s="11"/>
-      <c r="E615" s="11"/>
+      <c r="B615" s="10"/>
+      <c r="E615" s="10"/>
     </row>
     <row r="616" spans="2:5" ht="13">
-      <c r="B616" s="11"/>
-      <c r="E616" s="11"/>
+      <c r="B616" s="10"/>
+      <c r="E616" s="10"/>
     </row>
     <row r="617" spans="2:5" ht="13">
-      <c r="B617" s="11"/>
-      <c r="E617" s="11"/>
+      <c r="B617" s="10"/>
+      <c r="E617" s="10"/>
     </row>
     <row r="618" spans="2:5" ht="13">
-      <c r="B618" s="11"/>
-      <c r="E618" s="11"/>
+      <c r="B618" s="10"/>
+      <c r="E618" s="10"/>
     </row>
     <row r="619" spans="2:5" ht="13">
-      <c r="B619" s="11"/>
-      <c r="E619" s="11"/>
+      <c r="B619" s="10"/>
+      <c r="E619" s="10"/>
     </row>
     <row r="620" spans="2:5" ht="13">
-      <c r="B620" s="11"/>
-      <c r="E620" s="11"/>
+      <c r="B620" s="10"/>
+      <c r="E620" s="10"/>
     </row>
     <row r="621" spans="2:5" ht="13">
-      <c r="B621" s="11"/>
-      <c r="E621" s="11"/>
+      <c r="B621" s="10"/>
+      <c r="E621" s="10"/>
     </row>
     <row r="622" spans="2:5" ht="13">
-      <c r="B622" s="11"/>
-      <c r="E622" s="11"/>
+      <c r="B622" s="10"/>
+      <c r="E622" s="10"/>
     </row>
     <row r="623" spans="2:5" ht="13">
-      <c r="B623" s="11"/>
-      <c r="E623" s="11"/>
+      <c r="B623" s="10"/>
+      <c r="E623" s="10"/>
     </row>
     <row r="624" spans="2:5" ht="13">
-      <c r="B624" s="11"/>
-      <c r="E624" s="11"/>
+      <c r="B624" s="10"/>
+      <c r="E624" s="10"/>
     </row>
     <row r="625" spans="2:5" ht="13">
-      <c r="B625" s="11"/>
-      <c r="E625" s="11"/>
+      <c r="B625" s="10"/>
+      <c r="E625" s="10"/>
     </row>
     <row r="626" spans="2:5" ht="13">
-      <c r="B626" s="11"/>
-      <c r="E626" s="11"/>
+      <c r="B626" s="10"/>
+      <c r="E626" s="10"/>
     </row>
     <row r="627" spans="2:5" ht="13">
-      <c r="B627" s="11"/>
-      <c r="E627" s="11"/>
+      <c r="B627" s="10"/>
+      <c r="E627" s="10"/>
     </row>
     <row r="628" spans="2:5" ht="13">
-      <c r="B628" s="11"/>
-      <c r="E628" s="11"/>
+      <c r="B628" s="10"/>
+      <c r="E628" s="10"/>
     </row>
     <row r="629" spans="2:5" ht="13">
-      <c r="B629" s="11"/>
-      <c r="E629" s="11"/>
+      <c r="B629" s="10"/>
+      <c r="E629" s="10"/>
     </row>
     <row r="630" spans="2:5" ht="13">
-      <c r="B630" s="11"/>
-      <c r="E630" s="11"/>
+      <c r="B630" s="10"/>
+      <c r="E630" s="10"/>
     </row>
     <row r="631" spans="2:5" ht="13">
-      <c r="B631" s="11"/>
-      <c r="E631" s="11"/>
+      <c r="B631" s="10"/>
+      <c r="E631" s="10"/>
     </row>
     <row r="632" spans="2:5" ht="13">
-      <c r="B632" s="11"/>
-      <c r="E632" s="11"/>
+      <c r="B632" s="10"/>
+      <c r="E632" s="10"/>
     </row>
     <row r="633" spans="2:5" ht="13">
-      <c r="B633" s="11"/>
-      <c r="E633" s="11"/>
+      <c r="B633" s="10"/>
+      <c r="E633" s="10"/>
     </row>
     <row r="634" spans="2:5" ht="13">
-      <c r="B634" s="11"/>
-      <c r="E634" s="11"/>
+      <c r="B634" s="10"/>
+      <c r="E634" s="10"/>
     </row>
     <row r="635" spans="2:5" ht="13">
-      <c r="B635" s="11"/>
-      <c r="E635" s="11"/>
+      <c r="B635" s="10"/>
+      <c r="E635" s="10"/>
     </row>
     <row r="636" spans="2:5" ht="13">
-      <c r="B636" s="11"/>
-      <c r="E636" s="11"/>
+      <c r="B636" s="10"/>
+      <c r="E636" s="10"/>
     </row>
     <row r="637" spans="2:5" ht="13">
-      <c r="B637" s="11"/>
-      <c r="E637" s="11"/>
+      <c r="B637" s="10"/>
+      <c r="E637" s="10"/>
     </row>
     <row r="638" spans="2:5" ht="13">
-      <c r="B638" s="11"/>
-      <c r="E638" s="11"/>
+      <c r="B638" s="10"/>
+      <c r="E638" s="10"/>
     </row>
     <row r="639" spans="2:5" ht="13">
-      <c r="B639" s="11"/>
-      <c r="E639" s="11"/>
+      <c r="B639" s="10"/>
+      <c r="E639" s="10"/>
     </row>
     <row r="640" spans="2:5" ht="13">
-      <c r="B640" s="11"/>
-      <c r="E640" s="11"/>
+      <c r="B640" s="10"/>
+      <c r="E640" s="10"/>
     </row>
     <row r="641" spans="2:5" ht="13">
-      <c r="B641" s="11"/>
-      <c r="E641" s="11"/>
+      <c r="B641" s="10"/>
+      <c r="E641" s="10"/>
     </row>
     <row r="642" spans="2:5" ht="13">
-      <c r="B642" s="11"/>
-      <c r="E642" s="11"/>
+      <c r="B642" s="10"/>
+      <c r="E642" s="10"/>
     </row>
     <row r="643" spans="2:5" ht="13">
-      <c r="B643" s="11"/>
-      <c r="E643" s="11"/>
+      <c r="B643" s="10"/>
+      <c r="E643" s="10"/>
     </row>
     <row r="644" spans="2:5" ht="13">
-      <c r="B644" s="11"/>
-      <c r="E644" s="11"/>
+      <c r="B644" s="10"/>
+      <c r="E644" s="10"/>
     </row>
     <row r="645" spans="2:5" ht="13">
-      <c r="B645" s="11"/>
-      <c r="E645" s="11"/>
+      <c r="B645" s="10"/>
+      <c r="E645" s="10"/>
     </row>
     <row r="646" spans="2:5" ht="13">
-      <c r="B646" s="11"/>
-      <c r="E646" s="11"/>
+      <c r="B646" s="10"/>
+      <c r="E646" s="10"/>
     </row>
     <row r="647" spans="2:5" ht="13">
-      <c r="B647" s="11"/>
-      <c r="E647" s="11"/>
+      <c r="B647" s="10"/>
+      <c r="E647" s="10"/>
     </row>
     <row r="648" spans="2:5" ht="13">
-      <c r="B648" s="11"/>
-      <c r="E648" s="11"/>
+      <c r="B648" s="10"/>
+      <c r="E648" s="10"/>
     </row>
     <row r="649" spans="2:5" ht="13">
-      <c r="B649" s="11"/>
-      <c r="E649" s="11"/>
+      <c r="B649" s="10"/>
+      <c r="E649" s="10"/>
     </row>
     <row r="650" spans="2:5" ht="13">
-      <c r="B650" s="11"/>
-      <c r="E650" s="11"/>
+      <c r="B650" s="10"/>
+      <c r="E650" s="10"/>
     </row>
     <row r="651" spans="2:5" ht="13">
-      <c r="B651" s="11"/>
-      <c r="E651" s="11"/>
+      <c r="B651" s="10"/>
+      <c r="E651" s="10"/>
     </row>
     <row r="652" spans="2:5" ht="13">
-      <c r="B652" s="11"/>
-      <c r="E652" s="11"/>
+      <c r="B652" s="10"/>
+      <c r="E652" s="10"/>
     </row>
     <row r="653" spans="2:5" ht="13">
-      <c r="B653" s="11"/>
-      <c r="E653" s="11"/>
+      <c r="B653" s="10"/>
+      <c r="E653" s="10"/>
     </row>
     <row r="654" spans="2:5" ht="13">
-      <c r="B654" s="11"/>
-      <c r="E654" s="11"/>
+      <c r="B654" s="10"/>
+      <c r="E654" s="10"/>
     </row>
     <row r="655" spans="2:5" ht="13">
-      <c r="B655" s="11"/>
-      <c r="E655" s="11"/>
+      <c r="B655" s="10"/>
+      <c r="E655" s="10"/>
     </row>
     <row r="656" spans="2:5" ht="13">
-      <c r="B656" s="11"/>
-      <c r="E656" s="11"/>
+      <c r="B656" s="10"/>
+      <c r="E656" s="10"/>
     </row>
     <row r="657" spans="2:5" ht="13">
-      <c r="B657" s="11"/>
-      <c r="E657" s="11"/>
+      <c r="B657" s="10"/>
+      <c r="E657" s="10"/>
     </row>
     <row r="658" spans="2:5" ht="13">
-      <c r="B658" s="11"/>
-      <c r="E658" s="11"/>
+      <c r="B658" s="10"/>
+      <c r="E658" s="10"/>
     </row>
     <row r="659" spans="2:5" ht="13">
-      <c r="B659" s="11"/>
-      <c r="E659" s="11"/>
+      <c r="B659" s="10"/>
+      <c r="E659" s="10"/>
     </row>
     <row r="660" spans="2:5" ht="13">
-      <c r="B660" s="11"/>
-      <c r="E660" s="11"/>
+      <c r="B660" s="10"/>
+      <c r="E660" s="10"/>
     </row>
     <row r="661" spans="2:5" ht="13">
-      <c r="B661" s="11"/>
-      <c r="E661" s="11"/>
+      <c r="B661" s="10"/>
+      <c r="E661" s="10"/>
     </row>
     <row r="662" spans="2:5" ht="13">
-      <c r="B662" s="11"/>
-      <c r="E662" s="11"/>
+      <c r="B662" s="10"/>
+      <c r="E662" s="10"/>
     </row>
     <row r="663" spans="2:5" ht="13">
-      <c r="B663" s="11"/>
-      <c r="E663" s="11"/>
+      <c r="B663" s="10"/>
+      <c r="E663" s="10"/>
     </row>
     <row r="664" spans="2:5" ht="13">
-      <c r="B664" s="11"/>
-      <c r="E664" s="11"/>
+      <c r="B664" s="10"/>
+      <c r="E664" s="10"/>
     </row>
     <row r="665" spans="2:5" ht="13">
-      <c r="B665" s="11"/>
-      <c r="E665" s="11"/>
+      <c r="B665" s="10"/>
+      <c r="E665" s="10"/>
     </row>
     <row r="666" spans="2:5" ht="13">
-      <c r="B666" s="11"/>
-      <c r="E666" s="11"/>
+      <c r="B666" s="10"/>
+      <c r="E666" s="10"/>
     </row>
     <row r="667" spans="2:5" ht="13">
-      <c r="B667" s="11"/>
-      <c r="E667" s="11"/>
+      <c r="B667" s="10"/>
+      <c r="E667" s="10"/>
     </row>
     <row r="668" spans="2:5" ht="13">
-      <c r="B668" s="11"/>
-      <c r="E668" s="11"/>
+      <c r="B668" s="10"/>
+      <c r="E668" s="10"/>
     </row>
     <row r="669" spans="2:5" ht="13">
-      <c r="B669" s="11"/>
-      <c r="E669" s="11"/>
+      <c r="B669" s="10"/>
+      <c r="E669" s="10"/>
     </row>
     <row r="670" spans="2:5" ht="13">
-      <c r="B670" s="11"/>
-      <c r="E670" s="11"/>
+      <c r="B670" s="10"/>
+      <c r="E670" s="10"/>
     </row>
     <row r="671" spans="2:5" ht="13">
-      <c r="B671" s="11"/>
-      <c r="E671" s="11"/>
+      <c r="B671" s="10"/>
+      <c r="E671" s="10"/>
     </row>
     <row r="672" spans="2:5" ht="13">
-      <c r="B672" s="11"/>
-      <c r="E672" s="11"/>
+      <c r="B672" s="10"/>
+      <c r="E672" s="10"/>
     </row>
     <row r="673" spans="2:5" ht="13">
-      <c r="B673" s="11"/>
-      <c r="E673" s="11"/>
+      <c r="B673" s="10"/>
+      <c r="E673" s="10"/>
     </row>
     <row r="674" spans="2:5" ht="13">
-      <c r="B674" s="11"/>
-      <c r="E674" s="11"/>
+      <c r="B674" s="10"/>
+      <c r="E674" s="10"/>
     </row>
     <row r="675" spans="2:5" ht="13">
-      <c r="B675" s="11"/>
-      <c r="E675" s="11"/>
+      <c r="B675" s="10"/>
+      <c r="E675" s="10"/>
     </row>
     <row r="676" spans="2:5" ht="13">
-      <c r="B676" s="11"/>
-      <c r="E676" s="11"/>
+      <c r="B676" s="10"/>
+      <c r="E676" s="10"/>
     </row>
     <row r="677" spans="2:5" ht="13">
-      <c r="B677" s="11"/>
-      <c r="E677" s="11"/>
+      <c r="B677" s="10"/>
+      <c r="E677" s="10"/>
     </row>
     <row r="678" spans="2:5" ht="13">
-      <c r="B678" s="11"/>
-      <c r="E678" s="11"/>
+      <c r="B678" s="10"/>
+      <c r="E678" s="10"/>
     </row>
     <row r="679" spans="2:5" ht="13">
-      <c r="B679" s="11"/>
-      <c r="E679" s="11"/>
+      <c r="B679" s="10"/>
+      <c r="E679" s="10"/>
     </row>
     <row r="680" spans="2:5" ht="13">
-      <c r="B680" s="11"/>
-      <c r="E680" s="11"/>
+      <c r="B680" s="10"/>
+      <c r="E680" s="10"/>
     </row>
     <row r="681" spans="2:5" ht="13">
-      <c r="B681" s="11"/>
-      <c r="E681" s="11"/>
+      <c r="B681" s="10"/>
+      <c r="E681" s="10"/>
     </row>
     <row r="682" spans="2:5" ht="13">
-      <c r="B682" s="11"/>
-      <c r="E682" s="11"/>
+      <c r="B682" s="10"/>
+      <c r="E682" s="10"/>
     </row>
     <row r="683" spans="2:5" ht="13">
-      <c r="B683" s="11"/>
-      <c r="E683" s="11"/>
+      <c r="B683" s="10"/>
+      <c r="E683" s="10"/>
     </row>
     <row r="684" spans="2:5" ht="13">
-      <c r="B684" s="11"/>
-      <c r="E684" s="11"/>
+      <c r="B684" s="10"/>
+      <c r="E684" s="10"/>
     </row>
     <row r="685" spans="2:5" ht="13">
-      <c r="B685" s="11"/>
-      <c r="E685" s="11"/>
+      <c r="B685" s="10"/>
+      <c r="E685" s="10"/>
     </row>
     <row r="686" spans="2:5" ht="13">
-      <c r="B686" s="11"/>
-      <c r="E686" s="11"/>
+      <c r="B686" s="10"/>
+      <c r="E686" s="10"/>
     </row>
     <row r="687" spans="2:5" ht="13">
-      <c r="B687" s="11"/>
-      <c r="E687" s="11"/>
+      <c r="B687" s="10"/>
+      <c r="E687" s="10"/>
     </row>
     <row r="688" spans="2:5" ht="13">
-      <c r="B688" s="11"/>
-      <c r="E688" s="11"/>
+      <c r="B688" s="10"/>
+      <c r="E688" s="10"/>
     </row>
     <row r="689" spans="2:5" ht="13">
-      <c r="B689" s="11"/>
-      <c r="E689" s="11"/>
+      <c r="B689" s="10"/>
+      <c r="E689" s="10"/>
     </row>
     <row r="690" spans="2:5" ht="13">
-      <c r="B690" s="11"/>
-      <c r="E690" s="11"/>
+      <c r="B690" s="10"/>
+      <c r="E690" s="10"/>
     </row>
     <row r="691" spans="2:5" ht="13">
-      <c r="B691" s="11"/>
-      <c r="E691" s="11"/>
+      <c r="B691" s="10"/>
+      <c r="E691" s="10"/>
     </row>
     <row r="692" spans="2:5" ht="13">
-      <c r="B692" s="11"/>
-      <c r="E692" s="11"/>
+      <c r="B692" s="10"/>
+      <c r="E692" s="10"/>
     </row>
     <row r="693" spans="2:5" ht="13">
-      <c r="B693" s="11"/>
-      <c r="E693" s="11"/>
+      <c r="B693" s="10"/>
+      <c r="E693" s="10"/>
     </row>
     <row r="694" spans="2:5" ht="13">
-      <c r="B694" s="11"/>
-      <c r="E694" s="11"/>
+      <c r="B694" s="10"/>
+      <c r="E694" s="10"/>
     </row>
     <row r="695" spans="2:5" ht="13">
-      <c r="B695" s="11"/>
-      <c r="E695" s="11"/>
+      <c r="B695" s="10"/>
+      <c r="E695" s="10"/>
     </row>
     <row r="696" spans="2:5" ht="13">
-      <c r="B696" s="11"/>
-      <c r="E696" s="11"/>
+      <c r="B696" s="10"/>
+      <c r="E696" s="10"/>
     </row>
     <row r="697" spans="2:5" ht="13">
-      <c r="B697" s="11"/>
-      <c r="E697" s="11"/>
+      <c r="B697" s="10"/>
+      <c r="E697" s="10"/>
     </row>
     <row r="698" spans="2:5" ht="13">
-      <c r="B698" s="11"/>
-      <c r="E698" s="11"/>
+      <c r="B698" s="10"/>
+      <c r="E698" s="10"/>
     </row>
     <row r="699" spans="2:5" ht="13">
-      <c r="B699" s="11"/>
-      <c r="E699" s="11"/>
+      <c r="B699" s="10"/>
+      <c r="E699" s="10"/>
     </row>
     <row r="700" spans="2:5" ht="13">
-      <c r="B700" s="11"/>
-      <c r="E700" s="11"/>
+      <c r="B700" s="10"/>
+      <c r="E700" s="10"/>
     </row>
     <row r="701" spans="2:5" ht="13">
-      <c r="B701" s="11"/>
-      <c r="E701" s="11"/>
+      <c r="B701" s="10"/>
+      <c r="E701" s="10"/>
     </row>
     <row r="702" spans="2:5" ht="13">
-      <c r="B702" s="11"/>
-      <c r="E702" s="11"/>
+      <c r="B702" s="10"/>
+      <c r="E702" s="10"/>
     </row>
     <row r="703" spans="2:5" ht="13">
-      <c r="B703" s="11"/>
-      <c r="E703" s="11"/>
+      <c r="B703" s="10"/>
+      <c r="E703" s="10"/>
     </row>
     <row r="704" spans="2:5" ht="13">
-      <c r="B704" s="11"/>
-      <c r="E704" s="11"/>
+      <c r="B704" s="10"/>
+      <c r="E704" s="10"/>
     </row>
     <row r="705" spans="2:5" ht="13">
-      <c r="B705" s="11"/>
-      <c r="E705" s="11"/>
+      <c r="B705" s="10"/>
+      <c r="E705" s="10"/>
     </row>
     <row r="706" spans="2:5" ht="13">
-      <c r="B706" s="11"/>
-      <c r="E706" s="11"/>
+      <c r="B706" s="10"/>
+      <c r="E706" s="10"/>
     </row>
     <row r="707" spans="2:5" ht="13">
-      <c r="B707" s="11"/>
-      <c r="E707" s="11"/>
+      <c r="B707" s="10"/>
+      <c r="E707" s="10"/>
     </row>
     <row r="708" spans="2:5" ht="13">
-      <c r="B708" s="11"/>
-      <c r="E708" s="11"/>
+      <c r="B708" s="10"/>
+      <c r="E708" s="10"/>
     </row>
     <row r="709" spans="2:5" ht="13">
-      <c r="B709" s="11"/>
-      <c r="E709" s="11"/>
+      <c r="B709" s="10"/>
+      <c r="E709" s="10"/>
     </row>
     <row r="710" spans="2:5" ht="13">
-      <c r="B710" s="11"/>
-      <c r="E710" s="11"/>
+      <c r="B710" s="10"/>
+      <c r="E710" s="10"/>
     </row>
     <row r="711" spans="2:5" ht="13">
-      <c r="B711" s="11"/>
-      <c r="E711" s="11"/>
+      <c r="B711" s="10"/>
+      <c r="E711" s="10"/>
     </row>
     <row r="712" spans="2:5" ht="13">
-      <c r="B712" s="11"/>
-      <c r="E712" s="11"/>
+      <c r="B712" s="10"/>
+      <c r="E712" s="10"/>
     </row>
     <row r="713" spans="2:5" ht="13">
-      <c r="B713" s="11"/>
-      <c r="E713" s="11"/>
+      <c r="B713" s="10"/>
+      <c r="E713" s="10"/>
     </row>
     <row r="714" spans="2:5" ht="13">
-      <c r="B714" s="11"/>
-      <c r="E714" s="11"/>
+      <c r="B714" s="10"/>
+      <c r="E714" s="10"/>
     </row>
     <row r="715" spans="2:5" ht="13">
-      <c r="B715" s="11"/>
-      <c r="E715" s="11"/>
+      <c r="B715" s="10"/>
+      <c r="E715" s="10"/>
     </row>
     <row r="716" spans="2:5" ht="13">
-      <c r="B716" s="11"/>
-      <c r="E716" s="11"/>
+      <c r="B716" s="10"/>
+      <c r="E716" s="10"/>
     </row>
     <row r="717" spans="2:5" ht="13">
-      <c r="B717" s="11"/>
-      <c r="E717" s="11"/>
+      <c r="B717" s="10"/>
+      <c r="E717" s="10"/>
     </row>
     <row r="718" spans="2:5" ht="13">
-      <c r="B718" s="11"/>
-      <c r="E718" s="11"/>
+      <c r="B718" s="10"/>
+      <c r="E718" s="10"/>
     </row>
     <row r="719" spans="2:5" ht="13">
-      <c r="B719" s="11"/>
-      <c r="E719" s="11"/>
+      <c r="B719" s="10"/>
+      <c r="E719" s="10"/>
     </row>
     <row r="720" spans="2:5" ht="13">
-      <c r="B720" s="11"/>
-      <c r="E720" s="11"/>
+      <c r="B720" s="10"/>
+      <c r="E720" s="10"/>
     </row>
     <row r="721" spans="2:5" ht="13">
-      <c r="B721" s="11"/>
-      <c r="E721" s="11"/>
+      <c r="B721" s="10"/>
+      <c r="E721" s="10"/>
     </row>
     <row r="722" spans="2:5" ht="13">
-      <c r="B722" s="11"/>
-      <c r="E722" s="11"/>
+      <c r="B722" s="10"/>
+      <c r="E722" s="10"/>
     </row>
     <row r="723" spans="2:5" ht="13">
-      <c r="B723" s="11"/>
-      <c r="E723" s="11"/>
+      <c r="B723" s="10"/>
+      <c r="E723" s="10"/>
     </row>
     <row r="724" spans="2:5" ht="13">
-      <c r="B724" s="11"/>
-      <c r="E724" s="11"/>
+      <c r="B724" s="10"/>
+      <c r="E724" s="10"/>
     </row>
     <row r="725" spans="2:5" ht="13">
-      <c r="B725" s="11"/>
-      <c r="E725" s="11"/>
+      <c r="B725" s="10"/>
+      <c r="E725" s="10"/>
     </row>
     <row r="726" spans="2:5" ht="13">
-      <c r="B726" s="11"/>
-      <c r="E726" s="11"/>
+      <c r="B726" s="10"/>
+      <c r="E726" s="10"/>
     </row>
     <row r="727" spans="2:5" ht="13">
-      <c r="B727" s="11"/>
-      <c r="E727" s="11"/>
+      <c r="B727" s="10"/>
+      <c r="E727" s="10"/>
     </row>
     <row r="728" spans="2:5" ht="13">
-      <c r="B728" s="11"/>
-      <c r="E728" s="11"/>
+      <c r="B728" s="10"/>
+      <c r="E728" s="10"/>
     </row>
     <row r="729" spans="2:5" ht="13">
-      <c r="B729" s="11"/>
-      <c r="E729" s="11"/>
+      <c r="B729" s="10"/>
+      <c r="E729" s="10"/>
     </row>
     <row r="730" spans="2:5" ht="13">
-      <c r="B730" s="11"/>
-      <c r="E730" s="11"/>
+      <c r="B730" s="10"/>
+      <c r="E730" s="10"/>
     </row>
     <row r="731" spans="2:5" ht="13">
-      <c r="B731" s="11"/>
-      <c r="E731" s="11"/>
+      <c r="B731" s="10"/>
+      <c r="E731" s="10"/>
     </row>
     <row r="732" spans="2:5" ht="13">
-      <c r="B732" s="11"/>
-      <c r="E732" s="11"/>
+      <c r="B732" s="10"/>
+      <c r="E732" s="10"/>
     </row>
     <row r="733" spans="2:5" ht="13">
-      <c r="B733" s="11"/>
-      <c r="E733" s="11"/>
+      <c r="B733" s="10"/>
+      <c r="E733" s="10"/>
     </row>
     <row r="734" spans="2:5" ht="13">
-      <c r="B734" s="11"/>
-      <c r="E734" s="11"/>
+      <c r="B734" s="10"/>
+      <c r="E734" s="10"/>
     </row>
     <row r="735" spans="2:5" ht="13">
-      <c r="B735" s="11"/>
-      <c r="E735" s="11"/>
+      <c r="B735" s="10"/>
+      <c r="E735" s="10"/>
     </row>
     <row r="736" spans="2:5" ht="13">
-      <c r="B736" s="11"/>
-      <c r="E736" s="11"/>
+      <c r="B736" s="10"/>
+      <c r="E736" s="10"/>
     </row>
     <row r="737" spans="2:5" ht="13">
-      <c r="B737" s="11"/>
-      <c r="E737" s="11"/>
+      <c r="B737" s="10"/>
+      <c r="E737" s="10"/>
     </row>
     <row r="738" spans="2:5" ht="13">
-      <c r="B738" s="11"/>
-      <c r="E738" s="11"/>
+      <c r="B738" s="10"/>
+      <c r="E738" s="10"/>
     </row>
     <row r="739" spans="2:5" ht="13">
-      <c r="B739" s="11"/>
-      <c r="E739" s="11"/>
+      <c r="B739" s="10"/>
+      <c r="E739" s="10"/>
     </row>
     <row r="740" spans="2:5" ht="13">
-      <c r="B740" s="11"/>
-      <c r="E740" s="11"/>
+      <c r="B740" s="10"/>
+      <c r="E740" s="10"/>
     </row>
     <row r="741" spans="2:5" ht="13">
-      <c r="B741" s="11"/>
-      <c r="E741" s="11"/>
+      <c r="B741" s="10"/>
+      <c r="E741" s="10"/>
     </row>
     <row r="742" spans="2:5" ht="13">
-      <c r="B742" s="11"/>
-      <c r="E742" s="11"/>
+      <c r="B742" s="10"/>
+      <c r="E742" s="10"/>
     </row>
     <row r="743" spans="2:5" ht="13">
-      <c r="B743" s="11"/>
-      <c r="E743" s="11"/>
+      <c r="B743" s="10"/>
+      <c r="E743" s="10"/>
     </row>
     <row r="744" spans="2:5" ht="13">
-      <c r="B744" s="11"/>
-      <c r="E744" s="11"/>
+      <c r="B744" s="10"/>
+      <c r="E744" s="10"/>
     </row>
     <row r="745" spans="2:5" ht="13">
-      <c r="B745" s="11"/>
-      <c r="E745" s="11"/>
+      <c r="B745" s="10"/>
+      <c r="E745" s="10"/>
     </row>
     <row r="746" spans="2:5" ht="13">
-      <c r="B746" s="11"/>
-      <c r="E746" s="11"/>
+      <c r="B746" s="10"/>
+      <c r="E746" s="10"/>
     </row>
     <row r="747" spans="2:5" ht="13">
-      <c r="B747" s="11"/>
-      <c r="E747" s="11"/>
+      <c r="B747" s="10"/>
+      <c r="E747" s="10"/>
     </row>
     <row r="748" spans="2:5" ht="13">
-      <c r="B748" s="11"/>
-      <c r="E748" s="11"/>
+      <c r="B748" s="10"/>
+      <c r="E748" s="10"/>
     </row>
     <row r="749" spans="2:5" ht="13">
-      <c r="B749" s="11"/>
-      <c r="E749" s="11"/>
+      <c r="B749" s="10"/>
+      <c r="E749" s="10"/>
     </row>
     <row r="750" spans="2:5" ht="13">
-      <c r="B750" s="11"/>
-      <c r="E750" s="11"/>
+      <c r="B750" s="10"/>
+      <c r="E750" s="10"/>
     </row>
     <row r="751" spans="2:5" ht="13">
-      <c r="B751" s="11"/>
-      <c r="E751" s="11"/>
+      <c r="B751" s="10"/>
+      <c r="E751" s="10"/>
     </row>
     <row r="752" spans="2:5" ht="13">
-      <c r="B752" s="11"/>
-      <c r="E752" s="11"/>
+      <c r="B752" s="10"/>
+      <c r="E752" s="10"/>
     </row>
     <row r="753" spans="2:5" ht="13">
-      <c r="B753" s="11"/>
-      <c r="E753" s="11"/>
+      <c r="B753" s="10"/>
+      <c r="E753" s="10"/>
     </row>
     <row r="754" spans="2:5" ht="13">
-      <c r="B754" s="11"/>
-      <c r="E754" s="11"/>
+      <c r="B754" s="10"/>
+      <c r="E754" s="10"/>
     </row>
     <row r="755" spans="2:5" ht="13">
-      <c r="B755" s="11"/>
-      <c r="E755" s="11"/>
+      <c r="B755" s="10"/>
+      <c r="E755" s="10"/>
     </row>
     <row r="756" spans="2:5" ht="13">
-      <c r="B756" s="11"/>
-      <c r="E756" s="11"/>
+      <c r="B756" s="10"/>
+      <c r="E756" s="10"/>
     </row>
     <row r="757" spans="2:5" ht="13">
-      <c r="B757" s="11"/>
-      <c r="E757" s="11"/>
+      <c r="B757" s="10"/>
+      <c r="E757" s="10"/>
     </row>
     <row r="758" spans="2:5" ht="13">
-      <c r="B758" s="11"/>
-      <c r="E758" s="11"/>
+      <c r="B758" s="10"/>
+      <c r="E758" s="10"/>
     </row>
     <row r="759" spans="2:5" ht="13">
-      <c r="B759" s="11"/>
-      <c r="E759" s="11"/>
+      <c r="B759" s="10"/>
+      <c r="E759" s="10"/>
     </row>
     <row r="760" spans="2:5" ht="13">
-      <c r="B760" s="11"/>
-      <c r="E760" s="11"/>
+      <c r="B760" s="10"/>
+      <c r="E760" s="10"/>
     </row>
     <row r="761" spans="2:5" ht="13">
-      <c r="B761" s="11"/>
-      <c r="E761" s="11"/>
+      <c r="B761" s="10"/>
+      <c r="E761" s="10"/>
     </row>
     <row r="762" spans="2:5" ht="13">
-      <c r="B762" s="11"/>
-      <c r="E762" s="11"/>
+      <c r="B762" s="10"/>
+      <c r="E762" s="10"/>
     </row>
     <row r="763" spans="2:5" ht="13">
-      <c r="B763" s="11"/>
-      <c r="E763" s="11"/>
+      <c r="B763" s="10"/>
+      <c r="E763" s="10"/>
     </row>
     <row r="764" spans="2:5" ht="13">
-      <c r="B764" s="11"/>
-      <c r="E764" s="11"/>
+      <c r="B764" s="10"/>
+      <c r="E764" s="10"/>
     </row>
     <row r="765" spans="2:5" ht="13">
-      <c r="B765" s="11"/>
-      <c r="E765" s="11"/>
+      <c r="B765" s="10"/>
+      <c r="E765" s="10"/>
     </row>
     <row r="766" spans="2:5" ht="13">
-      <c r="B766" s="11"/>
-      <c r="E766" s="11"/>
+      <c r="B766" s="10"/>
+      <c r="E766" s="10"/>
     </row>
     <row r="767" spans="2:5" ht="13">
-      <c r="B767" s="11"/>
-      <c r="E767" s="11"/>
+      <c r="B767" s="10"/>
+      <c r="E767" s="10"/>
     </row>
     <row r="768" spans="2:5" ht="13">
-      <c r="B768" s="11"/>
-      <c r="E768" s="11"/>
+      <c r="B768" s="10"/>
+      <c r="E768" s="10"/>
     </row>
     <row r="769" spans="2:5" ht="13">
-      <c r="B769" s="11"/>
-      <c r="E769" s="11"/>
+      <c r="B769" s="10"/>
+      <c r="E769" s="10"/>
     </row>
     <row r="770" spans="2:5" ht="13">
-      <c r="B770" s="11"/>
-      <c r="E770" s="11"/>
+      <c r="B770" s="10"/>
+      <c r="E770" s="10"/>
     </row>
     <row r="771" spans="2:5" ht="13">
-      <c r="B771" s="11"/>
-      <c r="E771" s="11"/>
+      <c r="B771" s="10"/>
+      <c r="E771" s="10"/>
     </row>
     <row r="772" spans="2:5" ht="13">
-      <c r="B772" s="11"/>
-      <c r="E772" s="11"/>
+      <c r="B772" s="10"/>
+      <c r="E772" s="10"/>
     </row>
     <row r="773" spans="2:5" ht="13">
-      <c r="B773" s="11"/>
-      <c r="E773" s="11"/>
+      <c r="B773" s="10"/>
+      <c r="E773" s="10"/>
     </row>
     <row r="774" spans="2:5" ht="13">
-      <c r="B774" s="11"/>
-      <c r="E774" s="11"/>
+      <c r="B774" s="10"/>
+      <c r="E774" s="10"/>
     </row>
     <row r="775" spans="2:5" ht="13">
-      <c r="B775" s="11"/>
-      <c r="E775" s="11"/>
+      <c r="B775" s="10"/>
+      <c r="E775" s="10"/>
     </row>
     <row r="776" spans="2:5" ht="13">
-      <c r="B776" s="11"/>
-      <c r="E776" s="11"/>
+      <c r="B776" s="10"/>
+      <c r="E776" s="10"/>
     </row>
     <row r="777" spans="2:5" ht="13">
-      <c r="B777" s="11"/>
-      <c r="E777" s="11"/>
+      <c r="B777" s="10"/>
+      <c r="E777" s="10"/>
     </row>
     <row r="778" spans="2:5" ht="13">
-      <c r="B778" s="11"/>
-      <c r="E778" s="11"/>
+      <c r="B778" s="10"/>
+      <c r="E778" s="10"/>
     </row>
     <row r="779" spans="2:5" ht="13">
-      <c r="B779" s="11"/>
-      <c r="E779" s="11"/>
+      <c r="B779" s="10"/>
+      <c r="E779" s="10"/>
     </row>
     <row r="780" spans="2:5" ht="13">
-      <c r="B780" s="11"/>
-      <c r="E780" s="11"/>
+      <c r="B780" s="10"/>
+      <c r="E780" s="10"/>
     </row>
     <row r="781" spans="2:5" ht="13">
-      <c r="B781" s="11"/>
-      <c r="E781" s="11"/>
+      <c r="B781" s="10"/>
+      <c r="E781" s="10"/>
     </row>
     <row r="782" spans="2:5" ht="13">
-      <c r="B782" s="11"/>
-      <c r="E782" s="11"/>
+      <c r="B782" s="10"/>
+      <c r="E782" s="10"/>
     </row>
     <row r="783" spans="2:5" ht="13">
-      <c r="B783" s="11"/>
-      <c r="E783" s="11"/>
+      <c r="B783" s="10"/>
+      <c r="E783" s="10"/>
     </row>
     <row r="784" spans="2:5" ht="13">
-      <c r="B784" s="11"/>
-      <c r="E784" s="11"/>
+      <c r="B784" s="10"/>
+      <c r="E784" s="10"/>
     </row>
     <row r="785" spans="2:5" ht="13">
-      <c r="B785" s="11"/>
-      <c r="E785" s="11"/>
+      <c r="B785" s="10"/>
+      <c r="E785" s="10"/>
     </row>
     <row r="786" spans="2:5" ht="13">
-      <c r="B786" s="11"/>
-      <c r="E786" s="11"/>
+      <c r="B786" s="10"/>
+      <c r="E786" s="10"/>
     </row>
     <row r="787" spans="2:5" ht="13">
-      <c r="B787" s="11"/>
-      <c r="E787" s="11"/>
+      <c r="B787" s="10"/>
+      <c r="E787" s="10"/>
     </row>
     <row r="788" spans="2:5" ht="13">
-      <c r="B788" s="11"/>
-      <c r="E788" s="11"/>
+      <c r="B788" s="10"/>
+      <c r="E788" s="10"/>
     </row>
     <row r="789" spans="2:5" ht="13">
-      <c r="B789" s="11"/>
-      <c r="E789" s="11"/>
+      <c r="B789" s="10"/>
+      <c r="E789" s="10"/>
     </row>
     <row r="790" spans="2:5" ht="13">
-      <c r="B790" s="11"/>
-      <c r="E790" s="11"/>
+      <c r="B790" s="10"/>
+      <c r="E790" s="10"/>
     </row>
     <row r="791" spans="2:5" ht="13">
-      <c r="B791" s="11"/>
-      <c r="E791" s="11"/>
+      <c r="B791" s="10"/>
+      <c r="E791" s="10"/>
     </row>
     <row r="792" spans="2:5" ht="13">
-      <c r="B792" s="11"/>
-      <c r="E792" s="11"/>
+      <c r="B792" s="10"/>
+      <c r="E792" s="10"/>
     </row>
     <row r="793" spans="2:5" ht="13">
-      <c r="B793" s="11"/>
-      <c r="E793" s="11"/>
+      <c r="B793" s="10"/>
+      <c r="E793" s="10"/>
     </row>
     <row r="794" spans="2:5" ht="13">
-      <c r="B794" s="11"/>
-      <c r="E794" s="11"/>
+      <c r="B794" s="10"/>
+      <c r="E794" s="10"/>
     </row>
     <row r="795" spans="2:5" ht="13">
-      <c r="B795" s="11"/>
-      <c r="E795" s="11"/>
+      <c r="B795" s="10"/>
+      <c r="E795" s="10"/>
     </row>
     <row r="796" spans="2:5" ht="13">
-      <c r="B796" s="11"/>
-      <c r="E796" s="11"/>
+      <c r="B796" s="10"/>
+      <c r="E796" s="10"/>
     </row>
     <row r="797" spans="2:5" ht="13">
-      <c r="B797" s="11"/>
-      <c r="E797" s="11"/>
+      <c r="B797" s="10"/>
+      <c r="E797" s="10"/>
     </row>
     <row r="798" spans="2:5" ht="13">
-      <c r="B798" s="11"/>
-      <c r="E798" s="11"/>
+      <c r="B798" s="10"/>
+      <c r="E798" s="10"/>
     </row>
     <row r="799" spans="2:5" ht="13">
-      <c r="B799" s="11"/>
-      <c r="E799" s="11"/>
+      <c r="B799" s="10"/>
+      <c r="E799" s="10"/>
     </row>
     <row r="800" spans="2:5" ht="13">
-      <c r="B800" s="11"/>
-      <c r="E800" s="11"/>
+      <c r="B800" s="10"/>
+      <c r="E800" s="10"/>
     </row>
     <row r="801" spans="2:5" ht="13">
-      <c r="B801" s="11"/>
-      <c r="E801" s="11"/>
+      <c r="B801" s="10"/>
+      <c r="E801" s="10"/>
     </row>
     <row r="802" spans="2:5" ht="13">
-      <c r="B802" s="11"/>
-      <c r="E802" s="11"/>
+      <c r="B802" s="10"/>
+      <c r="E802" s="10"/>
     </row>
     <row r="803" spans="2:5" ht="13">
-      <c r="B803" s="11"/>
-      <c r="E803" s="11"/>
+      <c r="B803" s="10"/>
+      <c r="E803" s="10"/>
     </row>
     <row r="804" spans="2:5" ht="13">
-      <c r="B804" s="11"/>
-      <c r="E804" s="11"/>
+      <c r="B804" s="10"/>
+      <c r="E804" s="10"/>
     </row>
     <row r="805" spans="2:5" ht="13">
-      <c r="B805" s="11"/>
-      <c r="E805" s="11"/>
+      <c r="B805" s="10"/>
+      <c r="E805" s="10"/>
     </row>
     <row r="806" spans="2:5" ht="13">
-      <c r="B806" s="11"/>
-      <c r="E806" s="11"/>
+      <c r="B806" s="10"/>
+      <c r="E806" s="10"/>
     </row>
     <row r="807" spans="2:5" ht="13">
-      <c r="B807" s="11"/>
-      <c r="E807" s="11"/>
+      <c r="B807" s="10"/>
+      <c r="E807" s="10"/>
     </row>
     <row r="808" spans="2:5" ht="13">
-      <c r="B808" s="11"/>
-      <c r="E808" s="11"/>
+      <c r="B808" s="10"/>
+      <c r="E808" s="10"/>
     </row>
     <row r="809" spans="2:5" ht="13">
-      <c r="B809" s="11"/>
-      <c r="E809" s="11"/>
+      <c r="B809" s="10"/>
+      <c r="E809" s="10"/>
     </row>
     <row r="810" spans="2:5" ht="13">
-      <c r="B810" s="11"/>
-      <c r="E810" s="11"/>
+      <c r="B810" s="10"/>
+      <c r="E810" s="10"/>
     </row>
     <row r="811" spans="2:5" ht="13">
-      <c r="B811" s="11"/>
-      <c r="E811" s="11"/>
+      <c r="B811" s="10"/>
+      <c r="E811" s="10"/>
     </row>
     <row r="812" spans="2:5" ht="13">
-      <c r="B812" s="11"/>
-      <c r="E812" s="11"/>
+      <c r="B812" s="10"/>
+      <c r="E812" s="10"/>
     </row>
     <row r="813" spans="2:5" ht="13">
-      <c r="B813" s="11"/>
-      <c r="E813" s="11"/>
+      <c r="B813" s="10"/>
+      <c r="E813" s="10"/>
     </row>
     <row r="814" spans="2:5" ht="13">
-      <c r="B814" s="11"/>
-      <c r="E814" s="11"/>
+      <c r="B814" s="10"/>
+      <c r="E814" s="10"/>
     </row>
     <row r="815" spans="2:5" ht="13">
-      <c r="B815" s="11"/>
-      <c r="E815" s="11"/>
+      <c r="B815" s="10"/>
+      <c r="E815" s="10"/>
     </row>
     <row r="816" spans="2:5" ht="13">
-      <c r="B816" s="11"/>
-      <c r="E816" s="11"/>
+      <c r="B816" s="10"/>
+      <c r="E816" s="10"/>
     </row>
     <row r="817" spans="2:5" ht="13">
-      <c r="B817" s="11"/>
-      <c r="E817" s="11"/>
+      <c r="B817" s="10"/>
+      <c r="E817" s="10"/>
     </row>
     <row r="818" spans="2:5" ht="13">
-      <c r="B818" s="11"/>
-      <c r="E818" s="11"/>
+      <c r="B818" s="10"/>
+      <c r="E818" s="10"/>
     </row>
     <row r="819" spans="2:5" ht="13">
-      <c r="B819" s="11"/>
-      <c r="E819" s="11"/>
+      <c r="B819" s="10"/>
+      <c r="E819" s="10"/>
     </row>
     <row r="820" spans="2:5" ht="13">
-      <c r="B820" s="11"/>
-      <c r="E820" s="11"/>
+      <c r="B820" s="10"/>
+      <c r="E820" s="10"/>
     </row>
     <row r="821" spans="2:5" ht="13">
-      <c r="B821" s="11"/>
-      <c r="E821" s="11"/>
+      <c r="B821" s="10"/>
+      <c r="E821" s="10"/>
     </row>
     <row r="822" spans="2:5" ht="13">
-      <c r="B822" s="11"/>
-      <c r="E822" s="11"/>
+      <c r="B822" s="10"/>
+      <c r="E822" s="10"/>
     </row>
     <row r="823" spans="2:5" ht="13">
-      <c r="B823" s="11"/>
-      <c r="E823" s="11"/>
+      <c r="B823" s="10"/>
+      <c r="E823" s="10"/>
     </row>
     <row r="824" spans="2:5" ht="13">
-      <c r="B824" s="11"/>
-      <c r="E824" s="11"/>
+      <c r="B824" s="10"/>
+      <c r="E824" s="10"/>
     </row>
     <row r="825" spans="2:5" ht="13">
-      <c r="B825" s="11"/>
-      <c r="E825" s="11"/>
+      <c r="B825" s="10"/>
+      <c r="E825" s="10"/>
     </row>
     <row r="826" spans="2:5" ht="13">
-      <c r="B826" s="11"/>
-      <c r="E826" s="11"/>
+      <c r="B826" s="10"/>
+      <c r="E826" s="10"/>
     </row>
     <row r="827" spans="2:5" ht="13">
-      <c r="B827" s="11"/>
-      <c r="E827" s="11"/>
+      <c r="B827" s="10"/>
+      <c r="E827" s="10"/>
     </row>
     <row r="828" spans="2:5" ht="13">
-      <c r="B828" s="11"/>
-      <c r="E828" s="11"/>
+      <c r="B828" s="10"/>
+      <c r="E828" s="10"/>
     </row>
     <row r="829" spans="2:5" ht="13">
-      <c r="B829" s="11"/>
-      <c r="E829" s="11"/>
+      <c r="B829" s="10"/>
+      <c r="E829" s="10"/>
     </row>
     <row r="830" spans="2:5" ht="13">
-      <c r="B830" s="11"/>
-      <c r="E830" s="11"/>
+      <c r="B830" s="10"/>
+      <c r="E830" s="10"/>
     </row>
     <row r="831" spans="2:5" ht="13">
-      <c r="B831" s="11"/>
-      <c r="E831" s="11"/>
+      <c r="B831" s="10"/>
+      <c r="E831" s="10"/>
     </row>
     <row r="832" spans="2:5" ht="13">
-      <c r="B832" s="11"/>
-      <c r="E832" s="11"/>
+      <c r="B832" s="10"/>
+      <c r="E832" s="10"/>
     </row>
     <row r="833" spans="2:5" ht="13">
-      <c r="B833" s="11"/>
-      <c r="E833" s="11"/>
+      <c r="B833" s="10"/>
+      <c r="E833" s="10"/>
     </row>
     <row r="834" spans="2:5" ht="13">
-      <c r="B834" s="11"/>
-      <c r="E834" s="11"/>
+      <c r="B834" s="10"/>
+      <c r="E834" s="10"/>
     </row>
     <row r="835" spans="2:5" ht="13">
-      <c r="B835" s="11"/>
-      <c r="E835" s="11"/>
+      <c r="B835" s="10"/>
+      <c r="E835" s="10"/>
     </row>
     <row r="836" spans="2:5" ht="13">
-      <c r="B836" s="11"/>
-      <c r="E836" s="11"/>
+      <c r="B836" s="10"/>
+      <c r="E836" s="10"/>
     </row>
     <row r="837" spans="2:5" ht="13">
-      <c r="B837" s="11"/>
-      <c r="E837" s="11"/>
+      <c r="B837" s="10"/>
+      <c r="E837" s="10"/>
     </row>
     <row r="838" spans="2:5" ht="13">
-      <c r="B838" s="11"/>
-      <c r="E838" s="11"/>
+      <c r="B838" s="10"/>
+      <c r="E838" s="10"/>
     </row>
     <row r="839" spans="2:5" ht="13">
-      <c r="B839" s="11"/>
-      <c r="E839" s="11"/>
+      <c r="B839" s="10"/>
+      <c r="E839" s="10"/>
     </row>
     <row r="840" spans="2:5" ht="13">
-      <c r="B840" s="11"/>
-      <c r="E840" s="11"/>
+      <c r="B840" s="10"/>
+      <c r="E840" s="10"/>
     </row>
     <row r="841" spans="2:5" ht="13">
-      <c r="B841" s="11"/>
-      <c r="E841" s="11"/>
+      <c r="B841" s="10"/>
+      <c r="E841" s="10"/>
     </row>
     <row r="842" spans="2:5" ht="13">
-      <c r="B842" s="11"/>
-      <c r="E842" s="11"/>
+      <c r="B842" s="10"/>
+      <c r="E842" s="10"/>
     </row>
     <row r="843" spans="2:5" ht="13">
-      <c r="B843" s="11"/>
-      <c r="E843" s="11"/>
+      <c r="B843" s="10"/>
+      <c r="E843" s="10"/>
     </row>
     <row r="844" spans="2:5" ht="13">
-      <c r="B844" s="11"/>
-      <c r="E844" s="11"/>
+      <c r="B844" s="10"/>
+      <c r="E844" s="10"/>
     </row>
     <row r="845" spans="2:5" ht="13">
-      <c r="B845" s="11"/>
-      <c r="E845" s="11"/>
+      <c r="B845" s="10"/>
+      <c r="E845" s="10"/>
     </row>
     <row r="846" spans="2:5" ht="13">
-      <c r="B846" s="11"/>
-      <c r="E846" s="11"/>
+      <c r="B846" s="10"/>
+      <c r="E846" s="10"/>
     </row>
     <row r="847" spans="2:5" ht="13">
-      <c r="B847" s="11"/>
-      <c r="E847" s="11"/>
+      <c r="B847" s="10"/>
+      <c r="E847" s="10"/>
     </row>
     <row r="848" spans="2:5" ht="13">
-      <c r="B848" s="11"/>
-      <c r="E848" s="11"/>
+      <c r="B848" s="10"/>
+      <c r="E848" s="10"/>
     </row>
     <row r="849" spans="2:5" ht="13">
-      <c r="B849" s="11"/>
-      <c r="E849" s="11"/>
+      <c r="B849" s="10"/>
+      <c r="E849" s="10"/>
     </row>
     <row r="850" spans="2:5" ht="13">
-      <c r="B850" s="11"/>
-      <c r="E850" s="11"/>
+      <c r="B850" s="10"/>
+      <c r="E850" s="10"/>
     </row>
     <row r="851" spans="2:5" ht="13">
-      <c r="B851" s="11"/>
-      <c r="E851" s="11"/>
+      <c r="B851" s="10"/>
+      <c r="E851" s="10"/>
     </row>
     <row r="852" spans="2:5" ht="13">
-      <c r="B852" s="11"/>
-      <c r="E852" s="11"/>
+      <c r="B852" s="10"/>
+      <c r="E852" s="10"/>
     </row>
     <row r="853" spans="2:5" ht="13">
-      <c r="B853" s="11"/>
-      <c r="E853" s="11"/>
+      <c r="B853" s="10"/>
+      <c r="E853" s="10"/>
     </row>
     <row r="854" spans="2:5" ht="13">
-      <c r="B854" s="11"/>
-      <c r="E854" s="11"/>
+      <c r="B854" s="10"/>
+      <c r="E854" s="10"/>
     </row>
     <row r="855" spans="2:5" ht="13">
-      <c r="B855" s="11"/>
-      <c r="E855" s="11"/>
+      <c r="B855" s="10"/>
+      <c r="E855" s="10"/>
     </row>
     <row r="856" spans="2:5" ht="13">
-      <c r="B856" s="11"/>
-      <c r="E856" s="11"/>
+      <c r="B856" s="10"/>
+      <c r="E856" s="10"/>
     </row>
     <row r="857" spans="2:5" ht="13">
-      <c r="B857" s="11"/>
-      <c r="E857" s="11"/>
+      <c r="B857" s="10"/>
+      <c r="E857" s="10"/>
     </row>
     <row r="858" spans="2:5" ht="13">
-      <c r="B858" s="11"/>
-      <c r="E858" s="11"/>
+      <c r="B858" s="10"/>
+      <c r="E858" s="10"/>
     </row>
     <row r="859" spans="2:5" ht="13">
-      <c r="B859" s="11"/>
-      <c r="E859" s="11"/>
+      <c r="B859" s="10"/>
+      <c r="E859" s="10"/>
     </row>
     <row r="860" spans="2:5" ht="13">
-      <c r="B860" s="11"/>
-      <c r="E860" s="11"/>
+      <c r="B860" s="10"/>
+      <c r="E860" s="10"/>
     </row>
     <row r="861" spans="2:5" ht="13">
-      <c r="B861" s="11"/>
-      <c r="E861" s="11"/>
+      <c r="B861" s="10"/>
+      <c r="E861" s="10"/>
     </row>
     <row r="862" spans="2:5" ht="13">
-      <c r="B862" s="11"/>
-      <c r="E862" s="11"/>
+      <c r="B862" s="10"/>
+      <c r="E862" s="10"/>
     </row>
     <row r="863" spans="2:5" ht="13">
-      <c r="B863" s="11"/>
-      <c r="E863" s="11"/>
+      <c r="B863" s="10"/>
+      <c r="E863" s="10"/>
     </row>
     <row r="864" spans="2:5" ht="13">
-      <c r="B864" s="11"/>
-      <c r="E864" s="11"/>
+      <c r="B864" s="10"/>
+      <c r="E864" s="10"/>
     </row>
     <row r="865" spans="2:5" ht="13">
-      <c r="B865" s="11"/>
-      <c r="E865" s="11"/>
+      <c r="B865" s="10"/>
+      <c r="E865" s="10"/>
     </row>
     <row r="866" spans="2:5" ht="13">
-      <c r="B866" s="11"/>
-      <c r="E866" s="11"/>
+      <c r="B866" s="10"/>
+      <c r="E866" s="10"/>
     </row>
     <row r="867" spans="2:5" ht="13">
-      <c r="B867" s="11"/>
-      <c r="E867" s="11"/>
+      <c r="B867" s="10"/>
+      <c r="E867" s="10"/>
     </row>
     <row r="868" spans="2:5" ht="13">
-      <c r="B868" s="11"/>
-      <c r="E868" s="11"/>
+      <c r="B868" s="10"/>
+      <c r="E868" s="10"/>
     </row>
     <row r="869" spans="2:5" ht="13">
-      <c r="B869" s="11"/>
-      <c r="E869" s="11"/>
+      <c r="B869" s="10"/>
+      <c r="E869" s="10"/>
     </row>
     <row r="870" spans="2:5" ht="13">
-      <c r="B870" s="11"/>
-      <c r="E870" s="11"/>
+      <c r="B870" s="10"/>
+      <c r="E870" s="10"/>
     </row>
     <row r="871" spans="2:5" ht="13">
-      <c r="B871" s="11"/>
-      <c r="E871" s="11"/>
+      <c r="B871" s="10"/>
+      <c r="E871" s="10"/>
     </row>
     <row r="872" spans="2:5" ht="13">
-      <c r="B872" s="11"/>
-      <c r="E872" s="11"/>
+      <c r="B872" s="10"/>
+      <c r="E872" s="10"/>
     </row>
     <row r="873" spans="2:5" ht="13">
-      <c r="B873" s="11"/>
-      <c r="E873" s="11"/>
+      <c r="B873" s="10"/>
+      <c r="E873" s="10"/>
     </row>
     <row r="874" spans="2:5" ht="13">
-      <c r="B874" s="11"/>
-      <c r="E874" s="11"/>
+      <c r="B874" s="10"/>
+      <c r="E874" s="10"/>
     </row>
     <row r="875" spans="2:5" ht="13">
-      <c r="B875" s="11"/>
-      <c r="E875" s="11"/>
+      <c r="B875" s="10"/>
+      <c r="E875" s="10"/>
     </row>
     <row r="876" spans="2:5" ht="13">
-      <c r="B876" s="11"/>
-      <c r="E876" s="11"/>
+      <c r="B876" s="10"/>
+      <c r="E876" s="10"/>
     </row>
     <row r="877" spans="2:5" ht="13">
-      <c r="B877" s="11"/>
-      <c r="E877" s="11"/>
+      <c r="B877" s="10"/>
+      <c r="E877" s="10"/>
     </row>
     <row r="878" spans="2:5" ht="13">
-      <c r="B878" s="11"/>
-      <c r="E878" s="11"/>
+      <c r="B878" s="10"/>
+      <c r="E878" s="10"/>
     </row>
     <row r="879" spans="2:5" ht="13">
-      <c r="B879" s="11"/>
-      <c r="E879" s="11"/>
+      <c r="B879" s="10"/>
+      <c r="E879" s="10"/>
     </row>
     <row r="880" spans="2:5" ht="13">
-      <c r="B880" s="11"/>
-      <c r="E880" s="11"/>
+      <c r="B880" s="10"/>
+      <c r="E880" s="10"/>
     </row>
     <row r="881" spans="2:5" ht="13">
-      <c r="B881" s="11"/>
-      <c r="E881" s="11"/>
+      <c r="B881" s="10"/>
+      <c r="E881" s="10"/>
     </row>
     <row r="882" spans="2:5" ht="13">
-      <c r="B882" s="11"/>
-      <c r="E882" s="11"/>
+      <c r="B882" s="10"/>
+      <c r="E882" s="10"/>
     </row>
     <row r="883" spans="2:5" ht="13">
-      <c r="B883" s="11"/>
-      <c r="E883" s="11"/>
+      <c r="B883" s="10"/>
+      <c r="E883" s="10"/>
     </row>
     <row r="884" spans="2:5" ht="13">
-      <c r="B884" s="11"/>
-      <c r="E884" s="11"/>
+      <c r="B884" s="10"/>
+      <c r="E884" s="10"/>
     </row>
     <row r="885" spans="2:5" ht="13">
-      <c r="B885" s="11"/>
-      <c r="E885" s="11"/>
+      <c r="B885" s="10"/>
+      <c r="E885" s="10"/>
     </row>
     <row r="886" spans="2:5" ht="13">
-      <c r="B886" s="11"/>
-      <c r="E886" s="11"/>
+      <c r="B886" s="10"/>
+      <c r="E886" s="10"/>
     </row>
     <row r="887" spans="2:5" ht="13">
-      <c r="B887" s="11"/>
-      <c r="E887" s="11"/>
+      <c r="B887" s="10"/>
+      <c r="E887" s="10"/>
     </row>
     <row r="888" spans="2:5" ht="13">
-      <c r="B888" s="11"/>
-      <c r="E888" s="11"/>
+      <c r="B888" s="10"/>
+      <c r="E888" s="10"/>
     </row>
     <row r="889" spans="2:5" ht="13">
-      <c r="B889" s="11"/>
-      <c r="E889" s="11"/>
+      <c r="B889" s="10"/>
+      <c r="E889" s="10"/>
     </row>
     <row r="890" spans="2:5" ht="13">
-      <c r="B890" s="11"/>
-      <c r="E890" s="11"/>
+      <c r="B890" s="10"/>
+      <c r="E890" s="10"/>
     </row>
     <row r="891" spans="2:5" ht="13">
-      <c r="B891" s="11"/>
-      <c r="E891" s="11"/>
+      <c r="B891" s="10"/>
+      <c r="E891" s="10"/>
     </row>
     <row r="892" spans="2:5" ht="13">
-      <c r="B892" s="11"/>
-      <c r="E892" s="11"/>
+      <c r="B892" s="10"/>
+      <c r="E892" s="10"/>
     </row>
     <row r="893" spans="2:5" ht="13">
-      <c r="B893" s="11"/>
-      <c r="E893" s="11"/>
+      <c r="B893" s="10"/>
+      <c r="E893" s="10"/>
     </row>
     <row r="894" spans="2:5" ht="13">
-      <c r="B894" s="11"/>
-      <c r="E894" s="11"/>
+      <c r="B894" s="10"/>
+      <c r="E894" s="10"/>
     </row>
     <row r="895" spans="2:5" ht="13">
-      <c r="B895" s="11"/>
-      <c r="E895" s="11"/>
+      <c r="B895" s="10"/>
+      <c r="E895" s="10"/>
     </row>
     <row r="896" spans="2:5" ht="13">
-      <c r="B896" s="11"/>
-      <c r="E896" s="11"/>
+      <c r="B896" s="10"/>
+      <c r="E896" s="10"/>
     </row>
     <row r="897" spans="2:5" ht="13">
-      <c r="B897" s="11"/>
-      <c r="E897" s="11"/>
+      <c r="B897" s="10"/>
+      <c r="E897" s="10"/>
     </row>
     <row r="898" spans="2:5" ht="13">
-      <c r="B898" s="11"/>
-      <c r="E898" s="11"/>
+      <c r="B898" s="10"/>
+      <c r="E898" s="10"/>
     </row>
     <row r="899" spans="2:5" ht="13">
-      <c r="B899" s="11"/>
-      <c r="E899" s="11"/>
+      <c r="B899" s="10"/>
+      <c r="E899" s="10"/>
     </row>
     <row r="900" spans="2:5" ht="13">
-      <c r="B900" s="11"/>
-      <c r="E900" s="11"/>
+      <c r="B900" s="10"/>
+      <c r="E900" s="10"/>
     </row>
     <row r="901" spans="2:5" ht="13">
-      <c r="B901" s="11"/>
-      <c r="E901" s="11"/>
+      <c r="B901" s="10"/>
+      <c r="E901" s="10"/>
     </row>
     <row r="902" spans="2:5" ht="13">
-      <c r="B902" s="11"/>
-      <c r="E902" s="11"/>
+      <c r="B902" s="10"/>
+      <c r="E902" s="10"/>
     </row>
     <row r="903" spans="2:5" ht="13">
-      <c r="B903" s="11"/>
-      <c r="E903" s="11"/>
+      <c r="B903" s="10"/>
+      <c r="E903" s="10"/>
     </row>
     <row r="904" spans="2:5" ht="13">
-      <c r="B904" s="11"/>
-      <c r="E904" s="11"/>
+      <c r="B904" s="10"/>
+      <c r="E904" s="10"/>
     </row>
     <row r="905" spans="2:5" ht="13">
-      <c r="B905" s="11"/>
-      <c r="E905" s="11"/>
+      <c r="B905" s="10"/>
+      <c r="E905" s="10"/>
     </row>
     <row r="906" spans="2:5" ht="13">
-      <c r="B906" s="11"/>
-      <c r="E906" s="11"/>
+      <c r="B906" s="10"/>
+      <c r="E906" s="10"/>
     </row>
     <row r="907" spans="2:5" ht="13">
-      <c r="B907" s="11"/>
-      <c r="E907" s="11"/>
+      <c r="B907" s="10"/>
+      <c r="E907" s="10"/>
     </row>
     <row r="908" spans="2:5" ht="13">
-      <c r="B908" s="11"/>
-      <c r="E908" s="11"/>
+      <c r="B908" s="10"/>
+      <c r="E908" s="10"/>
     </row>
     <row r="909" spans="2:5" ht="13">
-      <c r="B909" s="11"/>
-      <c r="E909" s="11"/>
+      <c r="B909" s="10"/>
+      <c r="E909" s="10"/>
     </row>
     <row r="910" spans="2:5" ht="13">
-      <c r="B910" s="11"/>
-      <c r="E910" s="11"/>
+      <c r="B910" s="10"/>
+      <c r="E910" s="10"/>
     </row>
     <row r="911" spans="2:5" ht="13">
-      <c r="B911" s="11"/>
-      <c r="E911" s="11"/>
+      <c r="B911" s="10"/>
+      <c r="E911" s="10"/>
     </row>
     <row r="912" spans="2:5" ht="13">
-      <c r="B912" s="11"/>
-      <c r="E912" s="11"/>
+      <c r="B912" s="10"/>
+      <c r="E912" s="10"/>
     </row>
     <row r="913" spans="2:5" ht="13">
-      <c r="B913" s="11"/>
-      <c r="E913" s="11"/>
+      <c r="B913" s="10"/>
+      <c r="E913" s="10"/>
     </row>
     <row r="914" spans="2:5" ht="13">
-      <c r="B914" s="11"/>
-      <c r="E914" s="11"/>
+      <c r="B914" s="10"/>
+      <c r="E914" s="10"/>
     </row>
     <row r="915" spans="2:5" ht="13">
-      <c r="B915" s="11"/>
-      <c r="E915" s="11"/>
+      <c r="B915" s="10"/>
+      <c r="E915" s="10"/>
     </row>
     <row r="916" spans="2:5" ht="13">
-      <c r="B916" s="11"/>
-      <c r="E916" s="11"/>
+      <c r="B916" s="10"/>
+      <c r="E916" s="10"/>
     </row>
     <row r="917" spans="2:5" ht="13">
-      <c r="B917" s="11"/>
-      <c r="E917" s="11"/>
+      <c r="B917" s="10"/>
+      <c r="E917" s="10"/>
     </row>
     <row r="918" spans="2:5" ht="13">
-      <c r="B918" s="11"/>
-      <c r="E918" s="11"/>
+      <c r="B918" s="10"/>
+      <c r="E918" s="10"/>
     </row>
     <row r="919" spans="2:5" ht="13">
-      <c r="B919" s="11"/>
-      <c r="E919" s="11"/>
+      <c r="B919" s="10"/>
+      <c r="E919" s="10"/>
     </row>
     <row r="920" spans="2:5" ht="13">
-      <c r="B920" s="11"/>
-      <c r="E920" s="11"/>
+      <c r="B920" s="10"/>
+      <c r="E920" s="10"/>
     </row>
     <row r="921" spans="2:5" ht="13">
-      <c r="B921" s="11"/>
-      <c r="E921" s="11"/>
+      <c r="B921" s="10"/>
+      <c r="E921" s="10"/>
     </row>
     <row r="922" spans="2:5" ht="13">
-      <c r="B922" s="11"/>
-      <c r="E922" s="11"/>
+      <c r="B922" s="10"/>
+      <c r="E922" s="10"/>
     </row>
     <row r="923" spans="2:5" ht="13">
-      <c r="B923" s="11"/>
-      <c r="E923" s="11"/>
+      <c r="B923" s="10"/>
+      <c r="E923" s="10"/>
     </row>
     <row r="924" spans="2:5" ht="13">
-      <c r="B924" s="11"/>
-      <c r="E924" s="11"/>
+      <c r="B924" s="10"/>
+      <c r="E924" s="10"/>
     </row>
     <row r="925" spans="2:5" ht="13">
-      <c r="B925" s="11"/>
-      <c r="E925" s="11"/>
+      <c r="B925" s="10"/>
+      <c r="E925" s="10"/>
     </row>
     <row r="926" spans="2:5" ht="13">
-      <c r="B926" s="11"/>
-      <c r="E926" s="11"/>
+      <c r="B926" s="10"/>
+      <c r="E926" s="10"/>
     </row>
     <row r="927" spans="2:5" ht="13">
-      <c r="B927" s="11"/>
-      <c r="E927" s="11"/>
+      <c r="B927" s="10"/>
+      <c r="E927" s="10"/>
     </row>
     <row r="928" spans="2:5" ht="13">
-      <c r="B928" s="11"/>
-      <c r="E928" s="11"/>
+      <c r="B928" s="10"/>
+      <c r="E928" s="10"/>
     </row>
     <row r="929" spans="2:5" ht="13">
-      <c r="B929" s="11"/>
-      <c r="E929" s="11"/>
+      <c r="B929" s="10"/>
+      <c r="E929" s="10"/>
     </row>
     <row r="930" spans="2:5" ht="13">
-      <c r="B930" s="11"/>
-      <c r="E930" s="11"/>
+      <c r="B930" s="10"/>
+      <c r="E930" s="10"/>
     </row>
     <row r="931" spans="2:5" ht="13">
-      <c r="B931" s="11"/>
-      <c r="E931" s="11"/>
+      <c r="B931" s="10"/>
+      <c r="E931" s="10"/>
     </row>
     <row r="932" spans="2:5" ht="13">
-      <c r="B932" s="11"/>
-      <c r="E932" s="11"/>
+      <c r="B932" s="10"/>
+      <c r="E932" s="10"/>
     </row>
     <row r="933" spans="2:5" ht="13">
-      <c r="B933" s="11"/>
-      <c r="E933" s="11"/>
+      <c r="B933" s="10"/>
+      <c r="E933" s="10"/>
     </row>
     <row r="934" spans="2:5" ht="13">
-      <c r="B934" s="11"/>
-      <c r="E934" s="11"/>
+      <c r="B934" s="10"/>
+      <c r="E934" s="10"/>
     </row>
     <row r="935" spans="2:5" ht="13">
-      <c r="B935" s="11"/>
-      <c r="E935" s="11"/>
+      <c r="B935" s="10"/>
+      <c r="E935" s="10"/>
     </row>
     <row r="936" spans="2:5" ht="13">
-      <c r="B936" s="11"/>
-      <c r="E936" s="11"/>
+      <c r="B936" s="10"/>
+      <c r="E936" s="10"/>
     </row>
     <row r="937" spans="2:5" ht="13">
-      <c r="B937" s="11"/>
-      <c r="E937" s="11"/>
+      <c r="B937" s="10"/>
+      <c r="E937" s="10"/>
     </row>
     <row r="938" spans="2:5" ht="13">
-      <c r="B938" s="11"/>
-      <c r="E938" s="11"/>
+      <c r="B938" s="10"/>
+      <c r="E938" s="10"/>
     </row>
     <row r="939" spans="2:5" ht="13">
-      <c r="B939" s="11"/>
-      <c r="E939" s="11"/>
+      <c r="B939" s="10"/>
+      <c r="E939" s="10"/>
     </row>
     <row r="940" spans="2:5" ht="13">
-      <c r="B940" s="11"/>
-      <c r="E940" s="11"/>
+      <c r="B940" s="10"/>
+      <c r="E940" s="10"/>
     </row>
     <row r="941" spans="2:5" ht="13">
-      <c r="B941" s="11"/>
-      <c r="E941" s="11"/>
+      <c r="B941" s="10"/>
+      <c r="E941" s="10"/>
     </row>
     <row r="942" spans="2:5" ht="13">
-      <c r="B942" s="11"/>
-      <c r="E942" s="11"/>
+      <c r="B942" s="10"/>
+      <c r="E942" s="10"/>
     </row>
     <row r="943" spans="2:5" ht="13">
-      <c r="B943" s="11"/>
-      <c r="E943" s="11"/>
+      <c r="B943" s="10"/>
+      <c r="E943" s="10"/>
     </row>
     <row r="944" spans="2:5" ht="13">
-      <c r="B944" s="11"/>
-      <c r="E944" s="11"/>
+      <c r="B944" s="10"/>
+      <c r="E944" s="10"/>
     </row>
     <row r="945" spans="2:5" ht="13">
-      <c r="B945" s="11"/>
-      <c r="E945" s="11"/>
+      <c r="B945" s="10"/>
+      <c r="E945" s="10"/>
     </row>
     <row r="946" spans="2:5" ht="13">
-      <c r="B946" s="11"/>
-      <c r="E946" s="11"/>
+      <c r="B946" s="10"/>
+      <c r="E946" s="10"/>
     </row>
     <row r="947" spans="2:5" ht="13">
-      <c r="B947" s="11"/>
-      <c r="E947" s="11"/>
+      <c r="B947" s="10"/>
+      <c r="E947" s="10"/>
     </row>
     <row r="948" spans="2:5" ht="13">
-      <c r="B948" s="11"/>
-      <c r="E948" s="11"/>
+      <c r="B948" s="10"/>
+      <c r="E948" s="10"/>
     </row>
     <row r="949" spans="2:5" ht="13">
-      <c r="B949" s="11"/>
-      <c r="E949" s="11"/>
+      <c r="B949" s="10"/>
+      <c r="E949" s="10"/>
     </row>
     <row r="950" spans="2:5" ht="13">
-      <c r="B950" s="11"/>
-      <c r="E950" s="11"/>
+      <c r="B950" s="10"/>
+      <c r="E950" s="10"/>
     </row>
     <row r="951" spans="2:5" ht="13">
-      <c r="B951" s="11"/>
-      <c r="E951" s="11"/>
+      <c r="B951" s="10"/>
+      <c r="E951" s="10"/>
     </row>
     <row r="952" spans="2:5" ht="13">
-      <c r="B952" s="11"/>
-      <c r="E952" s="11"/>
+      <c r="B952" s="10"/>
+      <c r="E952" s="10"/>
     </row>
     <row r="953" spans="2:5" ht="13">
-      <c r="B953" s="11"/>
-      <c r="E953" s="11"/>
+      <c r="B953" s="10"/>
+      <c r="E953" s="10"/>
     </row>
     <row r="954" spans="2:5" ht="13">
-      <c r="B954" s="11"/>
-      <c r="E954" s="11"/>
+      <c r="B954" s="10"/>
+      <c r="E954" s="10"/>
     </row>
     <row r="955" spans="2:5" ht="13">
-      <c r="B955" s="11"/>
-      <c r="E955" s="11"/>
+      <c r="B955" s="10"/>
+      <c r="E955" s="10"/>
     </row>
     <row r="956" spans="2:5" ht="13">
-      <c r="B956" s="11"/>
-      <c r="E956" s="11"/>
+      <c r="B956" s="10"/>
+      <c r="E956" s="10"/>
     </row>
     <row r="957" spans="2:5" ht="13">
-      <c r="B957" s="11"/>
-      <c r="E957" s="11"/>
+      <c r="B957" s="10"/>
+      <c r="E957" s="10"/>
     </row>
     <row r="958" spans="2:5" ht="13">
-      <c r="B958" s="11"/>
-      <c r="E958" s="11"/>
+      <c r="B958" s="10"/>
+      <c r="E958" s="10"/>
     </row>
     <row r="959" spans="2:5" ht="13">
-      <c r="B959" s="11"/>
-      <c r="E959" s="11"/>
+      <c r="B959" s="10"/>
+      <c r="E959" s="10"/>
     </row>
     <row r="960" spans="2:5" ht="13">
-      <c r="B960" s="11"/>
-      <c r="E960" s="11"/>
+      <c r="B960" s="10"/>
+      <c r="E960" s="10"/>
     </row>
     <row r="961" spans="2:5" ht="13">
-      <c r="B961" s="11"/>
-      <c r="E961" s="11"/>
+      <c r="B961" s="10"/>
+      <c r="E961" s="10"/>
     </row>
     <row r="962" spans="2:5" ht="13">
-      <c r="B962" s="11"/>
-      <c r="E962" s="11"/>
+      <c r="B962" s="10"/>
+      <c r="E962" s="10"/>
     </row>
     <row r="963" spans="2:5" ht="13">
-      <c r="B963" s="11"/>
-      <c r="E963" s="11"/>
+      <c r="B963" s="10"/>
+      <c r="E963" s="10"/>
     </row>
     <row r="964" spans="2:5" ht="13">
-      <c r="B964" s="11"/>
-      <c r="E964" s="11"/>
+      <c r="B964" s="10"/>
+      <c r="E964" s="10"/>
     </row>
     <row r="965" spans="2:5" ht="13">
-      <c r="B965" s="11"/>
-      <c r="E965" s="11"/>
+      <c r="B965" s="10"/>
+      <c r="E965" s="10"/>
     </row>
     <row r="966" spans="2:5" ht="13">
-      <c r="B966" s="11"/>
-      <c r="E966" s="11"/>
+      <c r="B966" s="10"/>
+      <c r="E966" s="10"/>
     </row>
     <row r="967" spans="2:5" ht="13">
-      <c r="B967" s="11"/>
-      <c r="E967" s="11"/>
+      <c r="B967" s="10"/>
+      <c r="E967" s="10"/>
     </row>
     <row r="968" spans="2:5" ht="13">
-      <c r="B968" s="11"/>
-      <c r="E968" s="11"/>
+      <c r="B968" s="10"/>
+      <c r="E968" s="10"/>
     </row>
     <row r="969" spans="2:5" ht="13">
-      <c r="B969" s="11"/>
-      <c r="E969" s="11"/>
+      <c r="B969" s="10"/>
+      <c r="E969" s="10"/>
     </row>
     <row r="970" spans="2:5" ht="13">
-      <c r="B970" s="11"/>
-      <c r="E970" s="11"/>
+      <c r="B970" s="10"/>
+      <c r="E970" s="10"/>
     </row>
     <row r="971" spans="2:5" ht="13">
-      <c r="B971" s="11"/>
-      <c r="E971" s="11"/>
+      <c r="B971" s="10"/>
+      <c r="E971" s="10"/>
     </row>
     <row r="972" spans="2:5" ht="13">
-      <c r="B972" s="11"/>
-      <c r="E972" s="11"/>
+      <c r="B972" s="10"/>
+      <c r="E972" s="10"/>
     </row>
     <row r="973" spans="2:5" ht="13">
-      <c r="B973" s="11"/>
-      <c r="E973" s="11"/>
+      <c r="B973" s="10"/>
+      <c r="E973" s="10"/>
     </row>
     <row r="974" spans="2:5" ht="13">
-      <c r="B974" s="11"/>
-      <c r="E974" s="11"/>
+      <c r="B974" s="10"/>
+      <c r="E974" s="10"/>
     </row>
     <row r="975" spans="2:5" ht="13">
-      <c r="B975" s="11"/>
-      <c r="E975" s="11"/>
+      <c r="B975" s="10"/>
+      <c r="E975" s="10"/>
     </row>
     <row r="976" spans="2:5" ht="13">
-      <c r="B976" s="11"/>
-      <c r="E976" s="11"/>
+      <c r="B976" s="10"/>
+      <c r="E976" s="10"/>
     </row>
     <row r="977" spans="2:5" ht="13">
-      <c r="B977" s="11"/>
-      <c r="E977" s="11"/>
+      <c r="B977" s="10"/>
+      <c r="E977" s="10"/>
     </row>
     <row r="978" spans="2:5" ht="13">
-      <c r="B978" s="11"/>
-      <c r="E978" s="11"/>
+      <c r="B978" s="10"/>
+      <c r="E978" s="10"/>
     </row>
     <row r="979" spans="2:5" ht="13">
-      <c r="B979" s="11"/>
-      <c r="E979" s="11"/>
+      <c r="B979" s="10"/>
+      <c r="E979" s="10"/>
     </row>
     <row r="980" spans="2:5" ht="13">
-      <c r="B980" s="11"/>
-      <c r="E980" s="11"/>
+      <c r="B980" s="10"/>
+      <c r="E980" s="10"/>
     </row>
     <row r="981" spans="2:5" ht="13">
-      <c r="B981" s="11"/>
-      <c r="E981" s="11"/>
+      <c r="B981" s="10"/>
+      <c r="E981" s="10"/>
     </row>
     <row r="982" spans="2:5" ht="13">
-      <c r="B982" s="11"/>
-      <c r="E982" s="11"/>
+      <c r="B982" s="10"/>
+      <c r="E982" s="10"/>
     </row>
     <row r="983" spans="2:5" ht="13">
-      <c r="B983" s="11"/>
-      <c r="E983" s="11"/>
+      <c r="B983" s="10"/>
+      <c r="E983" s="10"/>
     </row>
     <row r="984" spans="2:5" ht="13">
-      <c r="B984" s="11"/>
-      <c r="E984" s="11"/>
+      <c r="B984" s="10"/>
+      <c r="E984" s="10"/>
     </row>
     <row r="985" spans="2:5" ht="13">
-      <c r="B985" s="11"/>
-      <c r="E985" s="11"/>
+      <c r="B985" s="10"/>
+      <c r="E985" s="10"/>
     </row>
     <row r="986" spans="2:5" ht="13">
-      <c r="B986" s="11"/>
-      <c r="E986" s="11"/>
+      <c r="B986" s="10"/>
+      <c r="E986" s="10"/>
     </row>
     <row r="987" spans="2:5" ht="13">
-      <c r="B987" s="11"/>
-      <c r="E987" s="11"/>
+      <c r="B987" s="10"/>
+      <c r="E987" s="10"/>
     </row>
     <row r="988" spans="2:5" ht="13">
-      <c r="B988" s="11"/>
-      <c r="E988" s="11"/>
+      <c r="B988" s="10"/>
+      <c r="E988" s="10"/>
     </row>
     <row r="989" spans="2:5" ht="13">
-      <c r="B989" s="11"/>
-      <c r="E989" s="11"/>
+      <c r="B989" s="10"/>
+      <c r="E989" s="10"/>
     </row>
     <row r="990" spans="2:5" ht="13">
-      <c r="B990" s="11"/>
-      <c r="E990" s="11"/>
+      <c r="B990" s="10"/>
+      <c r="E990" s="10"/>
     </row>
     <row r="991" spans="2:5" ht="13">
-      <c r="B991" s="11"/>
-      <c r="E991" s="11"/>
+      <c r="B991" s="10"/>
+      <c r="E991" s="10"/>
     </row>
     <row r="992" spans="2:5" ht="13">
-      <c r="B992" s="11"/>
-      <c r="E992" s="11"/>
+      <c r="B992" s="10"/>
+      <c r="E992" s="10"/>
     </row>
     <row r="993" spans="2:5" ht="13">
-      <c r="B993" s="11"/>
-      <c r="E993" s="11"/>
+      <c r="B993" s="10"/>
+      <c r="E993" s="10"/>
     </row>
     <row r="994" spans="2:5" ht="13">
-      <c r="B994" s="11"/>
-      <c r="E994" s="11"/>
+      <c r="B994" s="10"/>
+      <c r="E994" s="10"/>
     </row>
     <row r="995" spans="2:5" ht="13">
-      <c r="B995" s="11"/>
-      <c r="E995" s="11"/>
+      <c r="B995" s="10"/>
+      <c r="E995" s="10"/>
     </row>
     <row r="996" spans="2:5" ht="13">
-      <c r="B996" s="11"/>
-      <c r="E996" s="11"/>
+      <c r="B996" s="10"/>
+      <c r="E996" s="10"/>
     </row>
     <row r="997" spans="2:5" ht="13">
-      <c r="B997" s="11"/>
-      <c r="E997" s="11"/>
+      <c r="B997" s="10"/>
+      <c r="E997" s="10"/>
     </row>
     <row r="998" spans="2:5" ht="13">
-      <c r="B998" s="11"/>
-      <c r="E998" s="11"/>
+      <c r="B998" s="10"/>
+      <c r="E998" s="10"/>
     </row>
     <row r="999" spans="2:5" ht="13">
-      <c r="B999" s="11"/>
-      <c r="E999" s="11"/>
+      <c r="B999" s="10"/>
+      <c r="E999" s="10"/>
     </row>
     <row r="1000" spans="2:5" ht="13">
-      <c r="B1000" s="11"/>
-      <c r="E1000" s="11"/>
+      <c r="B1000" s="10"/>
+      <c r="E1000" s="10"/>
     </row>
     <row r="1001" spans="2:5" ht="13">
-      <c r="B1001" s="11"/>
-      <c r="E1001" s="11"/>
+      <c r="B1001" s="10"/>
+      <c r="E1001" s="10"/>
     </row>
     <row r="1002" spans="2:5" ht="13">
-      <c r="B1002" s="11"/>
-      <c r="E1002" s="11"/>
+      <c r="B1002" s="10"/>
+      <c r="E1002" s="10"/>
     </row>
     <row r="1003" spans="2:5" ht="13">
-      <c r="B1003" s="11"/>
-      <c r="E1003" s="11"/>
+      <c r="B1003" s="10"/>
+      <c r="E1003" s="10"/>
     </row>
     <row r="1004" spans="2:5" ht="13">
-      <c r="B1004" s="11"/>
-      <c r="E1004" s="11"/>
+      <c r="B1004" s="10"/>
+      <c r="E1004" s="10"/>
     </row>
     <row r="1005" spans="2:5" ht="13">
-      <c r="B1005" s="11"/>
-      <c r="E1005" s="11"/>
+      <c r="B1005" s="10"/>
+      <c r="E1005" s="10"/>
     </row>
     <row r="1006" spans="2:5" ht="13">
-      <c r="B1006" s="11"/>
-      <c r="E1006" s="11"/>
+      <c r="B1006" s="10"/>
+      <c r="E1006" s="10"/>
     </row>
     <row r="1007" spans="2:5" ht="13">
-      <c r="B1007" s="11"/>
-      <c r="E1007" s="11"/>
+      <c r="B1007" s="10"/>
+      <c r="E1007" s="10"/>
     </row>
     <row r="1008" spans="2:5" ht="13">
-      <c r="B1008" s="11"/>
-      <c r="E1008" s="11"/>
+      <c r="B1008" s="10"/>
+      <c r="E1008" s="10"/>
     </row>
     <row r="1009" spans="2:5" ht="13">
-      <c r="B1009" s="11"/>
-      <c r="E1009" s="11"/>
+      <c r="B1009" s="10"/>
+      <c r="E1009" s="10"/>
     </row>
     <row r="1010" spans="2:5" ht="13">
-      <c r="B1010" s="11"/>
-      <c r="E1010" s="11"/>
+      <c r="B1010" s="10"/>
+      <c r="E1010" s="10"/>
     </row>
     <row r="1011" spans="2:5" ht="13">
-      <c r="B1011" s="11"/>
-      <c r="E1011" s="11"/>
+      <c r="B1011" s="10"/>
+      <c r="E1011" s="10"/>
     </row>
     <row r="1012" spans="2:5" ht="13">
-      <c r="B1012" s="11"/>
-      <c r="E1012" s="11"/>
+      <c r="B1012" s="10"/>
+      <c r="E1012" s="10"/>
     </row>
     <row r="1013" spans="2:5" ht="13">
-      <c r="B1013" s="11"/>
-      <c r="E1013" s="11"/>
+      <c r="B1013" s="10"/>
+      <c r="E1013" s="10"/>
     </row>
     <row r="1014" spans="2:5" ht="13">
-      <c r="B1014" s="11"/>
-      <c r="E1014" s="11"/>
+      <c r="B1014" s="10"/>
+      <c r="E1014" s="10"/>
     </row>
     <row r="1015" spans="2:5" ht="13">
-      <c r="B1015" s="11"/>
-      <c r="E1015" s="11"/>
+      <c r="B1015" s="10"/>
+      <c r="E1015" s="10"/>
     </row>
     <row r="1016" spans="2:5" ht="13">
-      <c r="B1016" s="11"/>
-      <c r="E1016" s="11"/>
+      <c r="B1016" s="10"/>
+      <c r="E1016" s="10"/>
     </row>
     <row r="1017" spans="2:5" ht="13">
-      <c r="B1017" s="11"/>
-      <c r="E1017" s="11"/>
+      <c r="B1017" s="10"/>
+      <c r="E1017" s="10"/>
     </row>
     <row r="1018" spans="2:5" ht="13">
-      <c r="B1018" s="11"/>
-      <c r="E1018" s="11"/>
+      <c r="B1018" s="10"/>
+      <c r="E1018" s="10"/>
     </row>
     <row r="1019" spans="2:5" ht="13">
-      <c r="B1019" s="11"/>
-      <c r="E1019" s="11"/>
+      <c r="B1019" s="10"/>
+      <c r="E1019" s="10"/>
     </row>
     <row r="1020" spans="2:5" ht="13">
-      <c r="B1020" s="11"/>
-      <c r="E1020" s="11"/>
+      <c r="B1020" s="10"/>
+      <c r="E1020" s="10"/>
     </row>
     <row r="1021" spans="2:5" ht="13">
-      <c r="B1021" s="11"/>
-      <c r="E1021" s="11"/>
+      <c r="B1021" s="10"/>
+      <c r="E1021" s="10"/>
     </row>
     <row r="1022" spans="2:5" ht="13">
-      <c r="B1022" s="11"/>
-      <c r="E1022" s="11"/>
+      <c r="B1022" s="10"/>
+      <c r="E1022" s="10"/>
     </row>
     <row r="1023" spans="2:5" ht="13">
-      <c r="B1023" s="11"/>
-      <c r="E1023" s="11"/>
+      <c r="B1023" s="10"/>
+      <c r="E1023" s="10"/>
     </row>
     <row r="1024" spans="2:5" ht="13">
-      <c r="B1024" s="11"/>
-      <c r="E1024" s="11"/>
+      <c r="B1024" s="10"/>
+      <c r="E1024" s="10"/>
     </row>
     <row r="1025" spans="2:5" ht="13">
-      <c r="B1025" s="11"/>
-      <c r="E1025" s="11"/>
+      <c r="B1025" s="10"/>
+      <c r="E1025" s="10"/>
     </row>
     <row r="1026" spans="2:5" ht="13">
-      <c r="B1026" s="11"/>
-      <c r="E1026" s="11"/>
+      <c r="B1026" s="10"/>
+      <c r="E1026" s="10"/>
     </row>
     <row r="1027" spans="2:5" ht="13">
-      <c r="B1027" s="11"/>
-      <c r="E1027" s="11"/>
+      <c r="B1027" s="10"/>
+      <c r="E1027" s="10"/>
     </row>
     <row r="1028" spans="2:5" ht="13">
-      <c r="B1028" s="11"/>
-      <c r="E1028" s="11"/>
+      <c r="B1028" s="10"/>
+      <c r="E1028" s="10"/>
     </row>
     <row r="1029" spans="2:5" ht="13">
-      <c r="B1029" s="11"/>
-      <c r="E1029" s="11"/>
+      <c r="B1029" s="10"/>
+      <c r="E1029" s="10"/>
     </row>
     <row r="1030" spans="2:5" ht="13">
-      <c r="B1030" s="11"/>
-      <c r="E1030" s="11"/>
+      <c r="B1030" s="10"/>
+      <c r="E1030" s="10"/>
     </row>
     <row r="1031" spans="2:5" ht="13">
-      <c r="B1031" s="11"/>
-      <c r="E1031" s="11"/>
+      <c r="B1031" s="10"/>
+      <c r="E1031" s="10"/>
     </row>
     <row r="1032" spans="2:5" ht="13">
-      <c r="B1032" s="11"/>
-      <c r="E1032" s="11"/>
+      <c r="B1032" s="10"/>
+      <c r="E1032" s="10"/>
     </row>
     <row r="1033" spans="2:5" ht="13">
-      <c r="B1033" s="11"/>
-      <c r="E1033" s="11"/>
+      <c r="B1033" s="10"/>
+      <c r="E1033" s="10"/>
     </row>
     <row r="1034" spans="2:5" ht="13">
-      <c r="B1034" s="11"/>
-      <c r="E1034" s="11"/>
+      <c r="B1034" s="10"/>
+      <c r="E1034" s="10"/>
     </row>
     <row r="1035" spans="2:5" ht="13">
-      <c r="B1035" s="11"/>
-      <c r="E1035" s="11"/>
+      <c r="B1035" s="10"/>
+      <c r="E1035" s="10"/>
     </row>
     <row r="1036" spans="2:5" ht="13">
-      <c r="B1036" s="11"/>
-      <c r="E1036" s="11"/>
+      <c r="B1036" s="10"/>
+      <c r="E1036" s="10"/>
     </row>
     <row r="1037" spans="2:5" ht="13">
-      <c r="B1037" s="11"/>
-      <c r="E1037" s="11"/>
+      <c r="B1037" s="10"/>
+      <c r="E1037" s="10"/>
     </row>
     <row r="1038" spans="2:5" ht="13">
-      <c r="B1038" s="11"/>
-      <c r="E1038" s="11"/>
+      <c r="B1038" s="10"/>
+      <c r="E1038" s="10"/>
     </row>
     <row r="1039" spans="2:5" ht="13">
-      <c r="B1039" s="11"/>
-      <c r="E1039" s="11"/>
+      <c r="B1039" s="10"/>
+      <c r="E1039" s="10"/>
     </row>
     <row r="1040" spans="2:5" ht="13">
-      <c r="B1040" s="11"/>
-      <c r="E1040" s="11"/>
+      <c r="B1040" s="10"/>
+      <c r="E1040" s="10"/>
     </row>
     <row r="1041" spans="2:5" ht="13">
-      <c r="B1041" s="11"/>
-      <c r="E1041" s="11"/>
+      <c r="B1041" s="10"/>
+      <c r="E1041" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/requirements/Requirements - conceptual mapping.xlsx
+++ b/requirements/Requirements - conceptual mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aiglesias/Documents/Conceptual-Mapping/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74857FD8-9CFC-664E-9A08-3FD68F7E7DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661DAC63-D581-0542-99A9-310583943C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="94">
   <si>
     <t>Identifier</t>
   </si>
@@ -353,6 +353,9 @@
     cm:hasLanguage cm:LiteralMap .
 cm:CombinedFrame cm:combinesFrame cm:SourceFrame, cm:CombinedFrame .
 cm:SourceFrame cm:hasDataSource cm:DataSource .</t>
+  </si>
+  <si>
+    <t>cm:DataSource cm:encoding xsd:string .</t>
   </si>
 </sst>
 </file>
@@ -754,8 +757,8 @@
   <dimension ref="A1:D1041"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -854,6 +857,9 @@
       <c r="B7" s="13" t="s">
         <v>28</v>
       </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
       <c r="D7" s="10" t="s">
         <v>10</v>
       </c>

--- a/requirements/Requirements - conceptual mapping.xlsx
+++ b/requirements/Requirements - conceptual mapping.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aiglesias/Documents/Conceptual-Mapping/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661DAC63-D581-0542-99A9-310583943C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9006F0-7601-B94D-A793-DB6242A7868F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="500" windowWidth="26940" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
+    <sheet name="Themis" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="125">
   <si>
     <t>Identifier</t>
   </si>
@@ -121,9 +122,6 @@
     <t>A data source can specify the encoding</t>
   </si>
   <si>
-    <t>A source frame describes exacly one data source</t>
-  </si>
-  <si>
     <t>A mapping specifies statement maps to declare the transformation of frames into RDF triples</t>
   </si>
   <si>
@@ -143,12 +141,6 @@
   </si>
   <si>
     <t>A named graph can only be expressed as an IRI or blank node</t>
-  </si>
-  <si>
-    <t>A datatype tag can only be expressed as an IRI</t>
-  </si>
-  <si>
-    <t>A language tag can only be expressed as a Literal</t>
   </si>
   <si>
     <t>A statement map can describe constant and dynamic subjects, predicates, objects</t>
@@ -247,11 +239,6 @@
   </si>
   <si>
     <t>cm:DataAccessService dcat:servesDataset dcat:Dataset .</t>
-  </si>
-  <si>
-    <t>cm:StatementMap cm:hasFrame cm:CombinedFrame .
-cm:CombinedFrame cm:combinesFrame cm:SourceFrame, cm:CombinedFrame .
-cm:SourceFrame cm:hasDataSource cm:DataSource .</t>
   </si>
   <si>
     <t>cm:DataAccessService cm:hasProtocol skos:Concept . *</t>
@@ -281,12 +268,6 @@
     <t>cm:StatementMap cm:hasPredicate cm:ReferenceNodeMap .</t>
   </si>
   <si>
-    <t>cm:StatementMap cm:hasDatatype cm:ReferenceNodeMap .</t>
-  </si>
-  <si>
-    <t>cm:StatementMap cm:hasLanguage cm:LiteralMap .</t>
-  </si>
-  <si>
     <t>cm:StatementMap cm:hasSubject cm:NodeMap ;
     cm:hasPredicate cm:ReferenceNodeMap ;
     cm:hasObject cm:ResourceMap .
@@ -325,11 +306,6 @@
 (cm:Constant cm:DataField) rdfs:subClassOf cm:EvaluableExpression. *</t>
   </si>
   <si>
-    <t>cm:ConditionalStatementMap rdfs:subClassOf cm:StatementMap ;
-    cm:hasBooleanCondition cm:FunctionExpression .
-cm:FunctionExpression hasFunctionName skos:Concept .</t>
-  </si>
-  <si>
     <t>cm:ResourceMap cm:hasEvaluableExpression cm:FunctionExpression .
 cm:FunctionExpression cm:hasInput cm:ExpressionList .
 cm:ExpressionList rdfs:first cm:FunctionExpression ;
@@ -340,12 +316,6 @@
   </si>
   <si>
     <t>Comparison framework analysis and Mapping challenges - C3, C4 (KGC-WG)</t>
-  </si>
-  <si>
-    <t>cm:StatementMap cm:hasFrame cm:CombinedFrame ;
-    cm:hasObject cm:ResourceMap .
-cm:CombinedFrame cm:combinesFrame cm:SourceFrame, cm:CombinedFrame .
-cm:SourceFrame cm:hasDataSource cm:DataSource .</t>
   </si>
   <si>
     <t>cm:StatementMap cm:hasFrame cm:CombinedFrame ;
@@ -356,6 +326,200 @@
   </si>
   <si>
     <t>cm:DataSource cm:encoding xsd:string .</t>
+  </si>
+  <si>
+    <t>Themis test</t>
+  </si>
+  <si>
+    <t>SynchronousSource subclassof DataSource ;
+AsynchronousSource subclassof DataSource ;
+StreamSource subclassof DataSource ;</t>
+  </si>
+  <si>
+    <t>DataAccessService SubClassOf hasProtocol max 1 Concept ;</t>
+  </si>
+  <si>
+    <t>encoding domain DataSource ;</t>
+  </si>
+  <si>
+    <t>DataSource mediaType MediaType ;</t>
+  </si>
+  <si>
+    <t>DataAccessService hasSecurityScheme SecurityScheme ;</t>
+  </si>
+  <si>
+    <t>DataSource accessService DataAccessService ;</t>
+  </si>
+  <si>
+    <t>DataService servesDataset Dataset ;</t>
+  </si>
+  <si>
+    <t>StatementMap hasFrame CombinedFrame ;
+CombinedFrame SubClassOf combinesFrame exactly 2 Frame ;
+SourceFrame SubClassOf Frame ;
+SourceFrame hasDataSource DataSource ;
+SourceFrame hasNestedFrame SourceFrame ;</t>
+  </si>
+  <si>
+    <t>cm:StatementMap cm:hasFrame cm:CombinedFrame .
+cm:CombinedFrame cm:combinesFrame cm:SourceFrame, cm:CombinedFrame .
+cm:SourceFrame cm:hasDataSource cm:DataSource ;
+    cm:hasNestedFrame cm:SourceFrame .</t>
+  </si>
+  <si>
+    <t>A source frame describes exactly one data source</t>
+  </si>
+  <si>
+    <t>SourceFrame SubClassOf hasDataSource exactly 1 DataSource ;</t>
+  </si>
+  <si>
+    <t>StatementMap hasSubject NodeMap ;
+StatementMap hasPredicate ReferenceNodeMap ;
+StatementMap hasObject ResourceMap ;
+ReferenceNodeMap SubClassOf NodeMap ;
+NodeMap SubClassOf ResourceMap ;
+ResourceMap hasEvaluableExpression EvaluableExpression ;
+Constant SubClassOf EvaluableExpression ;
+DataField SubClassOf EvaluableExpression ;</t>
+  </si>
+  <si>
+    <t>StatementMap SubClassOf hasSubject exactly 1 NodeMap ;
+StatementMap SubClassOf hasPredicate exactly 1 ReferenceNodeMap ;
+StatementMap SubClassOf hasObject exactly 1 ResourceMap ;
+StatementMap SubClassOf hasNamedGraph max 1 NodeMap ;
+StatementMap SubClassOf hasDataType max 1 ReferenceNodeMap ;
+StatementMap SubClassOf hasLanguage max 1 LiteralMap ;</t>
+  </si>
+  <si>
+    <t>StatementMap SubClassOf hasNamedGraph max 1 NodeMap ;
+StatementMap SubClassOf hasDataType max 1 ReferenceNodeMap ;
+StatementMap SubClassOf hasLanguage max 1 LiteralMap ;
+ReferenceNodeMap SubClassOf NodeMap ;
+NodeMap SubClassOf ResourceMap ;
+LiteralMap SubClassOf ResourceMap ;
+ResourceMap hasEvaluableExpression EvaluableExpression ;
+Constant SubClassOf EvaluableExpression ;
+DataField SubClassOf EvaluableExpression ;</t>
+  </si>
+  <si>
+    <t>cm:StatementMap cm:hasFrame cm:CombinedFrame .
+cm:ResourceMap cm:hasEvaluableExpression cm:FunctionExpression .
+cm:FunctionExpression cm:hasInput cm:ExpressionList .
+cm:ExpressionList rdfs:first cm:DataField .
+cm:DataField cm:belongsToFrame cm:SourceFrame .
+cm:CombinedFrame cm:combinesFrame cm:SourceFrame .</t>
+  </si>
+  <si>
+    <t>StatementMap hasFrame CombinedFrame ;
+ResourceMap hasEvaluableExpression FunctionExpression ;
+FunctionExpression hasInput ExpressionList ;
+ExpressionList first DataField ;
+DataField belongsToFrame SourceFrame ;
+CombinedFrame combinesFrame SourceFrame ;</t>
+  </si>
+  <si>
+    <t>StatementMap hasFrame CombinedFrame ;
+ResourceMap hasEvaluableExpression FunctionExpression ;
+FunctionExpression hasInput ExpressionList ;
+ExpressionList first DataField ;
+DataField belongsToFrame SourceFrame ;
+SourceFrame hasNestedFrame SourceFrame ;</t>
+  </si>
+  <si>
+    <t>ResourceMap hasEvaluableExpression FunctionExpression ; 
+FunctionExpression hasFunctionName Concept ;</t>
+  </si>
+  <si>
+    <t>StatementMap SubClassOf hasSubject only NodeMap ;
+ReferenceNodeMap SubClassOf NodeMap ;
+BlankNodeMap SubClassOf NodeMap ;</t>
+  </si>
+  <si>
+    <t>StatementMap SubClassOf hasPredicate only ReferenceNodeMap ;</t>
+  </si>
+  <si>
+    <t>StatementMap SubClassOf hasObject only ResourceMap ;
+ReferenceNodeMap SubClassOf NodeMap ;
+BlankNodeMap SubClassOf NodeMap ;
+NodeMap SubClassOf ResourceMap ;
+LiteralMap SubClassOf ResourceMap ;
+LiteralMap SubClassOf ResourceMap ;
+ContainerMap SubClassOf ResourceMap ;</t>
+  </si>
+  <si>
+    <t>StatementMap SubClassOf hasNamedGraph only NodeMap ;
+ReferenceNodeMap SubClassOf NodeMap ;
+BlankNodeMap SubClassOf NodeMap ;</t>
+  </si>
+  <si>
+    <t>StatementMap hasDataType ListMap ;
+StatementMap hasDataType ReferenceNodeMap ;</t>
+  </si>
+  <si>
+    <t>StatementMap hasLanguage ListMap ;
+StatementMap hasLanguage LiteralMap ;</t>
+  </si>
+  <si>
+    <t>A datatype tag can only be expressed as an IRI or a List</t>
+  </si>
+  <si>
+    <t>A language tag can only be expressed as a Literal or a List</t>
+  </si>
+  <si>
+    <t>cm:StatementMap cm:hasDatatype cm:ReferenceNodeMap, cm:ListMap .</t>
+  </si>
+  <si>
+    <t>cm:StatementMap cm:hasLanguage cm:LiteralMap, cm:ListMap .</t>
+  </si>
+  <si>
+    <t>ConditionalStatementMap SubClassOf StatementMap ;
+ConditionalStatementMap hasBooleanCondition FunctionExpression ;</t>
+  </si>
+  <si>
+    <t>LinkingMap source StatementMap ;
+LinkingMap target StatementMap ;
+LinkingMap hasBooleanCondition FunctionExpression ;</t>
+  </si>
+  <si>
+    <t>cm:LinkingMap cm:hasBooleanCondition cm:FunctionExpression .
+cm:FunctionExpression hasFunctionName skos:Concept .</t>
+  </si>
+  <si>
+    <t>LinkingMap hasBooleanCondition FunctionExpression ;
+FunctionExpression hasFunctionName Concept ;</t>
+  </si>
+  <si>
+    <t>ResourceMap hasEvaluableExpression FunctionExpression ;
+FunctionExpression hasInput ExpressionList ;
+ExpressionList first FunctionExpression ;
+ExpressionList rest ExpressionList ;</t>
+  </si>
+  <si>
+    <t>SourceFrame hasNestedFrame SourceFrame ;</t>
+  </si>
+  <si>
+    <t>cm:SourceFrame cm:hasNestedFrame cm:SourceFrame .</t>
+  </si>
+  <si>
+    <t>cm:StatementMap cm:hasFrame cm:CombinedFrame ;
+    cm:hasObject cm:LiteralMap .
+cm:CombinedFrame cm:combinesFrame cm:SourceFrame, cm:CombinedFrame .
+cm:SourceFrame cm:hasDataSource cm:DataSource .</t>
+  </si>
+  <si>
+    <t>StatementMap hasObject LiteralMap ;
+StatementMap hasFrame CombinedFrame ;
+CombinedFrame combinesFrame SourceFrame ;
+CombinedFrame combinesFrame CombinedFrame ;
+SourceFrame hasDataSource DataSource ;</t>
+  </si>
+  <si>
+    <t>StatementMap hasDataType LiteralMap ;
+StatementMap hasLanguage LiteralMap ;
+StatementMap hasFrame CombinedFrame ;
+CombinedFrame combinesFrame SourceFrame ;
+CombinedFrame combinesFrame CombinedFrame ;
+SourceFrame hasDataSource DataSource ;</t>
   </si>
 </sst>
 </file>
@@ -429,7 +593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -470,6 +634,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -756,9 +923,9 @@
   </sheetPr>
   <dimension ref="A1:D1041"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -777,10 +944,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="42">
@@ -791,7 +958,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>10</v>
@@ -802,10 +969,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>10</v>
@@ -816,10 +983,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14">
@@ -830,7 +997,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>10</v>
@@ -844,7 +1011,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>10</v>
@@ -858,21 +1025,21 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="29" customHeight="1">
+    <row r="8" spans="1:4" ht="28">
       <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>10</v>
@@ -883,80 +1050,80 @@
         <v>9</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="56">
+    <row r="10" spans="1:4" ht="70">
       <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14">
+    <row r="11" spans="1:4" ht="28">
       <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="83" customHeight="1">
+    <row r="12" spans="1:4" ht="84">
       <c r="A12" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="81" customHeight="1">
+    <row r="13" spans="1:4" ht="84">
       <c r="A13" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="55" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="84">
       <c r="A14" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>10</v>
@@ -967,13 +1134,13 @@
         <v>16</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="28">
@@ -981,24 +1148,24 @@
         <v>17</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1">
+    <row r="17" spans="1:4" ht="28">
       <c r="A17" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>10</v>
@@ -1009,10 +1176,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>10</v>
@@ -1023,13 +1190,13 @@
         <v>20</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="28">
@@ -1037,38 +1204,38 @@
         <v>21</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14">
+    <row r="21" spans="1:4" ht="28">
       <c r="A21" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
+    <row r="22" spans="1:4" ht="28">
       <c r="A22" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>10</v>
@@ -1079,38 +1246,38 @@
         <v>24</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="44" customHeight="1">
+    <row r="24" spans="1:4" ht="42">
       <c r="A24" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="42">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28">
       <c r="A25" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>10</v>
@@ -1118,58 +1285,58 @@
     </row>
     <row r="26" spans="1:4" ht="56">
       <c r="A26" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="56">
+    <row r="27" spans="1:4" ht="28">
       <c r="A27" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="70">
       <c r="A28" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="84">
       <c r="A29" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="13"/>
@@ -5238,4 +5405,364 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A5B698-06C0-3B4E-8685-AE411587CE5F}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="53" customWidth="1"/>
+    <col min="4" max="4" width="57.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="42">
+      <c r="A2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" ht="42">
+      <c r="A3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28">
+      <c r="A4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28">
+      <c r="A5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="42">
+      <c r="A6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:4" ht="28">
+      <c r="A7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="42">
+      <c r="A8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="168">
+      <c r="A9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" ht="84">
+      <c r="A10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" ht="28">
+      <c r="A11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="126">
+      <c r="A12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" ht="182">
+      <c r="A13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4" ht="98">
+      <c r="A14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:4" ht="98">
+      <c r="A15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4" ht="42">
+      <c r="A16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4" ht="56">
+      <c r="A17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" ht="28">
+      <c r="A18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="112">
+      <c r="A19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" ht="56">
+      <c r="A20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" ht="28">
+      <c r="A21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="28">
+      <c r="A22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4" ht="56">
+      <c r="A23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4" ht="56">
+      <c r="A24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:4" ht="42">
+      <c r="A25" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:4" ht="70">
+      <c r="A26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:4" ht="28">
+      <c r="A27" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:4" ht="70">
+      <c r="A28" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:4" ht="84">
+      <c r="A29" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/requirements/Requirements - conceptual mapping.xlsx
+++ b/requirements/Requirements - conceptual mapping.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aiglesias/Documents/Conceptual-Mapping/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9006F0-7601-B94D-A793-DB6242A7868F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A62B74-0BE3-7946-9B4C-ECAFF4A01DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="500" windowWidth="26940" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="500" windowWidth="26940" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
-    <sheet name="Themis" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="96">
   <si>
     <t>Identifier</t>
   </si>
@@ -328,39 +327,6 @@
     <t>cm:DataSource cm:encoding xsd:string .</t>
   </si>
   <si>
-    <t>Themis test</t>
-  </si>
-  <si>
-    <t>SynchronousSource subclassof DataSource ;
-AsynchronousSource subclassof DataSource ;
-StreamSource subclassof DataSource ;</t>
-  </si>
-  <si>
-    <t>DataAccessService SubClassOf hasProtocol max 1 Concept ;</t>
-  </si>
-  <si>
-    <t>encoding domain DataSource ;</t>
-  </si>
-  <si>
-    <t>DataSource mediaType MediaType ;</t>
-  </si>
-  <si>
-    <t>DataAccessService hasSecurityScheme SecurityScheme ;</t>
-  </si>
-  <si>
-    <t>DataSource accessService DataAccessService ;</t>
-  </si>
-  <si>
-    <t>DataService servesDataset Dataset ;</t>
-  </si>
-  <si>
-    <t>StatementMap hasFrame CombinedFrame ;
-CombinedFrame SubClassOf combinesFrame exactly 2 Frame ;
-SourceFrame SubClassOf Frame ;
-SourceFrame hasDataSource DataSource ;
-SourceFrame hasNestedFrame SourceFrame ;</t>
-  </si>
-  <si>
     <t>cm:StatementMap cm:hasFrame cm:CombinedFrame .
 cm:CombinedFrame cm:combinesFrame cm:SourceFrame, cm:CombinedFrame .
 cm:SourceFrame cm:hasDataSource cm:DataSource ;
@@ -368,38 +334,6 @@
   </si>
   <si>
     <t>A source frame describes exactly one data source</t>
-  </si>
-  <si>
-    <t>SourceFrame SubClassOf hasDataSource exactly 1 DataSource ;</t>
-  </si>
-  <si>
-    <t>StatementMap hasSubject NodeMap ;
-StatementMap hasPredicate ReferenceNodeMap ;
-StatementMap hasObject ResourceMap ;
-ReferenceNodeMap SubClassOf NodeMap ;
-NodeMap SubClassOf ResourceMap ;
-ResourceMap hasEvaluableExpression EvaluableExpression ;
-Constant SubClassOf EvaluableExpression ;
-DataField SubClassOf EvaluableExpression ;</t>
-  </si>
-  <si>
-    <t>StatementMap SubClassOf hasSubject exactly 1 NodeMap ;
-StatementMap SubClassOf hasPredicate exactly 1 ReferenceNodeMap ;
-StatementMap SubClassOf hasObject exactly 1 ResourceMap ;
-StatementMap SubClassOf hasNamedGraph max 1 NodeMap ;
-StatementMap SubClassOf hasDataType max 1 ReferenceNodeMap ;
-StatementMap SubClassOf hasLanguage max 1 LiteralMap ;</t>
-  </si>
-  <si>
-    <t>StatementMap SubClassOf hasNamedGraph max 1 NodeMap ;
-StatementMap SubClassOf hasDataType max 1 ReferenceNodeMap ;
-StatementMap SubClassOf hasLanguage max 1 LiteralMap ;
-ReferenceNodeMap SubClassOf NodeMap ;
-NodeMap SubClassOf ResourceMap ;
-LiteralMap SubClassOf ResourceMap ;
-ResourceMap hasEvaluableExpression EvaluableExpression ;
-Constant SubClassOf EvaluableExpression ;
-DataField SubClassOf EvaluableExpression ;</t>
   </si>
   <si>
     <t>cm:StatementMap cm:hasFrame cm:CombinedFrame .
@@ -410,56 +344,6 @@
 cm:CombinedFrame cm:combinesFrame cm:SourceFrame .</t>
   </si>
   <si>
-    <t>StatementMap hasFrame CombinedFrame ;
-ResourceMap hasEvaluableExpression FunctionExpression ;
-FunctionExpression hasInput ExpressionList ;
-ExpressionList first DataField ;
-DataField belongsToFrame SourceFrame ;
-CombinedFrame combinesFrame SourceFrame ;</t>
-  </si>
-  <si>
-    <t>StatementMap hasFrame CombinedFrame ;
-ResourceMap hasEvaluableExpression FunctionExpression ;
-FunctionExpression hasInput ExpressionList ;
-ExpressionList first DataField ;
-DataField belongsToFrame SourceFrame ;
-SourceFrame hasNestedFrame SourceFrame ;</t>
-  </si>
-  <si>
-    <t>ResourceMap hasEvaluableExpression FunctionExpression ; 
-FunctionExpression hasFunctionName Concept ;</t>
-  </si>
-  <si>
-    <t>StatementMap SubClassOf hasSubject only NodeMap ;
-ReferenceNodeMap SubClassOf NodeMap ;
-BlankNodeMap SubClassOf NodeMap ;</t>
-  </si>
-  <si>
-    <t>StatementMap SubClassOf hasPredicate only ReferenceNodeMap ;</t>
-  </si>
-  <si>
-    <t>StatementMap SubClassOf hasObject only ResourceMap ;
-ReferenceNodeMap SubClassOf NodeMap ;
-BlankNodeMap SubClassOf NodeMap ;
-NodeMap SubClassOf ResourceMap ;
-LiteralMap SubClassOf ResourceMap ;
-LiteralMap SubClassOf ResourceMap ;
-ContainerMap SubClassOf ResourceMap ;</t>
-  </si>
-  <si>
-    <t>StatementMap SubClassOf hasNamedGraph only NodeMap ;
-ReferenceNodeMap SubClassOf NodeMap ;
-BlankNodeMap SubClassOf NodeMap ;</t>
-  </si>
-  <si>
-    <t>StatementMap hasDataType ListMap ;
-StatementMap hasDataType ReferenceNodeMap ;</t>
-  </si>
-  <si>
-    <t>StatementMap hasLanguage ListMap ;
-StatementMap hasLanguage LiteralMap ;</t>
-  </si>
-  <si>
     <t>A datatype tag can only be expressed as an IRI or a List</t>
   </si>
   <si>
@@ -470,32 +354,10 @@
   </si>
   <si>
     <t>cm:StatementMap cm:hasLanguage cm:LiteralMap, cm:ListMap .</t>
-  </si>
-  <si>
-    <t>ConditionalStatementMap SubClassOf StatementMap ;
-ConditionalStatementMap hasBooleanCondition FunctionExpression ;</t>
-  </si>
-  <si>
-    <t>LinkingMap source StatementMap ;
-LinkingMap target StatementMap ;
-LinkingMap hasBooleanCondition FunctionExpression ;</t>
   </si>
   <si>
     <t>cm:LinkingMap cm:hasBooleanCondition cm:FunctionExpression .
 cm:FunctionExpression hasFunctionName skos:Concept .</t>
-  </si>
-  <si>
-    <t>LinkingMap hasBooleanCondition FunctionExpression ;
-FunctionExpression hasFunctionName Concept ;</t>
-  </si>
-  <si>
-    <t>ResourceMap hasEvaluableExpression FunctionExpression ;
-FunctionExpression hasInput ExpressionList ;
-ExpressionList first FunctionExpression ;
-ExpressionList rest ExpressionList ;</t>
-  </si>
-  <si>
-    <t>SourceFrame hasNestedFrame SourceFrame ;</t>
   </si>
   <si>
     <t>cm:SourceFrame cm:hasNestedFrame cm:SourceFrame .</t>
@@ -505,21 +367,6 @@
     cm:hasObject cm:LiteralMap .
 cm:CombinedFrame cm:combinesFrame cm:SourceFrame, cm:CombinedFrame .
 cm:SourceFrame cm:hasDataSource cm:DataSource .</t>
-  </si>
-  <si>
-    <t>StatementMap hasObject LiteralMap ;
-StatementMap hasFrame CombinedFrame ;
-CombinedFrame combinesFrame SourceFrame ;
-CombinedFrame combinesFrame CombinedFrame ;
-SourceFrame hasDataSource DataSource ;</t>
-  </si>
-  <si>
-    <t>StatementMap hasDataType LiteralMap ;
-StatementMap hasLanguage LiteralMap ;
-StatementMap hasFrame CombinedFrame ;
-CombinedFrame combinesFrame SourceFrame ;
-CombinedFrame combinesFrame CombinedFrame ;
-SourceFrame hasDataSource DataSource ;</t>
   </si>
 </sst>
 </file>
@@ -593,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -634,9 +481,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,7 +767,7 @@
   </sheetPr>
   <dimension ref="A1:D1041"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
@@ -1067,7 +911,7 @@
         <v>55</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>10</v>
@@ -1078,7 +922,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
         <v>69</v>
@@ -1123,7 +967,7 @@
         <v>56</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>10</v>
@@ -1218,10 +1062,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>10</v>
@@ -1232,10 +1076,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>10</v>
@@ -1277,7 +1121,7 @@
         <v>46</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>10</v>
@@ -1305,7 +1149,7 @@
         <v>48</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>49</v>
@@ -1319,7 +1163,7 @@
         <v>59</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>50</v>
@@ -5405,364 +5249,4 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A5B698-06C0-3B4E-8685-AE411587CE5F}">
-  <dimension ref="A1:D29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="57.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="42">
-      <c r="A2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="1:4" ht="42">
-      <c r="A3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28">
-      <c r="A4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28">
-      <c r="A5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="42">
-      <c r="A6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="1:4" ht="28">
-      <c r="A7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="42">
-      <c r="A8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="168">
-      <c r="A9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:4" ht="84">
-      <c r="A10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" ht="28">
-      <c r="A11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="126">
-      <c r="A12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="13" spans="1:4" ht="182">
-      <c r="A13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="1:4" ht="98">
-      <c r="A14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15" spans="1:4" ht="98">
-      <c r="A15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" spans="1:4" ht="42">
-      <c r="A16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" spans="1:4" ht="56">
-      <c r="A17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="1:4" ht="28">
-      <c r="A18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="112">
-      <c r="A19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20" spans="1:4" ht="56">
-      <c r="A20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21" spans="1:4" ht="28">
-      <c r="A21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="28">
-      <c r="A22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="14"/>
-    </row>
-    <row r="23" spans="1:4" ht="56">
-      <c r="A23" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="1:4" ht="56">
-      <c r="A24" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="14"/>
-    </row>
-    <row r="25" spans="1:4" ht="42">
-      <c r="A25" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="14"/>
-    </row>
-    <row r="26" spans="1:4" ht="70">
-      <c r="A26" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" s="14"/>
-    </row>
-    <row r="27" spans="1:4" ht="28">
-      <c r="A27" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:4" ht="70">
-      <c r="A28" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="1:4" ht="84">
-      <c r="A29" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/requirements/Requirements - conceptual mapping.xlsx
+++ b/requirements/Requirements - conceptual mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aiglesias/Documents/Conceptual-Mapping/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A62B74-0BE3-7946-9B4C-ECAFF4A01DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39706953-C8E6-6448-AC34-C794BDF71722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="26940" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,9 +196,6 @@
     <t>A data source can describe data in different formats specifying its Media Type</t>
   </si>
   <si>
-    <t>A mapping can include metadata on the dataset and/or data source</t>
-  </si>
-  <si>
     <t>Multiple data sources can be described with combined frames and nested frames</t>
   </si>
   <si>
@@ -235,9 +232,6 @@
   </si>
   <si>
     <t>cm:DataAccessService cm:hasSecurityScheme wot:SecurityScheme .</t>
-  </si>
-  <si>
-    <t>cm:DataAccessService dcat:servesDataset dcat:Dataset .</t>
   </si>
   <si>
     <t>cm:DataAccessService cm:hasProtocol skos:Concept . *</t>
@@ -367,6 +361,14 @@
     cm:hasObject cm:LiteralMap .
 cm:CombinedFrame cm:combinesFrame cm:SourceFrame, cm:CombinedFrame .
 cm:SourceFrame cm:hasDataSource cm:DataSource .</t>
+  </si>
+  <si>
+    <t>A mapping can describe data sources and their access</t>
+  </si>
+  <si>
+    <t>cm:StatementMap cm:hasFrame cm:SourceFrame .
+cm:SourceFrame cm:hasDataSource cm:Data Source .
+cm:DataSource dcat:accessService cm:DataAccessService .</t>
   </si>
 </sst>
 </file>
@@ -769,7 +771,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -788,10 +790,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="42">
@@ -802,7 +804,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>10</v>
@@ -816,7 +818,7 @@
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>10</v>
@@ -830,7 +832,7 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14">
@@ -841,7 +843,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>10</v>
@@ -855,7 +857,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>10</v>
@@ -869,21 +871,21 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28">
+    <row r="8" spans="1:4" ht="42">
       <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" t="s">
-        <v>67</v>
+        <v>94</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>10</v>
@@ -897,7 +899,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>10</v>
@@ -908,10 +910,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>10</v>
@@ -922,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>10</v>
@@ -939,7 +941,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>10</v>
@@ -953,10 +955,10 @@
         <v>37</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="84">
@@ -964,10 +966,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>10</v>
@@ -981,10 +983,10 @@
         <v>30</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="28">
@@ -995,7 +997,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>10</v>
@@ -1009,7 +1011,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>10</v>
@@ -1023,7 +1025,7 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>10</v>
@@ -1037,10 +1039,10 @@
         <v>34</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="28">
@@ -1051,7 +1053,7 @@
         <v>35</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>10</v>
@@ -1062,10 +1064,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
         <v>89</v>
-      </c>
-      <c r="C21" t="s">
-        <v>91</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>10</v>
@@ -1076,10 +1078,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>92</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>10</v>
@@ -1093,7 +1095,7 @@
         <v>38</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>10</v>
@@ -1107,10 +1109,10 @@
         <v>45</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="28">
@@ -1121,7 +1123,7 @@
         <v>46</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>10</v>
@@ -1135,7 +1137,7 @@
         <v>47</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>10</v>
@@ -1149,7 +1151,7 @@
         <v>48</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>49</v>
@@ -1160,10 +1162,10 @@
         <v>43</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>50</v>
@@ -1174,10 +1176,10 @@
         <v>44</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>51</v>
